--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEE35F0-4080-4DDB-BBB2-2615AE5BE090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.5.認証・認可" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="193">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -1511,9 +1523,6 @@
     <t>管理者認証情報取込（バッチ処理）により取り込まれた認証情報を利用する。</t>
   </si>
   <si>
-    <t>アカウントのロックは行わない。</t>
-  </si>
-  <si>
     <t>本処理は認証ユーティリティを通じて行うものとする。</t>
   </si>
   <si>
@@ -1673,22 +1682,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者ユーザが管理者サイトを利用するにあたり、認証情報がシングルサインオン用サイトより連携されたものになるため、</t>
-    <rPh sb="14" eb="16">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>保守会社ユーザ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1938,13 +1931,17 @@
   </si>
   <si>
     <t>保守会社ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ユーザの認証処理はシングルサインオン用サイトにて行われるため、本システムではアカウントのロックを行わない。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -2335,6 +2332,168 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2355,182 +2514,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2553,7 +2553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2608,7 +2614,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2663,7 +2675,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2718,7 +2736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2773,7 +2797,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2828,7 +2858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2872,18 +2908,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2927,18 +2969,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2982,18 +3030,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3037,18 +3091,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3092,7 +3152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3134,7 +3194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3167,9 +3227,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3202,6 +3279,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3377,11 +3471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI772"/>
+  <dimension ref="A1:AI770"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3397,43 +3491,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="88"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="82"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="46"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3442,43 +3536,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="97"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="82"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="46"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3487,39 +3581,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="64"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="82"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="46"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3662,12 +3756,12 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="33" t="s">
         <v>25</v>
       </c>
@@ -3796,12 +3890,12 @@
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="39" t="s">
         <v>24</v>
       </c>
@@ -4426,7 +4520,7 @@
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4444,13 +4538,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4459,7 +4553,7 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>157</v>
@@ -4468,7 +4562,7 @@
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4483,16 +4577,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4507,7 +4601,7 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4537,7 +4631,7 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4549,7 +4643,7 @@
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4661,7 +4755,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4730,71 +4824,68 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F171" s="15"/>
-      <c r="J171" s="4" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="172" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F172" s="15"/>
+      <c r="G172" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
+      <c r="H173" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
-      <c r="G174" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="H174" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F175" s="15"/>
-      <c r="H175" s="4" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="176" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="15"/>
-      <c r="H176" s="4" t="s">
-        <v>178</v>
+      <c r="H176" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
+      <c r="I177" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
-      <c r="H178" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="I178" s="4" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F180" s="15"/>
-      <c r="I180" s="4" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="181" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F181" s="15"/>
-      <c r="I181" s="4" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="182" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F182" s="15"/>
@@ -4828,48 +4919,48 @@
     </row>
     <row r="192" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="15"/>
+      <c r="H192" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="193" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="15"/>
+      <c r="I193" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="194" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F194" s="15"/>
-      <c r="H194" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="195" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F195" s="15"/>
-      <c r="I195" s="22" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="196" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F196" s="15"/>
     </row>
     <row r="197" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="15"/>
+      <c r="H197" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
+      <c r="I198" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F199" s="15"/>
-      <c r="H199" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="200" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F200" s="15"/>
-      <c r="I200" s="4" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="201" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F201" s="15"/>
@@ -4895,284 +4986,340 @@
     <row r="208" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F208" s="15"/>
     </row>
-    <row r="209" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F209" s="15"/>
     </row>
-    <row r="210" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F210" s="15"/>
     </row>
-    <row r="211" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F211" s="15"/>
     </row>
-    <row r="212" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F212" s="15"/>
     </row>
-    <row r="213" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F213" s="15"/>
     </row>
-    <row r="214" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F214" s="15"/>
     </row>
-    <row r="215" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F215" s="15"/>
     </row>
-    <row r="216" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F216" s="15"/>
     </row>
-    <row r="217" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F217" s="15"/>
     </row>
-    <row r="218" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F218" s="15"/>
     </row>
-    <row r="219" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F219" s="15"/>
     </row>
-    <row r="220" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F220" s="15"/>
     </row>
-    <row r="221" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F221" s="15"/>
     </row>
-    <row r="222" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F222" s="15"/>
     </row>
-    <row r="223" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="15"/>
-    </row>
-    <row r="224" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H223" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="15"/>
-    </row>
-    <row r="225" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I224" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F225" s="15"/>
-      <c r="H225" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="226" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J225" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="226" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F226" s="15"/>
-      <c r="I226" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="J226" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="227" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F227" s="15"/>
       <c r="J227" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="228" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F228" s="15"/>
-      <c r="J228" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="229" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="15"/>
+      <c r="I229" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="J229" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="230" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
-    </row>
-    <row r="231" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J230" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F231" s="15"/>
-      <c r="I231" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="J231" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="232" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F232" s="15"/>
-      <c r="J232" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="233" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F233" s="15"/>
-      <c r="J233" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="234" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F234" s="15"/>
-    </row>
-    <row r="235" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F235" s="15"/>
-    </row>
-    <row r="236" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D236" s="15" t="str">
+    </row>
+    <row r="234" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D234" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.5.2.</v>
       </c>
-      <c r="E236" s="4" t="s">
+      <c r="E234" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D235" s="15"/>
+      <c r="E235" s="15" t="str">
+        <f>$D$234&amp;"1."</f>
+        <v>7.5.2.1.</v>
+      </c>
+      <c r="F235" s="4" t="str">
+        <f>$E$234&amp;"機能概要"</f>
+        <v>認可機能概要</v>
+      </c>
+    </row>
+    <row r="236" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D236" s="15"/>
+      <c r="F236" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D237" s="15"/>
-      <c r="E237" s="15" t="str">
-        <f>$D$236&amp;"1."</f>
-        <v>7.5.2.1.</v>
-      </c>
-      <c r="F237" s="4" t="str">
-        <f>$E$236&amp;"機能概要"</f>
-        <v>認可機能概要</v>
-      </c>
-    </row>
-    <row r="238" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F237" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D238" s="15"/>
-      <c r="F238" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="239" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D239" s="15"/>
-      <c r="F239" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="240" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D240" s="15"/>
+      <c r="E239" s="15" t="str">
+        <f>$D$234&amp;"2."</f>
+        <v>7.5.2.2.</v>
+      </c>
+      <c r="F239" s="4" t="str">
+        <f>$E$234&amp;"方法"</f>
+        <v>認可方法</v>
+      </c>
+    </row>
+    <row r="240" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+      <c r="M240" s="17"/>
+      <c r="N240" s="17"/>
+      <c r="O240" s="17"/>
+      <c r="P240" s="17"/>
+      <c r="Q240" s="17"/>
+      <c r="R240" s="17"/>
+      <c r="S240" s="17"/>
+      <c r="T240" s="17"/>
+      <c r="U240" s="17"/>
+      <c r="V240" s="17"/>
+      <c r="W240" s="17"/>
+      <c r="X240" s="17"/>
+      <c r="Y240" s="17"/>
+      <c r="Z240" s="17"/>
+      <c r="AA240" s="17"/>
+      <c r="AB240" s="17"/>
+      <c r="AC240" s="17"/>
+      <c r="AD240" s="17"/>
+      <c r="AE240" s="17"/>
+      <c r="AF240" s="17"/>
+      <c r="AG240" s="17"/>
+      <c r="AH240" s="17"/>
     </row>
     <row r="241" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D241" s="15"/>
-      <c r="E241" s="15" t="str">
-        <f>$D$236&amp;"2."</f>
-        <v>7.5.2.2.</v>
-      </c>
-      <c r="F241" s="4" t="str">
-        <f>$E$236&amp;"方法"</f>
-        <v>認可方法</v>
-      </c>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+      <c r="M241" s="17"/>
+      <c r="N241" s="17"/>
+      <c r="O241" s="17"/>
+      <c r="P241" s="17"/>
+      <c r="Q241" s="17"/>
+      <c r="R241" s="17"/>
+      <c r="S241" s="17"/>
+      <c r="T241" s="17"/>
+      <c r="U241" s="17"/>
+      <c r="V241" s="17"/>
+      <c r="W241" s="17"/>
+      <c r="X241" s="17"/>
+      <c r="Y241" s="17"/>
+      <c r="Z241" s="17"/>
+      <c r="AA241" s="17"/>
+      <c r="AB241" s="17"/>
+      <c r="AC241" s="17"/>
+      <c r="AD241" s="17"/>
+      <c r="AE241" s="17"/>
+      <c r="AF241" s="17"/>
+      <c r="AG241" s="17"/>
+      <c r="AH241" s="17"/>
     </row>
     <row r="242" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
-      <c r="I242" s="17"/>
-      <c r="J242" s="17"/>
-      <c r="K242" s="17"/>
-      <c r="L242" s="17"/>
-      <c r="M242" s="17"/>
-      <c r="N242" s="17"/>
-      <c r="O242" s="17"/>
-      <c r="P242" s="17"/>
-      <c r="Q242" s="17"/>
-      <c r="R242" s="17"/>
-      <c r="S242" s="17"/>
-      <c r="T242" s="17"/>
-      <c r="U242" s="17"/>
-      <c r="V242" s="17"/>
-      <c r="W242" s="17"/>
-      <c r="X242" s="17"/>
-      <c r="Y242" s="17"/>
-      <c r="Z242" s="17"/>
-      <c r="AA242" s="17"/>
-      <c r="AB242" s="17"/>
-      <c r="AC242" s="17"/>
-      <c r="AD242" s="17"/>
-      <c r="AE242" s="17"/>
-      <c r="AF242" s="17"/>
-      <c r="AG242" s="17"/>
-      <c r="AH242" s="17"/>
+      <c r="F242" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G242" s="19"/>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K242" s="19"/>
+      <c r="L242" s="19"/>
+      <c r="M242" s="19"/>
+      <c r="N242" s="19"/>
+      <c r="O242" s="19"/>
+      <c r="P242" s="20"/>
+      <c r="Q242" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R242" s="19"/>
+      <c r="S242" s="19"/>
+      <c r="T242" s="19"/>
+      <c r="U242" s="19"/>
+      <c r="V242" s="19"/>
+      <c r="W242" s="19"/>
+      <c r="X242" s="19"/>
+      <c r="Y242" s="19"/>
+      <c r="Z242" s="19"/>
+      <c r="AA242" s="19"/>
+      <c r="AB242" s="19"/>
+      <c r="AC242" s="19"/>
+      <c r="AD242" s="19"/>
+      <c r="AE242" s="19"/>
+      <c r="AF242" s="19"/>
+      <c r="AG242" s="19"/>
+      <c r="AH242" s="20"/>
     </row>
     <row r="243" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="17"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="17"/>
-      <c r="M243" s="17"/>
-      <c r="N243" s="17"/>
-      <c r="O243" s="17"/>
-      <c r="P243" s="17"/>
-      <c r="Q243" s="17"/>
-      <c r="R243" s="17"/>
-      <c r="S243" s="17"/>
-      <c r="T243" s="17"/>
-      <c r="U243" s="17"/>
-      <c r="V243" s="17"/>
-      <c r="W243" s="17"/>
-      <c r="X243" s="17"/>
-      <c r="Y243" s="17"/>
-      <c r="Z243" s="17"/>
-      <c r="AA243" s="17"/>
-      <c r="AB243" s="17"/>
-      <c r="AC243" s="17"/>
-      <c r="AD243" s="17"/>
-      <c r="AE243" s="17"/>
-      <c r="AF243" s="17"/>
-      <c r="AG243" s="17"/>
-      <c r="AH243" s="17"/>
+      <c r="F243" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" s="33"/>
+      <c r="H243" s="33"/>
+      <c r="I243" s="33"/>
+      <c r="J243" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="K243" s="39"/>
+      <c r="L243" s="39"/>
+      <c r="M243" s="39"/>
+      <c r="N243" s="39"/>
+      <c r="O243" s="39"/>
+      <c r="P243" s="40"/>
+      <c r="Q243" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="R243" s="33"/>
+      <c r="S243" s="33"/>
+      <c r="T243" s="33"/>
+      <c r="U243" s="33"/>
+      <c r="V243" s="33"/>
+      <c r="W243" s="33"/>
+      <c r="X243" s="33"/>
+      <c r="Y243" s="33"/>
+      <c r="Z243" s="33"/>
+      <c r="AA243" s="33"/>
+      <c r="AB243" s="33"/>
+      <c r="AC243" s="33"/>
+      <c r="AD243" s="33"/>
+      <c r="AE243" s="33"/>
+      <c r="AF243" s="33"/>
+      <c r="AG243" s="33"/>
+      <c r="AH243" s="34"/>
     </row>
     <row r="244" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F244" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="K244" s="19"/>
-      <c r="L244" s="19"/>
-      <c r="M244" s="19"/>
-      <c r="N244" s="19"/>
-      <c r="O244" s="19"/>
-      <c r="P244" s="20"/>
-      <c r="Q244" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="R244" s="19"/>
-      <c r="S244" s="19"/>
-      <c r="T244" s="19"/>
-      <c r="U244" s="19"/>
-      <c r="V244" s="19"/>
-      <c r="W244" s="19"/>
-      <c r="X244" s="19"/>
-      <c r="Y244" s="19"/>
-      <c r="Z244" s="19"/>
-      <c r="AA244" s="19"/>
-      <c r="AB244" s="19"/>
-      <c r="AC244" s="19"/>
-      <c r="AD244" s="19"/>
-      <c r="AE244" s="19"/>
-      <c r="AF244" s="19"/>
-      <c r="AG244" s="19"/>
-      <c r="AH244" s="20"/>
+      <c r="F244" s="32"/>
+      <c r="G244" s="33"/>
+      <c r="H244" s="33"/>
+      <c r="I244" s="33"/>
+      <c r="J244" s="32"/>
+      <c r="K244" s="33"/>
+      <c r="L244" s="33"/>
+      <c r="M244" s="33"/>
+      <c r="N244" s="33"/>
+      <c r="O244" s="33"/>
+      <c r="P244" s="34"/>
+      <c r="Q244" s="33"/>
+      <c r="R244" s="33"/>
+      <c r="S244" s="33"/>
+      <c r="T244" s="33"/>
+      <c r="U244" s="33"/>
+      <c r="V244" s="33"/>
+      <c r="W244" s="33"/>
+      <c r="X244" s="33"/>
+      <c r="Y244" s="33"/>
+      <c r="Z244" s="33"/>
+      <c r="AA244" s="33"/>
+      <c r="AB244" s="33"/>
+      <c r="AC244" s="33"/>
+      <c r="AD244" s="33"/>
+      <c r="AE244" s="33"/>
+      <c r="AF244" s="33"/>
+      <c r="AG244" s="33"/>
+      <c r="AH244" s="34"/>
     </row>
     <row r="245" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F245" s="32" t="s">
-        <v>15</v>
-      </c>
+      <c r="F245" s="32"/>
       <c r="G245" s="33"/>
       <c r="H245" s="33"/>
       <c r="I245" s="33"/>
-      <c r="J245" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K245" s="39"/>
-      <c r="L245" s="39"/>
-      <c r="M245" s="39"/>
-      <c r="N245" s="39"/>
-      <c r="O245" s="39"/>
-      <c r="P245" s="40"/>
-      <c r="Q245" s="33" t="s">
-        <v>163</v>
-      </c>
+      <c r="J245" s="35"/>
+      <c r="K245" s="36"/>
+      <c r="L245" s="36"/>
+      <c r="M245" s="36"/>
+      <c r="N245" s="36"/>
+      <c r="O245" s="36"/>
+      <c r="P245" s="37"/>
+      <c r="Q245" s="36"/>
       <c r="R245" s="33"/>
       <c r="S245" s="33"/>
       <c r="T245" s="33"/>
@@ -5192,49 +5339,55 @@
       <c r="AH245" s="34"/>
     </row>
     <row r="246" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F246" s="32"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="32"/>
-      <c r="K246" s="33"/>
-      <c r="L246" s="33"/>
-      <c r="M246" s="33"/>
-      <c r="N246" s="33"/>
-      <c r="O246" s="33"/>
-      <c r="P246" s="34"/>
-      <c r="Q246" s="33"/>
-      <c r="R246" s="33"/>
-      <c r="S246" s="33"/>
-      <c r="T246" s="33"/>
-      <c r="U246" s="33"/>
-      <c r="V246" s="33"/>
-      <c r="W246" s="33"/>
-      <c r="X246" s="33"/>
-      <c r="Y246" s="33"/>
-      <c r="Z246" s="33"/>
-      <c r="AA246" s="33"/>
-      <c r="AB246" s="33"/>
-      <c r="AC246" s="33"/>
-      <c r="AD246" s="33"/>
-      <c r="AE246" s="33"/>
-      <c r="AF246" s="33"/>
-      <c r="AG246" s="33"/>
-      <c r="AH246" s="34"/>
+      <c r="F246" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G246" s="39"/>
+      <c r="H246" s="39"/>
+      <c r="I246" s="39"/>
+      <c r="J246" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="K246" s="39"/>
+      <c r="L246" s="39"/>
+      <c r="M246" s="39"/>
+      <c r="N246" s="39"/>
+      <c r="O246" s="39"/>
+      <c r="P246" s="40"/>
+      <c r="Q246" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="R246" s="39"/>
+      <c r="S246" s="39"/>
+      <c r="T246" s="39"/>
+      <c r="U246" s="39"/>
+      <c r="V246" s="39"/>
+      <c r="W246" s="39"/>
+      <c r="X246" s="39"/>
+      <c r="Y246" s="39"/>
+      <c r="Z246" s="39"/>
+      <c r="AA246" s="39"/>
+      <c r="AB246" s="39"/>
+      <c r="AC246" s="39"/>
+      <c r="AD246" s="39"/>
+      <c r="AE246" s="39"/>
+      <c r="AF246" s="39"/>
+      <c r="AG246" s="39"/>
+      <c r="AH246" s="40"/>
     </row>
     <row r="247" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F247" s="32"/>
       <c r="G247" s="33"/>
       <c r="H247" s="33"/>
       <c r="I247" s="33"/>
-      <c r="J247" s="35"/>
-      <c r="K247" s="36"/>
-      <c r="L247" s="36"/>
-      <c r="M247" s="36"/>
-      <c r="N247" s="36"/>
-      <c r="O247" s="36"/>
-      <c r="P247" s="37"/>
-      <c r="Q247" s="36"/>
+      <c r="J247" s="32"/>
+      <c r="K247" s="33"/>
+      <c r="L247" s="33"/>
+      <c r="M247" s="33"/>
+      <c r="N247" s="33"/>
+      <c r="O247" s="33"/>
+      <c r="P247" s="34"/>
+      <c r="Q247" s="33"/>
       <c r="R247" s="33"/>
       <c r="S247" s="33"/>
       <c r="T247" s="33"/>
@@ -5254,193 +5407,133 @@
       <c r="AH247" s="34"/>
     </row>
     <row r="248" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F248" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G248" s="39"/>
-      <c r="H248" s="39"/>
-      <c r="I248" s="39"/>
-      <c r="J248" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K248" s="39"/>
-      <c r="L248" s="39"/>
-      <c r="M248" s="39"/>
-      <c r="N248" s="39"/>
-      <c r="O248" s="39"/>
-      <c r="P248" s="40"/>
-      <c r="Q248" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="R248" s="39"/>
-      <c r="S248" s="39"/>
-      <c r="T248" s="39"/>
-      <c r="U248" s="39"/>
-      <c r="V248" s="39"/>
-      <c r="W248" s="39"/>
-      <c r="X248" s="39"/>
-      <c r="Y248" s="39"/>
-      <c r="Z248" s="39"/>
-      <c r="AA248" s="39"/>
-      <c r="AB248" s="39"/>
-      <c r="AC248" s="39"/>
-      <c r="AD248" s="39"/>
-      <c r="AE248" s="39"/>
-      <c r="AF248" s="39"/>
-      <c r="AG248" s="39"/>
-      <c r="AH248" s="40"/>
+      <c r="F248" s="35"/>
+      <c r="G248" s="36"/>
+      <c r="H248" s="36"/>
+      <c r="I248" s="36"/>
+      <c r="J248" s="35"/>
+      <c r="K248" s="36"/>
+      <c r="L248" s="36"/>
+      <c r="M248" s="36"/>
+      <c r="N248" s="36"/>
+      <c r="O248" s="36"/>
+      <c r="P248" s="37"/>
+      <c r="Q248" s="36"/>
+      <c r="R248" s="36"/>
+      <c r="S248" s="36"/>
+      <c r="T248" s="36"/>
+      <c r="U248" s="36"/>
+      <c r="V248" s="36"/>
+      <c r="W248" s="36"/>
+      <c r="X248" s="36"/>
+      <c r="Y248" s="36"/>
+      <c r="Z248" s="36"/>
+      <c r="AA248" s="36"/>
+      <c r="AB248" s="36"/>
+      <c r="AC248" s="36"/>
+      <c r="AD248" s="36"/>
+      <c r="AE248" s="36"/>
+      <c r="AF248" s="36"/>
+      <c r="AG248" s="36"/>
+      <c r="AH248" s="37"/>
     </row>
     <row r="249" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F249" s="32"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="32"/>
-      <c r="K249" s="33"/>
-      <c r="L249" s="33"/>
-      <c r="M249" s="33"/>
-      <c r="N249" s="33"/>
-      <c r="O249" s="33"/>
-      <c r="P249" s="34"/>
-      <c r="Q249" s="33"/>
-      <c r="R249" s="33"/>
-      <c r="S249" s="33"/>
-      <c r="T249" s="33"/>
-      <c r="U249" s="33"/>
-      <c r="V249" s="33"/>
-      <c r="W249" s="33"/>
-      <c r="X249" s="33"/>
-      <c r="Y249" s="33"/>
-      <c r="Z249" s="33"/>
-      <c r="AA249" s="33"/>
-      <c r="AB249" s="33"/>
-      <c r="AC249" s="33"/>
-      <c r="AD249" s="33"/>
-      <c r="AE249" s="33"/>
-      <c r="AF249" s="33"/>
-      <c r="AG249" s="33"/>
-      <c r="AH249" s="34"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
+      <c r="M249" s="17"/>
+      <c r="N249" s="17"/>
+      <c r="O249" s="17"/>
+      <c r="P249" s="17"/>
+      <c r="Q249" s="17"/>
+      <c r="R249" s="17"/>
+      <c r="S249" s="17"/>
+      <c r="T249" s="17"/>
+      <c r="U249" s="17"/>
+      <c r="V249" s="17"/>
+      <c r="W249" s="17"/>
+      <c r="X249" s="17"/>
+      <c r="Y249" s="17"/>
+      <c r="Z249" s="17"/>
+      <c r="AA249" s="17"/>
+      <c r="AB249" s="17"/>
+      <c r="AC249" s="17"/>
+      <c r="AD249" s="17"/>
+      <c r="AE249" s="17"/>
+      <c r="AF249" s="17"/>
+      <c r="AG249" s="17"/>
+      <c r="AH249" s="17"/>
     </row>
     <row r="250" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F250" s="35"/>
-      <c r="G250" s="36"/>
-      <c r="H250" s="36"/>
-      <c r="I250" s="36"/>
-      <c r="J250" s="35"/>
-      <c r="K250" s="36"/>
-      <c r="L250" s="36"/>
-      <c r="M250" s="36"/>
-      <c r="N250" s="36"/>
-      <c r="O250" s="36"/>
-      <c r="P250" s="37"/>
-      <c r="Q250" s="36"/>
-      <c r="R250" s="36"/>
-      <c r="S250" s="36"/>
-      <c r="T250" s="36"/>
-      <c r="U250" s="36"/>
-      <c r="V250" s="36"/>
-      <c r="W250" s="36"/>
-      <c r="X250" s="36"/>
-      <c r="Y250" s="36"/>
-      <c r="Z250" s="36"/>
-      <c r="AA250" s="36"/>
-      <c r="AB250" s="36"/>
-      <c r="AC250" s="36"/>
-      <c r="AD250" s="36"/>
-      <c r="AE250" s="36"/>
-      <c r="AF250" s="36"/>
-      <c r="AG250" s="36"/>
-      <c r="AH250" s="37"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
+      <c r="M250" s="17"/>
+      <c r="N250" s="17"/>
+      <c r="O250" s="17"/>
+      <c r="P250" s="17"/>
+      <c r="Q250" s="17"/>
+      <c r="R250" s="17"/>
+      <c r="S250" s="17"/>
+      <c r="T250" s="17"/>
+      <c r="U250" s="17"/>
+      <c r="V250" s="17"/>
+      <c r="W250" s="17"/>
+      <c r="X250" s="17"/>
+      <c r="Y250" s="17"/>
+      <c r="Z250" s="17"/>
+      <c r="AA250" s="17"/>
+      <c r="AB250" s="17"/>
+      <c r="AC250" s="17"/>
+      <c r="AD250" s="17"/>
+      <c r="AE250" s="17"/>
+      <c r="AF250" s="17"/>
+      <c r="AG250" s="17"/>
+      <c r="AH250" s="17"/>
     </row>
     <row r="251" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
-      <c r="J251" s="17"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="17"/>
-      <c r="M251" s="17"/>
-      <c r="N251" s="17"/>
-      <c r="O251" s="17"/>
-      <c r="P251" s="17"/>
-      <c r="Q251" s="17"/>
-      <c r="R251" s="17"/>
-      <c r="S251" s="17"/>
-      <c r="T251" s="17"/>
-      <c r="U251" s="17"/>
-      <c r="V251" s="17"/>
-      <c r="W251" s="17"/>
-      <c r="X251" s="17"/>
-      <c r="Y251" s="17"/>
-      <c r="Z251" s="17"/>
-      <c r="AA251" s="17"/>
-      <c r="AB251" s="17"/>
-      <c r="AC251" s="17"/>
-      <c r="AD251" s="17"/>
-      <c r="AE251" s="17"/>
-      <c r="AF251" s="17"/>
-      <c r="AG251" s="17"/>
-      <c r="AH251" s="17"/>
+      <c r="D251" s="15"/>
     </row>
     <row r="252" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="17"/>
-      <c r="J252" s="17"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="17"/>
-      <c r="M252" s="17"/>
-      <c r="N252" s="17"/>
-      <c r="O252" s="17"/>
-      <c r="P252" s="17"/>
-      <c r="Q252" s="17"/>
-      <c r="R252" s="17"/>
-      <c r="S252" s="17"/>
-      <c r="T252" s="17"/>
-      <c r="U252" s="17"/>
-      <c r="V252" s="17"/>
-      <c r="W252" s="17"/>
-      <c r="X252" s="17"/>
-      <c r="Y252" s="17"/>
-      <c r="Z252" s="17"/>
-      <c r="AA252" s="17"/>
-      <c r="AB252" s="17"/>
-      <c r="AC252" s="17"/>
-      <c r="AD252" s="17"/>
-      <c r="AE252" s="17"/>
-      <c r="AF252" s="17"/>
-      <c r="AG252" s="17"/>
-      <c r="AH252" s="17"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15" t="str">
+        <f>$D$234&amp;"3."</f>
+        <v>7.5.2.3.</v>
+      </c>
+      <c r="F252" s="4" t="str">
+        <f>$E$234&amp;"機能詳細"</f>
+        <v>認可機能詳細</v>
+      </c>
     </row>
     <row r="253" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="254" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D254" s="15"/>
-      <c r="E254" s="15" t="str">
-        <f>$D$236&amp;"3."</f>
-        <v>7.5.2.3.</v>
-      </c>
-      <c r="F254" s="4" t="str">
-        <f>$E$236&amp;"機能詳細"</f>
-        <v>認可機能詳細</v>
+      <c r="E254" s="15"/>
+      <c r="F254" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="255" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="4" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="256" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
-      <c r="F256" s="4" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="257" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D257" s="15"/>
@@ -5485,6 +5578,9 @@
     <row r="267" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
+      <c r="G267" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D268" s="15"/>
@@ -5493,478 +5589,478 @@
     <row r="269" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
+      <c r="F269" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="G269" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
+      <c r="G270" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="271" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
-      <c r="F271" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="G271" s="4" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="273" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
-      <c r="G273" s="4" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="274" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
+      <c r="F274" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="G274" s="4" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
     </row>
     <row r="275" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
+      <c r="G275" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="276" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
-      <c r="F276" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="G276" s="4" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="277" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="G277" s="4" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
     </row>
     <row r="278" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
-      <c r="G278" s="4" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="279" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
-      <c r="G279" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="280" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
+      <c r="G280" s="25" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="281" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
+      <c r="H281" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="I281" s="67"/>
+      <c r="J281" s="67"/>
+      <c r="K281" s="67"/>
+      <c r="L281" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="M281" s="67"/>
+      <c r="N281" s="67"/>
+      <c r="O281" s="67"/>
+      <c r="P281" s="67"/>
+      <c r="Q281" s="67"/>
+      <c r="R281" s="67"/>
+      <c r="S281" s="67"/>
+      <c r="T281" s="67"/>
+      <c r="U281" s="67"/>
+      <c r="V281" s="67"/>
+      <c r="W281" s="67"/>
+      <c r="X281" s="67"/>
+      <c r="Y281" s="67"/>
+      <c r="Z281" s="67"/>
+      <c r="AA281" s="67"/>
     </row>
     <row r="282" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="G282" s="25" t="s">
-        <v>132</v>
-      </c>
+      <c r="H282" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I282" s="66"/>
+      <c r="J282" s="66"/>
+      <c r="K282" s="66"/>
+      <c r="L282" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="M282" s="68"/>
+      <c r="N282" s="68"/>
+      <c r="O282" s="68"/>
+      <c r="P282" s="68"/>
+      <c r="Q282" s="68"/>
+      <c r="R282" s="68"/>
+      <c r="S282" s="68"/>
+      <c r="T282" s="68"/>
+      <c r="U282" s="68"/>
+      <c r="V282" s="68"/>
+      <c r="W282" s="68"/>
+      <c r="X282" s="68"/>
+      <c r="Y282" s="68"/>
+      <c r="Z282" s="68"/>
+      <c r="AA282" s="68"/>
     </row>
     <row r="283" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-      <c r="H283" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I283" s="49"/>
-      <c r="J283" s="49"/>
-      <c r="K283" s="49"/>
-      <c r="L283" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="M283" s="49"/>
-      <c r="N283" s="49"/>
-      <c r="O283" s="49"/>
-      <c r="P283" s="49"/>
-      <c r="Q283" s="49"/>
-      <c r="R283" s="49"/>
-      <c r="S283" s="49"/>
-      <c r="T283" s="49"/>
-      <c r="U283" s="49"/>
-      <c r="V283" s="49"/>
-      <c r="W283" s="49"/>
-      <c r="X283" s="49"/>
-      <c r="Y283" s="49"/>
-      <c r="Z283" s="49"/>
-      <c r="AA283" s="49"/>
+      <c r="H283" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="I283" s="66"/>
+      <c r="J283" s="66"/>
+      <c r="K283" s="66"/>
+      <c r="L283" s="68"/>
+      <c r="M283" s="68"/>
+      <c r="N283" s="68"/>
+      <c r="O283" s="68"/>
+      <c r="P283" s="68"/>
+      <c r="Q283" s="68"/>
+      <c r="R283" s="68"/>
+      <c r="S283" s="68"/>
+      <c r="T283" s="68"/>
+      <c r="U283" s="68"/>
+      <c r="V283" s="68"/>
+      <c r="W283" s="68"/>
+      <c r="X283" s="68"/>
+      <c r="Y283" s="68"/>
+      <c r="Z283" s="68"/>
+      <c r="AA283" s="68"/>
     </row>
     <row r="284" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-      <c r="H284" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="I284" s="75"/>
-      <c r="J284" s="75"/>
-      <c r="K284" s="75"/>
-      <c r="L284" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="M284" s="76"/>
-      <c r="N284" s="76"/>
-      <c r="O284" s="76"/>
-      <c r="P284" s="76"/>
-      <c r="Q284" s="76"/>
-      <c r="R284" s="76"/>
-      <c r="S284" s="76"/>
-      <c r="T284" s="76"/>
-      <c r="U284" s="76"/>
-      <c r="V284" s="76"/>
-      <c r="W284" s="76"/>
-      <c r="X284" s="76"/>
-      <c r="Y284" s="76"/>
-      <c r="Z284" s="76"/>
-      <c r="AA284" s="76"/>
+      <c r="H284" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I284" s="66"/>
+      <c r="J284" s="66"/>
+      <c r="K284" s="66"/>
+      <c r="L284" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="M284" s="68"/>
+      <c r="N284" s="68"/>
+      <c r="O284" s="68"/>
+      <c r="P284" s="68"/>
+      <c r="Q284" s="68"/>
+      <c r="R284" s="68"/>
+      <c r="S284" s="68"/>
+      <c r="T284" s="68"/>
+      <c r="U284" s="68"/>
+      <c r="V284" s="68"/>
+      <c r="W284" s="68"/>
+      <c r="X284" s="68"/>
+      <c r="Y284" s="68"/>
+      <c r="Z284" s="68"/>
+      <c r="AA284" s="68"/>
     </row>
     <row r="285" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-      <c r="H285" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I285" s="75"/>
-      <c r="J285" s="75"/>
-      <c r="K285" s="75"/>
-      <c r="L285" s="76"/>
-      <c r="M285" s="76"/>
-      <c r="N285" s="76"/>
-      <c r="O285" s="76"/>
-      <c r="P285" s="76"/>
-      <c r="Q285" s="76"/>
-      <c r="R285" s="76"/>
-      <c r="S285" s="76"/>
-      <c r="T285" s="76"/>
-      <c r="U285" s="76"/>
-      <c r="V285" s="76"/>
-      <c r="W285" s="76"/>
-      <c r="X285" s="76"/>
-      <c r="Y285" s="76"/>
-      <c r="Z285" s="76"/>
-      <c r="AA285" s="76"/>
+      <c r="H285" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I285" s="66"/>
+      <c r="J285" s="66"/>
+      <c r="K285" s="66"/>
+      <c r="L285" s="68"/>
+      <c r="M285" s="68"/>
+      <c r="N285" s="68"/>
+      <c r="O285" s="68"/>
+      <c r="P285" s="68"/>
+      <c r="Q285" s="68"/>
+      <c r="R285" s="68"/>
+      <c r="S285" s="68"/>
+      <c r="T285" s="68"/>
+      <c r="U285" s="68"/>
+      <c r="V285" s="68"/>
+      <c r="W285" s="68"/>
+      <c r="X285" s="68"/>
+      <c r="Y285" s="68"/>
+      <c r="Z285" s="68"/>
+      <c r="AA285" s="68"/>
     </row>
     <row r="286" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-      <c r="H286" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="I286" s="75"/>
-      <c r="J286" s="75"/>
-      <c r="K286" s="75"/>
-      <c r="L286" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="M286" s="76"/>
-      <c r="N286" s="76"/>
-      <c r="O286" s="76"/>
-      <c r="P286" s="76"/>
-      <c r="Q286" s="76"/>
-      <c r="R286" s="76"/>
-      <c r="S286" s="76"/>
-      <c r="T286" s="76"/>
-      <c r="U286" s="76"/>
-      <c r="V286" s="76"/>
-      <c r="W286" s="76"/>
-      <c r="X286" s="76"/>
-      <c r="Y286" s="76"/>
-      <c r="Z286" s="76"/>
-      <c r="AA286" s="76"/>
+      <c r="H286" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="I286" s="66"/>
+      <c r="J286" s="66"/>
+      <c r="K286" s="66"/>
+      <c r="L286" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="M286" s="66"/>
+      <c r="N286" s="66"/>
+      <c r="O286" s="66"/>
+      <c r="P286" s="66"/>
+      <c r="Q286" s="66"/>
+      <c r="R286" s="66"/>
+      <c r="S286" s="66"/>
+      <c r="T286" s="66"/>
+      <c r="U286" s="66"/>
+      <c r="V286" s="66"/>
+      <c r="W286" s="66"/>
+      <c r="X286" s="66"/>
+      <c r="Y286" s="66"/>
+      <c r="Z286" s="66"/>
+      <c r="AA286" s="66"/>
     </row>
     <row r="287" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
-      <c r="H287" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="I287" s="75"/>
-      <c r="J287" s="75"/>
-      <c r="K287" s="75"/>
-      <c r="L287" s="76"/>
-      <c r="M287" s="76"/>
-      <c r="N287" s="76"/>
-      <c r="O287" s="76"/>
-      <c r="P287" s="76"/>
-      <c r="Q287" s="76"/>
-      <c r="R287" s="76"/>
-      <c r="S287" s="76"/>
-      <c r="T287" s="76"/>
-      <c r="U287" s="76"/>
-      <c r="V287" s="76"/>
-      <c r="W287" s="76"/>
-      <c r="X287" s="76"/>
-      <c r="Y287" s="76"/>
-      <c r="Z287" s="76"/>
-      <c r="AA287" s="76"/>
     </row>
     <row r="288" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
-      <c r="H288" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="I288" s="75"/>
-      <c r="J288" s="75"/>
-      <c r="K288" s="75"/>
-      <c r="L288" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="M288" s="75"/>
-      <c r="N288" s="75"/>
-      <c r="O288" s="75"/>
-      <c r="P288" s="75"/>
-      <c r="Q288" s="75"/>
-      <c r="R288" s="75"/>
-      <c r="S288" s="75"/>
-      <c r="T288" s="75"/>
-      <c r="U288" s="75"/>
-      <c r="V288" s="75"/>
-      <c r="W288" s="75"/>
-      <c r="X288" s="75"/>
-      <c r="Y288" s="75"/>
-      <c r="Z288" s="75"/>
-      <c r="AA288" s="75"/>
+      <c r="G288" s="25" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="289" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
+      <c r="H289" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="I289" s="67"/>
+      <c r="J289" s="67"/>
+      <c r="K289" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="L289" s="67"/>
+      <c r="M289" s="67"/>
+      <c r="N289" s="67"/>
+      <c r="O289" s="67"/>
+      <c r="P289" s="67"/>
+      <c r="Q289" s="67"/>
+      <c r="R289" s="67"/>
+      <c r="S289" s="67"/>
+      <c r="T289" s="67"/>
+      <c r="U289" s="67"/>
     </row>
     <row r="290" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-      <c r="G290" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="H290" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="I290" s="66"/>
+      <c r="J290" s="66"/>
+      <c r="K290" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="L290" s="66"/>
+      <c r="M290" s="66"/>
+      <c r="N290" s="66"/>
+      <c r="O290" s="66"/>
+      <c r="P290" s="66"/>
+      <c r="Q290" s="66"/>
+      <c r="R290" s="66"/>
+      <c r="S290" s="66"/>
+      <c r="T290" s="66"/>
+      <c r="U290" s="66"/>
     </row>
     <row r="291" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-      <c r="H291" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="I291" s="49"/>
-      <c r="J291" s="49"/>
-      <c r="K291" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="L291" s="49"/>
-      <c r="M291" s="49"/>
-      <c r="N291" s="49"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="49"/>
-      <c r="R291" s="49"/>
-      <c r="S291" s="49"/>
-      <c r="T291" s="49"/>
-      <c r="U291" s="49"/>
+      <c r="H291" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I291" s="66"/>
+      <c r="J291" s="66"/>
+      <c r="K291" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="L291" s="66"/>
+      <c r="M291" s="66"/>
+      <c r="N291" s="66"/>
+      <c r="O291" s="66"/>
+      <c r="P291" s="66"/>
+      <c r="Q291" s="66"/>
+      <c r="R291" s="66"/>
+      <c r="S291" s="66"/>
+      <c r="T291" s="66"/>
+      <c r="U291" s="66"/>
     </row>
     <row r="292" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-      <c r="H292" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="I292" s="75"/>
-      <c r="J292" s="75"/>
-      <c r="K292" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="L292" s="75"/>
-      <c r="M292" s="75"/>
-      <c r="N292" s="75"/>
-      <c r="O292" s="75"/>
-      <c r="P292" s="75"/>
-      <c r="Q292" s="75"/>
-      <c r="R292" s="75"/>
-      <c r="S292" s="75"/>
-      <c r="T292" s="75"/>
-      <c r="U292" s="75"/>
+      <c r="H292" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I292" s="66"/>
+      <c r="J292" s="66"/>
+      <c r="K292" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="L292" s="66"/>
+      <c r="M292" s="66"/>
+      <c r="N292" s="66"/>
+      <c r="O292" s="66"/>
+      <c r="P292" s="66"/>
+      <c r="Q292" s="66"/>
+      <c r="R292" s="66"/>
+      <c r="S292" s="66"/>
+      <c r="T292" s="66"/>
+      <c r="U292" s="66"/>
     </row>
     <row r="293" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
-      <c r="H293" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I293" s="75"/>
-      <c r="J293" s="75"/>
-      <c r="K293" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="L293" s="75"/>
-      <c r="M293" s="75"/>
-      <c r="N293" s="75"/>
-      <c r="O293" s="75"/>
-      <c r="P293" s="75"/>
-      <c r="Q293" s="75"/>
-      <c r="R293" s="75"/>
-      <c r="S293" s="75"/>
-      <c r="T293" s="75"/>
-      <c r="U293" s="75"/>
+      <c r="H293" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I293" s="66"/>
+      <c r="J293" s="66"/>
+      <c r="K293" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="L293" s="66"/>
+      <c r="M293" s="66"/>
+      <c r="N293" s="66"/>
+      <c r="O293" s="66"/>
+      <c r="P293" s="66"/>
+      <c r="Q293" s="66"/>
+      <c r="R293" s="66"/>
+      <c r="S293" s="66"/>
+      <c r="T293" s="66"/>
+      <c r="U293" s="66"/>
     </row>
     <row r="294" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
-      <c r="H294" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="I294" s="75"/>
-      <c r="J294" s="75"/>
-      <c r="K294" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="L294" s="75"/>
-      <c r="M294" s="75"/>
-      <c r="N294" s="75"/>
-      <c r="O294" s="75"/>
-      <c r="P294" s="75"/>
-      <c r="Q294" s="75"/>
-      <c r="R294" s="75"/>
-      <c r="S294" s="75"/>
-      <c r="T294" s="75"/>
-      <c r="U294" s="75"/>
     </row>
     <row r="295" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
-      <c r="H295" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="I295" s="75"/>
-      <c r="J295" s="75"/>
-      <c r="K295" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="L295" s="75"/>
-      <c r="M295" s="75"/>
-      <c r="N295" s="75"/>
-      <c r="O295" s="75"/>
-      <c r="P295" s="75"/>
-      <c r="Q295" s="75"/>
-      <c r="R295" s="75"/>
-      <c r="S295" s="75"/>
-      <c r="T295" s="75"/>
-      <c r="U295" s="75"/>
+      <c r="G295" s="25" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="296" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
+      <c r="H296" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="I296" s="67"/>
+      <c r="J296" s="67"/>
+      <c r="K296" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="L296" s="67"/>
+      <c r="M296" s="67"/>
+      <c r="N296" s="67"/>
+      <c r="O296" s="67"/>
+      <c r="P296" s="67"/>
+      <c r="Q296" s="67"/>
+      <c r="R296" s="67"/>
+      <c r="S296" s="67"/>
+      <c r="T296" s="67"/>
+      <c r="U296" s="67"/>
     </row>
     <row r="297" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
-      <c r="G297" s="25" t="s">
-        <v>189</v>
-      </c>
+      <c r="H297" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="I297" s="66"/>
+      <c r="J297" s="66"/>
+      <c r="K297" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="L297" s="66"/>
+      <c r="M297" s="66"/>
+      <c r="N297" s="66"/>
+      <c r="O297" s="66"/>
+      <c r="P297" s="66"/>
+      <c r="Q297" s="66"/>
+      <c r="R297" s="66"/>
+      <c r="S297" s="66"/>
+      <c r="T297" s="66"/>
+      <c r="U297" s="66"/>
     </row>
     <row r="298" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
-      <c r="H298" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="I298" s="49"/>
-      <c r="J298" s="49"/>
-      <c r="K298" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="L298" s="49"/>
-      <c r="M298" s="49"/>
-      <c r="N298" s="49"/>
-      <c r="O298" s="49"/>
-      <c r="P298" s="49"/>
-      <c r="Q298" s="49"/>
-      <c r="R298" s="49"/>
-      <c r="S298" s="49"/>
-      <c r="T298" s="49"/>
-      <c r="U298" s="49"/>
+      <c r="H298" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I298" s="66"/>
+      <c r="J298" s="66"/>
+      <c r="K298" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="L298" s="66"/>
+      <c r="M298" s="66"/>
+      <c r="N298" s="66"/>
+      <c r="O298" s="66"/>
+      <c r="P298" s="66"/>
+      <c r="Q298" s="66"/>
+      <c r="R298" s="66"/>
+      <c r="S298" s="66"/>
+      <c r="T298" s="66"/>
+      <c r="U298" s="66"/>
     </row>
     <row r="299" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
-      <c r="H299" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="I299" s="75"/>
-      <c r="J299" s="75"/>
-      <c r="K299" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="L299" s="75"/>
-      <c r="M299" s="75"/>
-      <c r="N299" s="75"/>
-      <c r="O299" s="75"/>
-      <c r="P299" s="75"/>
-      <c r="Q299" s="75"/>
-      <c r="R299" s="75"/>
-      <c r="S299" s="75"/>
-      <c r="T299" s="75"/>
-      <c r="U299" s="75"/>
+      <c r="H299" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="I299" s="66"/>
+      <c r="J299" s="66"/>
+      <c r="K299" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="L299" s="66"/>
+      <c r="M299" s="66"/>
+      <c r="N299" s="66"/>
+      <c r="O299" s="66"/>
+      <c r="P299" s="66"/>
+      <c r="Q299" s="66"/>
+      <c r="R299" s="66"/>
+      <c r="S299" s="66"/>
+      <c r="T299" s="66"/>
+      <c r="U299" s="66"/>
     </row>
     <row r="300" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
-      <c r="H300" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="I300" s="75"/>
-      <c r="J300" s="75"/>
-      <c r="K300" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="L300" s="75"/>
-      <c r="M300" s="75"/>
-      <c r="N300" s="75"/>
-      <c r="O300" s="75"/>
-      <c r="P300" s="75"/>
-      <c r="Q300" s="75"/>
-      <c r="R300" s="75"/>
-      <c r="S300" s="75"/>
-      <c r="T300" s="75"/>
-      <c r="U300" s="75"/>
     </row>
     <row r="301" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
-      <c r="H301" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="I301" s="75"/>
-      <c r="J301" s="75"/>
-      <c r="K301" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="L301" s="75"/>
-      <c r="M301" s="75"/>
-      <c r="N301" s="75"/>
-      <c r="O301" s="75"/>
-      <c r="P301" s="75"/>
-      <c r="Q301" s="75"/>
-      <c r="R301" s="75"/>
-      <c r="S301" s="75"/>
-      <c r="T301" s="75"/>
-      <c r="U301" s="75"/>
+      <c r="G301" s="4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="302" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D302" s="15"/>
@@ -5973,136 +6069,133 @@
     <row r="303" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
-      <c r="G303" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="F303" s="15"/>
+      <c r="H303" s="21"/>
+      <c r="I303" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="J303" s="72"/>
+      <c r="K303" s="72"/>
+      <c r="L303" s="72"/>
+      <c r="M303" s="72"/>
     </row>
     <row r="304" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
+      <c r="F304" s="15"/>
+      <c r="H304" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="I304" s="24"/>
+      <c r="J304" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K304" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L304" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M304" s="24" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="305" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
-      <c r="H305" s="21"/>
-      <c r="I305" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="J305" s="48"/>
-      <c r="K305" s="48"/>
-      <c r="L305" s="48"/>
-      <c r="M305" s="48"/>
+      <c r="H305" s="73"/>
+      <c r="I305" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J305" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K305" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L305" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M305" s="23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="306" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
-      <c r="H306" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="I306" s="24"/>
-      <c r="J306" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K306" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L306" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M306" s="24" t="s">
-        <v>74</v>
+      <c r="H306" s="73"/>
+      <c r="I306" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J306" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K306" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L306" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M306" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P306" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="307" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
-      <c r="H307" s="74"/>
+      <c r="H307" s="73"/>
       <c r="I307" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J307" s="23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K307" s="23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L307" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M307" s="23" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="P307" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="H308" s="74"/>
-      <c r="I308" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J308" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K308" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L308" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="M308" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="P308" s="4" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="309" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
-      <c r="F309" s="15"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J309" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K309" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L309" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M309" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="P309" s="4" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="310" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
+      <c r="G310" s="25" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="311" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
+      <c r="G311" s="25"/>
     </row>
     <row r="312" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
-      <c r="G312" s="25" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="313" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
-      <c r="G313" s="25"/>
     </row>
     <row r="314" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D314" s="15"/>
@@ -6138,465 +6231,459 @@
     </row>
     <row r="322" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D322" s="15"/>
-      <c r="E322" s="15"/>
     </row>
     <row r="323" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D323" s="15"/>
-      <c r="E323" s="15"/>
+      <c r="D323" s="15" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>7.5.3.</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D324" s="15"/>
+      <c r="E324" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D325" s="15" t="str">
-        <f>$C$7&amp;"3."</f>
-        <v>7.5.3.</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D325" s="15"/>
     </row>
     <row r="326" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D326" s="15"/>
-      <c r="E326" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="E326" s="26"/>
+      <c r="F326" s="27"/>
+      <c r="G326" s="27"/>
+      <c r="H326" s="27"/>
+      <c r="I326" s="27"/>
+      <c r="J326" s="27"/>
+      <c r="K326" s="27"/>
+      <c r="L326" s="28"/>
+      <c r="M326" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="N326" s="67"/>
+      <c r="O326" s="67"/>
+      <c r="P326" s="67"/>
+      <c r="Q326" s="67"/>
+      <c r="R326" s="67"/>
+      <c r="S326" s="67"/>
+      <c r="T326" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="U326" s="72"/>
+      <c r="V326" s="72"/>
+      <c r="W326" s="72"/>
+      <c r="X326" s="72"/>
+      <c r="Y326" s="72"/>
+      <c r="Z326" s="72"/>
+      <c r="AA326" s="72"/>
+      <c r="AB326" s="72"/>
+      <c r="AC326" s="72"/>
+      <c r="AD326" s="72"/>
+      <c r="AE326" s="72"/>
+      <c r="AF326" s="72"/>
+      <c r="AG326" s="72"/>
     </row>
     <row r="327" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D327" s="15"/>
+      <c r="E327" s="29"/>
+      <c r="F327" s="30"/>
+      <c r="G327" s="30"/>
+      <c r="H327" s="30"/>
+      <c r="I327" s="30"/>
+      <c r="J327" s="30"/>
+      <c r="K327" s="30"/>
+      <c r="L327" s="31"/>
+      <c r="M327" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="N327" s="67"/>
+      <c r="O327" s="67"/>
+      <c r="P327" s="67"/>
+      <c r="Q327" s="67"/>
+      <c r="R327" s="67"/>
+      <c r="S327" s="67"/>
+      <c r="T327" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="U327" s="67"/>
+      <c r="V327" s="67"/>
+      <c r="W327" s="67"/>
+      <c r="X327" s="67"/>
+      <c r="Y327" s="67"/>
+      <c r="Z327" s="67"/>
+      <c r="AA327" s="67"/>
+      <c r="AB327" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC327" s="67"/>
+      <c r="AD327" s="67"/>
+      <c r="AE327" s="67"/>
+      <c r="AF327" s="67"/>
+      <c r="AG327" s="67"/>
     </row>
     <row r="328" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D328" s="15"/>
-      <c r="E328" s="26"/>
-      <c r="F328" s="27"/>
-      <c r="G328" s="27"/>
-      <c r="H328" s="27"/>
-      <c r="I328" s="27"/>
-      <c r="J328" s="27"/>
-      <c r="K328" s="27"/>
-      <c r="L328" s="28"/>
-      <c r="M328" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="N328" s="49"/>
-      <c r="O328" s="49"/>
-      <c r="P328" s="49"/>
-      <c r="Q328" s="49"/>
-      <c r="R328" s="49"/>
-      <c r="S328" s="49"/>
-      <c r="T328" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="U328" s="48"/>
-      <c r="V328" s="48"/>
-      <c r="W328" s="48"/>
-      <c r="X328" s="48"/>
-      <c r="Y328" s="48"/>
-      <c r="Z328" s="48"/>
-      <c r="AA328" s="48"/>
-      <c r="AB328" s="48"/>
-      <c r="AC328" s="48"/>
-      <c r="AD328" s="48"/>
-      <c r="AE328" s="48"/>
-      <c r="AF328" s="48"/>
-      <c r="AG328" s="48"/>
+      <c r="E328" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F328" s="69"/>
+      <c r="G328" s="69"/>
+      <c r="H328" s="69"/>
+      <c r="I328" s="69"/>
+      <c r="J328" s="69"/>
+      <c r="K328" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="L328" s="75"/>
+      <c r="M328" s="98" t="s">
+        <v>142</v>
+      </c>
+      <c r="N328" s="98"/>
+      <c r="O328" s="98"/>
+      <c r="P328" s="98"/>
+      <c r="Q328" s="98"/>
+      <c r="R328" s="98"/>
+      <c r="S328" s="98"/>
+      <c r="T328" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="U328" s="87"/>
+      <c r="V328" s="87"/>
+      <c r="W328" s="87"/>
+      <c r="X328" s="87"/>
+      <c r="Y328" s="87"/>
+      <c r="Z328" s="87"/>
+      <c r="AA328" s="88"/>
+      <c r="AB328" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC328" s="78"/>
+      <c r="AD328" s="78"/>
+      <c r="AE328" s="78"/>
+      <c r="AF328" s="78"/>
+      <c r="AG328" s="79"/>
     </row>
     <row r="329" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D329" s="15"/>
-      <c r="E329" s="29"/>
-      <c r="F329" s="30"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="30"/>
-      <c r="I329" s="30"/>
-      <c r="J329" s="30"/>
-      <c r="K329" s="30"/>
-      <c r="L329" s="31"/>
-      <c r="M329" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="N329" s="49"/>
-      <c r="O329" s="49"/>
-      <c r="P329" s="49"/>
-      <c r="Q329" s="49"/>
-      <c r="R329" s="49"/>
-      <c r="S329" s="49"/>
-      <c r="T329" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="U329" s="49"/>
-      <c r="V329" s="49"/>
-      <c r="W329" s="49"/>
-      <c r="X329" s="49"/>
-      <c r="Y329" s="49"/>
-      <c r="Z329" s="49"/>
-      <c r="AA329" s="49"/>
-      <c r="AB329" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC329" s="49"/>
-      <c r="AD329" s="49"/>
-      <c r="AE329" s="49"/>
-      <c r="AF329" s="49"/>
-      <c r="AG329" s="49"/>
+      <c r="E329" s="70"/>
+      <c r="F329" s="70"/>
+      <c r="G329" s="70"/>
+      <c r="H329" s="70"/>
+      <c r="I329" s="70"/>
+      <c r="J329" s="70"/>
+      <c r="K329" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="L329" s="75"/>
+      <c r="M329" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="N329" s="98"/>
+      <c r="O329" s="98"/>
+      <c r="P329" s="98"/>
+      <c r="Q329" s="98"/>
+      <c r="R329" s="98"/>
+      <c r="S329" s="98"/>
+      <c r="T329" s="89"/>
+      <c r="U329" s="90"/>
+      <c r="V329" s="90"/>
+      <c r="W329" s="90"/>
+      <c r="X329" s="90"/>
+      <c r="Y329" s="90"/>
+      <c r="Z329" s="90"/>
+      <c r="AA329" s="91"/>
+      <c r="AB329" s="80"/>
+      <c r="AC329" s="81"/>
+      <c r="AD329" s="81"/>
+      <c r="AE329" s="81"/>
+      <c r="AF329" s="81"/>
+      <c r="AG329" s="82"/>
     </row>
     <row r="330" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="15"/>
-      <c r="E330" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="F330" s="71"/>
-      <c r="G330" s="71"/>
-      <c r="H330" s="71"/>
-      <c r="I330" s="71"/>
-      <c r="J330" s="71"/>
-      <c r="K330" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="L330" s="51"/>
-      <c r="M330" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="N330" s="44"/>
-      <c r="O330" s="44"/>
-      <c r="P330" s="44"/>
-      <c r="Q330" s="44"/>
-      <c r="R330" s="44"/>
-      <c r="S330" s="44"/>
-      <c r="T330" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="U330" s="62"/>
-      <c r="V330" s="62"/>
-      <c r="W330" s="62"/>
-      <c r="X330" s="62"/>
-      <c r="Y330" s="62"/>
-      <c r="Z330" s="62"/>
-      <c r="AA330" s="63"/>
-      <c r="AB330" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC330" s="53"/>
-      <c r="AD330" s="53"/>
-      <c r="AE330" s="53"/>
-      <c r="AF330" s="53"/>
-      <c r="AG330" s="54"/>
+      <c r="E330" s="70"/>
+      <c r="F330" s="70"/>
+      <c r="G330" s="70"/>
+      <c r="H330" s="70"/>
+      <c r="I330" s="70"/>
+      <c r="J330" s="70"/>
+      <c r="K330" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="L330" s="75"/>
+      <c r="M330" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="N330" s="98"/>
+      <c r="O330" s="98"/>
+      <c r="P330" s="98"/>
+      <c r="Q330" s="98"/>
+      <c r="R330" s="98"/>
+      <c r="S330" s="98"/>
+      <c r="T330" s="89"/>
+      <c r="U330" s="90"/>
+      <c r="V330" s="90"/>
+      <c r="W330" s="90"/>
+      <c r="X330" s="90"/>
+      <c r="Y330" s="90"/>
+      <c r="Z330" s="90"/>
+      <c r="AA330" s="91"/>
+      <c r="AB330" s="80"/>
+      <c r="AC330" s="81"/>
+      <c r="AD330" s="81"/>
+      <c r="AE330" s="81"/>
+      <c r="AF330" s="81"/>
+      <c r="AG330" s="82"/>
     </row>
     <row r="331" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D331" s="15"/>
-      <c r="E331" s="72"/>
-      <c r="F331" s="72"/>
-      <c r="G331" s="72"/>
-      <c r="H331" s="72"/>
-      <c r="I331" s="72"/>
-      <c r="J331" s="72"/>
-      <c r="K331" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="L331" s="51"/>
-      <c r="M331" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="N331" s="44"/>
-      <c r="O331" s="44"/>
-      <c r="P331" s="44"/>
-      <c r="Q331" s="44"/>
-      <c r="R331" s="44"/>
-      <c r="S331" s="44"/>
-      <c r="T331" s="64"/>
-      <c r="U331" s="65"/>
-      <c r="V331" s="65"/>
-      <c r="W331" s="65"/>
-      <c r="X331" s="65"/>
-      <c r="Y331" s="65"/>
-      <c r="Z331" s="65"/>
-      <c r="AA331" s="66"/>
-      <c r="AB331" s="55"/>
-      <c r="AC331" s="56"/>
-      <c r="AD331" s="56"/>
-      <c r="AE331" s="56"/>
-      <c r="AF331" s="56"/>
-      <c r="AG331" s="57"/>
-    </row>
-    <row r="332" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E331" s="71"/>
+      <c r="F331" s="71"/>
+      <c r="G331" s="71"/>
+      <c r="H331" s="71"/>
+      <c r="I331" s="71"/>
+      <c r="J331" s="71"/>
+      <c r="K331" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="L331" s="75"/>
+      <c r="M331" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="N331" s="98"/>
+      <c r="O331" s="98"/>
+      <c r="P331" s="98"/>
+      <c r="Q331" s="98"/>
+      <c r="R331" s="98"/>
+      <c r="S331" s="98"/>
+      <c r="T331" s="92"/>
+      <c r="U331" s="93"/>
+      <c r="V331" s="93"/>
+      <c r="W331" s="93"/>
+      <c r="X331" s="93"/>
+      <c r="Y331" s="93"/>
+      <c r="Z331" s="93"/>
+      <c r="AA331" s="94"/>
+      <c r="AB331" s="83"/>
+      <c r="AC331" s="84"/>
+      <c r="AD331" s="84"/>
+      <c r="AE331" s="84"/>
+      <c r="AF331" s="84"/>
+      <c r="AG331" s="85"/>
+    </row>
+    <row r="332" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D332" s="15"/>
-      <c r="E332" s="72"/>
-      <c r="F332" s="72"/>
-      <c r="G332" s="72"/>
-      <c r="H332" s="72"/>
-      <c r="I332" s="72"/>
-      <c r="J332" s="72"/>
-      <c r="K332" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="L332" s="51"/>
-      <c r="M332" s="44" t="s">
+      <c r="E332" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F332" s="76"/>
+      <c r="G332" s="76"/>
+      <c r="H332" s="76"/>
+      <c r="I332" s="76"/>
+      <c r="J332" s="76"/>
+      <c r="K332" s="76"/>
+      <c r="L332" s="75"/>
+      <c r="M332" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="N332" s="44"/>
-      <c r="O332" s="44"/>
-      <c r="P332" s="44"/>
-      <c r="Q332" s="44"/>
-      <c r="R332" s="44"/>
-      <c r="S332" s="44"/>
-      <c r="T332" s="64"/>
-      <c r="U332" s="65"/>
-      <c r="V332" s="65"/>
-      <c r="W332" s="65"/>
-      <c r="X332" s="65"/>
-      <c r="Y332" s="65"/>
-      <c r="Z332" s="65"/>
-      <c r="AA332" s="66"/>
-      <c r="AB332" s="55"/>
-      <c r="AC332" s="56"/>
-      <c r="AD332" s="56"/>
-      <c r="AE332" s="56"/>
-      <c r="AF332" s="56"/>
-      <c r="AG332" s="57"/>
+      <c r="N332" s="98"/>
+      <c r="O332" s="98"/>
+      <c r="P332" s="98"/>
+      <c r="Q332" s="98"/>
+      <c r="R332" s="98"/>
+      <c r="S332" s="98"/>
+      <c r="T332" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="U332" s="100"/>
+      <c r="V332" s="100"/>
+      <c r="W332" s="100"/>
+      <c r="X332" s="100"/>
+      <c r="Y332" s="100"/>
+      <c r="Z332" s="100"/>
+      <c r="AA332" s="101"/>
+      <c r="AB332" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC332" s="98"/>
+      <c r="AD332" s="98"/>
+      <c r="AE332" s="98"/>
+      <c r="AF332" s="98"/>
+      <c r="AG332" s="98"/>
     </row>
     <row r="333" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D333" s="15"/>
-      <c r="E333" s="73"/>
-      <c r="F333" s="73"/>
-      <c r="G333" s="73"/>
-      <c r="H333" s="73"/>
-      <c r="I333" s="73"/>
-      <c r="J333" s="73"/>
-      <c r="K333" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="L333" s="51"/>
-      <c r="M333" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="N333" s="44"/>
-      <c r="O333" s="44"/>
-      <c r="P333" s="44"/>
-      <c r="Q333" s="44"/>
-      <c r="R333" s="44"/>
-      <c r="S333" s="44"/>
-      <c r="T333" s="67"/>
-      <c r="U333" s="68"/>
-      <c r="V333" s="68"/>
-      <c r="W333" s="68"/>
-      <c r="X333" s="68"/>
-      <c r="Y333" s="68"/>
-      <c r="Z333" s="68"/>
-      <c r="AA333" s="69"/>
-      <c r="AB333" s="58"/>
-      <c r="AC333" s="59"/>
-      <c r="AD333" s="59"/>
-      <c r="AE333" s="59"/>
-      <c r="AF333" s="59"/>
-      <c r="AG333" s="60"/>
-    </row>
-    <row r="334" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E333" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="F333" s="76"/>
+      <c r="G333" s="76"/>
+      <c r="H333" s="76"/>
+      <c r="I333" s="76"/>
+      <c r="J333" s="76"/>
+      <c r="K333" s="76"/>
+      <c r="L333" s="75"/>
+      <c r="M333" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="N333" s="98"/>
+      <c r="O333" s="98"/>
+      <c r="P333" s="98"/>
+      <c r="Q333" s="98"/>
+      <c r="R333" s="98"/>
+      <c r="S333" s="98"/>
+      <c r="T333" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="U333" s="98"/>
+      <c r="V333" s="98"/>
+      <c r="W333" s="98"/>
+      <c r="X333" s="98"/>
+      <c r="Y333" s="98"/>
+      <c r="Z333" s="98"/>
+      <c r="AA333" s="98"/>
+      <c r="AB333" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC333" s="98"/>
+      <c r="AD333" s="98"/>
+      <c r="AE333" s="98"/>
+      <c r="AF333" s="98"/>
+      <c r="AG333" s="98"/>
+    </row>
+    <row r="334" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D334" s="15"/>
-      <c r="E334" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F334" s="70"/>
-      <c r="G334" s="70"/>
-      <c r="H334" s="70"/>
-      <c r="I334" s="70"/>
-      <c r="J334" s="70"/>
-      <c r="K334" s="70"/>
-      <c r="L334" s="51"/>
-      <c r="M334" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N334" s="44"/>
-      <c r="O334" s="44"/>
-      <c r="P334" s="44"/>
-      <c r="Q334" s="44"/>
-      <c r="R334" s="44"/>
-      <c r="S334" s="44"/>
-      <c r="T334" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="U334" s="46"/>
-      <c r="V334" s="46"/>
-      <c r="W334" s="46"/>
-      <c r="X334" s="46"/>
-      <c r="Y334" s="46"/>
-      <c r="Z334" s="46"/>
-      <c r="AA334" s="47"/>
-      <c r="AB334" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC334" s="44"/>
-      <c r="AD334" s="44"/>
-      <c r="AE334" s="44"/>
-      <c r="AF334" s="44"/>
-      <c r="AG334" s="44"/>
+      <c r="E334" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F334" s="69"/>
+      <c r="G334" s="69"/>
+      <c r="H334" s="69"/>
+      <c r="I334" s="69"/>
+      <c r="J334" s="69"/>
+      <c r="K334" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="L334" s="75"/>
+      <c r="M334" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="N334" s="96"/>
+      <c r="O334" s="96"/>
+      <c r="P334" s="96"/>
+      <c r="Q334" s="96"/>
+      <c r="R334" s="96"/>
+      <c r="S334" s="97"/>
+      <c r="T334" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="U334" s="96"/>
+      <c r="V334" s="96"/>
+      <c r="W334" s="96"/>
+      <c r="X334" s="96"/>
+      <c r="Y334" s="96"/>
+      <c r="Z334" s="96"/>
+      <c r="AA334" s="96"/>
+      <c r="AB334" s="96"/>
+      <c r="AC334" s="96"/>
+      <c r="AD334" s="96"/>
+      <c r="AE334" s="96"/>
+      <c r="AF334" s="96"/>
+      <c r="AG334" s="97"/>
     </row>
     <row r="335" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D335" s="15"/>
-      <c r="E335" s="50" t="s">
-        <v>115</v>
-      </c>
+      <c r="E335" s="70"/>
       <c r="F335" s="70"/>
       <c r="G335" s="70"/>
       <c r="H335" s="70"/>
       <c r="I335" s="70"/>
       <c r="J335" s="70"/>
-      <c r="K335" s="70"/>
-      <c r="L335" s="51"/>
-      <c r="M335" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="N335" s="44"/>
-      <c r="O335" s="44"/>
-      <c r="P335" s="44"/>
-      <c r="Q335" s="44"/>
-      <c r="R335" s="44"/>
-      <c r="S335" s="44"/>
-      <c r="T335" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="U335" s="44"/>
-      <c r="V335" s="44"/>
-      <c r="W335" s="44"/>
-      <c r="X335" s="44"/>
-      <c r="Y335" s="44"/>
-      <c r="Z335" s="44"/>
-      <c r="AA335" s="44"/>
-      <c r="AB335" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC335" s="44"/>
-      <c r="AD335" s="44"/>
-      <c r="AE335" s="44"/>
-      <c r="AF335" s="44"/>
-      <c r="AG335" s="44"/>
+      <c r="K335" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="L335" s="75"/>
+      <c r="M335" s="95"/>
+      <c r="N335" s="96"/>
+      <c r="O335" s="96"/>
+      <c r="P335" s="96"/>
+      <c r="Q335" s="96"/>
+      <c r="R335" s="96"/>
+      <c r="S335" s="97"/>
+      <c r="T335" s="95"/>
+      <c r="U335" s="96"/>
+      <c r="V335" s="96"/>
+      <c r="W335" s="96"/>
+      <c r="X335" s="96"/>
+      <c r="Y335" s="96"/>
+      <c r="Z335" s="96"/>
+      <c r="AA335" s="96"/>
+      <c r="AB335" s="96"/>
+      <c r="AC335" s="96"/>
+      <c r="AD335" s="96"/>
+      <c r="AE335" s="96"/>
+      <c r="AF335" s="96"/>
+      <c r="AG335" s="97"/>
     </row>
     <row r="336" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D336" s="15"/>
-      <c r="E336" s="71" t="s">
-        <v>118</v>
-      </c>
+      <c r="E336" s="71"/>
       <c r="F336" s="71"/>
       <c r="G336" s="71"/>
       <c r="H336" s="71"/>
       <c r="I336" s="71"/>
       <c r="J336" s="71"/>
-      <c r="K336" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="L336" s="51"/>
-      <c r="M336" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="N336" s="42"/>
-      <c r="O336" s="42"/>
-      <c r="P336" s="42"/>
-      <c r="Q336" s="42"/>
-      <c r="R336" s="42"/>
-      <c r="S336" s="43"/>
-      <c r="T336" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="U336" s="42"/>
-      <c r="V336" s="42"/>
-      <c r="W336" s="42"/>
-      <c r="X336" s="42"/>
-      <c r="Y336" s="42"/>
-      <c r="Z336" s="42"/>
-      <c r="AA336" s="42"/>
-      <c r="AB336" s="42"/>
-      <c r="AC336" s="42"/>
-      <c r="AD336" s="42"/>
-      <c r="AE336" s="42"/>
-      <c r="AF336" s="42"/>
-      <c r="AG336" s="43"/>
-    </row>
-    <row r="337" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K336" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="L336" s="75"/>
+      <c r="M336" s="95"/>
+      <c r="N336" s="96"/>
+      <c r="O336" s="96"/>
+      <c r="P336" s="96"/>
+      <c r="Q336" s="96"/>
+      <c r="R336" s="96"/>
+      <c r="S336" s="97"/>
+      <c r="T336" s="95"/>
+      <c r="U336" s="96"/>
+      <c r="V336" s="96"/>
+      <c r="W336" s="96"/>
+      <c r="X336" s="96"/>
+      <c r="Y336" s="96"/>
+      <c r="Z336" s="96"/>
+      <c r="AA336" s="96"/>
+      <c r="AB336" s="96"/>
+      <c r="AC336" s="96"/>
+      <c r="AD336" s="96"/>
+      <c r="AE336" s="96"/>
+      <c r="AF336" s="96"/>
+      <c r="AG336" s="97"/>
+    </row>
+    <row r="337" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D337" s="15"/>
-      <c r="E337" s="72"/>
-      <c r="F337" s="72"/>
-      <c r="G337" s="72"/>
-      <c r="H337" s="72"/>
-      <c r="I337" s="72"/>
-      <c r="J337" s="72"/>
-      <c r="K337" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="L337" s="51"/>
-      <c r="M337" s="41"/>
-      <c r="N337" s="42"/>
-      <c r="O337" s="42"/>
-      <c r="P337" s="42"/>
-      <c r="Q337" s="42"/>
-      <c r="R337" s="42"/>
-      <c r="S337" s="43"/>
-      <c r="T337" s="41"/>
-      <c r="U337" s="42"/>
-      <c r="V337" s="42"/>
-      <c r="W337" s="42"/>
-      <c r="X337" s="42"/>
-      <c r="Y337" s="42"/>
-      <c r="Z337" s="42"/>
-      <c r="AA337" s="42"/>
-      <c r="AB337" s="42"/>
-      <c r="AC337" s="42"/>
-      <c r="AD337" s="42"/>
-      <c r="AE337" s="42"/>
-      <c r="AF337" s="42"/>
-      <c r="AG337" s="43"/>
-    </row>
-    <row r="338" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="338" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D338" s="15"/>
-      <c r="E338" s="73"/>
-      <c r="F338" s="73"/>
-      <c r="G338" s="73"/>
-      <c r="H338" s="73"/>
-      <c r="I338" s="73"/>
-      <c r="J338" s="73"/>
-      <c r="K338" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="L338" s="51"/>
-      <c r="M338" s="41"/>
-      <c r="N338" s="42"/>
-      <c r="O338" s="42"/>
-      <c r="P338" s="42"/>
-      <c r="Q338" s="42"/>
-      <c r="R338" s="42"/>
-      <c r="S338" s="43"/>
-      <c r="T338" s="41"/>
-      <c r="U338" s="42"/>
-      <c r="V338" s="42"/>
-      <c r="W338" s="42"/>
-      <c r="X338" s="42"/>
-      <c r="Y338" s="42"/>
-      <c r="Z338" s="42"/>
-      <c r="AA338" s="42"/>
-      <c r="AB338" s="42"/>
-      <c r="AC338" s="42"/>
-      <c r="AD338" s="42"/>
-      <c r="AE338" s="42"/>
-      <c r="AF338" s="42"/>
-      <c r="AG338" s="43"/>
-    </row>
-    <row r="339" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="339" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D339" s="15"/>
     </row>
-    <row r="340" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D340" s="15"/>
-    </row>
-    <row r="341" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D341" s="15"/>
-    </row>
-    <row r="342" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7015,10 +7102,73 @@
     <row r="768" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="769" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="770" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="M334:S336"/>
+    <mergeCell ref="T334:AG336"/>
+    <mergeCell ref="M328:S328"/>
+    <mergeCell ref="M329:S329"/>
+    <mergeCell ref="M331:S331"/>
+    <mergeCell ref="M332:S332"/>
+    <mergeCell ref="M333:S333"/>
+    <mergeCell ref="AB332:AG332"/>
+    <mergeCell ref="AB333:AG333"/>
+    <mergeCell ref="T332:AA332"/>
+    <mergeCell ref="T333:AA333"/>
+    <mergeCell ref="M330:S330"/>
+    <mergeCell ref="T326:AG326"/>
+    <mergeCell ref="M326:S326"/>
+    <mergeCell ref="K328:L328"/>
+    <mergeCell ref="K329:L329"/>
+    <mergeCell ref="K331:L331"/>
+    <mergeCell ref="AB327:AG327"/>
+    <mergeCell ref="T327:AA327"/>
+    <mergeCell ref="AB328:AG331"/>
+    <mergeCell ref="T328:AA331"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="K334:L334"/>
+    <mergeCell ref="K335:L335"/>
+    <mergeCell ref="K336:L336"/>
+    <mergeCell ref="E332:L332"/>
+    <mergeCell ref="E333:L333"/>
+    <mergeCell ref="E334:J334"/>
+    <mergeCell ref="E335:J335"/>
+    <mergeCell ref="E336:J336"/>
+    <mergeCell ref="E328:J328"/>
+    <mergeCell ref="E329:J329"/>
+    <mergeCell ref="E331:J331"/>
+    <mergeCell ref="I303:M303"/>
+    <mergeCell ref="H304:H307"/>
+    <mergeCell ref="M327:S327"/>
+    <mergeCell ref="E330:J330"/>
+    <mergeCell ref="H296:J296"/>
+    <mergeCell ref="H297:J297"/>
+    <mergeCell ref="H298:J298"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="K296:U296"/>
+    <mergeCell ref="K297:U297"/>
+    <mergeCell ref="K298:U298"/>
+    <mergeCell ref="K299:U299"/>
+    <mergeCell ref="K289:U289"/>
+    <mergeCell ref="K290:U290"/>
+    <mergeCell ref="K291:U291"/>
+    <mergeCell ref="K292:U292"/>
+    <mergeCell ref="K293:U293"/>
+    <mergeCell ref="H289:J289"/>
+    <mergeCell ref="H290:J290"/>
+    <mergeCell ref="H291:J291"/>
+    <mergeCell ref="H292:J292"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="H286:K286"/>
+    <mergeCell ref="L281:AA281"/>
+    <mergeCell ref="L286:AA286"/>
+    <mergeCell ref="L282:AA283"/>
+    <mergeCell ref="L284:AA285"/>
+    <mergeCell ref="H281:K281"/>
+    <mergeCell ref="H282:K282"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="H285:K285"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -7032,75 +7182,10 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="H288:K288"/>
-    <mergeCell ref="L283:AA283"/>
-    <mergeCell ref="L288:AA288"/>
-    <mergeCell ref="L284:AA285"/>
-    <mergeCell ref="L286:AA287"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H285:K285"/>
-    <mergeCell ref="H286:K286"/>
-    <mergeCell ref="H287:K287"/>
-    <mergeCell ref="H291:J291"/>
-    <mergeCell ref="H292:J292"/>
-    <mergeCell ref="H293:J293"/>
-    <mergeCell ref="H294:J294"/>
-    <mergeCell ref="H295:J295"/>
-    <mergeCell ref="K291:U291"/>
-    <mergeCell ref="K292:U292"/>
-    <mergeCell ref="K293:U293"/>
-    <mergeCell ref="K294:U294"/>
-    <mergeCell ref="K295:U295"/>
-    <mergeCell ref="H298:J298"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="H300:J300"/>
-    <mergeCell ref="H301:J301"/>
-    <mergeCell ref="K298:U298"/>
-    <mergeCell ref="K299:U299"/>
-    <mergeCell ref="K300:U300"/>
-    <mergeCell ref="K301:U301"/>
-    <mergeCell ref="E330:J330"/>
-    <mergeCell ref="E331:J331"/>
-    <mergeCell ref="E333:J333"/>
-    <mergeCell ref="I305:M305"/>
-    <mergeCell ref="H306:H309"/>
-    <mergeCell ref="M329:S329"/>
-    <mergeCell ref="E332:J332"/>
-    <mergeCell ref="K336:L336"/>
-    <mergeCell ref="K337:L337"/>
-    <mergeCell ref="K338:L338"/>
-    <mergeCell ref="E334:L334"/>
-    <mergeCell ref="E335:L335"/>
-    <mergeCell ref="E336:J336"/>
-    <mergeCell ref="E337:J337"/>
-    <mergeCell ref="E338:J338"/>
-    <mergeCell ref="T328:AG328"/>
-    <mergeCell ref="M328:S328"/>
-    <mergeCell ref="K330:L330"/>
-    <mergeCell ref="K331:L331"/>
-    <mergeCell ref="K333:L333"/>
-    <mergeCell ref="AB329:AG329"/>
-    <mergeCell ref="T329:AA329"/>
-    <mergeCell ref="AB330:AG333"/>
-    <mergeCell ref="T330:AA333"/>
-    <mergeCell ref="K332:L332"/>
-    <mergeCell ref="M336:S338"/>
-    <mergeCell ref="T336:AG338"/>
-    <mergeCell ref="M330:S330"/>
-    <mergeCell ref="M331:S331"/>
-    <mergeCell ref="M333:S333"/>
-    <mergeCell ref="M334:S334"/>
-    <mergeCell ref="M335:S335"/>
-    <mergeCell ref="AB334:AG334"/>
-    <mergeCell ref="AB335:AG335"/>
-    <mergeCell ref="T334:AA334"/>
-    <mergeCell ref="T335:AA335"/>
-    <mergeCell ref="M332:S332"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:M22 J18:M18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:M22 J18:M18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ベーシック認証,フォーム認証,OpenID認証,OAuth認証,OpenID Connect認証,カスタム認証,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7111,10 +7196,10 @@
     <brk id="77" max="34" man="1"/>
     <brk id="114" max="34" man="1"/>
     <brk id="150" max="34" man="1"/>
-    <brk id="193" max="34" man="1"/>
-    <brk id="235" max="34" man="1"/>
-    <brk id="270" max="34" man="1"/>
-    <brk id="311" max="34" man="1"/>
+    <brk id="191" max="34" man="1"/>
+    <brk id="233" max="34" man="1"/>
+    <brk id="268" max="34" man="1"/>
+    <brk id="309" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEE35F0-4080-4DDB-BBB2-2615AE5BE090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A2E03-4D71-4C71-A4BA-65364106997F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="7.5.認証・認可" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="194">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -616,22 +616,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Nablarchの認可チェックの詳細に関しては、Nablarchガイドの【7.15. 認可チェック】を参照のこと。</t>
-    <rPh sb="9" eb="11">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1935,6 +1919,29 @@
   </si>
   <si>
     <t>管理者ユーザの認証処理はシングルサインオン用サイトにて行われるため、本システムではアカウントのロックを行わない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/permission_check.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nablarchの認可チェックの詳細に関しては、下記Nablarchガイドの【7.15. 認可チェック】を参照のこと。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1945,7 +1952,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2001,6 +2008,14 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2201,7 +2216,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2209,8 +2224,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2332,6 +2348,114 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2407,116 +2531,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2908,13 +2928,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3475,7 +3495,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI770"/>
+  <dimension ref="A1:AI772"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3491,43 +3511,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="R1" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="88"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="82"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3536,43 +3556,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="97"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="82"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3581,39 +3601,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="100"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="90"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="82"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3657,12 +3677,12 @@
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3756,12 +3776,12 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
       <c r="N18" s="33" t="s">
         <v>25</v>
       </c>
@@ -3796,7 +3816,7 @@
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
       <c r="N19" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O19" s="33"/>
       <c r="P19" s="33"/>
@@ -3829,7 +3849,7 @@
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
       <c r="N20" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
@@ -3885,17 +3905,17 @@
     </row>
     <row r="22" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
       <c r="N22" s="39" t="s">
         <v>24</v>
       </c>
@@ -3930,7 +3950,7 @@
       <c r="L23" s="33"/>
       <c r="M23" s="34"/>
       <c r="N23" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O23" s="33"/>
       <c r="P23" s="33"/>
@@ -3964,7 +3984,7 @@
       <c r="M24" s="34"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
@@ -3997,7 +4017,7 @@
       <c r="M25" s="34"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
@@ -4060,7 +4080,7 @@
       <c r="L27" s="33"/>
       <c r="M27" s="34"/>
       <c r="N27" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
@@ -4094,7 +4114,7 @@
       <c r="M28" s="34"/>
       <c r="N28" s="33"/>
       <c r="O28" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P28" s="33"/>
       <c r="Q28" s="33"/>
@@ -4230,25 +4250,25 @@
     <row r="34" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="15"/>
       <c r="G34" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="15"/>
       <c r="G36" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="15"/>
       <c r="G37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4275,7 +4295,7 @@
     <row r="43" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>41</v>
@@ -4359,19 +4379,19 @@
         <v>37</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="15"/>
       <c r="H62" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="15"/>
       <c r="H63" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4514,19 +4534,19 @@
         <v>29</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4538,13 +4558,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4553,16 +4573,16 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4577,16 +4597,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4601,19 +4621,19 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15"/>
       <c r="H116" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15"/>
       <c r="H117" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4622,7 +4642,7 @@
     <row r="119" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="15"/>
       <c r="H119" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>41</v>
@@ -4631,19 +4651,19 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="15"/>
       <c r="I121" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4689,22 +4709,22 @@
     <row r="136" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="15"/>
       <c r="H136" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="15"/>
       <c r="I137" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="15"/>
       <c r="I138" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4746,7 +4766,7 @@
     <row r="151" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="15"/>
       <c r="H151" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>34</v>
@@ -4755,7 +4775,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4806,7 +4826,7 @@
     <row r="168" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>35</v>
@@ -4815,7 +4835,7 @@
     <row r="169" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="15"/>
       <c r="I169" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>36</v>
@@ -4824,7 +4844,7 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4836,19 +4856,19 @@
         <v>32</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
       <c r="H173" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
       <c r="H174" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4857,7 +4877,7 @@
     <row r="176" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="15"/>
       <c r="H176" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>41</v>
@@ -4866,19 +4886,19 @@
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
       <c r="I177" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
       <c r="I178" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4920,16 +4940,16 @@
     <row r="192" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="15"/>
       <c r="H192" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="15"/>
       <c r="I193" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4944,7 +4964,7 @@
     <row r="197" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="15"/>
       <c r="H197" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>34</v>
@@ -4953,7 +4973,7 @@
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
       <c r="I198" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5031,7 +5051,7 @@
     <row r="223" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="15"/>
       <c r="H223" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>35</v>
@@ -5040,7 +5060,7 @@
     <row r="224" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="15"/>
       <c r="I224" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>36</v>
@@ -5070,16 +5090,16 @@
     <row r="229" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="15"/>
       <c r="I229" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
       <c r="J230" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5210,7 +5230,7 @@
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
       <c r="J242" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K242" s="19"/>
       <c r="L242" s="19"/>
@@ -5247,7 +5267,7 @@
       <c r="H243" s="33"/>
       <c r="I243" s="33"/>
       <c r="J243" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K243" s="39"/>
       <c r="L243" s="39"/>
@@ -5256,7 +5276,7 @@
       <c r="O243" s="39"/>
       <c r="P243" s="40"/>
       <c r="Q243" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R243" s="33"/>
       <c r="S243" s="33"/>
@@ -5340,13 +5360,13 @@
     </row>
     <row r="246" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F246" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G246" s="39"/>
       <c r="H246" s="39"/>
       <c r="I246" s="39"/>
       <c r="J246" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K246" s="39"/>
       <c r="L246" s="39"/>
@@ -5355,7 +5375,7 @@
       <c r="O246" s="39"/>
       <c r="P246" s="40"/>
       <c r="Q246" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R246" s="39"/>
       <c r="S246" s="39"/>
@@ -5517,7 +5537,7 @@
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="254" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5579,7 +5599,7 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="G267" s="4" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5589,478 +5609,478 @@
     <row r="269" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
-      <c r="F269" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G269" s="4" t="s">
-        <v>57</v>
+      <c r="G269" s="102" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D270" s="15"/>
       <c r="E270" s="15"/>
-      <c r="G270" s="4" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="271" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
+      <c r="F271" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="G271" s="4" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="273" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
+      <c r="G273" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="274" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
-      <c r="F274" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="G274" s="4" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
     </row>
     <row r="275" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
-      <c r="G275" s="4" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="276" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
+      <c r="F276" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="G276" s="4" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="277" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="G277" s="4" t="s">
-        <v>58</v>
+        <v>182</v>
       </c>
     </row>
     <row r="278" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
+      <c r="G278" s="4" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="279" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
+      <c r="G279" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="280" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
-      <c r="G280" s="25" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="281" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
-      <c r="H281" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="I281" s="67"/>
-      <c r="J281" s="67"/>
-      <c r="K281" s="67"/>
-      <c r="L281" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="M281" s="67"/>
-      <c r="N281" s="67"/>
-      <c r="O281" s="67"/>
-      <c r="P281" s="67"/>
-      <c r="Q281" s="67"/>
-      <c r="R281" s="67"/>
-      <c r="S281" s="67"/>
-      <c r="T281" s="67"/>
-      <c r="U281" s="67"/>
-      <c r="V281" s="67"/>
-      <c r="W281" s="67"/>
-      <c r="X281" s="67"/>
-      <c r="Y281" s="67"/>
-      <c r="Z281" s="67"/>
-      <c r="AA281" s="67"/>
     </row>
     <row r="282" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="H282" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="I282" s="66"/>
-      <c r="J282" s="66"/>
-      <c r="K282" s="66"/>
-      <c r="L282" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="M282" s="68"/>
-      <c r="N282" s="68"/>
-      <c r="O282" s="68"/>
-      <c r="P282" s="68"/>
-      <c r="Q282" s="68"/>
-      <c r="R282" s="68"/>
-      <c r="S282" s="68"/>
-      <c r="T282" s="68"/>
-      <c r="U282" s="68"/>
-      <c r="V282" s="68"/>
-      <c r="W282" s="68"/>
-      <c r="X282" s="68"/>
-      <c r="Y282" s="68"/>
-      <c r="Z282" s="68"/>
-      <c r="AA282" s="68"/>
+      <c r="G282" s="25" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="283" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-      <c r="H283" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="I283" s="66"/>
-      <c r="J283" s="66"/>
-      <c r="K283" s="66"/>
-      <c r="L283" s="68"/>
-      <c r="M283" s="68"/>
-      <c r="N283" s="68"/>
-      <c r="O283" s="68"/>
-      <c r="P283" s="68"/>
-      <c r="Q283" s="68"/>
-      <c r="R283" s="68"/>
-      <c r="S283" s="68"/>
-      <c r="T283" s="68"/>
-      <c r="U283" s="68"/>
-      <c r="V283" s="68"/>
-      <c r="W283" s="68"/>
-      <c r="X283" s="68"/>
-      <c r="Y283" s="68"/>
-      <c r="Z283" s="68"/>
-      <c r="AA283" s="68"/>
+      <c r="H283" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I283" s="49"/>
+      <c r="J283" s="49"/>
+      <c r="K283" s="49"/>
+      <c r="L283" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="M283" s="49"/>
+      <c r="N283" s="49"/>
+      <c r="O283" s="49"/>
+      <c r="P283" s="49"/>
+      <c r="Q283" s="49"/>
+      <c r="R283" s="49"/>
+      <c r="S283" s="49"/>
+      <c r="T283" s="49"/>
+      <c r="U283" s="49"/>
+      <c r="V283" s="49"/>
+      <c r="W283" s="49"/>
+      <c r="X283" s="49"/>
+      <c r="Y283" s="49"/>
+      <c r="Z283" s="49"/>
+      <c r="AA283" s="49"/>
     </row>
     <row r="284" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-      <c r="H284" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="I284" s="66"/>
-      <c r="J284" s="66"/>
-      <c r="K284" s="66"/>
-      <c r="L284" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="M284" s="68"/>
-      <c r="N284" s="68"/>
-      <c r="O284" s="68"/>
-      <c r="P284" s="68"/>
-      <c r="Q284" s="68"/>
-      <c r="R284" s="68"/>
-      <c r="S284" s="68"/>
-      <c r="T284" s="68"/>
-      <c r="U284" s="68"/>
-      <c r="V284" s="68"/>
-      <c r="W284" s="68"/>
-      <c r="X284" s="68"/>
-      <c r="Y284" s="68"/>
-      <c r="Z284" s="68"/>
-      <c r="AA284" s="68"/>
+      <c r="H284" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="I284" s="75"/>
+      <c r="J284" s="75"/>
+      <c r="K284" s="75"/>
+      <c r="L284" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="M284" s="76"/>
+      <c r="N284" s="76"/>
+      <c r="O284" s="76"/>
+      <c r="P284" s="76"/>
+      <c r="Q284" s="76"/>
+      <c r="R284" s="76"/>
+      <c r="S284" s="76"/>
+      <c r="T284" s="76"/>
+      <c r="U284" s="76"/>
+      <c r="V284" s="76"/>
+      <c r="W284" s="76"/>
+      <c r="X284" s="76"/>
+      <c r="Y284" s="76"/>
+      <c r="Z284" s="76"/>
+      <c r="AA284" s="76"/>
     </row>
     <row r="285" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-      <c r="H285" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="I285" s="66"/>
-      <c r="J285" s="66"/>
-      <c r="K285" s="66"/>
-      <c r="L285" s="68"/>
-      <c r="M285" s="68"/>
-      <c r="N285" s="68"/>
-      <c r="O285" s="68"/>
-      <c r="P285" s="68"/>
-      <c r="Q285" s="68"/>
-      <c r="R285" s="68"/>
-      <c r="S285" s="68"/>
-      <c r="T285" s="68"/>
-      <c r="U285" s="68"/>
-      <c r="V285" s="68"/>
-      <c r="W285" s="68"/>
-      <c r="X285" s="68"/>
-      <c r="Y285" s="68"/>
-      <c r="Z285" s="68"/>
-      <c r="AA285" s="68"/>
+      <c r="H285" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="I285" s="75"/>
+      <c r="J285" s="75"/>
+      <c r="K285" s="75"/>
+      <c r="L285" s="76"/>
+      <c r="M285" s="76"/>
+      <c r="N285" s="76"/>
+      <c r="O285" s="76"/>
+      <c r="P285" s="76"/>
+      <c r="Q285" s="76"/>
+      <c r="R285" s="76"/>
+      <c r="S285" s="76"/>
+      <c r="T285" s="76"/>
+      <c r="U285" s="76"/>
+      <c r="V285" s="76"/>
+      <c r="W285" s="76"/>
+      <c r="X285" s="76"/>
+      <c r="Y285" s="76"/>
+      <c r="Z285" s="76"/>
+      <c r="AA285" s="76"/>
     </row>
     <row r="286" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-      <c r="H286" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="I286" s="66"/>
-      <c r="J286" s="66"/>
-      <c r="K286" s="66"/>
-      <c r="L286" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="M286" s="66"/>
-      <c r="N286" s="66"/>
-      <c r="O286" s="66"/>
-      <c r="P286" s="66"/>
-      <c r="Q286" s="66"/>
-      <c r="R286" s="66"/>
-      <c r="S286" s="66"/>
-      <c r="T286" s="66"/>
-      <c r="U286" s="66"/>
-      <c r="V286" s="66"/>
-      <c r="W286" s="66"/>
-      <c r="X286" s="66"/>
-      <c r="Y286" s="66"/>
-      <c r="Z286" s="66"/>
-      <c r="AA286" s="66"/>
+      <c r="H286" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="I286" s="75"/>
+      <c r="J286" s="75"/>
+      <c r="K286" s="75"/>
+      <c r="L286" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="M286" s="76"/>
+      <c r="N286" s="76"/>
+      <c r="O286" s="76"/>
+      <c r="P286" s="76"/>
+      <c r="Q286" s="76"/>
+      <c r="R286" s="76"/>
+      <c r="S286" s="76"/>
+      <c r="T286" s="76"/>
+      <c r="U286" s="76"/>
+      <c r="V286" s="76"/>
+      <c r="W286" s="76"/>
+      <c r="X286" s="76"/>
+      <c r="Y286" s="76"/>
+      <c r="Z286" s="76"/>
+      <c r="AA286" s="76"/>
     </row>
     <row r="287" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
+      <c r="H287" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="I287" s="75"/>
+      <c r="J287" s="75"/>
+      <c r="K287" s="75"/>
+      <c r="L287" s="76"/>
+      <c r="M287" s="76"/>
+      <c r="N287" s="76"/>
+      <c r="O287" s="76"/>
+      <c r="P287" s="76"/>
+      <c r="Q287" s="76"/>
+      <c r="R287" s="76"/>
+      <c r="S287" s="76"/>
+      <c r="T287" s="76"/>
+      <c r="U287" s="76"/>
+      <c r="V287" s="76"/>
+      <c r="W287" s="76"/>
+      <c r="X287" s="76"/>
+      <c r="Y287" s="76"/>
+      <c r="Z287" s="76"/>
+      <c r="AA287" s="76"/>
     </row>
     <row r="288" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
-      <c r="G288" s="25" t="s">
-        <v>133</v>
-      </c>
+      <c r="H288" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I288" s="75"/>
+      <c r="J288" s="75"/>
+      <c r="K288" s="75"/>
+      <c r="L288" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="M288" s="75"/>
+      <c r="N288" s="75"/>
+      <c r="O288" s="75"/>
+      <c r="P288" s="75"/>
+      <c r="Q288" s="75"/>
+      <c r="R288" s="75"/>
+      <c r="S288" s="75"/>
+      <c r="T288" s="75"/>
+      <c r="U288" s="75"/>
+      <c r="V288" s="75"/>
+      <c r="W288" s="75"/>
+      <c r="X288" s="75"/>
+      <c r="Y288" s="75"/>
+      <c r="Z288" s="75"/>
+      <c r="AA288" s="75"/>
     </row>
     <row r="289" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
-      <c r="H289" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="I289" s="67"/>
-      <c r="J289" s="67"/>
-      <c r="K289" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="L289" s="67"/>
-      <c r="M289" s="67"/>
-      <c r="N289" s="67"/>
-      <c r="O289" s="67"/>
-      <c r="P289" s="67"/>
-      <c r="Q289" s="67"/>
-      <c r="R289" s="67"/>
-      <c r="S289" s="67"/>
-      <c r="T289" s="67"/>
-      <c r="U289" s="67"/>
     </row>
     <row r="290" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-      <c r="H290" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="I290" s="66"/>
-      <c r="J290" s="66"/>
-      <c r="K290" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="L290" s="66"/>
-      <c r="M290" s="66"/>
-      <c r="N290" s="66"/>
-      <c r="O290" s="66"/>
-      <c r="P290" s="66"/>
-      <c r="Q290" s="66"/>
-      <c r="R290" s="66"/>
-      <c r="S290" s="66"/>
-      <c r="T290" s="66"/>
-      <c r="U290" s="66"/>
+      <c r="G290" s="25" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="291" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-      <c r="H291" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="I291" s="66"/>
-      <c r="J291" s="66"/>
-      <c r="K291" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="L291" s="66"/>
-      <c r="M291" s="66"/>
-      <c r="N291" s="66"/>
-      <c r="O291" s="66"/>
-      <c r="P291" s="66"/>
-      <c r="Q291" s="66"/>
-      <c r="R291" s="66"/>
-      <c r="S291" s="66"/>
-      <c r="T291" s="66"/>
-      <c r="U291" s="66"/>
+      <c r="H291" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I291" s="49"/>
+      <c r="J291" s="49"/>
+      <c r="K291" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="L291" s="49"/>
+      <c r="M291" s="49"/>
+      <c r="N291" s="49"/>
+      <c r="O291" s="49"/>
+      <c r="P291" s="49"/>
+      <c r="Q291" s="49"/>
+      <c r="R291" s="49"/>
+      <c r="S291" s="49"/>
+      <c r="T291" s="49"/>
+      <c r="U291" s="49"/>
     </row>
     <row r="292" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-      <c r="H292" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="I292" s="66"/>
-      <c r="J292" s="66"/>
-      <c r="K292" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="L292" s="66"/>
-      <c r="M292" s="66"/>
-      <c r="N292" s="66"/>
-      <c r="O292" s="66"/>
-      <c r="P292" s="66"/>
-      <c r="Q292" s="66"/>
-      <c r="R292" s="66"/>
-      <c r="S292" s="66"/>
-      <c r="T292" s="66"/>
-      <c r="U292" s="66"/>
+      <c r="H292" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I292" s="75"/>
+      <c r="J292" s="75"/>
+      <c r="K292" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="L292" s="75"/>
+      <c r="M292" s="75"/>
+      <c r="N292" s="75"/>
+      <c r="O292" s="75"/>
+      <c r="P292" s="75"/>
+      <c r="Q292" s="75"/>
+      <c r="R292" s="75"/>
+      <c r="S292" s="75"/>
+      <c r="T292" s="75"/>
+      <c r="U292" s="75"/>
     </row>
     <row r="293" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
-      <c r="H293" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="I293" s="66"/>
-      <c r="J293" s="66"/>
-      <c r="K293" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="L293" s="66"/>
-      <c r="M293" s="66"/>
-      <c r="N293" s="66"/>
-      <c r="O293" s="66"/>
-      <c r="P293" s="66"/>
-      <c r="Q293" s="66"/>
-      <c r="R293" s="66"/>
-      <c r="S293" s="66"/>
-      <c r="T293" s="66"/>
-      <c r="U293" s="66"/>
+      <c r="H293" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="I293" s="75"/>
+      <c r="J293" s="75"/>
+      <c r="K293" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="L293" s="75"/>
+      <c r="M293" s="75"/>
+      <c r="N293" s="75"/>
+      <c r="O293" s="75"/>
+      <c r="P293" s="75"/>
+      <c r="Q293" s="75"/>
+      <c r="R293" s="75"/>
+      <c r="S293" s="75"/>
+      <c r="T293" s="75"/>
+      <c r="U293" s="75"/>
     </row>
     <row r="294" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
+      <c r="H294" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I294" s="75"/>
+      <c r="J294" s="75"/>
+      <c r="K294" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="L294" s="75"/>
+      <c r="M294" s="75"/>
+      <c r="N294" s="75"/>
+      <c r="O294" s="75"/>
+      <c r="P294" s="75"/>
+      <c r="Q294" s="75"/>
+      <c r="R294" s="75"/>
+      <c r="S294" s="75"/>
+      <c r="T294" s="75"/>
+      <c r="U294" s="75"/>
     </row>
     <row r="295" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
-      <c r="G295" s="25" t="s">
-        <v>187</v>
-      </c>
+      <c r="H295" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I295" s="75"/>
+      <c r="J295" s="75"/>
+      <c r="K295" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="L295" s="75"/>
+      <c r="M295" s="75"/>
+      <c r="N295" s="75"/>
+      <c r="O295" s="75"/>
+      <c r="P295" s="75"/>
+      <c r="Q295" s="75"/>
+      <c r="R295" s="75"/>
+      <c r="S295" s="75"/>
+      <c r="T295" s="75"/>
+      <c r="U295" s="75"/>
     </row>
     <row r="296" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
-      <c r="H296" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="I296" s="67"/>
-      <c r="J296" s="67"/>
-      <c r="K296" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="L296" s="67"/>
-      <c r="M296" s="67"/>
-      <c r="N296" s="67"/>
-      <c r="O296" s="67"/>
-      <c r="P296" s="67"/>
-      <c r="Q296" s="67"/>
-      <c r="R296" s="67"/>
-      <c r="S296" s="67"/>
-      <c r="T296" s="67"/>
-      <c r="U296" s="67"/>
     </row>
     <row r="297" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
-      <c r="H297" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="I297" s="66"/>
-      <c r="J297" s="66"/>
-      <c r="K297" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="L297" s="66"/>
-      <c r="M297" s="66"/>
-      <c r="N297" s="66"/>
-      <c r="O297" s="66"/>
-      <c r="P297" s="66"/>
-      <c r="Q297" s="66"/>
-      <c r="R297" s="66"/>
-      <c r="S297" s="66"/>
-      <c r="T297" s="66"/>
-      <c r="U297" s="66"/>
+      <c r="G297" s="25" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="298" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
-      <c r="H298" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="I298" s="66"/>
-      <c r="J298" s="66"/>
-      <c r="K298" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="L298" s="66"/>
-      <c r="M298" s="66"/>
-      <c r="N298" s="66"/>
-      <c r="O298" s="66"/>
-      <c r="P298" s="66"/>
-      <c r="Q298" s="66"/>
-      <c r="R298" s="66"/>
-      <c r="S298" s="66"/>
-      <c r="T298" s="66"/>
-      <c r="U298" s="66"/>
+      <c r="H298" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="I298" s="49"/>
+      <c r="J298" s="49"/>
+      <c r="K298" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="L298" s="49"/>
+      <c r="M298" s="49"/>
+      <c r="N298" s="49"/>
+      <c r="O298" s="49"/>
+      <c r="P298" s="49"/>
+      <c r="Q298" s="49"/>
+      <c r="R298" s="49"/>
+      <c r="S298" s="49"/>
+      <c r="T298" s="49"/>
+      <c r="U298" s="49"/>
     </row>
     <row r="299" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
-      <c r="H299" s="66" t="s">
+      <c r="H299" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="I299" s="75"/>
+      <c r="J299" s="75"/>
+      <c r="K299" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="I299" s="66"/>
-      <c r="J299" s="66"/>
-      <c r="K299" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="L299" s="66"/>
-      <c r="M299" s="66"/>
-      <c r="N299" s="66"/>
-      <c r="O299" s="66"/>
-      <c r="P299" s="66"/>
-      <c r="Q299" s="66"/>
-      <c r="R299" s="66"/>
-      <c r="S299" s="66"/>
-      <c r="T299" s="66"/>
-      <c r="U299" s="66"/>
+      <c r="L299" s="75"/>
+      <c r="M299" s="75"/>
+      <c r="N299" s="75"/>
+      <c r="O299" s="75"/>
+      <c r="P299" s="75"/>
+      <c r="Q299" s="75"/>
+      <c r="R299" s="75"/>
+      <c r="S299" s="75"/>
+      <c r="T299" s="75"/>
+      <c r="U299" s="75"/>
     </row>
     <row r="300" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
+      <c r="H300" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="I300" s="75"/>
+      <c r="J300" s="75"/>
+      <c r="K300" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="L300" s="75"/>
+      <c r="M300" s="75"/>
+      <c r="N300" s="75"/>
+      <c r="O300" s="75"/>
+      <c r="P300" s="75"/>
+      <c r="Q300" s="75"/>
+      <c r="R300" s="75"/>
+      <c r="S300" s="75"/>
+      <c r="T300" s="75"/>
+      <c r="U300" s="75"/>
     </row>
     <row r="301" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
-      <c r="G301" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="H301" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="I301" s="75"/>
+      <c r="J301" s="75"/>
+      <c r="K301" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="L301" s="75"/>
+      <c r="M301" s="75"/>
+      <c r="N301" s="75"/>
+      <c r="O301" s="75"/>
+      <c r="P301" s="75"/>
+      <c r="Q301" s="75"/>
+      <c r="R301" s="75"/>
+      <c r="S301" s="75"/>
+      <c r="T301" s="75"/>
+      <c r="U301" s="75"/>
     </row>
     <row r="302" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D302" s="15"/>
@@ -6069,133 +6089,136 @@
     <row r="303" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
-      <c r="F303" s="15"/>
-      <c r="H303" s="21"/>
-      <c r="I303" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="J303" s="72"/>
-      <c r="K303" s="72"/>
-      <c r="L303" s="72"/>
-      <c r="M303" s="72"/>
+      <c r="G303" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="304" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
-      <c r="F304" s="15"/>
-      <c r="H304" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="I304" s="24"/>
-      <c r="J304" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K304" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L304" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M304" s="24" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="305" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
-      <c r="H305" s="73"/>
-      <c r="I305" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J305" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K305" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L305" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M305" s="23" t="s">
-        <v>81</v>
-      </c>
+      <c r="H305" s="21"/>
+      <c r="I305" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="J305" s="48"/>
+      <c r="K305" s="48"/>
+      <c r="L305" s="48"/>
+      <c r="M305" s="48"/>
     </row>
     <row r="306" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
-      <c r="H306" s="73"/>
-      <c r="I306" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J306" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K306" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L306" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="M306" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="P306" s="4" t="s">
-        <v>89</v>
+      <c r="H306" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="I306" s="24"/>
+      <c r="J306" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K306" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L306" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="M306" s="24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="307" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
-      <c r="H307" s="73"/>
+      <c r="H307" s="74"/>
       <c r="I307" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J307" s="23" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K307" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L307" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M307" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="P307" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="308" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
+      <c r="F308" s="15"/>
+      <c r="H308" s="74"/>
+      <c r="I308" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J308" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K308" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L308" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M308" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P308" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="309" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
+      <c r="F309" s="15"/>
+      <c r="H309" s="74"/>
+      <c r="I309" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J309" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="K309" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L309" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M309" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P309" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="310" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
-      <c r="G310" s="25" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="311" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
-      <c r="G311" s="25"/>
     </row>
     <row r="312" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
+      <c r="G312" s="25" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="313" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
+      <c r="G313" s="25"/>
     </row>
     <row r="314" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D314" s="15"/>
@@ -6231,459 +6254,465 @@
     </row>
     <row r="322" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D322" s="15"/>
+      <c r="E322" s="15"/>
     </row>
     <row r="323" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D323" s="15" t="str">
+      <c r="D323" s="15"/>
+      <c r="E323" s="15"/>
+    </row>
+    <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D324" s="15"/>
+    </row>
+    <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D325" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.5.3.</v>
       </c>
-      <c r="E323" s="4" t="s">
+      <c r="E325" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D324" s="15"/>
-      <c r="E324" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D325" s="15"/>
     </row>
     <row r="326" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D326" s="15"/>
-      <c r="E326" s="26"/>
-      <c r="F326" s="27"/>
-      <c r="G326" s="27"/>
-      <c r="H326" s="27"/>
-      <c r="I326" s="27"/>
-      <c r="J326" s="27"/>
-      <c r="K326" s="27"/>
-      <c r="L326" s="28"/>
-      <c r="M326" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="N326" s="67"/>
-      <c r="O326" s="67"/>
-      <c r="P326" s="67"/>
-      <c r="Q326" s="67"/>
-      <c r="R326" s="67"/>
-      <c r="S326" s="67"/>
-      <c r="T326" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="U326" s="72"/>
-      <c r="V326" s="72"/>
-      <c r="W326" s="72"/>
-      <c r="X326" s="72"/>
-      <c r="Y326" s="72"/>
-      <c r="Z326" s="72"/>
-      <c r="AA326" s="72"/>
-      <c r="AB326" s="72"/>
-      <c r="AC326" s="72"/>
-      <c r="AD326" s="72"/>
-      <c r="AE326" s="72"/>
-      <c r="AF326" s="72"/>
-      <c r="AG326" s="72"/>
+      <c r="E326" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="327" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D327" s="15"/>
-      <c r="E327" s="29"/>
-      <c r="F327" s="30"/>
-      <c r="G327" s="30"/>
-      <c r="H327" s="30"/>
-      <c r="I327" s="30"/>
-      <c r="J327" s="30"/>
-      <c r="K327" s="30"/>
-      <c r="L327" s="31"/>
-      <c r="M327" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="N327" s="67"/>
-      <c r="O327" s="67"/>
-      <c r="P327" s="67"/>
-      <c r="Q327" s="67"/>
-      <c r="R327" s="67"/>
-      <c r="S327" s="67"/>
-      <c r="T327" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="U327" s="67"/>
-      <c r="V327" s="67"/>
-      <c r="W327" s="67"/>
-      <c r="X327" s="67"/>
-      <c r="Y327" s="67"/>
-      <c r="Z327" s="67"/>
-      <c r="AA327" s="67"/>
-      <c r="AB327" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC327" s="67"/>
-      <c r="AD327" s="67"/>
-      <c r="AE327" s="67"/>
-      <c r="AF327" s="67"/>
-      <c r="AG327" s="67"/>
     </row>
     <row r="328" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D328" s="15"/>
-      <c r="E328" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="F328" s="69"/>
-      <c r="G328" s="69"/>
-      <c r="H328" s="69"/>
-      <c r="I328" s="69"/>
-      <c r="J328" s="69"/>
-      <c r="K328" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="L328" s="75"/>
-      <c r="M328" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="N328" s="98"/>
-      <c r="O328" s="98"/>
-      <c r="P328" s="98"/>
-      <c r="Q328" s="98"/>
-      <c r="R328" s="98"/>
-      <c r="S328" s="98"/>
-      <c r="T328" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="U328" s="87"/>
-      <c r="V328" s="87"/>
-      <c r="W328" s="87"/>
-      <c r="X328" s="87"/>
-      <c r="Y328" s="87"/>
-      <c r="Z328" s="87"/>
-      <c r="AA328" s="88"/>
-      <c r="AB328" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC328" s="78"/>
-      <c r="AD328" s="78"/>
-      <c r="AE328" s="78"/>
-      <c r="AF328" s="78"/>
-      <c r="AG328" s="79"/>
+      <c r="E328" s="26"/>
+      <c r="F328" s="27"/>
+      <c r="G328" s="27"/>
+      <c r="H328" s="27"/>
+      <c r="I328" s="27"/>
+      <c r="J328" s="27"/>
+      <c r="K328" s="27"/>
+      <c r="L328" s="28"/>
+      <c r="M328" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="N328" s="49"/>
+      <c r="O328" s="49"/>
+      <c r="P328" s="49"/>
+      <c r="Q328" s="49"/>
+      <c r="R328" s="49"/>
+      <c r="S328" s="49"/>
+      <c r="T328" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="U328" s="48"/>
+      <c r="V328" s="48"/>
+      <c r="W328" s="48"/>
+      <c r="X328" s="48"/>
+      <c r="Y328" s="48"/>
+      <c r="Z328" s="48"/>
+      <c r="AA328" s="48"/>
+      <c r="AB328" s="48"/>
+      <c r="AC328" s="48"/>
+      <c r="AD328" s="48"/>
+      <c r="AE328" s="48"/>
+      <c r="AF328" s="48"/>
+      <c r="AG328" s="48"/>
     </row>
     <row r="329" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D329" s="15"/>
-      <c r="E329" s="70"/>
-      <c r="F329" s="70"/>
-      <c r="G329" s="70"/>
-      <c r="H329" s="70"/>
-      <c r="I329" s="70"/>
-      <c r="J329" s="70"/>
-      <c r="K329" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="L329" s="75"/>
-      <c r="M329" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="N329" s="98"/>
-      <c r="O329" s="98"/>
-      <c r="P329" s="98"/>
-      <c r="Q329" s="98"/>
-      <c r="R329" s="98"/>
-      <c r="S329" s="98"/>
-      <c r="T329" s="89"/>
-      <c r="U329" s="90"/>
-      <c r="V329" s="90"/>
-      <c r="W329" s="90"/>
-      <c r="X329" s="90"/>
-      <c r="Y329" s="90"/>
-      <c r="Z329" s="90"/>
-      <c r="AA329" s="91"/>
-      <c r="AB329" s="80"/>
-      <c r="AC329" s="81"/>
-      <c r="AD329" s="81"/>
-      <c r="AE329" s="81"/>
-      <c r="AF329" s="81"/>
-      <c r="AG329" s="82"/>
+      <c r="E329" s="29"/>
+      <c r="F329" s="30"/>
+      <c r="G329" s="30"/>
+      <c r="H329" s="30"/>
+      <c r="I329" s="30"/>
+      <c r="J329" s="30"/>
+      <c r="K329" s="30"/>
+      <c r="L329" s="31"/>
+      <c r="M329" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="N329" s="49"/>
+      <c r="O329" s="49"/>
+      <c r="P329" s="49"/>
+      <c r="Q329" s="49"/>
+      <c r="R329" s="49"/>
+      <c r="S329" s="49"/>
+      <c r="T329" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="U329" s="49"/>
+      <c r="V329" s="49"/>
+      <c r="W329" s="49"/>
+      <c r="X329" s="49"/>
+      <c r="Y329" s="49"/>
+      <c r="Z329" s="49"/>
+      <c r="AA329" s="49"/>
+      <c r="AB329" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC329" s="49"/>
+      <c r="AD329" s="49"/>
+      <c r="AE329" s="49"/>
+      <c r="AF329" s="49"/>
+      <c r="AG329" s="49"/>
     </row>
     <row r="330" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="15"/>
-      <c r="E330" s="70"/>
-      <c r="F330" s="70"/>
-      <c r="G330" s="70"/>
-      <c r="H330" s="70"/>
-      <c r="I330" s="70"/>
-      <c r="J330" s="70"/>
-      <c r="K330" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="L330" s="75"/>
-      <c r="M330" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="N330" s="98"/>
-      <c r="O330" s="98"/>
-      <c r="P330" s="98"/>
-      <c r="Q330" s="98"/>
-      <c r="R330" s="98"/>
-      <c r="S330" s="98"/>
-      <c r="T330" s="89"/>
-      <c r="U330" s="90"/>
-      <c r="V330" s="90"/>
-      <c r="W330" s="90"/>
-      <c r="X330" s="90"/>
-      <c r="Y330" s="90"/>
-      <c r="Z330" s="90"/>
-      <c r="AA330" s="91"/>
-      <c r="AB330" s="80"/>
-      <c r="AC330" s="81"/>
-      <c r="AD330" s="81"/>
-      <c r="AE330" s="81"/>
-      <c r="AF330" s="81"/>
-      <c r="AG330" s="82"/>
+      <c r="E330" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="F330" s="71"/>
+      <c r="G330" s="71"/>
+      <c r="H330" s="71"/>
+      <c r="I330" s="71"/>
+      <c r="J330" s="71"/>
+      <c r="K330" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="L330" s="51"/>
+      <c r="M330" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="N330" s="44"/>
+      <c r="O330" s="44"/>
+      <c r="P330" s="44"/>
+      <c r="Q330" s="44"/>
+      <c r="R330" s="44"/>
+      <c r="S330" s="44"/>
+      <c r="T330" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="U330" s="62"/>
+      <c r="V330" s="62"/>
+      <c r="W330" s="62"/>
+      <c r="X330" s="62"/>
+      <c r="Y330" s="62"/>
+      <c r="Z330" s="62"/>
+      <c r="AA330" s="63"/>
+      <c r="AB330" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC330" s="53"/>
+      <c r="AD330" s="53"/>
+      <c r="AE330" s="53"/>
+      <c r="AF330" s="53"/>
+      <c r="AG330" s="54"/>
     </row>
     <row r="331" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D331" s="15"/>
-      <c r="E331" s="71"/>
-      <c r="F331" s="71"/>
-      <c r="G331" s="71"/>
-      <c r="H331" s="71"/>
-      <c r="I331" s="71"/>
-      <c r="J331" s="71"/>
-      <c r="K331" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="L331" s="75"/>
-      <c r="M331" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="N331" s="98"/>
-      <c r="O331" s="98"/>
-      <c r="P331" s="98"/>
-      <c r="Q331" s="98"/>
-      <c r="R331" s="98"/>
-      <c r="S331" s="98"/>
-      <c r="T331" s="92"/>
-      <c r="U331" s="93"/>
-      <c r="V331" s="93"/>
-      <c r="W331" s="93"/>
-      <c r="X331" s="93"/>
-      <c r="Y331" s="93"/>
-      <c r="Z331" s="93"/>
-      <c r="AA331" s="94"/>
-      <c r="AB331" s="83"/>
-      <c r="AC331" s="84"/>
-      <c r="AD331" s="84"/>
-      <c r="AE331" s="84"/>
-      <c r="AF331" s="84"/>
-      <c r="AG331" s="85"/>
-    </row>
-    <row r="332" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E331" s="72"/>
+      <c r="F331" s="72"/>
+      <c r="G331" s="72"/>
+      <c r="H331" s="72"/>
+      <c r="I331" s="72"/>
+      <c r="J331" s="72"/>
+      <c r="K331" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="L331" s="51"/>
+      <c r="M331" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="N331" s="44"/>
+      <c r="O331" s="44"/>
+      <c r="P331" s="44"/>
+      <c r="Q331" s="44"/>
+      <c r="R331" s="44"/>
+      <c r="S331" s="44"/>
+      <c r="T331" s="64"/>
+      <c r="U331" s="65"/>
+      <c r="V331" s="65"/>
+      <c r="W331" s="65"/>
+      <c r="X331" s="65"/>
+      <c r="Y331" s="65"/>
+      <c r="Z331" s="65"/>
+      <c r="AA331" s="66"/>
+      <c r="AB331" s="55"/>
+      <c r="AC331" s="56"/>
+      <c r="AD331" s="56"/>
+      <c r="AE331" s="56"/>
+      <c r="AF331" s="56"/>
+      <c r="AG331" s="57"/>
+    </row>
+    <row r="332" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D332" s="15"/>
-      <c r="E332" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="F332" s="76"/>
-      <c r="G332" s="76"/>
-      <c r="H332" s="76"/>
-      <c r="I332" s="76"/>
-      <c r="J332" s="76"/>
-      <c r="K332" s="76"/>
-      <c r="L332" s="75"/>
-      <c r="M332" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="N332" s="98"/>
-      <c r="O332" s="98"/>
-      <c r="P332" s="98"/>
-      <c r="Q332" s="98"/>
-      <c r="R332" s="98"/>
-      <c r="S332" s="98"/>
-      <c r="T332" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="U332" s="100"/>
-      <c r="V332" s="100"/>
-      <c r="W332" s="100"/>
-      <c r="X332" s="100"/>
-      <c r="Y332" s="100"/>
-      <c r="Z332" s="100"/>
-      <c r="AA332" s="101"/>
-      <c r="AB332" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC332" s="98"/>
-      <c r="AD332" s="98"/>
-      <c r="AE332" s="98"/>
-      <c r="AF332" s="98"/>
-      <c r="AG332" s="98"/>
+      <c r="E332" s="72"/>
+      <c r="F332" s="72"/>
+      <c r="G332" s="72"/>
+      <c r="H332" s="72"/>
+      <c r="I332" s="72"/>
+      <c r="J332" s="72"/>
+      <c r="K332" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="L332" s="51"/>
+      <c r="M332" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="N332" s="44"/>
+      <c r="O332" s="44"/>
+      <c r="P332" s="44"/>
+      <c r="Q332" s="44"/>
+      <c r="R332" s="44"/>
+      <c r="S332" s="44"/>
+      <c r="T332" s="64"/>
+      <c r="U332" s="65"/>
+      <c r="V332" s="65"/>
+      <c r="W332" s="65"/>
+      <c r="X332" s="65"/>
+      <c r="Y332" s="65"/>
+      <c r="Z332" s="65"/>
+      <c r="AA332" s="66"/>
+      <c r="AB332" s="55"/>
+      <c r="AC332" s="56"/>
+      <c r="AD332" s="56"/>
+      <c r="AE332" s="56"/>
+      <c r="AF332" s="56"/>
+      <c r="AG332" s="57"/>
     </row>
     <row r="333" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D333" s="15"/>
-      <c r="E333" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="F333" s="76"/>
-      <c r="G333" s="76"/>
-      <c r="H333" s="76"/>
-      <c r="I333" s="76"/>
-      <c r="J333" s="76"/>
-      <c r="K333" s="76"/>
-      <c r="L333" s="75"/>
-      <c r="M333" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="N333" s="98"/>
-      <c r="O333" s="98"/>
-      <c r="P333" s="98"/>
-      <c r="Q333" s="98"/>
-      <c r="R333" s="98"/>
-      <c r="S333" s="98"/>
-      <c r="T333" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="U333" s="98"/>
-      <c r="V333" s="98"/>
-      <c r="W333" s="98"/>
-      <c r="X333" s="98"/>
-      <c r="Y333" s="98"/>
-      <c r="Z333" s="98"/>
-      <c r="AA333" s="98"/>
-      <c r="AB333" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC333" s="98"/>
-      <c r="AD333" s="98"/>
-      <c r="AE333" s="98"/>
-      <c r="AF333" s="98"/>
-      <c r="AG333" s="98"/>
-    </row>
-    <row r="334" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E333" s="73"/>
+      <c r="F333" s="73"/>
+      <c r="G333" s="73"/>
+      <c r="H333" s="73"/>
+      <c r="I333" s="73"/>
+      <c r="J333" s="73"/>
+      <c r="K333" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="L333" s="51"/>
+      <c r="M333" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="N333" s="44"/>
+      <c r="O333" s="44"/>
+      <c r="P333" s="44"/>
+      <c r="Q333" s="44"/>
+      <c r="R333" s="44"/>
+      <c r="S333" s="44"/>
+      <c r="T333" s="67"/>
+      <c r="U333" s="68"/>
+      <c r="V333" s="68"/>
+      <c r="W333" s="68"/>
+      <c r="X333" s="68"/>
+      <c r="Y333" s="68"/>
+      <c r="Z333" s="68"/>
+      <c r="AA333" s="69"/>
+      <c r="AB333" s="58"/>
+      <c r="AC333" s="59"/>
+      <c r="AD333" s="59"/>
+      <c r="AE333" s="59"/>
+      <c r="AF333" s="59"/>
+      <c r="AG333" s="60"/>
+    </row>
+    <row r="334" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D334" s="15"/>
-      <c r="E334" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="F334" s="69"/>
-      <c r="G334" s="69"/>
-      <c r="H334" s="69"/>
-      <c r="I334" s="69"/>
-      <c r="J334" s="69"/>
-      <c r="K334" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="L334" s="75"/>
-      <c r="M334" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="N334" s="96"/>
-      <c r="O334" s="96"/>
-      <c r="P334" s="96"/>
-      <c r="Q334" s="96"/>
-      <c r="R334" s="96"/>
-      <c r="S334" s="97"/>
-      <c r="T334" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="U334" s="96"/>
-      <c r="V334" s="96"/>
-      <c r="W334" s="96"/>
-      <c r="X334" s="96"/>
-      <c r="Y334" s="96"/>
-      <c r="Z334" s="96"/>
-      <c r="AA334" s="96"/>
-      <c r="AB334" s="96"/>
-      <c r="AC334" s="96"/>
-      <c r="AD334" s="96"/>
-      <c r="AE334" s="96"/>
-      <c r="AF334" s="96"/>
-      <c r="AG334" s="97"/>
+      <c r="E334" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F334" s="70"/>
+      <c r="G334" s="70"/>
+      <c r="H334" s="70"/>
+      <c r="I334" s="70"/>
+      <c r="J334" s="70"/>
+      <c r="K334" s="70"/>
+      <c r="L334" s="51"/>
+      <c r="M334" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="N334" s="44"/>
+      <c r="O334" s="44"/>
+      <c r="P334" s="44"/>
+      <c r="Q334" s="44"/>
+      <c r="R334" s="44"/>
+      <c r="S334" s="44"/>
+      <c r="T334" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="U334" s="46"/>
+      <c r="V334" s="46"/>
+      <c r="W334" s="46"/>
+      <c r="X334" s="46"/>
+      <c r="Y334" s="46"/>
+      <c r="Z334" s="46"/>
+      <c r="AA334" s="47"/>
+      <c r="AB334" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC334" s="44"/>
+      <c r="AD334" s="44"/>
+      <c r="AE334" s="44"/>
+      <c r="AF334" s="44"/>
+      <c r="AG334" s="44"/>
     </row>
     <row r="335" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D335" s="15"/>
-      <c r="E335" s="70"/>
+      <c r="E335" s="50" t="s">
+        <v>114</v>
+      </c>
       <c r="F335" s="70"/>
       <c r="G335" s="70"/>
       <c r="H335" s="70"/>
       <c r="I335" s="70"/>
       <c r="J335" s="70"/>
-      <c r="K335" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="L335" s="75"/>
-      <c r="M335" s="95"/>
-      <c r="N335" s="96"/>
-      <c r="O335" s="96"/>
-      <c r="P335" s="96"/>
-      <c r="Q335" s="96"/>
-      <c r="R335" s="96"/>
-      <c r="S335" s="97"/>
-      <c r="T335" s="95"/>
-      <c r="U335" s="96"/>
-      <c r="V335" s="96"/>
-      <c r="W335" s="96"/>
-      <c r="X335" s="96"/>
-      <c r="Y335" s="96"/>
-      <c r="Z335" s="96"/>
-      <c r="AA335" s="96"/>
-      <c r="AB335" s="96"/>
-      <c r="AC335" s="96"/>
-      <c r="AD335" s="96"/>
-      <c r="AE335" s="96"/>
-      <c r="AF335" s="96"/>
-      <c r="AG335" s="97"/>
+      <c r="K335" s="70"/>
+      <c r="L335" s="51"/>
+      <c r="M335" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="N335" s="44"/>
+      <c r="O335" s="44"/>
+      <c r="P335" s="44"/>
+      <c r="Q335" s="44"/>
+      <c r="R335" s="44"/>
+      <c r="S335" s="44"/>
+      <c r="T335" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="U335" s="44"/>
+      <c r="V335" s="44"/>
+      <c r="W335" s="44"/>
+      <c r="X335" s="44"/>
+      <c r="Y335" s="44"/>
+      <c r="Z335" s="44"/>
+      <c r="AA335" s="44"/>
+      <c r="AB335" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC335" s="44"/>
+      <c r="AD335" s="44"/>
+      <c r="AE335" s="44"/>
+      <c r="AF335" s="44"/>
+      <c r="AG335" s="44"/>
     </row>
     <row r="336" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D336" s="15"/>
-      <c r="E336" s="71"/>
+      <c r="E336" s="71" t="s">
+        <v>117</v>
+      </c>
       <c r="F336" s="71"/>
       <c r="G336" s="71"/>
       <c r="H336" s="71"/>
       <c r="I336" s="71"/>
       <c r="J336" s="71"/>
-      <c r="K336" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="L336" s="75"/>
-      <c r="M336" s="95"/>
-      <c r="N336" s="96"/>
-      <c r="O336" s="96"/>
-      <c r="P336" s="96"/>
-      <c r="Q336" s="96"/>
-      <c r="R336" s="96"/>
-      <c r="S336" s="97"/>
-      <c r="T336" s="95"/>
-      <c r="U336" s="96"/>
-      <c r="V336" s="96"/>
-      <c r="W336" s="96"/>
-      <c r="X336" s="96"/>
-      <c r="Y336" s="96"/>
-      <c r="Z336" s="96"/>
-      <c r="AA336" s="96"/>
-      <c r="AB336" s="96"/>
-      <c r="AC336" s="96"/>
-      <c r="AD336" s="96"/>
-      <c r="AE336" s="96"/>
-      <c r="AF336" s="96"/>
-      <c r="AG336" s="97"/>
-    </row>
-    <row r="337" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K336" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="L336" s="51"/>
+      <c r="M336" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="N336" s="42"/>
+      <c r="O336" s="42"/>
+      <c r="P336" s="42"/>
+      <c r="Q336" s="42"/>
+      <c r="R336" s="42"/>
+      <c r="S336" s="43"/>
+      <c r="T336" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="U336" s="42"/>
+      <c r="V336" s="42"/>
+      <c r="W336" s="42"/>
+      <c r="X336" s="42"/>
+      <c r="Y336" s="42"/>
+      <c r="Z336" s="42"/>
+      <c r="AA336" s="42"/>
+      <c r="AB336" s="42"/>
+      <c r="AC336" s="42"/>
+      <c r="AD336" s="42"/>
+      <c r="AE336" s="42"/>
+      <c r="AF336" s="42"/>
+      <c r="AG336" s="43"/>
+    </row>
+    <row r="337" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D337" s="15"/>
-    </row>
-    <row r="338" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E337" s="72"/>
+      <c r="F337" s="72"/>
+      <c r="G337" s="72"/>
+      <c r="H337" s="72"/>
+      <c r="I337" s="72"/>
+      <c r="J337" s="72"/>
+      <c r="K337" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="L337" s="51"/>
+      <c r="M337" s="41"/>
+      <c r="N337" s="42"/>
+      <c r="O337" s="42"/>
+      <c r="P337" s="42"/>
+      <c r="Q337" s="42"/>
+      <c r="R337" s="42"/>
+      <c r="S337" s="43"/>
+      <c r="T337" s="41"/>
+      <c r="U337" s="42"/>
+      <c r="V337" s="42"/>
+      <c r="W337" s="42"/>
+      <c r="X337" s="42"/>
+      <c r="Y337" s="42"/>
+      <c r="Z337" s="42"/>
+      <c r="AA337" s="42"/>
+      <c r="AB337" s="42"/>
+      <c r="AC337" s="42"/>
+      <c r="AD337" s="42"/>
+      <c r="AE337" s="42"/>
+      <c r="AF337" s="42"/>
+      <c r="AG337" s="43"/>
+    </row>
+    <row r="338" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D338" s="15"/>
-    </row>
-    <row r="339" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E338" s="73"/>
+      <c r="F338" s="73"/>
+      <c r="G338" s="73"/>
+      <c r="H338" s="73"/>
+      <c r="I338" s="73"/>
+      <c r="J338" s="73"/>
+      <c r="K338" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="L338" s="51"/>
+      <c r="M338" s="41"/>
+      <c r="N338" s="42"/>
+      <c r="O338" s="42"/>
+      <c r="P338" s="42"/>
+      <c r="Q338" s="42"/>
+      <c r="R338" s="42"/>
+      <c r="S338" s="43"/>
+      <c r="T338" s="41"/>
+      <c r="U338" s="42"/>
+      <c r="V338" s="42"/>
+      <c r="W338" s="42"/>
+      <c r="X338" s="42"/>
+      <c r="Y338" s="42"/>
+      <c r="Z338" s="42"/>
+      <c r="AA338" s="42"/>
+      <c r="AB338" s="42"/>
+      <c r="AC338" s="42"/>
+      <c r="AD338" s="42"/>
+      <c r="AE338" s="42"/>
+      <c r="AF338" s="42"/>
+      <c r="AG338" s="43"/>
+    </row>
+    <row r="339" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D339" s="15"/>
     </row>
-    <row r="340" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D340" s="15"/>
+    </row>
+    <row r="341" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D341" s="15"/>
+    </row>
+    <row r="342" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7102,73 +7131,10 @@
     <row r="768" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="769" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="770" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="M334:S336"/>
-    <mergeCell ref="T334:AG336"/>
-    <mergeCell ref="M328:S328"/>
-    <mergeCell ref="M329:S329"/>
-    <mergeCell ref="M331:S331"/>
-    <mergeCell ref="M332:S332"/>
-    <mergeCell ref="M333:S333"/>
-    <mergeCell ref="AB332:AG332"/>
-    <mergeCell ref="AB333:AG333"/>
-    <mergeCell ref="T332:AA332"/>
-    <mergeCell ref="T333:AA333"/>
-    <mergeCell ref="M330:S330"/>
-    <mergeCell ref="T326:AG326"/>
-    <mergeCell ref="M326:S326"/>
-    <mergeCell ref="K328:L328"/>
-    <mergeCell ref="K329:L329"/>
-    <mergeCell ref="K331:L331"/>
-    <mergeCell ref="AB327:AG327"/>
-    <mergeCell ref="T327:AA327"/>
-    <mergeCell ref="AB328:AG331"/>
-    <mergeCell ref="T328:AA331"/>
-    <mergeCell ref="K330:L330"/>
-    <mergeCell ref="K334:L334"/>
-    <mergeCell ref="K335:L335"/>
-    <mergeCell ref="K336:L336"/>
-    <mergeCell ref="E332:L332"/>
-    <mergeCell ref="E333:L333"/>
-    <mergeCell ref="E334:J334"/>
-    <mergeCell ref="E335:J335"/>
-    <mergeCell ref="E336:J336"/>
-    <mergeCell ref="E328:J328"/>
-    <mergeCell ref="E329:J329"/>
-    <mergeCell ref="E331:J331"/>
-    <mergeCell ref="I303:M303"/>
-    <mergeCell ref="H304:H307"/>
-    <mergeCell ref="M327:S327"/>
-    <mergeCell ref="E330:J330"/>
-    <mergeCell ref="H296:J296"/>
-    <mergeCell ref="H297:J297"/>
-    <mergeCell ref="H298:J298"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="K296:U296"/>
-    <mergeCell ref="K297:U297"/>
-    <mergeCell ref="K298:U298"/>
-    <mergeCell ref="K299:U299"/>
-    <mergeCell ref="K289:U289"/>
-    <mergeCell ref="K290:U290"/>
-    <mergeCell ref="K291:U291"/>
-    <mergeCell ref="K292:U292"/>
-    <mergeCell ref="K293:U293"/>
-    <mergeCell ref="H289:J289"/>
-    <mergeCell ref="H290:J290"/>
-    <mergeCell ref="H291:J291"/>
-    <mergeCell ref="H292:J292"/>
-    <mergeCell ref="H293:J293"/>
-    <mergeCell ref="H286:K286"/>
-    <mergeCell ref="L281:AA281"/>
-    <mergeCell ref="L286:AA286"/>
-    <mergeCell ref="L282:AA283"/>
-    <mergeCell ref="L284:AA285"/>
-    <mergeCell ref="H281:K281"/>
-    <mergeCell ref="H282:K282"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H285:K285"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -7182,6 +7148,71 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="H288:K288"/>
+    <mergeCell ref="L283:AA283"/>
+    <mergeCell ref="L288:AA288"/>
+    <mergeCell ref="L284:AA285"/>
+    <mergeCell ref="L286:AA287"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="H285:K285"/>
+    <mergeCell ref="H286:K286"/>
+    <mergeCell ref="H287:K287"/>
+    <mergeCell ref="H291:J291"/>
+    <mergeCell ref="H292:J292"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="H294:J294"/>
+    <mergeCell ref="H295:J295"/>
+    <mergeCell ref="K291:U291"/>
+    <mergeCell ref="K292:U292"/>
+    <mergeCell ref="K293:U293"/>
+    <mergeCell ref="K294:U294"/>
+    <mergeCell ref="K295:U295"/>
+    <mergeCell ref="H298:J298"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="H301:J301"/>
+    <mergeCell ref="K298:U298"/>
+    <mergeCell ref="K299:U299"/>
+    <mergeCell ref="K300:U300"/>
+    <mergeCell ref="K301:U301"/>
+    <mergeCell ref="E330:J330"/>
+    <mergeCell ref="E331:J331"/>
+    <mergeCell ref="E333:J333"/>
+    <mergeCell ref="I305:M305"/>
+    <mergeCell ref="H306:H309"/>
+    <mergeCell ref="M329:S329"/>
+    <mergeCell ref="E332:J332"/>
+    <mergeCell ref="K336:L336"/>
+    <mergeCell ref="K337:L337"/>
+    <mergeCell ref="K338:L338"/>
+    <mergeCell ref="E334:L334"/>
+    <mergeCell ref="E335:L335"/>
+    <mergeCell ref="E336:J336"/>
+    <mergeCell ref="E337:J337"/>
+    <mergeCell ref="E338:J338"/>
+    <mergeCell ref="T328:AG328"/>
+    <mergeCell ref="M328:S328"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="K331:L331"/>
+    <mergeCell ref="K333:L333"/>
+    <mergeCell ref="AB329:AG329"/>
+    <mergeCell ref="T329:AA329"/>
+    <mergeCell ref="AB330:AG333"/>
+    <mergeCell ref="T330:AA333"/>
+    <mergeCell ref="K332:L332"/>
+    <mergeCell ref="M336:S338"/>
+    <mergeCell ref="T336:AG338"/>
+    <mergeCell ref="M330:S330"/>
+    <mergeCell ref="M331:S331"/>
+    <mergeCell ref="M333:S333"/>
+    <mergeCell ref="M334:S334"/>
+    <mergeCell ref="M335:S335"/>
+    <mergeCell ref="AB334:AG334"/>
+    <mergeCell ref="AB335:AG335"/>
+    <mergeCell ref="T334:AA334"/>
+    <mergeCell ref="T335:AA335"/>
+    <mergeCell ref="M332:S332"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7189,8 +7220,11 @@
       <formula1>"ベーシック認証,フォーム認証,OpenID認証,OAuth認証,OpenID Connect認証,カスタム認証,"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G269" r:id="rId1" xr:uid="{9F69039C-188E-4DF3-A368-DDAD525CFD56}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="8" manualBreakCount="8">
     <brk id="42" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
@@ -7198,9 +7232,9 @@
     <brk id="150" max="34" man="1"/>
     <brk id="191" max="34" man="1"/>
     <brk id="233" max="34" man="1"/>
-    <brk id="268" max="34" man="1"/>
-    <brk id="309" max="34" man="1"/>
+    <brk id="270" max="34" man="1"/>
+    <brk id="311" max="34" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A2E03-4D71-4C71-A4BA-65364106997F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63440A89-648B-4768-A437-C8BAADED1F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="7.5.認証・認可" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -649,255 +649,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>グループ名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>役職者</t>
-    <rPh sb="0" eb="3">
-      <t>ヤクショクシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>一般職</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本部</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>支部</t>
-    <rPh sb="0" eb="2">
-      <t>シブ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本部かつ役職者</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヤクショクシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>役職軸でのグループ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>事業部軸でのグループ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>役職軸、事業部軸の合成軸でのグループ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゴウセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>許可グループ</t>
-    <rPh sb="0" eb="2">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本部, 役職者, 本部かつ役職者</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヤクショクシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ヤクショクシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>所属グループ</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本部, 一般職</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>支部, 一般職</t>
-    <rPh sb="0" eb="2">
-      <t>シブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○：許可</t>
-    <rPh sb="2" eb="4">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×：不許可</t>
-    <rPh sb="2" eb="5">
-      <t>フキョカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全てのグループ</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザ、グループ毎の許可単位設定は定義しない。</t>
     <rPh sb="8" eb="9">
       <t>ゴト</t>
@@ -1187,32 +938,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者サイトのグループ設定例：</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトのリクエスト許可単位設定例：</t>
-    <rPh sb="12" eb="14">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>保守会社社員の場合：</t>
     <rPh sb="4" eb="6">
       <t>シャイン</t>
@@ -1876,36 +1601,6 @@
     </rPh>
     <rPh sb="54" eb="56">
       <t>ソウダン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトのユーザ設定</t>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>上記の例で、ユーザに対して許可されるリクエストは以下のマトリックスになる。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2226,7 +1921,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2288,65 +1983,212 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2368,171 +2210,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2928,13 +2605,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3495,7 +3172,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI772"/>
+  <dimension ref="A1:AI741"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3511,43 +3188,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="88"/>
+      <c r="R1" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="82"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3556,43 +3233,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="97"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="82"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3601,39 +3278,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="82"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3677,12 +3354,12 @@
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="4" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3770,402 +3447,402 @@
       <c r="AH17" s="20"/>
     </row>
     <row r="18" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="77" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="33" t="s">
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="34"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="34"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="31"/>
     </row>
     <row r="20" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="34"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="31"/>
     </row>
     <row r="21" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="34"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="31"/>
     </row>
     <row r="22" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="77" t="s">
+      <c r="F22" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="39" t="s">
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="40"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="37"/>
     </row>
     <row r="23" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="34"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="31"/>
     </row>
     <row r="24" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="31"/>
     </row>
     <row r="25" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="34"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="31"/>
     </row>
     <row r="26" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="34"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="31"/>
     </row>
     <row r="27" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="34"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="31"/>
     </row>
     <row r="28" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="34"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="31"/>
     </row>
     <row r="29" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="37"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="34"/>
     </row>
     <row r="30" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="16"/>
@@ -4250,25 +3927,25 @@
     <row r="34" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="15"/>
       <c r="G34" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="15"/>
       <c r="G36" s="4" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="15"/>
       <c r="G37" s="4" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4295,7 +3972,7 @@
     <row r="43" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>41</v>
@@ -4379,19 +4056,19 @@
         <v>37</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="15"/>
       <c r="H62" s="4" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="15"/>
       <c r="H63" s="4" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4534,19 +4211,19 @@
         <v>29</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4558,13 +4235,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4573,16 +4250,16 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4597,16 +4274,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4621,19 +4298,19 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15"/>
       <c r="H116" s="4" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15"/>
       <c r="H117" s="4" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4642,7 +4319,7 @@
     <row r="119" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="15"/>
       <c r="H119" s="15" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>41</v>
@@ -4651,19 +4328,19 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="15"/>
       <c r="I121" s="4" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4671,7 +4348,7 @@
     </row>
     <row r="124" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="15"/>
-      <c r="I124" s="25"/>
+      <c r="I124" s="22"/>
     </row>
     <row r="125" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="15"/>
@@ -4709,22 +4386,22 @@
     <row r="136" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="15"/>
       <c r="H136" s="15" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="15"/>
       <c r="I137" s="4" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="15"/>
       <c r="I138" s="4" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4766,7 +4443,7 @@
     <row r="151" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="15"/>
       <c r="H151" s="15" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>34</v>
@@ -4775,7 +4452,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4826,7 +4503,7 @@
     <row r="168" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>35</v>
@@ -4835,7 +4512,7 @@
     <row r="169" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="15"/>
       <c r="I169" s="15" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>36</v>
@@ -4844,7 +4521,7 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4856,19 +4533,19 @@
         <v>32</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
       <c r="H173" s="4" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
       <c r="H174" s="4" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4877,7 +4554,7 @@
     <row r="176" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="15"/>
       <c r="H176" s="15" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>41</v>
@@ -4886,19 +4563,19 @@
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
       <c r="I177" s="4" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
       <c r="I178" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4940,16 +4617,16 @@
     <row r="192" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="15"/>
       <c r="H192" s="15" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="15"/>
-      <c r="I193" s="22" t="s">
-        <v>103</v>
+      <c r="I193" s="21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4964,7 +4641,7 @@
     <row r="197" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="15"/>
       <c r="H197" s="15" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>34</v>
@@ -4973,7 +4650,7 @@
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
       <c r="I198" s="4" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5051,7 +4728,7 @@
     <row r="223" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="15"/>
       <c r="H223" s="15" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>35</v>
@@ -5060,7 +4737,7 @@
     <row r="224" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="15"/>
       <c r="I224" s="15" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>36</v>
@@ -5090,16 +4767,16 @@
     <row r="229" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="15"/>
       <c r="I229" s="15" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
       <c r="J230" s="4" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5230,7 +4907,7 @@
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
       <c r="J242" s="18" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="K242" s="19"/>
       <c r="L242" s="19"/>
@@ -5260,202 +4937,202 @@
       <c r="AH242" s="20"/>
     </row>
     <row r="243" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F243" s="32" t="s">
+      <c r="F243" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G243" s="33"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="K243" s="39"/>
-      <c r="L243" s="39"/>
-      <c r="M243" s="39"/>
-      <c r="N243" s="39"/>
-      <c r="O243" s="39"/>
-      <c r="P243" s="40"/>
-      <c r="Q243" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="R243" s="33"/>
-      <c r="S243" s="33"/>
-      <c r="T243" s="33"/>
-      <c r="U243" s="33"/>
-      <c r="V243" s="33"/>
-      <c r="W243" s="33"/>
-      <c r="X243" s="33"/>
-      <c r="Y243" s="33"/>
-      <c r="Z243" s="33"/>
-      <c r="AA243" s="33"/>
-      <c r="AB243" s="33"/>
-      <c r="AC243" s="33"/>
-      <c r="AD243" s="33"/>
-      <c r="AE243" s="33"/>
-      <c r="AF243" s="33"/>
-      <c r="AG243" s="33"/>
-      <c r="AH243" s="34"/>
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K243" s="36"/>
+      <c r="L243" s="36"/>
+      <c r="M243" s="36"/>
+      <c r="N243" s="36"/>
+      <c r="O243" s="36"/>
+      <c r="P243" s="37"/>
+      <c r="Q243" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="R243" s="30"/>
+      <c r="S243" s="30"/>
+      <c r="T243" s="30"/>
+      <c r="U243" s="30"/>
+      <c r="V243" s="30"/>
+      <c r="W243" s="30"/>
+      <c r="X243" s="30"/>
+      <c r="Y243" s="30"/>
+      <c r="Z243" s="30"/>
+      <c r="AA243" s="30"/>
+      <c r="AB243" s="30"/>
+      <c r="AC243" s="30"/>
+      <c r="AD243" s="30"/>
+      <c r="AE243" s="30"/>
+      <c r="AF243" s="30"/>
+      <c r="AG243" s="30"/>
+      <c r="AH243" s="31"/>
     </row>
     <row r="244" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F244" s="32"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="33"/>
-      <c r="I244" s="33"/>
-      <c r="J244" s="32"/>
-      <c r="K244" s="33"/>
-      <c r="L244" s="33"/>
-      <c r="M244" s="33"/>
-      <c r="N244" s="33"/>
-      <c r="O244" s="33"/>
-      <c r="P244" s="34"/>
-      <c r="Q244" s="33"/>
-      <c r="R244" s="33"/>
-      <c r="S244" s="33"/>
-      <c r="T244" s="33"/>
-      <c r="U244" s="33"/>
-      <c r="V244" s="33"/>
-      <c r="W244" s="33"/>
-      <c r="X244" s="33"/>
-      <c r="Y244" s="33"/>
-      <c r="Z244" s="33"/>
-      <c r="AA244" s="33"/>
-      <c r="AB244" s="33"/>
-      <c r="AC244" s="33"/>
-      <c r="AD244" s="33"/>
-      <c r="AE244" s="33"/>
-      <c r="AF244" s="33"/>
-      <c r="AG244" s="33"/>
-      <c r="AH244" s="34"/>
+      <c r="F244" s="29"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="29"/>
+      <c r="K244" s="30"/>
+      <c r="L244" s="30"/>
+      <c r="M244" s="30"/>
+      <c r="N244" s="30"/>
+      <c r="O244" s="30"/>
+      <c r="P244" s="31"/>
+      <c r="Q244" s="30"/>
+      <c r="R244" s="30"/>
+      <c r="S244" s="30"/>
+      <c r="T244" s="30"/>
+      <c r="U244" s="30"/>
+      <c r="V244" s="30"/>
+      <c r="W244" s="30"/>
+      <c r="X244" s="30"/>
+      <c r="Y244" s="30"/>
+      <c r="Z244" s="30"/>
+      <c r="AA244" s="30"/>
+      <c r="AB244" s="30"/>
+      <c r="AC244" s="30"/>
+      <c r="AD244" s="30"/>
+      <c r="AE244" s="30"/>
+      <c r="AF244" s="30"/>
+      <c r="AG244" s="30"/>
+      <c r="AH244" s="31"/>
     </row>
     <row r="245" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F245" s="32"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="35"/>
-      <c r="K245" s="36"/>
-      <c r="L245" s="36"/>
-      <c r="M245" s="36"/>
-      <c r="N245" s="36"/>
-      <c r="O245" s="36"/>
-      <c r="P245" s="37"/>
-      <c r="Q245" s="36"/>
-      <c r="R245" s="33"/>
-      <c r="S245" s="33"/>
-      <c r="T245" s="33"/>
-      <c r="U245" s="33"/>
-      <c r="V245" s="33"/>
-      <c r="W245" s="33"/>
-      <c r="X245" s="33"/>
-      <c r="Y245" s="33"/>
-      <c r="Z245" s="33"/>
-      <c r="AA245" s="33"/>
-      <c r="AB245" s="33"/>
-      <c r="AC245" s="33"/>
-      <c r="AD245" s="33"/>
-      <c r="AE245" s="33"/>
-      <c r="AF245" s="33"/>
-      <c r="AG245" s="33"/>
-      <c r="AH245" s="34"/>
+      <c r="F245" s="29"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="32"/>
+      <c r="K245" s="33"/>
+      <c r="L245" s="33"/>
+      <c r="M245" s="33"/>
+      <c r="N245" s="33"/>
+      <c r="O245" s="33"/>
+      <c r="P245" s="34"/>
+      <c r="Q245" s="33"/>
+      <c r="R245" s="30"/>
+      <c r="S245" s="30"/>
+      <c r="T245" s="30"/>
+      <c r="U245" s="30"/>
+      <c r="V245" s="30"/>
+      <c r="W245" s="30"/>
+      <c r="X245" s="30"/>
+      <c r="Y245" s="30"/>
+      <c r="Z245" s="30"/>
+      <c r="AA245" s="30"/>
+      <c r="AB245" s="30"/>
+      <c r="AC245" s="30"/>
+      <c r="AD245" s="30"/>
+      <c r="AE245" s="30"/>
+      <c r="AF245" s="30"/>
+      <c r="AG245" s="30"/>
+      <c r="AH245" s="31"/>
     </row>
     <row r="246" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F246" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G246" s="39"/>
-      <c r="H246" s="39"/>
-      <c r="I246" s="39"/>
-      <c r="J246" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="K246" s="39"/>
-      <c r="L246" s="39"/>
-      <c r="M246" s="39"/>
-      <c r="N246" s="39"/>
-      <c r="O246" s="39"/>
-      <c r="P246" s="40"/>
-      <c r="Q246" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="R246" s="39"/>
-      <c r="S246" s="39"/>
-      <c r="T246" s="39"/>
-      <c r="U246" s="39"/>
-      <c r="V246" s="39"/>
-      <c r="W246" s="39"/>
-      <c r="X246" s="39"/>
-      <c r="Y246" s="39"/>
-      <c r="Z246" s="39"/>
-      <c r="AA246" s="39"/>
-      <c r="AB246" s="39"/>
-      <c r="AC246" s="39"/>
-      <c r="AD246" s="39"/>
-      <c r="AE246" s="39"/>
-      <c r="AF246" s="39"/>
-      <c r="AG246" s="39"/>
-      <c r="AH246" s="40"/>
+      <c r="F246" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G246" s="36"/>
+      <c r="H246" s="36"/>
+      <c r="I246" s="36"/>
+      <c r="J246" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K246" s="36"/>
+      <c r="L246" s="36"/>
+      <c r="M246" s="36"/>
+      <c r="N246" s="36"/>
+      <c r="O246" s="36"/>
+      <c r="P246" s="37"/>
+      <c r="Q246" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="R246" s="36"/>
+      <c r="S246" s="36"/>
+      <c r="T246" s="36"/>
+      <c r="U246" s="36"/>
+      <c r="V246" s="36"/>
+      <c r="W246" s="36"/>
+      <c r="X246" s="36"/>
+      <c r="Y246" s="36"/>
+      <c r="Z246" s="36"/>
+      <c r="AA246" s="36"/>
+      <c r="AB246" s="36"/>
+      <c r="AC246" s="36"/>
+      <c r="AD246" s="36"/>
+      <c r="AE246" s="36"/>
+      <c r="AF246" s="36"/>
+      <c r="AG246" s="36"/>
+      <c r="AH246" s="37"/>
     </row>
     <row r="247" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F247" s="32"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="33"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="32"/>
-      <c r="K247" s="33"/>
-      <c r="L247" s="33"/>
-      <c r="M247" s="33"/>
-      <c r="N247" s="33"/>
-      <c r="O247" s="33"/>
-      <c r="P247" s="34"/>
-      <c r="Q247" s="33"/>
-      <c r="R247" s="33"/>
-      <c r="S247" s="33"/>
-      <c r="T247" s="33"/>
-      <c r="U247" s="33"/>
-      <c r="V247" s="33"/>
-      <c r="W247" s="33"/>
-      <c r="X247" s="33"/>
-      <c r="Y247" s="33"/>
-      <c r="Z247" s="33"/>
-      <c r="AA247" s="33"/>
-      <c r="AB247" s="33"/>
-      <c r="AC247" s="33"/>
-      <c r="AD247" s="33"/>
-      <c r="AE247" s="33"/>
-      <c r="AF247" s="33"/>
-      <c r="AG247" s="33"/>
-      <c r="AH247" s="34"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="29"/>
+      <c r="K247" s="30"/>
+      <c r="L247" s="30"/>
+      <c r="M247" s="30"/>
+      <c r="N247" s="30"/>
+      <c r="O247" s="30"/>
+      <c r="P247" s="31"/>
+      <c r="Q247" s="30"/>
+      <c r="R247" s="30"/>
+      <c r="S247" s="30"/>
+      <c r="T247" s="30"/>
+      <c r="U247" s="30"/>
+      <c r="V247" s="30"/>
+      <c r="W247" s="30"/>
+      <c r="X247" s="30"/>
+      <c r="Y247" s="30"/>
+      <c r="Z247" s="30"/>
+      <c r="AA247" s="30"/>
+      <c r="AB247" s="30"/>
+      <c r="AC247" s="30"/>
+      <c r="AD247" s="30"/>
+      <c r="AE247" s="30"/>
+      <c r="AF247" s="30"/>
+      <c r="AG247" s="30"/>
+      <c r="AH247" s="31"/>
     </row>
     <row r="248" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F248" s="35"/>
-      <c r="G248" s="36"/>
-      <c r="H248" s="36"/>
-      <c r="I248" s="36"/>
-      <c r="J248" s="35"/>
-      <c r="K248" s="36"/>
-      <c r="L248" s="36"/>
-      <c r="M248" s="36"/>
-      <c r="N248" s="36"/>
-      <c r="O248" s="36"/>
-      <c r="P248" s="37"/>
-      <c r="Q248" s="36"/>
-      <c r="R248" s="36"/>
-      <c r="S248" s="36"/>
-      <c r="T248" s="36"/>
-      <c r="U248" s="36"/>
-      <c r="V248" s="36"/>
-      <c r="W248" s="36"/>
-      <c r="X248" s="36"/>
-      <c r="Y248" s="36"/>
-      <c r="Z248" s="36"/>
-      <c r="AA248" s="36"/>
-      <c r="AB248" s="36"/>
-      <c r="AC248" s="36"/>
-      <c r="AD248" s="36"/>
-      <c r="AE248" s="36"/>
-      <c r="AF248" s="36"/>
-      <c r="AG248" s="36"/>
-      <c r="AH248" s="37"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="33"/>
+      <c r="I248" s="33"/>
+      <c r="J248" s="32"/>
+      <c r="K248" s="33"/>
+      <c r="L248" s="33"/>
+      <c r="M248" s="33"/>
+      <c r="N248" s="33"/>
+      <c r="O248" s="33"/>
+      <c r="P248" s="34"/>
+      <c r="Q248" s="33"/>
+      <c r="R248" s="33"/>
+      <c r="S248" s="33"/>
+      <c r="T248" s="33"/>
+      <c r="U248" s="33"/>
+      <c r="V248" s="33"/>
+      <c r="W248" s="33"/>
+      <c r="X248" s="33"/>
+      <c r="Y248" s="33"/>
+      <c r="Z248" s="33"/>
+      <c r="AA248" s="33"/>
+      <c r="AB248" s="33"/>
+      <c r="AC248" s="33"/>
+      <c r="AD248" s="33"/>
+      <c r="AE248" s="33"/>
+      <c r="AF248" s="33"/>
+      <c r="AG248" s="33"/>
+      <c r="AH248" s="34"/>
     </row>
     <row r="249" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F249" s="17"/>
@@ -5537,7 +5214,7 @@
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="4" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="254" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5599,7 +5276,7 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="G267" s="4" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5609,8 +5286,8 @@
     <row r="269" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
-      <c r="G269" s="102" t="s">
-        <v>192</v>
+      <c r="G269" s="38" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5620,7 +5297,7 @@
     <row r="271" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
-      <c r="F271" s="22" t="s">
+      <c r="F271" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G271" s="4" t="s">
@@ -5631,1088 +5308,598 @@
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="273" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="273" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="G273" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="274" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="274" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="G274" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="275" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
     </row>
-    <row r="276" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
-      <c r="F276" s="22" t="s">
+      <c r="F276" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="277" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="277" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="G277" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="278" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="278" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="G278" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="279" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="279" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="G279" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="280" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
     </row>
-    <row r="281" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
-    </row>
-    <row r="282" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G281" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="282" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="G282" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="283" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G282" s="22"/>
+    </row>
+    <row r="283" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-      <c r="H283" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="I283" s="49"/>
-      <c r="J283" s="49"/>
-      <c r="K283" s="49"/>
-      <c r="L283" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="M283" s="49"/>
-      <c r="N283" s="49"/>
-      <c r="O283" s="49"/>
-      <c r="P283" s="49"/>
-      <c r="Q283" s="49"/>
-      <c r="R283" s="49"/>
-      <c r="S283" s="49"/>
-      <c r="T283" s="49"/>
-      <c r="U283" s="49"/>
-      <c r="V283" s="49"/>
-      <c r="W283" s="49"/>
-      <c r="X283" s="49"/>
-      <c r="Y283" s="49"/>
-      <c r="Z283" s="49"/>
-      <c r="AA283" s="49"/>
-    </row>
-    <row r="284" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-      <c r="H284" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I284" s="75"/>
-      <c r="J284" s="75"/>
-      <c r="K284" s="75"/>
-      <c r="L284" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="M284" s="76"/>
-      <c r="N284" s="76"/>
-      <c r="O284" s="76"/>
-      <c r="P284" s="76"/>
-      <c r="Q284" s="76"/>
-      <c r="R284" s="76"/>
-      <c r="S284" s="76"/>
-      <c r="T284" s="76"/>
-      <c r="U284" s="76"/>
-      <c r="V284" s="76"/>
-      <c r="W284" s="76"/>
-      <c r="X284" s="76"/>
-      <c r="Y284" s="76"/>
-      <c r="Z284" s="76"/>
-      <c r="AA284" s="76"/>
-    </row>
-    <row r="285" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-      <c r="H285" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="I285" s="75"/>
-      <c r="J285" s="75"/>
-      <c r="K285" s="75"/>
-      <c r="L285" s="76"/>
-      <c r="M285" s="76"/>
-      <c r="N285" s="76"/>
-      <c r="O285" s="76"/>
-      <c r="P285" s="76"/>
-      <c r="Q285" s="76"/>
-      <c r="R285" s="76"/>
-      <c r="S285" s="76"/>
-      <c r="T285" s="76"/>
-      <c r="U285" s="76"/>
-      <c r="V285" s="76"/>
-      <c r="W285" s="76"/>
-      <c r="X285" s="76"/>
-      <c r="Y285" s="76"/>
-      <c r="Z285" s="76"/>
-      <c r="AA285" s="76"/>
-    </row>
-    <row r="286" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-      <c r="H286" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="I286" s="75"/>
-      <c r="J286" s="75"/>
-      <c r="K286" s="75"/>
-      <c r="L286" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="M286" s="76"/>
-      <c r="N286" s="76"/>
-      <c r="O286" s="76"/>
-      <c r="P286" s="76"/>
-      <c r="Q286" s="76"/>
-      <c r="R286" s="76"/>
-      <c r="S286" s="76"/>
-      <c r="T286" s="76"/>
-      <c r="U286" s="76"/>
-      <c r="V286" s="76"/>
-      <c r="W286" s="76"/>
-      <c r="X286" s="76"/>
-      <c r="Y286" s="76"/>
-      <c r="Z286" s="76"/>
-      <c r="AA286" s="76"/>
-    </row>
-    <row r="287" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="287" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
-      <c r="H287" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="I287" s="75"/>
-      <c r="J287" s="75"/>
-      <c r="K287" s="75"/>
-      <c r="L287" s="76"/>
-      <c r="M287" s="76"/>
-      <c r="N287" s="76"/>
-      <c r="O287" s="76"/>
-      <c r="P287" s="76"/>
-      <c r="Q287" s="76"/>
-      <c r="R287" s="76"/>
-      <c r="S287" s="76"/>
-      <c r="T287" s="76"/>
-      <c r="U287" s="76"/>
-      <c r="V287" s="76"/>
-      <c r="W287" s="76"/>
-      <c r="X287" s="76"/>
-      <c r="Y287" s="76"/>
-      <c r="Z287" s="76"/>
-      <c r="AA287" s="76"/>
-    </row>
-    <row r="288" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="288" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
-      <c r="H288" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="I288" s="75"/>
-      <c r="J288" s="75"/>
-      <c r="K288" s="75"/>
-      <c r="L288" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="M288" s="75"/>
-      <c r="N288" s="75"/>
-      <c r="O288" s="75"/>
-      <c r="P288" s="75"/>
-      <c r="Q288" s="75"/>
-      <c r="R288" s="75"/>
-      <c r="S288" s="75"/>
-      <c r="T288" s="75"/>
-      <c r="U288" s="75"/>
-      <c r="V288" s="75"/>
-      <c r="W288" s="75"/>
-      <c r="X288" s="75"/>
-      <c r="Y288" s="75"/>
-      <c r="Z288" s="75"/>
-      <c r="AA288" s="75"/>
-    </row>
-    <row r="289" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="289" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
     </row>
-    <row r="290" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-      <c r="G290" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="291" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="291" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-      <c r="H291" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="I291" s="49"/>
-      <c r="J291" s="49"/>
-      <c r="K291" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="L291" s="49"/>
-      <c r="M291" s="49"/>
-      <c r="N291" s="49"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="49"/>
-      <c r="R291" s="49"/>
-      <c r="S291" s="49"/>
-      <c r="T291" s="49"/>
-      <c r="U291" s="49"/>
-    </row>
-    <row r="292" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-      <c r="H292" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="I292" s="75"/>
-      <c r="J292" s="75"/>
-      <c r="K292" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="L292" s="75"/>
-      <c r="M292" s="75"/>
-      <c r="N292" s="75"/>
-      <c r="O292" s="75"/>
-      <c r="P292" s="75"/>
-      <c r="Q292" s="75"/>
-      <c r="R292" s="75"/>
-      <c r="S292" s="75"/>
-      <c r="T292" s="75"/>
-      <c r="U292" s="75"/>
-    </row>
-    <row r="293" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="293" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D293" s="15"/>
-      <c r="E293" s="15"/>
-      <c r="H293" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="I293" s="75"/>
-      <c r="J293" s="75"/>
-      <c r="K293" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="L293" s="75"/>
-      <c r="M293" s="75"/>
-      <c r="N293" s="75"/>
-      <c r="O293" s="75"/>
-      <c r="P293" s="75"/>
-      <c r="Q293" s="75"/>
-      <c r="R293" s="75"/>
-      <c r="S293" s="75"/>
-      <c r="T293" s="75"/>
-      <c r="U293" s="75"/>
-    </row>
-    <row r="294" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D294" s="15"/>
-      <c r="E294" s="15"/>
-      <c r="H294" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I294" s="75"/>
-      <c r="J294" s="75"/>
-      <c r="K294" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="L294" s="75"/>
-      <c r="M294" s="75"/>
-      <c r="N294" s="75"/>
-      <c r="O294" s="75"/>
-      <c r="P294" s="75"/>
-      <c r="Q294" s="75"/>
-      <c r="R294" s="75"/>
-      <c r="S294" s="75"/>
-      <c r="T294" s="75"/>
-      <c r="U294" s="75"/>
-    </row>
-    <row r="295" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D295" s="15"/>
-      <c r="E295" s="15"/>
-      <c r="H295" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="I295" s="75"/>
-      <c r="J295" s="75"/>
-      <c r="K295" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="L295" s="75"/>
-      <c r="M295" s="75"/>
-      <c r="N295" s="75"/>
-      <c r="O295" s="75"/>
-      <c r="P295" s="75"/>
-      <c r="Q295" s="75"/>
-      <c r="R295" s="75"/>
-      <c r="S295" s="75"/>
-      <c r="T295" s="75"/>
-      <c r="U295" s="75"/>
-    </row>
-    <row r="296" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D296" s="15"/>
-      <c r="E296" s="15"/>
-    </row>
-    <row r="297" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D297" s="15"/>
-      <c r="E297" s="15"/>
-      <c r="G297" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="298" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D298" s="15"/>
-      <c r="E298" s="15"/>
-      <c r="H298" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="I298" s="49"/>
-      <c r="J298" s="49"/>
-      <c r="K298" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="L298" s="49"/>
-      <c r="M298" s="49"/>
-      <c r="N298" s="49"/>
-      <c r="O298" s="49"/>
-      <c r="P298" s="49"/>
-      <c r="Q298" s="49"/>
-      <c r="R298" s="49"/>
-      <c r="S298" s="49"/>
-      <c r="T298" s="49"/>
-      <c r="U298" s="49"/>
-    </row>
-    <row r="299" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D299" s="15"/>
-      <c r="E299" s="15"/>
-      <c r="H299" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="I299" s="75"/>
-      <c r="J299" s="75"/>
-      <c r="K299" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="L299" s="75"/>
-      <c r="M299" s="75"/>
-      <c r="N299" s="75"/>
-      <c r="O299" s="75"/>
-      <c r="P299" s="75"/>
-      <c r="Q299" s="75"/>
-      <c r="R299" s="75"/>
-      <c r="S299" s="75"/>
-      <c r="T299" s="75"/>
-      <c r="U299" s="75"/>
-    </row>
-    <row r="300" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D300" s="15"/>
-      <c r="E300" s="15"/>
-      <c r="H300" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="I300" s="75"/>
-      <c r="J300" s="75"/>
-      <c r="K300" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="L300" s="75"/>
-      <c r="M300" s="75"/>
-      <c r="N300" s="75"/>
-      <c r="O300" s="75"/>
-      <c r="P300" s="75"/>
-      <c r="Q300" s="75"/>
-      <c r="R300" s="75"/>
-      <c r="S300" s="75"/>
-      <c r="T300" s="75"/>
-      <c r="U300" s="75"/>
-    </row>
-    <row r="301" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D301" s="15"/>
-      <c r="E301" s="15"/>
-      <c r="H301" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="I301" s="75"/>
-      <c r="J301" s="75"/>
-      <c r="K301" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="L301" s="75"/>
-      <c r="M301" s="75"/>
-      <c r="N301" s="75"/>
-      <c r="O301" s="75"/>
-      <c r="P301" s="75"/>
-      <c r="Q301" s="75"/>
-      <c r="R301" s="75"/>
-      <c r="S301" s="75"/>
-      <c r="T301" s="75"/>
-      <c r="U301" s="75"/>
-    </row>
-    <row r="302" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D302" s="15"/>
-      <c r="E302" s="15"/>
-    </row>
-    <row r="303" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D303" s="15"/>
-      <c r="E303" s="15"/>
-      <c r="G303" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="304" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D304" s="15"/>
-      <c r="E304" s="15"/>
-    </row>
-    <row r="305" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D305" s="15"/>
-      <c r="E305" s="15"/>
-      <c r="F305" s="15"/>
-      <c r="H305" s="21"/>
-      <c r="I305" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="J305" s="48"/>
-      <c r="K305" s="48"/>
-      <c r="L305" s="48"/>
-      <c r="M305" s="48"/>
-    </row>
-    <row r="306" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="15"/>
-      <c r="E306" s="15"/>
-      <c r="F306" s="15"/>
-      <c r="H306" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="I306" s="24"/>
-      <c r="J306" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="K306" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="L306" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="M306" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="307" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D307" s="15"/>
-      <c r="E307" s="15"/>
-      <c r="F307" s="15"/>
-      <c r="H307" s="74"/>
-      <c r="I307" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="J307" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="K307" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L307" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="M307" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="308" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D308" s="15"/>
-      <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="H308" s="74"/>
-      <c r="I308" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J308" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="K308" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="L308" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="M308" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P308" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="309" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D309" s="15"/>
-      <c r="E309" s="15"/>
-      <c r="F309" s="15"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J309" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="K309" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="L309" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M309" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="P309" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="310" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D310" s="15"/>
-      <c r="E310" s="15"/>
-    </row>
-    <row r="311" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D311" s="15"/>
-      <c r="E311" s="15"/>
-    </row>
-    <row r="312" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D312" s="15"/>
-      <c r="E312" s="15"/>
-      <c r="G312" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="313" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D313" s="15"/>
-      <c r="E313" s="15"/>
-      <c r="G313" s="25"/>
-    </row>
-    <row r="314" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D314" s="15"/>
-      <c r="E314" s="15"/>
-    </row>
-    <row r="315" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D315" s="15"/>
-      <c r="E315" s="15"/>
-    </row>
-    <row r="316" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D316" s="15"/>
-      <c r="E316" s="15"/>
-    </row>
-    <row r="317" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D317" s="15"/>
-      <c r="E317" s="15"/>
-    </row>
-    <row r="318" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D318" s="15"/>
-      <c r="E318" s="15"/>
-    </row>
-    <row r="319" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D319" s="15"/>
-      <c r="E319" s="15"/>
-    </row>
-    <row r="320" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D320" s="15"/>
-      <c r="E320" s="15"/>
-    </row>
-    <row r="321" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D321" s="15"/>
-      <c r="E321" s="15"/>
-    </row>
-    <row r="322" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D322" s="15"/>
-      <c r="E322" s="15"/>
-    </row>
-    <row r="323" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D323" s="15"/>
-      <c r="E323" s="15"/>
-    </row>
-    <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D324" s="15"/>
-    </row>
-    <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D325" s="15" t="str">
+    </row>
+    <row r="294" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D294" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.5.3.</v>
       </c>
-      <c r="E325" s="4" t="s">
+      <c r="E294" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D326" s="15"/>
-      <c r="E326" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="327" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D327" s="15"/>
-    </row>
-    <row r="328" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D328" s="15"/>
-      <c r="E328" s="26"/>
-      <c r="F328" s="27"/>
-      <c r="G328" s="27"/>
-      <c r="H328" s="27"/>
-      <c r="I328" s="27"/>
-      <c r="J328" s="27"/>
-      <c r="K328" s="27"/>
-      <c r="L328" s="28"/>
-      <c r="M328" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="N328" s="49"/>
-      <c r="O328" s="49"/>
-      <c r="P328" s="49"/>
-      <c r="Q328" s="49"/>
-      <c r="R328" s="49"/>
-      <c r="S328" s="49"/>
-      <c r="T328" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="U328" s="48"/>
-      <c r="V328" s="48"/>
-      <c r="W328" s="48"/>
-      <c r="X328" s="48"/>
-      <c r="Y328" s="48"/>
-      <c r="Z328" s="48"/>
-      <c r="AA328" s="48"/>
-      <c r="AB328" s="48"/>
-      <c r="AC328" s="48"/>
-      <c r="AD328" s="48"/>
-      <c r="AE328" s="48"/>
-      <c r="AF328" s="48"/>
-      <c r="AG328" s="48"/>
-    </row>
-    <row r="329" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D329" s="15"/>
-      <c r="E329" s="29"/>
-      <c r="F329" s="30"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="30"/>
-      <c r="I329" s="30"/>
-      <c r="J329" s="30"/>
-      <c r="K329" s="30"/>
-      <c r="L329" s="31"/>
-      <c r="M329" s="49" t="s">
+    <row r="295" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D295" s="15"/>
+      <c r="E295" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N329" s="49"/>
-      <c r="O329" s="49"/>
-      <c r="P329" s="49"/>
-      <c r="Q329" s="49"/>
-      <c r="R329" s="49"/>
-      <c r="S329" s="49"/>
-      <c r="T329" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="U329" s="49"/>
-      <c r="V329" s="49"/>
-      <c r="W329" s="49"/>
-      <c r="X329" s="49"/>
-      <c r="Y329" s="49"/>
-      <c r="Z329" s="49"/>
-      <c r="AA329" s="49"/>
-      <c r="AB329" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC329" s="49"/>
-      <c r="AD329" s="49"/>
-      <c r="AE329" s="49"/>
-      <c r="AF329" s="49"/>
-      <c r="AG329" s="49"/>
-    </row>
-    <row r="330" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D330" s="15"/>
-      <c r="E330" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="F330" s="71"/>
-      <c r="G330" s="71"/>
-      <c r="H330" s="71"/>
-      <c r="I330" s="71"/>
-      <c r="J330" s="71"/>
-      <c r="K330" s="50" t="s">
+    </row>
+    <row r="296" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D296" s="15"/>
+    </row>
+    <row r="297" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D297" s="15"/>
+      <c r="E297" s="23"/>
+      <c r="F297" s="24"/>
+      <c r="G297" s="24"/>
+      <c r="H297" s="24"/>
+      <c r="I297" s="24"/>
+      <c r="J297" s="24"/>
+      <c r="K297" s="24"/>
+      <c r="L297" s="25"/>
+      <c r="M297" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="N297" s="64"/>
+      <c r="O297" s="64"/>
+      <c r="P297" s="64"/>
+      <c r="Q297" s="64"/>
+      <c r="R297" s="64"/>
+      <c r="S297" s="64"/>
+      <c r="T297" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="U297" s="68"/>
+      <c r="V297" s="68"/>
+      <c r="W297" s="68"/>
+      <c r="X297" s="68"/>
+      <c r="Y297" s="68"/>
+      <c r="Z297" s="68"/>
+      <c r="AA297" s="68"/>
+      <c r="AB297" s="68"/>
+      <c r="AC297" s="68"/>
+      <c r="AD297" s="68"/>
+      <c r="AE297" s="68"/>
+      <c r="AF297" s="68"/>
+      <c r="AG297" s="68"/>
+    </row>
+    <row r="298" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D298" s="15"/>
+      <c r="E298" s="26"/>
+      <c r="F298" s="27"/>
+      <c r="G298" s="27"/>
+      <c r="H298" s="27"/>
+      <c r="I298" s="27"/>
+      <c r="J298" s="27"/>
+      <c r="K298" s="27"/>
+      <c r="L298" s="28"/>
+      <c r="M298" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="N298" s="64"/>
+      <c r="O298" s="64"/>
+      <c r="P298" s="64"/>
+      <c r="Q298" s="64"/>
+      <c r="R298" s="64"/>
+      <c r="S298" s="64"/>
+      <c r="T298" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="U298" s="64"/>
+      <c r="V298" s="64"/>
+      <c r="W298" s="64"/>
+      <c r="X298" s="64"/>
+      <c r="Y298" s="64"/>
+      <c r="Z298" s="64"/>
+      <c r="AA298" s="64"/>
+      <c r="AB298" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC298" s="64"/>
+      <c r="AD298" s="64"/>
+      <c r="AE298" s="64"/>
+      <c r="AF298" s="64"/>
+      <c r="AG298" s="64"/>
+    </row>
+    <row r="299" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D299" s="15"/>
+      <c r="E299" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="F299" s="65"/>
+      <c r="G299" s="65"/>
+      <c r="H299" s="65"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="65"/>
+      <c r="K299" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="L299" s="70"/>
+      <c r="M299" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="N299" s="93"/>
+      <c r="O299" s="93"/>
+      <c r="P299" s="93"/>
+      <c r="Q299" s="93"/>
+      <c r="R299" s="93"/>
+      <c r="S299" s="93"/>
+      <c r="T299" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="U299" s="82"/>
+      <c r="V299" s="82"/>
+      <c r="W299" s="82"/>
+      <c r="X299" s="82"/>
+      <c r="Y299" s="82"/>
+      <c r="Z299" s="82"/>
+      <c r="AA299" s="83"/>
+      <c r="AB299" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC299" s="73"/>
+      <c r="AD299" s="73"/>
+      <c r="AE299" s="73"/>
+      <c r="AF299" s="73"/>
+      <c r="AG299" s="74"/>
+    </row>
+    <row r="300" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D300" s="15"/>
+      <c r="E300" s="66"/>
+      <c r="F300" s="66"/>
+      <c r="G300" s="66"/>
+      <c r="H300" s="66"/>
+      <c r="I300" s="66"/>
+      <c r="J300" s="66"/>
+      <c r="K300" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="L300" s="70"/>
+      <c r="M300" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="N300" s="93"/>
+      <c r="O300" s="93"/>
+      <c r="P300" s="93"/>
+      <c r="Q300" s="93"/>
+      <c r="R300" s="93"/>
+      <c r="S300" s="93"/>
+      <c r="T300" s="84"/>
+      <c r="U300" s="85"/>
+      <c r="V300" s="85"/>
+      <c r="W300" s="85"/>
+      <c r="X300" s="85"/>
+      <c r="Y300" s="85"/>
+      <c r="Z300" s="85"/>
+      <c r="AA300" s="86"/>
+      <c r="AB300" s="75"/>
+      <c r="AC300" s="76"/>
+      <c r="AD300" s="76"/>
+      <c r="AE300" s="76"/>
+      <c r="AF300" s="76"/>
+      <c r="AG300" s="77"/>
+    </row>
+    <row r="301" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D301" s="15"/>
+      <c r="E301" s="66"/>
+      <c r="F301" s="66"/>
+      <c r="G301" s="66"/>
+      <c r="H301" s="66"/>
+      <c r="I301" s="66"/>
+      <c r="J301" s="66"/>
+      <c r="K301" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="L330" s="51"/>
-      <c r="M330" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="N330" s="44"/>
-      <c r="O330" s="44"/>
-      <c r="P330" s="44"/>
-      <c r="Q330" s="44"/>
-      <c r="R330" s="44"/>
-      <c r="S330" s="44"/>
-      <c r="T330" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="U330" s="62"/>
-      <c r="V330" s="62"/>
-      <c r="W330" s="62"/>
-      <c r="X330" s="62"/>
-      <c r="Y330" s="62"/>
-      <c r="Z330" s="62"/>
-      <c r="AA330" s="63"/>
-      <c r="AB330" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC330" s="53"/>
-      <c r="AD330" s="53"/>
-      <c r="AE330" s="53"/>
-      <c r="AF330" s="53"/>
-      <c r="AG330" s="54"/>
-    </row>
-    <row r="331" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D331" s="15"/>
-      <c r="E331" s="72"/>
-      <c r="F331" s="72"/>
-      <c r="G331" s="72"/>
-      <c r="H331" s="72"/>
-      <c r="I331" s="72"/>
-      <c r="J331" s="72"/>
-      <c r="K331" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="L331" s="51"/>
-      <c r="M331" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N331" s="44"/>
-      <c r="O331" s="44"/>
-      <c r="P331" s="44"/>
-      <c r="Q331" s="44"/>
-      <c r="R331" s="44"/>
-      <c r="S331" s="44"/>
-      <c r="T331" s="64"/>
-      <c r="U331" s="65"/>
-      <c r="V331" s="65"/>
-      <c r="W331" s="65"/>
-      <c r="X331" s="65"/>
-      <c r="Y331" s="65"/>
-      <c r="Z331" s="65"/>
-      <c r="AA331" s="66"/>
-      <c r="AB331" s="55"/>
-      <c r="AC331" s="56"/>
-      <c r="AD331" s="56"/>
-      <c r="AE331" s="56"/>
-      <c r="AF331" s="56"/>
-      <c r="AG331" s="57"/>
-    </row>
-    <row r="332" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D332" s="15"/>
-      <c r="E332" s="72"/>
-      <c r="F332" s="72"/>
-      <c r="G332" s="72"/>
-      <c r="H332" s="72"/>
-      <c r="I332" s="72"/>
-      <c r="J332" s="72"/>
-      <c r="K332" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="L332" s="51"/>
-      <c r="M332" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="N332" s="44"/>
-      <c r="O332" s="44"/>
-      <c r="P332" s="44"/>
-      <c r="Q332" s="44"/>
-      <c r="R332" s="44"/>
-      <c r="S332" s="44"/>
-      <c r="T332" s="64"/>
-      <c r="U332" s="65"/>
-      <c r="V332" s="65"/>
-      <c r="W332" s="65"/>
-      <c r="X332" s="65"/>
-      <c r="Y332" s="65"/>
-      <c r="Z332" s="65"/>
-      <c r="AA332" s="66"/>
-      <c r="AB332" s="55"/>
-      <c r="AC332" s="56"/>
-      <c r="AD332" s="56"/>
-      <c r="AE332" s="56"/>
-      <c r="AF332" s="56"/>
-      <c r="AG332" s="57"/>
-    </row>
-    <row r="333" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D333" s="15"/>
-      <c r="E333" s="73"/>
-      <c r="F333" s="73"/>
-      <c r="G333" s="73"/>
-      <c r="H333" s="73"/>
-      <c r="I333" s="73"/>
-      <c r="J333" s="73"/>
-      <c r="K333" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="L333" s="51"/>
-      <c r="M333" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="N333" s="44"/>
-      <c r="O333" s="44"/>
-      <c r="P333" s="44"/>
-      <c r="Q333" s="44"/>
-      <c r="R333" s="44"/>
-      <c r="S333" s="44"/>
-      <c r="T333" s="67"/>
-      <c r="U333" s="68"/>
-      <c r="V333" s="68"/>
-      <c r="W333" s="68"/>
-      <c r="X333" s="68"/>
-      <c r="Y333" s="68"/>
-      <c r="Z333" s="68"/>
-      <c r="AA333" s="69"/>
-      <c r="AB333" s="58"/>
-      <c r="AC333" s="59"/>
-      <c r="AD333" s="59"/>
-      <c r="AE333" s="59"/>
-      <c r="AF333" s="59"/>
-      <c r="AG333" s="60"/>
-    </row>
-    <row r="334" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D334" s="15"/>
-      <c r="E334" s="50" t="s">
+      <c r="L301" s="70"/>
+      <c r="M301" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="N301" s="93"/>
+      <c r="O301" s="93"/>
+      <c r="P301" s="93"/>
+      <c r="Q301" s="93"/>
+      <c r="R301" s="93"/>
+      <c r="S301" s="93"/>
+      <c r="T301" s="84"/>
+      <c r="U301" s="85"/>
+      <c r="V301" s="85"/>
+      <c r="W301" s="85"/>
+      <c r="X301" s="85"/>
+      <c r="Y301" s="85"/>
+      <c r="Z301" s="85"/>
+      <c r="AA301" s="86"/>
+      <c r="AB301" s="75"/>
+      <c r="AC301" s="76"/>
+      <c r="AD301" s="76"/>
+      <c r="AE301" s="76"/>
+      <c r="AF301" s="76"/>
+      <c r="AG301" s="77"/>
+    </row>
+    <row r="302" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D302" s="15"/>
+      <c r="E302" s="67"/>
+      <c r="F302" s="67"/>
+      <c r="G302" s="67"/>
+      <c r="H302" s="67"/>
+      <c r="I302" s="67"/>
+      <c r="J302" s="67"/>
+      <c r="K302" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="L302" s="70"/>
+      <c r="M302" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="F334" s="70"/>
-      <c r="G334" s="70"/>
-      <c r="H334" s="70"/>
-      <c r="I334" s="70"/>
-      <c r="J334" s="70"/>
-      <c r="K334" s="70"/>
-      <c r="L334" s="51"/>
-      <c r="M334" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="N334" s="44"/>
-      <c r="O334" s="44"/>
-      <c r="P334" s="44"/>
-      <c r="Q334" s="44"/>
-      <c r="R334" s="44"/>
-      <c r="S334" s="44"/>
-      <c r="T334" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="U334" s="46"/>
-      <c r="V334" s="46"/>
-      <c r="W334" s="46"/>
-      <c r="X334" s="46"/>
-      <c r="Y334" s="46"/>
-      <c r="Z334" s="46"/>
-      <c r="AA334" s="47"/>
-      <c r="AB334" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC334" s="44"/>
-      <c r="AD334" s="44"/>
-      <c r="AE334" s="44"/>
-      <c r="AF334" s="44"/>
-      <c r="AG334" s="44"/>
-    </row>
-    <row r="335" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D335" s="15"/>
-      <c r="E335" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F335" s="70"/>
-      <c r="G335" s="70"/>
-      <c r="H335" s="70"/>
-      <c r="I335" s="70"/>
-      <c r="J335" s="70"/>
-      <c r="K335" s="70"/>
-      <c r="L335" s="51"/>
-      <c r="M335" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="N335" s="44"/>
-      <c r="O335" s="44"/>
-      <c r="P335" s="44"/>
-      <c r="Q335" s="44"/>
-      <c r="R335" s="44"/>
-      <c r="S335" s="44"/>
-      <c r="T335" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="U335" s="44"/>
-      <c r="V335" s="44"/>
-      <c r="W335" s="44"/>
-      <c r="X335" s="44"/>
-      <c r="Y335" s="44"/>
-      <c r="Z335" s="44"/>
-      <c r="AA335" s="44"/>
-      <c r="AB335" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC335" s="44"/>
-      <c r="AD335" s="44"/>
-      <c r="AE335" s="44"/>
-      <c r="AF335" s="44"/>
-      <c r="AG335" s="44"/>
-    </row>
-    <row r="336" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D336" s="15"/>
-      <c r="E336" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="F336" s="71"/>
-      <c r="G336" s="71"/>
-      <c r="H336" s="71"/>
-      <c r="I336" s="71"/>
-      <c r="J336" s="71"/>
-      <c r="K336" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="L336" s="51"/>
-      <c r="M336" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="N336" s="42"/>
-      <c r="O336" s="42"/>
-      <c r="P336" s="42"/>
-      <c r="Q336" s="42"/>
-      <c r="R336" s="42"/>
-      <c r="S336" s="43"/>
-      <c r="T336" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="U336" s="42"/>
-      <c r="V336" s="42"/>
-      <c r="W336" s="42"/>
-      <c r="X336" s="42"/>
-      <c r="Y336" s="42"/>
-      <c r="Z336" s="42"/>
-      <c r="AA336" s="42"/>
-      <c r="AB336" s="42"/>
-      <c r="AC336" s="42"/>
-      <c r="AD336" s="42"/>
-      <c r="AE336" s="42"/>
-      <c r="AF336" s="42"/>
-      <c r="AG336" s="43"/>
-    </row>
-    <row r="337" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D337" s="15"/>
-      <c r="E337" s="72"/>
-      <c r="F337" s="72"/>
-      <c r="G337" s="72"/>
-      <c r="H337" s="72"/>
-      <c r="I337" s="72"/>
-      <c r="J337" s="72"/>
-      <c r="K337" s="50" t="s">
+      <c r="N302" s="93"/>
+      <c r="O302" s="93"/>
+      <c r="P302" s="93"/>
+      <c r="Q302" s="93"/>
+      <c r="R302" s="93"/>
+      <c r="S302" s="93"/>
+      <c r="T302" s="87"/>
+      <c r="U302" s="88"/>
+      <c r="V302" s="88"/>
+      <c r="W302" s="88"/>
+      <c r="X302" s="88"/>
+      <c r="Y302" s="88"/>
+      <c r="Z302" s="88"/>
+      <c r="AA302" s="89"/>
+      <c r="AB302" s="78"/>
+      <c r="AC302" s="79"/>
+      <c r="AD302" s="79"/>
+      <c r="AE302" s="79"/>
+      <c r="AF302" s="79"/>
+      <c r="AG302" s="80"/>
+    </row>
+    <row r="303" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D303" s="15"/>
+      <c r="E303" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F303" s="71"/>
+      <c r="G303" s="71"/>
+      <c r="H303" s="71"/>
+      <c r="I303" s="71"/>
+      <c r="J303" s="71"/>
+      <c r="K303" s="71"/>
+      <c r="L303" s="70"/>
+      <c r="M303" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="L337" s="51"/>
-      <c r="M337" s="41"/>
-      <c r="N337" s="42"/>
-      <c r="O337" s="42"/>
-      <c r="P337" s="42"/>
-      <c r="Q337" s="42"/>
-      <c r="R337" s="42"/>
-      <c r="S337" s="43"/>
-      <c r="T337" s="41"/>
-      <c r="U337" s="42"/>
-      <c r="V337" s="42"/>
-      <c r="W337" s="42"/>
-      <c r="X337" s="42"/>
-      <c r="Y337" s="42"/>
-      <c r="Z337" s="42"/>
-      <c r="AA337" s="42"/>
-      <c r="AB337" s="42"/>
-      <c r="AC337" s="42"/>
-      <c r="AD337" s="42"/>
-      <c r="AE337" s="42"/>
-      <c r="AF337" s="42"/>
-      <c r="AG337" s="43"/>
-    </row>
-    <row r="338" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D338" s="15"/>
-      <c r="E338" s="73"/>
-      <c r="F338" s="73"/>
-      <c r="G338" s="73"/>
-      <c r="H338" s="73"/>
-      <c r="I338" s="73"/>
-      <c r="J338" s="73"/>
-      <c r="K338" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="L338" s="51"/>
-      <c r="M338" s="41"/>
-      <c r="N338" s="42"/>
-      <c r="O338" s="42"/>
-      <c r="P338" s="42"/>
-      <c r="Q338" s="42"/>
-      <c r="R338" s="42"/>
-      <c r="S338" s="43"/>
-      <c r="T338" s="41"/>
-      <c r="U338" s="42"/>
-      <c r="V338" s="42"/>
-      <c r="W338" s="42"/>
-      <c r="X338" s="42"/>
-      <c r="Y338" s="42"/>
-      <c r="Z338" s="42"/>
-      <c r="AA338" s="42"/>
-      <c r="AB338" s="42"/>
-      <c r="AC338" s="42"/>
-      <c r="AD338" s="42"/>
-      <c r="AE338" s="42"/>
-      <c r="AF338" s="42"/>
-      <c r="AG338" s="43"/>
-    </row>
-    <row r="339" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D339" s="15"/>
-    </row>
-    <row r="340" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D340" s="15"/>
-    </row>
-    <row r="341" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D341" s="15"/>
-    </row>
-    <row r="342" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="N303" s="93"/>
+      <c r="O303" s="93"/>
+      <c r="P303" s="93"/>
+      <c r="Q303" s="93"/>
+      <c r="R303" s="93"/>
+      <c r="S303" s="93"/>
+      <c r="T303" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="U303" s="95"/>
+      <c r="V303" s="95"/>
+      <c r="W303" s="95"/>
+      <c r="X303" s="95"/>
+      <c r="Y303" s="95"/>
+      <c r="Z303" s="95"/>
+      <c r="AA303" s="96"/>
+      <c r="AB303" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC303" s="93"/>
+      <c r="AD303" s="93"/>
+      <c r="AE303" s="93"/>
+      <c r="AF303" s="93"/>
+      <c r="AG303" s="93"/>
+    </row>
+    <row r="304" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D304" s="15"/>
+      <c r="E304" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="F304" s="71"/>
+      <c r="G304" s="71"/>
+      <c r="H304" s="71"/>
+      <c r="I304" s="71"/>
+      <c r="J304" s="71"/>
+      <c r="K304" s="71"/>
+      <c r="L304" s="70"/>
+      <c r="M304" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="N304" s="93"/>
+      <c r="O304" s="93"/>
+      <c r="P304" s="93"/>
+      <c r="Q304" s="93"/>
+      <c r="R304" s="93"/>
+      <c r="S304" s="93"/>
+      <c r="T304" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="U304" s="93"/>
+      <c r="V304" s="93"/>
+      <c r="W304" s="93"/>
+      <c r="X304" s="93"/>
+      <c r="Y304" s="93"/>
+      <c r="Z304" s="93"/>
+      <c r="AA304" s="93"/>
+      <c r="AB304" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC304" s="93"/>
+      <c r="AD304" s="93"/>
+      <c r="AE304" s="93"/>
+      <c r="AF304" s="93"/>
+      <c r="AG304" s="93"/>
+    </row>
+    <row r="305" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D305" s="15"/>
+      <c r="E305" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F305" s="65"/>
+      <c r="G305" s="65"/>
+      <c r="H305" s="65"/>
+      <c r="I305" s="65"/>
+      <c r="J305" s="65"/>
+      <c r="K305" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="L305" s="70"/>
+      <c r="M305" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="N305" s="91"/>
+      <c r="O305" s="91"/>
+      <c r="P305" s="91"/>
+      <c r="Q305" s="91"/>
+      <c r="R305" s="91"/>
+      <c r="S305" s="92"/>
+      <c r="T305" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="U305" s="91"/>
+      <c r="V305" s="91"/>
+      <c r="W305" s="91"/>
+      <c r="X305" s="91"/>
+      <c r="Y305" s="91"/>
+      <c r="Z305" s="91"/>
+      <c r="AA305" s="91"/>
+      <c r="AB305" s="91"/>
+      <c r="AC305" s="91"/>
+      <c r="AD305" s="91"/>
+      <c r="AE305" s="91"/>
+      <c r="AF305" s="91"/>
+      <c r="AG305" s="92"/>
+    </row>
+    <row r="306" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D306" s="15"/>
+      <c r="E306" s="66"/>
+      <c r="F306" s="66"/>
+      <c r="G306" s="66"/>
+      <c r="H306" s="66"/>
+      <c r="I306" s="66"/>
+      <c r="J306" s="66"/>
+      <c r="K306" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="L306" s="70"/>
+      <c r="M306" s="90"/>
+      <c r="N306" s="91"/>
+      <c r="O306" s="91"/>
+      <c r="P306" s="91"/>
+      <c r="Q306" s="91"/>
+      <c r="R306" s="91"/>
+      <c r="S306" s="92"/>
+      <c r="T306" s="90"/>
+      <c r="U306" s="91"/>
+      <c r="V306" s="91"/>
+      <c r="W306" s="91"/>
+      <c r="X306" s="91"/>
+      <c r="Y306" s="91"/>
+      <c r="Z306" s="91"/>
+      <c r="AA306" s="91"/>
+      <c r="AB306" s="91"/>
+      <c r="AC306" s="91"/>
+      <c r="AD306" s="91"/>
+      <c r="AE306" s="91"/>
+      <c r="AF306" s="91"/>
+      <c r="AG306" s="92"/>
+    </row>
+    <row r="307" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D307" s="15"/>
+      <c r="E307" s="67"/>
+      <c r="F307" s="67"/>
+      <c r="G307" s="67"/>
+      <c r="H307" s="67"/>
+      <c r="I307" s="67"/>
+      <c r="J307" s="67"/>
+      <c r="K307" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="L307" s="70"/>
+      <c r="M307" s="90"/>
+      <c r="N307" s="91"/>
+      <c r="O307" s="91"/>
+      <c r="P307" s="91"/>
+      <c r="Q307" s="91"/>
+      <c r="R307" s="91"/>
+      <c r="S307" s="92"/>
+      <c r="T307" s="90"/>
+      <c r="U307" s="91"/>
+      <c r="V307" s="91"/>
+      <c r="W307" s="91"/>
+      <c r="X307" s="91"/>
+      <c r="Y307" s="91"/>
+      <c r="Z307" s="91"/>
+      <c r="AA307" s="91"/>
+      <c r="AB307" s="91"/>
+      <c r="AC307" s="91"/>
+      <c r="AD307" s="91"/>
+      <c r="AE307" s="91"/>
+      <c r="AF307" s="91"/>
+      <c r="AG307" s="92"/>
+    </row>
+    <row r="308" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D308" s="15"/>
+    </row>
+    <row r="309" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D309" s="15"/>
+    </row>
+    <row r="310" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D310" s="15"/>
+    </row>
+    <row r="311" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7102,39 +6289,43 @@
     <row r="739" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="740" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="741" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="48">
+    <mergeCell ref="M305:S307"/>
+    <mergeCell ref="T305:AG307"/>
+    <mergeCell ref="M299:S299"/>
+    <mergeCell ref="M300:S300"/>
+    <mergeCell ref="M302:S302"/>
+    <mergeCell ref="M303:S303"/>
+    <mergeCell ref="M304:S304"/>
+    <mergeCell ref="AB303:AG303"/>
+    <mergeCell ref="AB304:AG304"/>
+    <mergeCell ref="T303:AA303"/>
+    <mergeCell ref="T304:AA304"/>
+    <mergeCell ref="M301:S301"/>
+    <mergeCell ref="T297:AG297"/>
+    <mergeCell ref="M297:S297"/>
+    <mergeCell ref="K299:L299"/>
+    <mergeCell ref="K300:L300"/>
+    <mergeCell ref="K302:L302"/>
+    <mergeCell ref="AB298:AG298"/>
+    <mergeCell ref="T298:AA298"/>
+    <mergeCell ref="AB299:AG302"/>
+    <mergeCell ref="T299:AA302"/>
+    <mergeCell ref="K301:L301"/>
+    <mergeCell ref="K305:L305"/>
+    <mergeCell ref="K306:L306"/>
+    <mergeCell ref="K307:L307"/>
+    <mergeCell ref="E303:L303"/>
+    <mergeCell ref="E304:L304"/>
+    <mergeCell ref="E305:J305"/>
+    <mergeCell ref="E306:J306"/>
+    <mergeCell ref="E307:J307"/>
+    <mergeCell ref="E299:J299"/>
+    <mergeCell ref="E300:J300"/>
+    <mergeCell ref="E302:J302"/>
+    <mergeCell ref="M298:S298"/>
+    <mergeCell ref="E301:J301"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -7148,71 +6339,6 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="H288:K288"/>
-    <mergeCell ref="L283:AA283"/>
-    <mergeCell ref="L288:AA288"/>
-    <mergeCell ref="L284:AA285"/>
-    <mergeCell ref="L286:AA287"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H285:K285"/>
-    <mergeCell ref="H286:K286"/>
-    <mergeCell ref="H287:K287"/>
-    <mergeCell ref="H291:J291"/>
-    <mergeCell ref="H292:J292"/>
-    <mergeCell ref="H293:J293"/>
-    <mergeCell ref="H294:J294"/>
-    <mergeCell ref="H295:J295"/>
-    <mergeCell ref="K291:U291"/>
-    <mergeCell ref="K292:U292"/>
-    <mergeCell ref="K293:U293"/>
-    <mergeCell ref="K294:U294"/>
-    <mergeCell ref="K295:U295"/>
-    <mergeCell ref="H298:J298"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="H300:J300"/>
-    <mergeCell ref="H301:J301"/>
-    <mergeCell ref="K298:U298"/>
-    <mergeCell ref="K299:U299"/>
-    <mergeCell ref="K300:U300"/>
-    <mergeCell ref="K301:U301"/>
-    <mergeCell ref="E330:J330"/>
-    <mergeCell ref="E331:J331"/>
-    <mergeCell ref="E333:J333"/>
-    <mergeCell ref="I305:M305"/>
-    <mergeCell ref="H306:H309"/>
-    <mergeCell ref="M329:S329"/>
-    <mergeCell ref="E332:J332"/>
-    <mergeCell ref="K336:L336"/>
-    <mergeCell ref="K337:L337"/>
-    <mergeCell ref="K338:L338"/>
-    <mergeCell ref="E334:L334"/>
-    <mergeCell ref="E335:L335"/>
-    <mergeCell ref="E336:J336"/>
-    <mergeCell ref="E337:J337"/>
-    <mergeCell ref="E338:J338"/>
-    <mergeCell ref="T328:AG328"/>
-    <mergeCell ref="M328:S328"/>
-    <mergeCell ref="K330:L330"/>
-    <mergeCell ref="K331:L331"/>
-    <mergeCell ref="K333:L333"/>
-    <mergeCell ref="AB329:AG329"/>
-    <mergeCell ref="T329:AA329"/>
-    <mergeCell ref="AB330:AG333"/>
-    <mergeCell ref="T330:AA333"/>
-    <mergeCell ref="K332:L332"/>
-    <mergeCell ref="M336:S338"/>
-    <mergeCell ref="T336:AG338"/>
-    <mergeCell ref="M330:S330"/>
-    <mergeCell ref="M331:S331"/>
-    <mergeCell ref="M333:S333"/>
-    <mergeCell ref="M334:S334"/>
-    <mergeCell ref="M335:S335"/>
-    <mergeCell ref="AB334:AG334"/>
-    <mergeCell ref="AB335:AG335"/>
-    <mergeCell ref="T334:AA334"/>
-    <mergeCell ref="T335:AA335"/>
-    <mergeCell ref="M332:S332"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7225,15 +6351,14 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <rowBreaks count="8" manualBreakCount="8">
+  <rowBreaks count="7" manualBreakCount="7">
     <brk id="42" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
     <brk id="114" max="34" man="1"/>
     <brk id="150" max="34" man="1"/>
     <brk id="191" max="34" man="1"/>
     <brk id="233" max="34" man="1"/>
-    <brk id="270" max="34" man="1"/>
-    <brk id="311" max="34" man="1"/>
+    <brk id="280" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63440A89-648B-4768-A437-C8BAADED1F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2657AE-0928-4620-802E-41E6CA8ED70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1185,9 +1185,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ベーシックなフォーム認証方式を採用する。</t>
-  </si>
-  <si>
     <t>各ユーザのパスワードは、不可逆暗号化（ハッシュ化）した状態でデータベース上に保存され、</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1636,6 +1633,13 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一般的なフォーム認証方式を採用する。</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンテキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2037,6 +2041,105 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2111,105 +2214,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3188,43 +3192,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3233,43 +3237,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="92"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3278,39 +3282,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="62"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="95"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3453,12 +3457,12 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
@@ -3587,12 +3591,12 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
       <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
@@ -3933,19 +3937,19 @@
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="15"/>
       <c r="G36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="15"/>
       <c r="G37" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4217,13 +4221,13 @@
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4235,13 +4239,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4250,16 +4254,16 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4274,16 +4278,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4298,19 +4302,19 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15"/>
       <c r="H116" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15"/>
       <c r="H117" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4328,7 +4332,7 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4340,7 +4344,7 @@
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4452,7 +4456,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4521,7 +4525,7 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4533,19 +4537,19 @@
         <v>32</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
       <c r="H173" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
       <c r="H174" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4563,19 +4567,19 @@
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
       <c r="I177" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
       <c r="I178" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4650,7 +4654,7 @@
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
       <c r="I198" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4770,13 +4774,13 @@
         <v>74</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
       <c r="J230" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4953,7 +4957,7 @@
       <c r="O243" s="36"/>
       <c r="P243" s="37"/>
       <c r="Q243" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R243" s="30"/>
       <c r="S243" s="30"/>
@@ -5052,7 +5056,7 @@
       <c r="O246" s="36"/>
       <c r="P246" s="37"/>
       <c r="Q246" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R246" s="36"/>
       <c r="S246" s="36"/>
@@ -5276,7 +5280,7 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="G267" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5287,7 +5291,7 @@
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="G269" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5308,7 +5312,7 @@
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="273" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5322,7 +5326,7 @@
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="G274" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="275" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5343,14 +5347,14 @@
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="G277" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="278" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="G278" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="279" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5447,31 +5451,31 @@
       <c r="J297" s="24"/>
       <c r="K297" s="24"/>
       <c r="L297" s="25"/>
-      <c r="M297" s="64" t="s">
+      <c r="M297" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="N297" s="64"/>
-      <c r="O297" s="64"/>
-      <c r="P297" s="64"/>
-      <c r="Q297" s="64"/>
-      <c r="R297" s="64"/>
-      <c r="S297" s="64"/>
-      <c r="T297" s="68" t="s">
+      <c r="N297" s="47"/>
+      <c r="O297" s="47"/>
+      <c r="P297" s="47"/>
+      <c r="Q297" s="47"/>
+      <c r="R297" s="47"/>
+      <c r="S297" s="47"/>
+      <c r="T297" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="U297" s="68"/>
-      <c r="V297" s="68"/>
-      <c r="W297" s="68"/>
-      <c r="X297" s="68"/>
-      <c r="Y297" s="68"/>
-      <c r="Z297" s="68"/>
-      <c r="AA297" s="68"/>
-      <c r="AB297" s="68"/>
-      <c r="AC297" s="68"/>
-      <c r="AD297" s="68"/>
-      <c r="AE297" s="68"/>
-      <c r="AF297" s="68"/>
-      <c r="AG297" s="68"/>
+      <c r="U297" s="46"/>
+      <c r="V297" s="46"/>
+      <c r="W297" s="46"/>
+      <c r="X297" s="46"/>
+      <c r="Y297" s="46"/>
+      <c r="Z297" s="46"/>
+      <c r="AA297" s="46"/>
+      <c r="AB297" s="46"/>
+      <c r="AC297" s="46"/>
+      <c r="AD297" s="46"/>
+      <c r="AE297" s="46"/>
+      <c r="AF297" s="46"/>
+      <c r="AG297" s="46"/>
     </row>
     <row r="298" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D298" s="15"/>
@@ -5483,371 +5487,371 @@
       <c r="J298" s="27"/>
       <c r="K298" s="27"/>
       <c r="L298" s="28"/>
-      <c r="M298" s="64" t="s">
+      <c r="M298" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="N298" s="64"/>
-      <c r="O298" s="64"/>
-      <c r="P298" s="64"/>
-      <c r="Q298" s="64"/>
-      <c r="R298" s="64"/>
-      <c r="S298" s="64"/>
-      <c r="T298" s="64" t="s">
+      <c r="N298" s="47"/>
+      <c r="O298" s="47"/>
+      <c r="P298" s="47"/>
+      <c r="Q298" s="47"/>
+      <c r="R298" s="47"/>
+      <c r="S298" s="47"/>
+      <c r="T298" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="U298" s="47"/>
+      <c r="V298" s="47"/>
+      <c r="W298" s="47"/>
+      <c r="X298" s="47"/>
+      <c r="Y298" s="47"/>
+      <c r="Z298" s="47"/>
+      <c r="AA298" s="47"/>
+      <c r="AB298" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="U298" s="64"/>
-      <c r="V298" s="64"/>
-      <c r="W298" s="64"/>
-      <c r="X298" s="64"/>
-      <c r="Y298" s="64"/>
-      <c r="Z298" s="64"/>
-      <c r="AA298" s="64"/>
-      <c r="AB298" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC298" s="64"/>
-      <c r="AD298" s="64"/>
-      <c r="AE298" s="64"/>
-      <c r="AF298" s="64"/>
-      <c r="AG298" s="64"/>
+      <c r="AC298" s="47"/>
+      <c r="AD298" s="47"/>
+      <c r="AE298" s="47"/>
+      <c r="AF298" s="47"/>
+      <c r="AG298" s="47"/>
     </row>
     <row r="299" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D299" s="15"/>
-      <c r="E299" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="F299" s="65"/>
-      <c r="G299" s="65"/>
-      <c r="H299" s="65"/>
-      <c r="I299" s="65"/>
-      <c r="J299" s="65"/>
-      <c r="K299" s="69" t="s">
+      <c r="E299" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F299" s="69"/>
+      <c r="G299" s="69"/>
+      <c r="H299" s="69"/>
+      <c r="I299" s="69"/>
+      <c r="J299" s="69"/>
+      <c r="K299" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="L299" s="70"/>
-      <c r="M299" s="93" t="s">
+      <c r="L299" s="49"/>
+      <c r="M299" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="N299" s="93"/>
-      <c r="O299" s="93"/>
-      <c r="P299" s="93"/>
-      <c r="Q299" s="93"/>
-      <c r="R299" s="93"/>
-      <c r="S299" s="93"/>
-      <c r="T299" s="81" t="s">
+      <c r="N299" s="42"/>
+      <c r="O299" s="42"/>
+      <c r="P299" s="42"/>
+      <c r="Q299" s="42"/>
+      <c r="R299" s="42"/>
+      <c r="S299" s="42"/>
+      <c r="T299" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="U299" s="82"/>
-      <c r="V299" s="82"/>
-      <c r="W299" s="82"/>
-      <c r="X299" s="82"/>
-      <c r="Y299" s="82"/>
-      <c r="Z299" s="82"/>
-      <c r="AA299" s="83"/>
-      <c r="AB299" s="72" t="s">
+      <c r="U299" s="60"/>
+      <c r="V299" s="60"/>
+      <c r="W299" s="60"/>
+      <c r="X299" s="60"/>
+      <c r="Y299" s="60"/>
+      <c r="Z299" s="60"/>
+      <c r="AA299" s="61"/>
+      <c r="AB299" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AC299" s="73"/>
-      <c r="AD299" s="73"/>
-      <c r="AE299" s="73"/>
-      <c r="AF299" s="73"/>
-      <c r="AG299" s="74"/>
+      <c r="AC299" s="51"/>
+      <c r="AD299" s="51"/>
+      <c r="AE299" s="51"/>
+      <c r="AF299" s="51"/>
+      <c r="AG299" s="52"/>
     </row>
     <row r="300" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D300" s="15"/>
-      <c r="E300" s="66"/>
-      <c r="F300" s="66"/>
-      <c r="G300" s="66"/>
-      <c r="H300" s="66"/>
-      <c r="I300" s="66"/>
-      <c r="J300" s="66"/>
-      <c r="K300" s="69" t="s">
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
+      <c r="H300" s="70"/>
+      <c r="I300" s="70"/>
+      <c r="J300" s="70"/>
+      <c r="K300" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="L300" s="70"/>
-      <c r="M300" s="93" t="s">
+      <c r="L300" s="49"/>
+      <c r="M300" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="N300" s="93"/>
-      <c r="O300" s="93"/>
-      <c r="P300" s="93"/>
-      <c r="Q300" s="93"/>
-      <c r="R300" s="93"/>
-      <c r="S300" s="93"/>
-      <c r="T300" s="84"/>
-      <c r="U300" s="85"/>
-      <c r="V300" s="85"/>
-      <c r="W300" s="85"/>
-      <c r="X300" s="85"/>
-      <c r="Y300" s="85"/>
-      <c r="Z300" s="85"/>
-      <c r="AA300" s="86"/>
-      <c r="AB300" s="75"/>
-      <c r="AC300" s="76"/>
-      <c r="AD300" s="76"/>
-      <c r="AE300" s="76"/>
-      <c r="AF300" s="76"/>
-      <c r="AG300" s="77"/>
+      <c r="N300" s="42"/>
+      <c r="O300" s="42"/>
+      <c r="P300" s="42"/>
+      <c r="Q300" s="42"/>
+      <c r="R300" s="42"/>
+      <c r="S300" s="42"/>
+      <c r="T300" s="62"/>
+      <c r="U300" s="63"/>
+      <c r="V300" s="63"/>
+      <c r="W300" s="63"/>
+      <c r="X300" s="63"/>
+      <c r="Y300" s="63"/>
+      <c r="Z300" s="63"/>
+      <c r="AA300" s="64"/>
+      <c r="AB300" s="53"/>
+      <c r="AC300" s="54"/>
+      <c r="AD300" s="54"/>
+      <c r="AE300" s="54"/>
+      <c r="AF300" s="54"/>
+      <c r="AG300" s="55"/>
     </row>
     <row r="301" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D301" s="15"/>
-      <c r="E301" s="66"/>
-      <c r="F301" s="66"/>
-      <c r="G301" s="66"/>
-      <c r="H301" s="66"/>
-      <c r="I301" s="66"/>
-      <c r="J301" s="66"/>
-      <c r="K301" s="69" t="s">
+      <c r="E301" s="70"/>
+      <c r="F301" s="70"/>
+      <c r="G301" s="70"/>
+      <c r="H301" s="70"/>
+      <c r="I301" s="70"/>
+      <c r="J301" s="70"/>
+      <c r="K301" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="L301" s="70"/>
-      <c r="M301" s="93" t="s">
+      <c r="L301" s="49"/>
+      <c r="M301" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="N301" s="93"/>
-      <c r="O301" s="93"/>
-      <c r="P301" s="93"/>
-      <c r="Q301" s="93"/>
-      <c r="R301" s="93"/>
-      <c r="S301" s="93"/>
-      <c r="T301" s="84"/>
-      <c r="U301" s="85"/>
-      <c r="V301" s="85"/>
-      <c r="W301" s="85"/>
-      <c r="X301" s="85"/>
-      <c r="Y301" s="85"/>
-      <c r="Z301" s="85"/>
-      <c r="AA301" s="86"/>
-      <c r="AB301" s="75"/>
-      <c r="AC301" s="76"/>
-      <c r="AD301" s="76"/>
-      <c r="AE301" s="76"/>
-      <c r="AF301" s="76"/>
-      <c r="AG301" s="77"/>
+      <c r="N301" s="42"/>
+      <c r="O301" s="42"/>
+      <c r="P301" s="42"/>
+      <c r="Q301" s="42"/>
+      <c r="R301" s="42"/>
+      <c r="S301" s="42"/>
+      <c r="T301" s="62"/>
+      <c r="U301" s="63"/>
+      <c r="V301" s="63"/>
+      <c r="W301" s="63"/>
+      <c r="X301" s="63"/>
+      <c r="Y301" s="63"/>
+      <c r="Z301" s="63"/>
+      <c r="AA301" s="64"/>
+      <c r="AB301" s="53"/>
+      <c r="AC301" s="54"/>
+      <c r="AD301" s="54"/>
+      <c r="AE301" s="54"/>
+      <c r="AF301" s="54"/>
+      <c r="AG301" s="55"/>
     </row>
     <row r="302" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D302" s="15"/>
-      <c r="E302" s="67"/>
-      <c r="F302" s="67"/>
-      <c r="G302" s="67"/>
-      <c r="H302" s="67"/>
-      <c r="I302" s="67"/>
-      <c r="J302" s="67"/>
-      <c r="K302" s="69" t="s">
+      <c r="E302" s="71"/>
+      <c r="F302" s="71"/>
+      <c r="G302" s="71"/>
+      <c r="H302" s="71"/>
+      <c r="I302" s="71"/>
+      <c r="J302" s="71"/>
+      <c r="K302" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="L302" s="70"/>
-      <c r="M302" s="93" t="s">
+      <c r="L302" s="49"/>
+      <c r="M302" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="N302" s="93"/>
-      <c r="O302" s="93"/>
-      <c r="P302" s="93"/>
-      <c r="Q302" s="93"/>
-      <c r="R302" s="93"/>
-      <c r="S302" s="93"/>
-      <c r="T302" s="87"/>
-      <c r="U302" s="88"/>
-      <c r="V302" s="88"/>
-      <c r="W302" s="88"/>
-      <c r="X302" s="88"/>
-      <c r="Y302" s="88"/>
-      <c r="Z302" s="88"/>
-      <c r="AA302" s="89"/>
-      <c r="AB302" s="78"/>
-      <c r="AC302" s="79"/>
-      <c r="AD302" s="79"/>
-      <c r="AE302" s="79"/>
-      <c r="AF302" s="79"/>
-      <c r="AG302" s="80"/>
+      <c r="N302" s="42"/>
+      <c r="O302" s="42"/>
+      <c r="P302" s="42"/>
+      <c r="Q302" s="42"/>
+      <c r="R302" s="42"/>
+      <c r="S302" s="42"/>
+      <c r="T302" s="65"/>
+      <c r="U302" s="66"/>
+      <c r="V302" s="66"/>
+      <c r="W302" s="66"/>
+      <c r="X302" s="66"/>
+      <c r="Y302" s="66"/>
+      <c r="Z302" s="66"/>
+      <c r="AA302" s="67"/>
+      <c r="AB302" s="56"/>
+      <c r="AC302" s="57"/>
+      <c r="AD302" s="57"/>
+      <c r="AE302" s="57"/>
+      <c r="AF302" s="57"/>
+      <c r="AG302" s="58"/>
     </row>
     <row r="303" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D303" s="15"/>
-      <c r="E303" s="69" t="s">
+      <c r="E303" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F303" s="71"/>
-      <c r="G303" s="71"/>
-      <c r="H303" s="71"/>
-      <c r="I303" s="71"/>
-      <c r="J303" s="71"/>
-      <c r="K303" s="71"/>
-      <c r="L303" s="70"/>
-      <c r="M303" s="93" t="s">
+      <c r="F303" s="68"/>
+      <c r="G303" s="68"/>
+      <c r="H303" s="68"/>
+      <c r="I303" s="68"/>
+      <c r="J303" s="68"/>
+      <c r="K303" s="68"/>
+      <c r="L303" s="49"/>
+      <c r="M303" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="N303" s="93"/>
-      <c r="O303" s="93"/>
-      <c r="P303" s="93"/>
-      <c r="Q303" s="93"/>
-      <c r="R303" s="93"/>
-      <c r="S303" s="93"/>
-      <c r="T303" s="94" t="s">
+      <c r="N303" s="42"/>
+      <c r="O303" s="42"/>
+      <c r="P303" s="42"/>
+      <c r="Q303" s="42"/>
+      <c r="R303" s="42"/>
+      <c r="S303" s="42"/>
+      <c r="T303" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="U303" s="95"/>
-      <c r="V303" s="95"/>
-      <c r="W303" s="95"/>
-      <c r="X303" s="95"/>
-      <c r="Y303" s="95"/>
-      <c r="Z303" s="95"/>
-      <c r="AA303" s="96"/>
-      <c r="AB303" s="93" t="s">
+      <c r="U303" s="44"/>
+      <c r="V303" s="44"/>
+      <c r="W303" s="44"/>
+      <c r="X303" s="44"/>
+      <c r="Y303" s="44"/>
+      <c r="Z303" s="44"/>
+      <c r="AA303" s="45"/>
+      <c r="AB303" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="AC303" s="93"/>
-      <c r="AD303" s="93"/>
-      <c r="AE303" s="93"/>
-      <c r="AF303" s="93"/>
-      <c r="AG303" s="93"/>
+      <c r="AC303" s="42"/>
+      <c r="AD303" s="42"/>
+      <c r="AE303" s="42"/>
+      <c r="AF303" s="42"/>
+      <c r="AG303" s="42"/>
     </row>
     <row r="304" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D304" s="15"/>
-      <c r="E304" s="69" t="s">
+      <c r="E304" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F304" s="71"/>
-      <c r="G304" s="71"/>
-      <c r="H304" s="71"/>
-      <c r="I304" s="71"/>
-      <c r="J304" s="71"/>
-      <c r="K304" s="71"/>
-      <c r="L304" s="70"/>
-      <c r="M304" s="93" t="s">
+      <c r="F304" s="68"/>
+      <c r="G304" s="68"/>
+      <c r="H304" s="68"/>
+      <c r="I304" s="68"/>
+      <c r="J304" s="68"/>
+      <c r="K304" s="68"/>
+      <c r="L304" s="49"/>
+      <c r="M304" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="N304" s="93"/>
-      <c r="O304" s="93"/>
-      <c r="P304" s="93"/>
-      <c r="Q304" s="93"/>
-      <c r="R304" s="93"/>
-      <c r="S304" s="93"/>
-      <c r="T304" s="93" t="s">
+      <c r="N304" s="42"/>
+      <c r="O304" s="42"/>
+      <c r="P304" s="42"/>
+      <c r="Q304" s="42"/>
+      <c r="R304" s="42"/>
+      <c r="S304" s="42"/>
+      <c r="T304" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="U304" s="93"/>
-      <c r="V304" s="93"/>
-      <c r="W304" s="93"/>
-      <c r="X304" s="93"/>
-      <c r="Y304" s="93"/>
-      <c r="Z304" s="93"/>
-      <c r="AA304" s="93"/>
-      <c r="AB304" s="93" t="s">
+      <c r="U304" s="42"/>
+      <c r="V304" s="42"/>
+      <c r="W304" s="42"/>
+      <c r="X304" s="42"/>
+      <c r="Y304" s="42"/>
+      <c r="Z304" s="42"/>
+      <c r="AA304" s="42"/>
+      <c r="AB304" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="AC304" s="93"/>
-      <c r="AD304" s="93"/>
-      <c r="AE304" s="93"/>
-      <c r="AF304" s="93"/>
-      <c r="AG304" s="93"/>
+      <c r="AC304" s="42"/>
+      <c r="AD304" s="42"/>
+      <c r="AE304" s="42"/>
+      <c r="AF304" s="42"/>
+      <c r="AG304" s="42"/>
     </row>
     <row r="305" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D305" s="15"/>
-      <c r="E305" s="65" t="s">
+      <c r="E305" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F305" s="65"/>
-      <c r="G305" s="65"/>
-      <c r="H305" s="65"/>
-      <c r="I305" s="65"/>
-      <c r="J305" s="65"/>
-      <c r="K305" s="69" t="s">
+      <c r="F305" s="69"/>
+      <c r="G305" s="69"/>
+      <c r="H305" s="69"/>
+      <c r="I305" s="69"/>
+      <c r="J305" s="69"/>
+      <c r="K305" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="L305" s="70"/>
-      <c r="M305" s="90" t="s">
+      <c r="L305" s="49"/>
+      <c r="M305" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N305" s="91"/>
-      <c r="O305" s="91"/>
-      <c r="P305" s="91"/>
-      <c r="Q305" s="91"/>
-      <c r="R305" s="91"/>
-      <c r="S305" s="92"/>
-      <c r="T305" s="90" t="s">
+      <c r="N305" s="40"/>
+      <c r="O305" s="40"/>
+      <c r="P305" s="40"/>
+      <c r="Q305" s="40"/>
+      <c r="R305" s="40"/>
+      <c r="S305" s="41"/>
+      <c r="T305" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="U305" s="91"/>
-      <c r="V305" s="91"/>
-      <c r="W305" s="91"/>
-      <c r="X305" s="91"/>
-      <c r="Y305" s="91"/>
-      <c r="Z305" s="91"/>
-      <c r="AA305" s="91"/>
-      <c r="AB305" s="91"/>
-      <c r="AC305" s="91"/>
-      <c r="AD305" s="91"/>
-      <c r="AE305" s="91"/>
-      <c r="AF305" s="91"/>
-      <c r="AG305" s="92"/>
+      <c r="U305" s="40"/>
+      <c r="V305" s="40"/>
+      <c r="W305" s="40"/>
+      <c r="X305" s="40"/>
+      <c r="Y305" s="40"/>
+      <c r="Z305" s="40"/>
+      <c r="AA305" s="40"/>
+      <c r="AB305" s="40"/>
+      <c r="AC305" s="40"/>
+      <c r="AD305" s="40"/>
+      <c r="AE305" s="40"/>
+      <c r="AF305" s="40"/>
+      <c r="AG305" s="41"/>
     </row>
     <row r="306" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D306" s="15"/>
-      <c r="E306" s="66"/>
-      <c r="F306" s="66"/>
-      <c r="G306" s="66"/>
-      <c r="H306" s="66"/>
-      <c r="I306" s="66"/>
-      <c r="J306" s="66"/>
-      <c r="K306" s="69" t="s">
+      <c r="E306" s="70"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="70"/>
+      <c r="J306" s="70"/>
+      <c r="K306" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="L306" s="70"/>
-      <c r="M306" s="90"/>
-      <c r="N306" s="91"/>
-      <c r="O306" s="91"/>
-      <c r="P306" s="91"/>
-      <c r="Q306" s="91"/>
-      <c r="R306" s="91"/>
-      <c r="S306" s="92"/>
-      <c r="T306" s="90"/>
-      <c r="U306" s="91"/>
-      <c r="V306" s="91"/>
-      <c r="W306" s="91"/>
-      <c r="X306" s="91"/>
-      <c r="Y306" s="91"/>
-      <c r="Z306" s="91"/>
-      <c r="AA306" s="91"/>
-      <c r="AB306" s="91"/>
-      <c r="AC306" s="91"/>
-      <c r="AD306" s="91"/>
-      <c r="AE306" s="91"/>
-      <c r="AF306" s="91"/>
-      <c r="AG306" s="92"/>
+      <c r="L306" s="49"/>
+      <c r="M306" s="39"/>
+      <c r="N306" s="40"/>
+      <c r="O306" s="40"/>
+      <c r="P306" s="40"/>
+      <c r="Q306" s="40"/>
+      <c r="R306" s="40"/>
+      <c r="S306" s="41"/>
+      <c r="T306" s="39"/>
+      <c r="U306" s="40"/>
+      <c r="V306" s="40"/>
+      <c r="W306" s="40"/>
+      <c r="X306" s="40"/>
+      <c r="Y306" s="40"/>
+      <c r="Z306" s="40"/>
+      <c r="AA306" s="40"/>
+      <c r="AB306" s="40"/>
+      <c r="AC306" s="40"/>
+      <c r="AD306" s="40"/>
+      <c r="AE306" s="40"/>
+      <c r="AF306" s="40"/>
+      <c r="AG306" s="41"/>
     </row>
     <row r="307" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="15"/>
-      <c r="E307" s="67"/>
-      <c r="F307" s="67"/>
-      <c r="G307" s="67"/>
-      <c r="H307" s="67"/>
-      <c r="I307" s="67"/>
-      <c r="J307" s="67"/>
-      <c r="K307" s="69" t="s">
+      <c r="E307" s="71"/>
+      <c r="F307" s="71"/>
+      <c r="G307" s="71"/>
+      <c r="H307" s="71"/>
+      <c r="I307" s="71"/>
+      <c r="J307" s="71"/>
+      <c r="K307" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="L307" s="70"/>
-      <c r="M307" s="90"/>
-      <c r="N307" s="91"/>
-      <c r="O307" s="91"/>
-      <c r="P307" s="91"/>
-      <c r="Q307" s="91"/>
-      <c r="R307" s="91"/>
-      <c r="S307" s="92"/>
-      <c r="T307" s="90"/>
-      <c r="U307" s="91"/>
-      <c r="V307" s="91"/>
-      <c r="W307" s="91"/>
-      <c r="X307" s="91"/>
-      <c r="Y307" s="91"/>
-      <c r="Z307" s="91"/>
-      <c r="AA307" s="91"/>
-      <c r="AB307" s="91"/>
-      <c r="AC307" s="91"/>
-      <c r="AD307" s="91"/>
-      <c r="AE307" s="91"/>
-      <c r="AF307" s="91"/>
-      <c r="AG307" s="92"/>
+      <c r="L307" s="49"/>
+      <c r="M307" s="39"/>
+      <c r="N307" s="40"/>
+      <c r="O307" s="40"/>
+      <c r="P307" s="40"/>
+      <c r="Q307" s="40"/>
+      <c r="R307" s="40"/>
+      <c r="S307" s="41"/>
+      <c r="T307" s="39"/>
+      <c r="U307" s="40"/>
+      <c r="V307" s="40"/>
+      <c r="W307" s="40"/>
+      <c r="X307" s="40"/>
+      <c r="Y307" s="40"/>
+      <c r="Z307" s="40"/>
+      <c r="AA307" s="40"/>
+      <c r="AB307" s="40"/>
+      <c r="AC307" s="40"/>
+      <c r="AD307" s="40"/>
+      <c r="AE307" s="40"/>
+      <c r="AF307" s="40"/>
+      <c r="AG307" s="41"/>
     </row>
     <row r="308" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D308" s="15"/>
@@ -6291,41 +6295,6 @@
     <row r="741" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M305:S307"/>
-    <mergeCell ref="T305:AG307"/>
-    <mergeCell ref="M299:S299"/>
-    <mergeCell ref="M300:S300"/>
-    <mergeCell ref="M302:S302"/>
-    <mergeCell ref="M303:S303"/>
-    <mergeCell ref="M304:S304"/>
-    <mergeCell ref="AB303:AG303"/>
-    <mergeCell ref="AB304:AG304"/>
-    <mergeCell ref="T303:AA303"/>
-    <mergeCell ref="T304:AA304"/>
-    <mergeCell ref="M301:S301"/>
-    <mergeCell ref="T297:AG297"/>
-    <mergeCell ref="M297:S297"/>
-    <mergeCell ref="K299:L299"/>
-    <mergeCell ref="K300:L300"/>
-    <mergeCell ref="K302:L302"/>
-    <mergeCell ref="AB298:AG298"/>
-    <mergeCell ref="T298:AA298"/>
-    <mergeCell ref="AB299:AG302"/>
-    <mergeCell ref="T299:AA302"/>
-    <mergeCell ref="K301:L301"/>
-    <mergeCell ref="K305:L305"/>
-    <mergeCell ref="K306:L306"/>
-    <mergeCell ref="K307:L307"/>
-    <mergeCell ref="E303:L303"/>
-    <mergeCell ref="E304:L304"/>
-    <mergeCell ref="E305:J305"/>
-    <mergeCell ref="E306:J306"/>
-    <mergeCell ref="E307:J307"/>
-    <mergeCell ref="E299:J299"/>
-    <mergeCell ref="E300:J300"/>
-    <mergeCell ref="E302:J302"/>
-    <mergeCell ref="M298:S298"/>
-    <mergeCell ref="E301:J301"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -6339,6 +6308,41 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="E299:J299"/>
+    <mergeCell ref="E300:J300"/>
+    <mergeCell ref="E302:J302"/>
+    <mergeCell ref="M298:S298"/>
+    <mergeCell ref="E301:J301"/>
+    <mergeCell ref="K305:L305"/>
+    <mergeCell ref="K306:L306"/>
+    <mergeCell ref="K307:L307"/>
+    <mergeCell ref="E303:L303"/>
+    <mergeCell ref="E304:L304"/>
+    <mergeCell ref="E305:J305"/>
+    <mergeCell ref="E306:J306"/>
+    <mergeCell ref="E307:J307"/>
+    <mergeCell ref="T297:AG297"/>
+    <mergeCell ref="M297:S297"/>
+    <mergeCell ref="K299:L299"/>
+    <mergeCell ref="K300:L300"/>
+    <mergeCell ref="K302:L302"/>
+    <mergeCell ref="AB298:AG298"/>
+    <mergeCell ref="T298:AA298"/>
+    <mergeCell ref="AB299:AG302"/>
+    <mergeCell ref="T299:AA302"/>
+    <mergeCell ref="K301:L301"/>
+    <mergeCell ref="M305:S307"/>
+    <mergeCell ref="T305:AG307"/>
+    <mergeCell ref="M299:S299"/>
+    <mergeCell ref="M300:S300"/>
+    <mergeCell ref="M302:S302"/>
+    <mergeCell ref="M303:S303"/>
+    <mergeCell ref="M304:S304"/>
+    <mergeCell ref="AB303:AG303"/>
+    <mergeCell ref="AB304:AG304"/>
+    <mergeCell ref="T303:AA303"/>
+    <mergeCell ref="T304:AA304"/>
+    <mergeCell ref="M301:S301"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2657AE-0928-4620-802E-41E6CA8ED70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23296E4E-8FC0-4403-BD92-DD20CD016ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1193,10 +1193,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>認証をするカスタム認証方式を採用する。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>シングルサインオン用サイトより渡されたURLパラメータに暗号化された管理者IDが存在する場合、</t>
     <rPh sb="15" eb="16">
       <t>ワタ</t>
@@ -1254,16 +1250,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者サイトでは、ログインするユーザが管理者ユーザであるのか、保守会社ユーザであるのかを切り替え、</t>
-    <rPh sb="44" eb="45">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザ種別</t>
     <rPh sb="3" eb="5">
       <t>シュベツ</t>
@@ -1641,6 +1627,14 @@
     <rPh sb="0" eb="3">
       <t>イッパンテキ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトでは、ログインするユーザが管理者ユーザであるか保守会社ユーザであるかによって認証の方法を切り替える</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カスタム認証方式を採用する。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2041,6 +2035,159 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2061,159 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3192,43 +3186,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="50"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3237,43 +3231,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="90" t="s">
+      <c r="R2" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="92"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="59"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="77"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3282,39 +3276,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="95"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="77"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3457,12 +3451,12 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
@@ -3591,12 +3585,12 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
       <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
@@ -3937,7 +3931,7 @@
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4221,13 +4215,13 @@
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4239,13 +4233,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4254,16 +4248,16 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4278,16 +4272,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4302,19 +4296,19 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15"/>
       <c r="H116" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15"/>
       <c r="H117" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4332,7 +4326,7 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4344,7 +4338,7 @@
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4456,7 +4450,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4525,7 +4519,7 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4537,19 +4531,19 @@
         <v>32</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
       <c r="H173" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
       <c r="H174" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4567,19 +4561,19 @@
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
       <c r="I177" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
       <c r="I178" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4654,7 +4648,7 @@
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
       <c r="I198" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4774,13 +4768,13 @@
         <v>74</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
       <c r="J230" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4957,7 +4951,7 @@
       <c r="O243" s="36"/>
       <c r="P243" s="37"/>
       <c r="Q243" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R243" s="30"/>
       <c r="S243" s="30"/>
@@ -5056,7 +5050,7 @@
       <c r="O246" s="36"/>
       <c r="P246" s="37"/>
       <c r="Q246" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R246" s="36"/>
       <c r="S246" s="36"/>
@@ -5280,7 +5274,7 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="G267" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5291,7 +5285,7 @@
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="G269" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5312,7 +5306,7 @@
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="273" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5326,7 +5320,7 @@
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="G274" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="275" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5347,14 +5341,14 @@
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="G277" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="278" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="G278" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="279" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5451,31 +5445,31 @@
       <c r="J297" s="24"/>
       <c r="K297" s="24"/>
       <c r="L297" s="25"/>
-      <c r="M297" s="47" t="s">
+      <c r="M297" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="N297" s="47"/>
-      <c r="O297" s="47"/>
-      <c r="P297" s="47"/>
-      <c r="Q297" s="47"/>
-      <c r="R297" s="47"/>
-      <c r="S297" s="47"/>
-      <c r="T297" s="46" t="s">
+      <c r="N297" s="67"/>
+      <c r="O297" s="67"/>
+      <c r="P297" s="67"/>
+      <c r="Q297" s="67"/>
+      <c r="R297" s="67"/>
+      <c r="S297" s="67"/>
+      <c r="T297" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="U297" s="46"/>
-      <c r="V297" s="46"/>
-      <c r="W297" s="46"/>
-      <c r="X297" s="46"/>
-      <c r="Y297" s="46"/>
-      <c r="Z297" s="46"/>
-      <c r="AA297" s="46"/>
-      <c r="AB297" s="46"/>
-      <c r="AC297" s="46"/>
-      <c r="AD297" s="46"/>
-      <c r="AE297" s="46"/>
-      <c r="AF297" s="46"/>
-      <c r="AG297" s="46"/>
+      <c r="U297" s="71"/>
+      <c r="V297" s="71"/>
+      <c r="W297" s="71"/>
+      <c r="X297" s="71"/>
+      <c r="Y297" s="71"/>
+      <c r="Z297" s="71"/>
+      <c r="AA297" s="71"/>
+      <c r="AB297" s="71"/>
+      <c r="AC297" s="71"/>
+      <c r="AD297" s="71"/>
+      <c r="AE297" s="71"/>
+      <c r="AF297" s="71"/>
+      <c r="AG297" s="71"/>
     </row>
     <row r="298" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D298" s="15"/>
@@ -5487,371 +5481,371 @@
       <c r="J298" s="27"/>
       <c r="K298" s="27"/>
       <c r="L298" s="28"/>
-      <c r="M298" s="47" t="s">
+      <c r="M298" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="N298" s="47"/>
-      <c r="O298" s="47"/>
-      <c r="P298" s="47"/>
-      <c r="Q298" s="47"/>
-      <c r="R298" s="47"/>
-      <c r="S298" s="47"/>
-      <c r="T298" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="U298" s="47"/>
-      <c r="V298" s="47"/>
-      <c r="W298" s="47"/>
-      <c r="X298" s="47"/>
-      <c r="Y298" s="47"/>
-      <c r="Z298" s="47"/>
-      <c r="AA298" s="47"/>
-      <c r="AB298" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC298" s="47"/>
-      <c r="AD298" s="47"/>
-      <c r="AE298" s="47"/>
-      <c r="AF298" s="47"/>
-      <c r="AG298" s="47"/>
+      <c r="N298" s="67"/>
+      <c r="O298" s="67"/>
+      <c r="P298" s="67"/>
+      <c r="Q298" s="67"/>
+      <c r="R298" s="67"/>
+      <c r="S298" s="67"/>
+      <c r="T298" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="U298" s="67"/>
+      <c r="V298" s="67"/>
+      <c r="W298" s="67"/>
+      <c r="X298" s="67"/>
+      <c r="Y298" s="67"/>
+      <c r="Z298" s="67"/>
+      <c r="AA298" s="67"/>
+      <c r="AB298" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC298" s="67"/>
+      <c r="AD298" s="67"/>
+      <c r="AE298" s="67"/>
+      <c r="AF298" s="67"/>
+      <c r="AG298" s="67"/>
     </row>
     <row r="299" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D299" s="15"/>
-      <c r="E299" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F299" s="69"/>
-      <c r="G299" s="69"/>
-      <c r="H299" s="69"/>
-      <c r="I299" s="69"/>
-      <c r="J299" s="69"/>
-      <c r="K299" s="48" t="s">
+      <c r="E299" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F299" s="64"/>
+      <c r="G299" s="64"/>
+      <c r="H299" s="64"/>
+      <c r="I299" s="64"/>
+      <c r="J299" s="64"/>
+      <c r="K299" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="L299" s="49"/>
-      <c r="M299" s="42" t="s">
+      <c r="L299" s="69"/>
+      <c r="M299" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="N299" s="42"/>
-      <c r="O299" s="42"/>
-      <c r="P299" s="42"/>
-      <c r="Q299" s="42"/>
-      <c r="R299" s="42"/>
-      <c r="S299" s="42"/>
-      <c r="T299" s="59" t="s">
+      <c r="N299" s="93"/>
+      <c r="O299" s="93"/>
+      <c r="P299" s="93"/>
+      <c r="Q299" s="93"/>
+      <c r="R299" s="93"/>
+      <c r="S299" s="93"/>
+      <c r="T299" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="U299" s="60"/>
-      <c r="V299" s="60"/>
-      <c r="W299" s="60"/>
-      <c r="X299" s="60"/>
-      <c r="Y299" s="60"/>
-      <c r="Z299" s="60"/>
-      <c r="AA299" s="61"/>
-      <c r="AB299" s="50" t="s">
+      <c r="U299" s="82"/>
+      <c r="V299" s="82"/>
+      <c r="W299" s="82"/>
+      <c r="X299" s="82"/>
+      <c r="Y299" s="82"/>
+      <c r="Z299" s="82"/>
+      <c r="AA299" s="83"/>
+      <c r="AB299" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="AC299" s="51"/>
-      <c r="AD299" s="51"/>
-      <c r="AE299" s="51"/>
-      <c r="AF299" s="51"/>
-      <c r="AG299" s="52"/>
+      <c r="AC299" s="73"/>
+      <c r="AD299" s="73"/>
+      <c r="AE299" s="73"/>
+      <c r="AF299" s="73"/>
+      <c r="AG299" s="74"/>
     </row>
     <row r="300" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D300" s="15"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="70"/>
-      <c r="H300" s="70"/>
-      <c r="I300" s="70"/>
-      <c r="J300" s="70"/>
-      <c r="K300" s="48" t="s">
+      <c r="E300" s="65"/>
+      <c r="F300" s="65"/>
+      <c r="G300" s="65"/>
+      <c r="H300" s="65"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="65"/>
+      <c r="K300" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="L300" s="49"/>
-      <c r="M300" s="42" t="s">
+      <c r="L300" s="69"/>
+      <c r="M300" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="N300" s="42"/>
-      <c r="O300" s="42"/>
-      <c r="P300" s="42"/>
-      <c r="Q300" s="42"/>
-      <c r="R300" s="42"/>
-      <c r="S300" s="42"/>
-      <c r="T300" s="62"/>
-      <c r="U300" s="63"/>
-      <c r="V300" s="63"/>
-      <c r="W300" s="63"/>
-      <c r="X300" s="63"/>
-      <c r="Y300" s="63"/>
-      <c r="Z300" s="63"/>
-      <c r="AA300" s="64"/>
-      <c r="AB300" s="53"/>
-      <c r="AC300" s="54"/>
-      <c r="AD300" s="54"/>
-      <c r="AE300" s="54"/>
-      <c r="AF300" s="54"/>
-      <c r="AG300" s="55"/>
+      <c r="N300" s="93"/>
+      <c r="O300" s="93"/>
+      <c r="P300" s="93"/>
+      <c r="Q300" s="93"/>
+      <c r="R300" s="93"/>
+      <c r="S300" s="93"/>
+      <c r="T300" s="84"/>
+      <c r="U300" s="85"/>
+      <c r="V300" s="85"/>
+      <c r="W300" s="85"/>
+      <c r="X300" s="85"/>
+      <c r="Y300" s="85"/>
+      <c r="Z300" s="85"/>
+      <c r="AA300" s="86"/>
+      <c r="AB300" s="75"/>
+      <c r="AC300" s="76"/>
+      <c r="AD300" s="76"/>
+      <c r="AE300" s="76"/>
+      <c r="AF300" s="76"/>
+      <c r="AG300" s="77"/>
     </row>
     <row r="301" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D301" s="15"/>
-      <c r="E301" s="70"/>
-      <c r="F301" s="70"/>
-      <c r="G301" s="70"/>
-      <c r="H301" s="70"/>
-      <c r="I301" s="70"/>
-      <c r="J301" s="70"/>
-      <c r="K301" s="48" t="s">
+      <c r="E301" s="65"/>
+      <c r="F301" s="65"/>
+      <c r="G301" s="65"/>
+      <c r="H301" s="65"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="65"/>
+      <c r="K301" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="L301" s="49"/>
-      <c r="M301" s="42" t="s">
+      <c r="L301" s="69"/>
+      <c r="M301" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="N301" s="42"/>
-      <c r="O301" s="42"/>
-      <c r="P301" s="42"/>
-      <c r="Q301" s="42"/>
-      <c r="R301" s="42"/>
-      <c r="S301" s="42"/>
-      <c r="T301" s="62"/>
-      <c r="U301" s="63"/>
-      <c r="V301" s="63"/>
-      <c r="W301" s="63"/>
-      <c r="X301" s="63"/>
-      <c r="Y301" s="63"/>
-      <c r="Z301" s="63"/>
-      <c r="AA301" s="64"/>
-      <c r="AB301" s="53"/>
-      <c r="AC301" s="54"/>
-      <c r="AD301" s="54"/>
-      <c r="AE301" s="54"/>
-      <c r="AF301" s="54"/>
-      <c r="AG301" s="55"/>
+      <c r="N301" s="93"/>
+      <c r="O301" s="93"/>
+      <c r="P301" s="93"/>
+      <c r="Q301" s="93"/>
+      <c r="R301" s="93"/>
+      <c r="S301" s="93"/>
+      <c r="T301" s="84"/>
+      <c r="U301" s="85"/>
+      <c r="V301" s="85"/>
+      <c r="W301" s="85"/>
+      <c r="X301" s="85"/>
+      <c r="Y301" s="85"/>
+      <c r="Z301" s="85"/>
+      <c r="AA301" s="86"/>
+      <c r="AB301" s="75"/>
+      <c r="AC301" s="76"/>
+      <c r="AD301" s="76"/>
+      <c r="AE301" s="76"/>
+      <c r="AF301" s="76"/>
+      <c r="AG301" s="77"/>
     </row>
     <row r="302" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D302" s="15"/>
-      <c r="E302" s="71"/>
-      <c r="F302" s="71"/>
-      <c r="G302" s="71"/>
-      <c r="H302" s="71"/>
-      <c r="I302" s="71"/>
-      <c r="J302" s="71"/>
-      <c r="K302" s="48" t="s">
+      <c r="E302" s="66"/>
+      <c r="F302" s="66"/>
+      <c r="G302" s="66"/>
+      <c r="H302" s="66"/>
+      <c r="I302" s="66"/>
+      <c r="J302" s="66"/>
+      <c r="K302" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="L302" s="49"/>
-      <c r="M302" s="42" t="s">
+      <c r="L302" s="69"/>
+      <c r="M302" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="N302" s="42"/>
-      <c r="O302" s="42"/>
-      <c r="P302" s="42"/>
-      <c r="Q302" s="42"/>
-      <c r="R302" s="42"/>
-      <c r="S302" s="42"/>
-      <c r="T302" s="65"/>
-      <c r="U302" s="66"/>
-      <c r="V302" s="66"/>
-      <c r="W302" s="66"/>
-      <c r="X302" s="66"/>
-      <c r="Y302" s="66"/>
-      <c r="Z302" s="66"/>
-      <c r="AA302" s="67"/>
-      <c r="AB302" s="56"/>
-      <c r="AC302" s="57"/>
-      <c r="AD302" s="57"/>
-      <c r="AE302" s="57"/>
-      <c r="AF302" s="57"/>
-      <c r="AG302" s="58"/>
+      <c r="N302" s="93"/>
+      <c r="O302" s="93"/>
+      <c r="P302" s="93"/>
+      <c r="Q302" s="93"/>
+      <c r="R302" s="93"/>
+      <c r="S302" s="93"/>
+      <c r="T302" s="87"/>
+      <c r="U302" s="88"/>
+      <c r="V302" s="88"/>
+      <c r="W302" s="88"/>
+      <c r="X302" s="88"/>
+      <c r="Y302" s="88"/>
+      <c r="Z302" s="88"/>
+      <c r="AA302" s="89"/>
+      <c r="AB302" s="78"/>
+      <c r="AC302" s="79"/>
+      <c r="AD302" s="79"/>
+      <c r="AE302" s="79"/>
+      <c r="AF302" s="79"/>
+      <c r="AG302" s="80"/>
     </row>
     <row r="303" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D303" s="15"/>
-      <c r="E303" s="48" t="s">
+      <c r="E303" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="F303" s="68"/>
-      <c r="G303" s="68"/>
-      <c r="H303" s="68"/>
-      <c r="I303" s="68"/>
-      <c r="J303" s="68"/>
-      <c r="K303" s="68"/>
-      <c r="L303" s="49"/>
-      <c r="M303" s="42" t="s">
+      <c r="F303" s="70"/>
+      <c r="G303" s="70"/>
+      <c r="H303" s="70"/>
+      <c r="I303" s="70"/>
+      <c r="J303" s="70"/>
+      <c r="K303" s="70"/>
+      <c r="L303" s="69"/>
+      <c r="M303" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="N303" s="42"/>
-      <c r="O303" s="42"/>
-      <c r="P303" s="42"/>
-      <c r="Q303" s="42"/>
-      <c r="R303" s="42"/>
-      <c r="S303" s="42"/>
-      <c r="T303" s="43" t="s">
+      <c r="N303" s="93"/>
+      <c r="O303" s="93"/>
+      <c r="P303" s="93"/>
+      <c r="Q303" s="93"/>
+      <c r="R303" s="93"/>
+      <c r="S303" s="93"/>
+      <c r="T303" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="U303" s="44"/>
-      <c r="V303" s="44"/>
-      <c r="W303" s="44"/>
-      <c r="X303" s="44"/>
-      <c r="Y303" s="44"/>
-      <c r="Z303" s="44"/>
-      <c r="AA303" s="45"/>
-      <c r="AB303" s="42" t="s">
+      <c r="U303" s="95"/>
+      <c r="V303" s="95"/>
+      <c r="W303" s="95"/>
+      <c r="X303" s="95"/>
+      <c r="Y303" s="95"/>
+      <c r="Z303" s="95"/>
+      <c r="AA303" s="96"/>
+      <c r="AB303" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="AC303" s="42"/>
-      <c r="AD303" s="42"/>
-      <c r="AE303" s="42"/>
-      <c r="AF303" s="42"/>
-      <c r="AG303" s="42"/>
+      <c r="AC303" s="93"/>
+      <c r="AD303" s="93"/>
+      <c r="AE303" s="93"/>
+      <c r="AF303" s="93"/>
+      <c r="AG303" s="93"/>
     </row>
     <row r="304" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D304" s="15"/>
-      <c r="E304" s="48" t="s">
+      <c r="E304" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="F304" s="68"/>
-      <c r="G304" s="68"/>
-      <c r="H304" s="68"/>
-      <c r="I304" s="68"/>
-      <c r="J304" s="68"/>
-      <c r="K304" s="68"/>
-      <c r="L304" s="49"/>
-      <c r="M304" s="42" t="s">
+      <c r="F304" s="70"/>
+      <c r="G304" s="70"/>
+      <c r="H304" s="70"/>
+      <c r="I304" s="70"/>
+      <c r="J304" s="70"/>
+      <c r="K304" s="70"/>
+      <c r="L304" s="69"/>
+      <c r="M304" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="N304" s="42"/>
-      <c r="O304" s="42"/>
-      <c r="P304" s="42"/>
-      <c r="Q304" s="42"/>
-      <c r="R304" s="42"/>
-      <c r="S304" s="42"/>
-      <c r="T304" s="42" t="s">
+      <c r="N304" s="93"/>
+      <c r="O304" s="93"/>
+      <c r="P304" s="93"/>
+      <c r="Q304" s="93"/>
+      <c r="R304" s="93"/>
+      <c r="S304" s="93"/>
+      <c r="T304" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="U304" s="42"/>
-      <c r="V304" s="42"/>
-      <c r="W304" s="42"/>
-      <c r="X304" s="42"/>
-      <c r="Y304" s="42"/>
-      <c r="Z304" s="42"/>
-      <c r="AA304" s="42"/>
-      <c r="AB304" s="42" t="s">
+      <c r="U304" s="93"/>
+      <c r="V304" s="93"/>
+      <c r="W304" s="93"/>
+      <c r="X304" s="93"/>
+      <c r="Y304" s="93"/>
+      <c r="Z304" s="93"/>
+      <c r="AA304" s="93"/>
+      <c r="AB304" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="AC304" s="42"/>
-      <c r="AD304" s="42"/>
-      <c r="AE304" s="42"/>
-      <c r="AF304" s="42"/>
-      <c r="AG304" s="42"/>
+      <c r="AC304" s="93"/>
+      <c r="AD304" s="93"/>
+      <c r="AE304" s="93"/>
+      <c r="AF304" s="93"/>
+      <c r="AG304" s="93"/>
     </row>
     <row r="305" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D305" s="15"/>
-      <c r="E305" s="69" t="s">
+      <c r="E305" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="F305" s="69"/>
-      <c r="G305" s="69"/>
-      <c r="H305" s="69"/>
-      <c r="I305" s="69"/>
-      <c r="J305" s="69"/>
-      <c r="K305" s="48" t="s">
+      <c r="F305" s="64"/>
+      <c r="G305" s="64"/>
+      <c r="H305" s="64"/>
+      <c r="I305" s="64"/>
+      <c r="J305" s="64"/>
+      <c r="K305" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="L305" s="49"/>
-      <c r="M305" s="39" t="s">
+      <c r="L305" s="69"/>
+      <c r="M305" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="N305" s="40"/>
-      <c r="O305" s="40"/>
-      <c r="P305" s="40"/>
-      <c r="Q305" s="40"/>
-      <c r="R305" s="40"/>
-      <c r="S305" s="41"/>
-      <c r="T305" s="39" t="s">
+      <c r="N305" s="91"/>
+      <c r="O305" s="91"/>
+      <c r="P305" s="91"/>
+      <c r="Q305" s="91"/>
+      <c r="R305" s="91"/>
+      <c r="S305" s="92"/>
+      <c r="T305" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="U305" s="40"/>
-      <c r="V305" s="40"/>
-      <c r="W305" s="40"/>
-      <c r="X305" s="40"/>
-      <c r="Y305" s="40"/>
-      <c r="Z305" s="40"/>
-      <c r="AA305" s="40"/>
-      <c r="AB305" s="40"/>
-      <c r="AC305" s="40"/>
-      <c r="AD305" s="40"/>
-      <c r="AE305" s="40"/>
-      <c r="AF305" s="40"/>
-      <c r="AG305" s="41"/>
+      <c r="U305" s="91"/>
+      <c r="V305" s="91"/>
+      <c r="W305" s="91"/>
+      <c r="X305" s="91"/>
+      <c r="Y305" s="91"/>
+      <c r="Z305" s="91"/>
+      <c r="AA305" s="91"/>
+      <c r="AB305" s="91"/>
+      <c r="AC305" s="91"/>
+      <c r="AD305" s="91"/>
+      <c r="AE305" s="91"/>
+      <c r="AF305" s="91"/>
+      <c r="AG305" s="92"/>
     </row>
     <row r="306" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D306" s="15"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="70"/>
-      <c r="J306" s="70"/>
-      <c r="K306" s="48" t="s">
+      <c r="E306" s="65"/>
+      <c r="F306" s="65"/>
+      <c r="G306" s="65"/>
+      <c r="H306" s="65"/>
+      <c r="I306" s="65"/>
+      <c r="J306" s="65"/>
+      <c r="K306" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="L306" s="49"/>
-      <c r="M306" s="39"/>
-      <c r="N306" s="40"/>
-      <c r="O306" s="40"/>
-      <c r="P306" s="40"/>
-      <c r="Q306" s="40"/>
-      <c r="R306" s="40"/>
-      <c r="S306" s="41"/>
-      <c r="T306" s="39"/>
-      <c r="U306" s="40"/>
-      <c r="V306" s="40"/>
-      <c r="W306" s="40"/>
-      <c r="X306" s="40"/>
-      <c r="Y306" s="40"/>
-      <c r="Z306" s="40"/>
-      <c r="AA306" s="40"/>
-      <c r="AB306" s="40"/>
-      <c r="AC306" s="40"/>
-      <c r="AD306" s="40"/>
-      <c r="AE306" s="40"/>
-      <c r="AF306" s="40"/>
-      <c r="AG306" s="41"/>
+      <c r="L306" s="69"/>
+      <c r="M306" s="90"/>
+      <c r="N306" s="91"/>
+      <c r="O306" s="91"/>
+      <c r="P306" s="91"/>
+      <c r="Q306" s="91"/>
+      <c r="R306" s="91"/>
+      <c r="S306" s="92"/>
+      <c r="T306" s="90"/>
+      <c r="U306" s="91"/>
+      <c r="V306" s="91"/>
+      <c r="W306" s="91"/>
+      <c r="X306" s="91"/>
+      <c r="Y306" s="91"/>
+      <c r="Z306" s="91"/>
+      <c r="AA306" s="91"/>
+      <c r="AB306" s="91"/>
+      <c r="AC306" s="91"/>
+      <c r="AD306" s="91"/>
+      <c r="AE306" s="91"/>
+      <c r="AF306" s="91"/>
+      <c r="AG306" s="92"/>
     </row>
     <row r="307" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="15"/>
-      <c r="E307" s="71"/>
-      <c r="F307" s="71"/>
-      <c r="G307" s="71"/>
-      <c r="H307" s="71"/>
-      <c r="I307" s="71"/>
-      <c r="J307" s="71"/>
-      <c r="K307" s="48" t="s">
+      <c r="E307" s="66"/>
+      <c r="F307" s="66"/>
+      <c r="G307" s="66"/>
+      <c r="H307" s="66"/>
+      <c r="I307" s="66"/>
+      <c r="J307" s="66"/>
+      <c r="K307" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="L307" s="49"/>
-      <c r="M307" s="39"/>
-      <c r="N307" s="40"/>
-      <c r="O307" s="40"/>
-      <c r="P307" s="40"/>
-      <c r="Q307" s="40"/>
-      <c r="R307" s="40"/>
-      <c r="S307" s="41"/>
-      <c r="T307" s="39"/>
-      <c r="U307" s="40"/>
-      <c r="V307" s="40"/>
-      <c r="W307" s="40"/>
-      <c r="X307" s="40"/>
-      <c r="Y307" s="40"/>
-      <c r="Z307" s="40"/>
-      <c r="AA307" s="40"/>
-      <c r="AB307" s="40"/>
-      <c r="AC307" s="40"/>
-      <c r="AD307" s="40"/>
-      <c r="AE307" s="40"/>
-      <c r="AF307" s="40"/>
-      <c r="AG307" s="41"/>
+      <c r="L307" s="69"/>
+      <c r="M307" s="90"/>
+      <c r="N307" s="91"/>
+      <c r="O307" s="91"/>
+      <c r="P307" s="91"/>
+      <c r="Q307" s="91"/>
+      <c r="R307" s="91"/>
+      <c r="S307" s="92"/>
+      <c r="T307" s="90"/>
+      <c r="U307" s="91"/>
+      <c r="V307" s="91"/>
+      <c r="W307" s="91"/>
+      <c r="X307" s="91"/>
+      <c r="Y307" s="91"/>
+      <c r="Z307" s="91"/>
+      <c r="AA307" s="91"/>
+      <c r="AB307" s="91"/>
+      <c r="AC307" s="91"/>
+      <c r="AD307" s="91"/>
+      <c r="AE307" s="91"/>
+      <c r="AF307" s="91"/>
+      <c r="AG307" s="92"/>
     </row>
     <row r="308" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D308" s="15"/>
@@ -6295,6 +6289,41 @@
     <row r="741" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="M305:S307"/>
+    <mergeCell ref="T305:AG307"/>
+    <mergeCell ref="M299:S299"/>
+    <mergeCell ref="M300:S300"/>
+    <mergeCell ref="M302:S302"/>
+    <mergeCell ref="M303:S303"/>
+    <mergeCell ref="M304:S304"/>
+    <mergeCell ref="AB303:AG303"/>
+    <mergeCell ref="AB304:AG304"/>
+    <mergeCell ref="T303:AA303"/>
+    <mergeCell ref="T304:AA304"/>
+    <mergeCell ref="M301:S301"/>
+    <mergeCell ref="T297:AG297"/>
+    <mergeCell ref="M297:S297"/>
+    <mergeCell ref="K299:L299"/>
+    <mergeCell ref="K300:L300"/>
+    <mergeCell ref="K302:L302"/>
+    <mergeCell ref="AB298:AG298"/>
+    <mergeCell ref="T298:AA298"/>
+    <mergeCell ref="AB299:AG302"/>
+    <mergeCell ref="T299:AA302"/>
+    <mergeCell ref="K301:L301"/>
+    <mergeCell ref="K305:L305"/>
+    <mergeCell ref="K306:L306"/>
+    <mergeCell ref="K307:L307"/>
+    <mergeCell ref="E303:L303"/>
+    <mergeCell ref="E304:L304"/>
+    <mergeCell ref="E305:J305"/>
+    <mergeCell ref="E306:J306"/>
+    <mergeCell ref="E307:J307"/>
+    <mergeCell ref="E299:J299"/>
+    <mergeCell ref="E300:J300"/>
+    <mergeCell ref="E302:J302"/>
+    <mergeCell ref="M298:S298"/>
+    <mergeCell ref="E301:J301"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -6308,41 +6337,6 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E299:J299"/>
-    <mergeCell ref="E300:J300"/>
-    <mergeCell ref="E302:J302"/>
-    <mergeCell ref="M298:S298"/>
-    <mergeCell ref="E301:J301"/>
-    <mergeCell ref="K305:L305"/>
-    <mergeCell ref="K306:L306"/>
-    <mergeCell ref="K307:L307"/>
-    <mergeCell ref="E303:L303"/>
-    <mergeCell ref="E304:L304"/>
-    <mergeCell ref="E305:J305"/>
-    <mergeCell ref="E306:J306"/>
-    <mergeCell ref="E307:J307"/>
-    <mergeCell ref="T297:AG297"/>
-    <mergeCell ref="M297:S297"/>
-    <mergeCell ref="K299:L299"/>
-    <mergeCell ref="K300:L300"/>
-    <mergeCell ref="K302:L302"/>
-    <mergeCell ref="AB298:AG298"/>
-    <mergeCell ref="T298:AA298"/>
-    <mergeCell ref="AB299:AG302"/>
-    <mergeCell ref="T299:AA302"/>
-    <mergeCell ref="K301:L301"/>
-    <mergeCell ref="M305:S307"/>
-    <mergeCell ref="T305:AG307"/>
-    <mergeCell ref="M299:S299"/>
-    <mergeCell ref="M300:S300"/>
-    <mergeCell ref="M302:S302"/>
-    <mergeCell ref="M303:S303"/>
-    <mergeCell ref="M304:S304"/>
-    <mergeCell ref="AB303:AG303"/>
-    <mergeCell ref="AB304:AG304"/>
-    <mergeCell ref="T303:AA303"/>
-    <mergeCell ref="T304:AA304"/>
-    <mergeCell ref="M301:S301"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23296E4E-8FC0-4403-BD92-DD20CD016ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F67385-6249-49FF-A34E-BD5092DF2020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1431,31 +1431,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>保守会社ユーザが管理者サイトを利用する際はログイン画面を用いて認可処理を行う。</t>
-    <rPh sb="15" eb="17">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>以下に保守会社ユーザの管理者サイトでの認証処理に関するシーケンスを記す。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -1635,6 +1610,31 @@
   </si>
   <si>
     <t>カスタム認証方式を採用する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザが管理者サイトを利用する際はログイン画面を用いて認証処理を行う。</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2035,6 +2035,105 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2109,105 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3186,43 +3186,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="44"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3231,43 +3231,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="59"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="92"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3276,39 +3276,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="62"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="95"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="44"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3451,12 +3451,12 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="39" t="s">
+      <c r="J18" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
@@ -3585,12 +3585,12 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
       <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
@@ -3931,7 +3931,7 @@
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4215,13 +4215,13 @@
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4257,7 +4257,7 @@
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4519,7 +4519,7 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4561,7 +4561,7 @@
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
       <c r="I177" s="4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4573,7 +4573,7 @@
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4648,7 +4648,7 @@
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
       <c r="I198" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4768,13 +4768,13 @@
         <v>74</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
       <c r="J230" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5274,7 +5274,7 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="G267" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5285,7 +5285,7 @@
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="G269" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5306,7 +5306,7 @@
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="273" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5320,7 +5320,7 @@
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="G274" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="275" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5341,7 +5341,7 @@
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="G277" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="278" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5445,31 +5445,31 @@
       <c r="J297" s="24"/>
       <c r="K297" s="24"/>
       <c r="L297" s="25"/>
-      <c r="M297" s="67" t="s">
+      <c r="M297" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="N297" s="67"/>
-      <c r="O297" s="67"/>
-      <c r="P297" s="67"/>
-      <c r="Q297" s="67"/>
-      <c r="R297" s="67"/>
-      <c r="S297" s="67"/>
-      <c r="T297" s="71" t="s">
+      <c r="N297" s="47"/>
+      <c r="O297" s="47"/>
+      <c r="P297" s="47"/>
+      <c r="Q297" s="47"/>
+      <c r="R297" s="47"/>
+      <c r="S297" s="47"/>
+      <c r="T297" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="U297" s="71"/>
-      <c r="V297" s="71"/>
-      <c r="W297" s="71"/>
-      <c r="X297" s="71"/>
-      <c r="Y297" s="71"/>
-      <c r="Z297" s="71"/>
-      <c r="AA297" s="71"/>
-      <c r="AB297" s="71"/>
-      <c r="AC297" s="71"/>
-      <c r="AD297" s="71"/>
-      <c r="AE297" s="71"/>
-      <c r="AF297" s="71"/>
-      <c r="AG297" s="71"/>
+      <c r="U297" s="46"/>
+      <c r="V297" s="46"/>
+      <c r="W297" s="46"/>
+      <c r="X297" s="46"/>
+      <c r="Y297" s="46"/>
+      <c r="Z297" s="46"/>
+      <c r="AA297" s="46"/>
+      <c r="AB297" s="46"/>
+      <c r="AC297" s="46"/>
+      <c r="AD297" s="46"/>
+      <c r="AE297" s="46"/>
+      <c r="AF297" s="46"/>
+      <c r="AG297" s="46"/>
     </row>
     <row r="298" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D298" s="15"/>
@@ -5481,371 +5481,371 @@
       <c r="J298" s="27"/>
       <c r="K298" s="27"/>
       <c r="L298" s="28"/>
-      <c r="M298" s="67" t="s">
+      <c r="M298" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="N298" s="67"/>
-      <c r="O298" s="67"/>
-      <c r="P298" s="67"/>
-      <c r="Q298" s="67"/>
-      <c r="R298" s="67"/>
-      <c r="S298" s="67"/>
-      <c r="T298" s="67" t="s">
+      <c r="N298" s="47"/>
+      <c r="O298" s="47"/>
+      <c r="P298" s="47"/>
+      <c r="Q298" s="47"/>
+      <c r="R298" s="47"/>
+      <c r="S298" s="47"/>
+      <c r="T298" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="U298" s="47"/>
+      <c r="V298" s="47"/>
+      <c r="W298" s="47"/>
+      <c r="X298" s="47"/>
+      <c r="Y298" s="47"/>
+      <c r="Z298" s="47"/>
+      <c r="AA298" s="47"/>
+      <c r="AB298" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="U298" s="67"/>
-      <c r="V298" s="67"/>
-      <c r="W298" s="67"/>
-      <c r="X298" s="67"/>
-      <c r="Y298" s="67"/>
-      <c r="Z298" s="67"/>
-      <c r="AA298" s="67"/>
-      <c r="AB298" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC298" s="67"/>
-      <c r="AD298" s="67"/>
-      <c r="AE298" s="67"/>
-      <c r="AF298" s="67"/>
-      <c r="AG298" s="67"/>
+      <c r="AC298" s="47"/>
+      <c r="AD298" s="47"/>
+      <c r="AE298" s="47"/>
+      <c r="AF298" s="47"/>
+      <c r="AG298" s="47"/>
     </row>
     <row r="299" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D299" s="15"/>
-      <c r="E299" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="F299" s="64"/>
-      <c r="G299" s="64"/>
-      <c r="H299" s="64"/>
-      <c r="I299" s="64"/>
-      <c r="J299" s="64"/>
-      <c r="K299" s="68" t="s">
+      <c r="E299" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="F299" s="69"/>
+      <c r="G299" s="69"/>
+      <c r="H299" s="69"/>
+      <c r="I299" s="69"/>
+      <c r="J299" s="69"/>
+      <c r="K299" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="L299" s="69"/>
-      <c r="M299" s="93" t="s">
+      <c r="L299" s="49"/>
+      <c r="M299" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="N299" s="93"/>
-      <c r="O299" s="93"/>
-      <c r="P299" s="93"/>
-      <c r="Q299" s="93"/>
-      <c r="R299" s="93"/>
-      <c r="S299" s="93"/>
-      <c r="T299" s="81" t="s">
+      <c r="N299" s="42"/>
+      <c r="O299" s="42"/>
+      <c r="P299" s="42"/>
+      <c r="Q299" s="42"/>
+      <c r="R299" s="42"/>
+      <c r="S299" s="42"/>
+      <c r="T299" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="U299" s="82"/>
-      <c r="V299" s="82"/>
-      <c r="W299" s="82"/>
-      <c r="X299" s="82"/>
-      <c r="Y299" s="82"/>
-      <c r="Z299" s="82"/>
-      <c r="AA299" s="83"/>
-      <c r="AB299" s="72" t="s">
+      <c r="U299" s="60"/>
+      <c r="V299" s="60"/>
+      <c r="W299" s="60"/>
+      <c r="X299" s="60"/>
+      <c r="Y299" s="60"/>
+      <c r="Z299" s="60"/>
+      <c r="AA299" s="61"/>
+      <c r="AB299" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AC299" s="73"/>
-      <c r="AD299" s="73"/>
-      <c r="AE299" s="73"/>
-      <c r="AF299" s="73"/>
-      <c r="AG299" s="74"/>
+      <c r="AC299" s="51"/>
+      <c r="AD299" s="51"/>
+      <c r="AE299" s="51"/>
+      <c r="AF299" s="51"/>
+      <c r="AG299" s="52"/>
     </row>
     <row r="300" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D300" s="15"/>
-      <c r="E300" s="65"/>
-      <c r="F300" s="65"/>
-      <c r="G300" s="65"/>
-      <c r="H300" s="65"/>
-      <c r="I300" s="65"/>
-      <c r="J300" s="65"/>
-      <c r="K300" s="68" t="s">
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
+      <c r="H300" s="70"/>
+      <c r="I300" s="70"/>
+      <c r="J300" s="70"/>
+      <c r="K300" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="L300" s="69"/>
-      <c r="M300" s="93" t="s">
+      <c r="L300" s="49"/>
+      <c r="M300" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="N300" s="93"/>
-      <c r="O300" s="93"/>
-      <c r="P300" s="93"/>
-      <c r="Q300" s="93"/>
-      <c r="R300" s="93"/>
-      <c r="S300" s="93"/>
-      <c r="T300" s="84"/>
-      <c r="U300" s="85"/>
-      <c r="V300" s="85"/>
-      <c r="W300" s="85"/>
-      <c r="X300" s="85"/>
-      <c r="Y300" s="85"/>
-      <c r="Z300" s="85"/>
-      <c r="AA300" s="86"/>
-      <c r="AB300" s="75"/>
-      <c r="AC300" s="76"/>
-      <c r="AD300" s="76"/>
-      <c r="AE300" s="76"/>
-      <c r="AF300" s="76"/>
-      <c r="AG300" s="77"/>
+      <c r="N300" s="42"/>
+      <c r="O300" s="42"/>
+      <c r="P300" s="42"/>
+      <c r="Q300" s="42"/>
+      <c r="R300" s="42"/>
+      <c r="S300" s="42"/>
+      <c r="T300" s="62"/>
+      <c r="U300" s="63"/>
+      <c r="V300" s="63"/>
+      <c r="W300" s="63"/>
+      <c r="X300" s="63"/>
+      <c r="Y300" s="63"/>
+      <c r="Z300" s="63"/>
+      <c r="AA300" s="64"/>
+      <c r="AB300" s="53"/>
+      <c r="AC300" s="54"/>
+      <c r="AD300" s="54"/>
+      <c r="AE300" s="54"/>
+      <c r="AF300" s="54"/>
+      <c r="AG300" s="55"/>
     </row>
     <row r="301" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D301" s="15"/>
-      <c r="E301" s="65"/>
-      <c r="F301" s="65"/>
-      <c r="G301" s="65"/>
-      <c r="H301" s="65"/>
-      <c r="I301" s="65"/>
-      <c r="J301" s="65"/>
-      <c r="K301" s="68" t="s">
+      <c r="E301" s="70"/>
+      <c r="F301" s="70"/>
+      <c r="G301" s="70"/>
+      <c r="H301" s="70"/>
+      <c r="I301" s="70"/>
+      <c r="J301" s="70"/>
+      <c r="K301" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="L301" s="69"/>
-      <c r="M301" s="93" t="s">
+      <c r="L301" s="49"/>
+      <c r="M301" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="N301" s="93"/>
-      <c r="O301" s="93"/>
-      <c r="P301" s="93"/>
-      <c r="Q301" s="93"/>
-      <c r="R301" s="93"/>
-      <c r="S301" s="93"/>
-      <c r="T301" s="84"/>
-      <c r="U301" s="85"/>
-      <c r="V301" s="85"/>
-      <c r="W301" s="85"/>
-      <c r="X301" s="85"/>
-      <c r="Y301" s="85"/>
-      <c r="Z301" s="85"/>
-      <c r="AA301" s="86"/>
-      <c r="AB301" s="75"/>
-      <c r="AC301" s="76"/>
-      <c r="AD301" s="76"/>
-      <c r="AE301" s="76"/>
-      <c r="AF301" s="76"/>
-      <c r="AG301" s="77"/>
+      <c r="N301" s="42"/>
+      <c r="O301" s="42"/>
+      <c r="P301" s="42"/>
+      <c r="Q301" s="42"/>
+      <c r="R301" s="42"/>
+      <c r="S301" s="42"/>
+      <c r="T301" s="62"/>
+      <c r="U301" s="63"/>
+      <c r="V301" s="63"/>
+      <c r="W301" s="63"/>
+      <c r="X301" s="63"/>
+      <c r="Y301" s="63"/>
+      <c r="Z301" s="63"/>
+      <c r="AA301" s="64"/>
+      <c r="AB301" s="53"/>
+      <c r="AC301" s="54"/>
+      <c r="AD301" s="54"/>
+      <c r="AE301" s="54"/>
+      <c r="AF301" s="54"/>
+      <c r="AG301" s="55"/>
     </row>
     <row r="302" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D302" s="15"/>
-      <c r="E302" s="66"/>
-      <c r="F302" s="66"/>
-      <c r="G302" s="66"/>
-      <c r="H302" s="66"/>
-      <c r="I302" s="66"/>
-      <c r="J302" s="66"/>
-      <c r="K302" s="68" t="s">
+      <c r="E302" s="71"/>
+      <c r="F302" s="71"/>
+      <c r="G302" s="71"/>
+      <c r="H302" s="71"/>
+      <c r="I302" s="71"/>
+      <c r="J302" s="71"/>
+      <c r="K302" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="L302" s="69"/>
-      <c r="M302" s="93" t="s">
+      <c r="L302" s="49"/>
+      <c r="M302" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="N302" s="93"/>
-      <c r="O302" s="93"/>
-      <c r="P302" s="93"/>
-      <c r="Q302" s="93"/>
-      <c r="R302" s="93"/>
-      <c r="S302" s="93"/>
-      <c r="T302" s="87"/>
-      <c r="U302" s="88"/>
-      <c r="V302" s="88"/>
-      <c r="W302" s="88"/>
-      <c r="X302" s="88"/>
-      <c r="Y302" s="88"/>
-      <c r="Z302" s="88"/>
-      <c r="AA302" s="89"/>
-      <c r="AB302" s="78"/>
-      <c r="AC302" s="79"/>
-      <c r="AD302" s="79"/>
-      <c r="AE302" s="79"/>
-      <c r="AF302" s="79"/>
-      <c r="AG302" s="80"/>
+      <c r="N302" s="42"/>
+      <c r="O302" s="42"/>
+      <c r="P302" s="42"/>
+      <c r="Q302" s="42"/>
+      <c r="R302" s="42"/>
+      <c r="S302" s="42"/>
+      <c r="T302" s="65"/>
+      <c r="U302" s="66"/>
+      <c r="V302" s="66"/>
+      <c r="W302" s="66"/>
+      <c r="X302" s="66"/>
+      <c r="Y302" s="66"/>
+      <c r="Z302" s="66"/>
+      <c r="AA302" s="67"/>
+      <c r="AB302" s="56"/>
+      <c r="AC302" s="57"/>
+      <c r="AD302" s="57"/>
+      <c r="AE302" s="57"/>
+      <c r="AF302" s="57"/>
+      <c r="AG302" s="58"/>
     </row>
     <row r="303" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D303" s="15"/>
-      <c r="E303" s="68" t="s">
+      <c r="E303" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="F303" s="70"/>
-      <c r="G303" s="70"/>
-      <c r="H303" s="70"/>
-      <c r="I303" s="70"/>
-      <c r="J303" s="70"/>
-      <c r="K303" s="70"/>
-      <c r="L303" s="69"/>
-      <c r="M303" s="93" t="s">
+      <c r="F303" s="68"/>
+      <c r="G303" s="68"/>
+      <c r="H303" s="68"/>
+      <c r="I303" s="68"/>
+      <c r="J303" s="68"/>
+      <c r="K303" s="68"/>
+      <c r="L303" s="49"/>
+      <c r="M303" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="N303" s="93"/>
-      <c r="O303" s="93"/>
-      <c r="P303" s="93"/>
-      <c r="Q303" s="93"/>
-      <c r="R303" s="93"/>
-      <c r="S303" s="93"/>
-      <c r="T303" s="94" t="s">
+      <c r="N303" s="42"/>
+      <c r="O303" s="42"/>
+      <c r="P303" s="42"/>
+      <c r="Q303" s="42"/>
+      <c r="R303" s="42"/>
+      <c r="S303" s="42"/>
+      <c r="T303" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="U303" s="95"/>
-      <c r="V303" s="95"/>
-      <c r="W303" s="95"/>
-      <c r="X303" s="95"/>
-      <c r="Y303" s="95"/>
-      <c r="Z303" s="95"/>
-      <c r="AA303" s="96"/>
-      <c r="AB303" s="93" t="s">
+      <c r="U303" s="44"/>
+      <c r="V303" s="44"/>
+      <c r="W303" s="44"/>
+      <c r="X303" s="44"/>
+      <c r="Y303" s="44"/>
+      <c r="Z303" s="44"/>
+      <c r="AA303" s="45"/>
+      <c r="AB303" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="AC303" s="93"/>
-      <c r="AD303" s="93"/>
-      <c r="AE303" s="93"/>
-      <c r="AF303" s="93"/>
-      <c r="AG303" s="93"/>
+      <c r="AC303" s="42"/>
+      <c r="AD303" s="42"/>
+      <c r="AE303" s="42"/>
+      <c r="AF303" s="42"/>
+      <c r="AG303" s="42"/>
     </row>
     <row r="304" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D304" s="15"/>
-      <c r="E304" s="68" t="s">
+      <c r="E304" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F304" s="70"/>
-      <c r="G304" s="70"/>
-      <c r="H304" s="70"/>
-      <c r="I304" s="70"/>
-      <c r="J304" s="70"/>
-      <c r="K304" s="70"/>
-      <c r="L304" s="69"/>
-      <c r="M304" s="93" t="s">
+      <c r="F304" s="68"/>
+      <c r="G304" s="68"/>
+      <c r="H304" s="68"/>
+      <c r="I304" s="68"/>
+      <c r="J304" s="68"/>
+      <c r="K304" s="68"/>
+      <c r="L304" s="49"/>
+      <c r="M304" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="N304" s="93"/>
-      <c r="O304" s="93"/>
-      <c r="P304" s="93"/>
-      <c r="Q304" s="93"/>
-      <c r="R304" s="93"/>
-      <c r="S304" s="93"/>
-      <c r="T304" s="93" t="s">
+      <c r="N304" s="42"/>
+      <c r="O304" s="42"/>
+      <c r="P304" s="42"/>
+      <c r="Q304" s="42"/>
+      <c r="R304" s="42"/>
+      <c r="S304" s="42"/>
+      <c r="T304" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="U304" s="93"/>
-      <c r="V304" s="93"/>
-      <c r="W304" s="93"/>
-      <c r="X304" s="93"/>
-      <c r="Y304" s="93"/>
-      <c r="Z304" s="93"/>
-      <c r="AA304" s="93"/>
-      <c r="AB304" s="93" t="s">
+      <c r="U304" s="42"/>
+      <c r="V304" s="42"/>
+      <c r="W304" s="42"/>
+      <c r="X304" s="42"/>
+      <c r="Y304" s="42"/>
+      <c r="Z304" s="42"/>
+      <c r="AA304" s="42"/>
+      <c r="AB304" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="AC304" s="93"/>
-      <c r="AD304" s="93"/>
-      <c r="AE304" s="93"/>
-      <c r="AF304" s="93"/>
-      <c r="AG304" s="93"/>
+      <c r="AC304" s="42"/>
+      <c r="AD304" s="42"/>
+      <c r="AE304" s="42"/>
+      <c r="AF304" s="42"/>
+      <c r="AG304" s="42"/>
     </row>
     <row r="305" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D305" s="15"/>
-      <c r="E305" s="64" t="s">
+      <c r="E305" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F305" s="64"/>
-      <c r="G305" s="64"/>
-      <c r="H305" s="64"/>
-      <c r="I305" s="64"/>
-      <c r="J305" s="64"/>
-      <c r="K305" s="68" t="s">
+      <c r="F305" s="69"/>
+      <c r="G305" s="69"/>
+      <c r="H305" s="69"/>
+      <c r="I305" s="69"/>
+      <c r="J305" s="69"/>
+      <c r="K305" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="L305" s="69"/>
-      <c r="M305" s="90" t="s">
+      <c r="L305" s="49"/>
+      <c r="M305" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N305" s="91"/>
-      <c r="O305" s="91"/>
-      <c r="P305" s="91"/>
-      <c r="Q305" s="91"/>
-      <c r="R305" s="91"/>
-      <c r="S305" s="92"/>
-      <c r="T305" s="90" t="s">
+      <c r="N305" s="40"/>
+      <c r="O305" s="40"/>
+      <c r="P305" s="40"/>
+      <c r="Q305" s="40"/>
+      <c r="R305" s="40"/>
+      <c r="S305" s="41"/>
+      <c r="T305" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="U305" s="91"/>
-      <c r="V305" s="91"/>
-      <c r="W305" s="91"/>
-      <c r="X305" s="91"/>
-      <c r="Y305" s="91"/>
-      <c r="Z305" s="91"/>
-      <c r="AA305" s="91"/>
-      <c r="AB305" s="91"/>
-      <c r="AC305" s="91"/>
-      <c r="AD305" s="91"/>
-      <c r="AE305" s="91"/>
-      <c r="AF305" s="91"/>
-      <c r="AG305" s="92"/>
+      <c r="U305" s="40"/>
+      <c r="V305" s="40"/>
+      <c r="W305" s="40"/>
+      <c r="X305" s="40"/>
+      <c r="Y305" s="40"/>
+      <c r="Z305" s="40"/>
+      <c r="AA305" s="40"/>
+      <c r="AB305" s="40"/>
+      <c r="AC305" s="40"/>
+      <c r="AD305" s="40"/>
+      <c r="AE305" s="40"/>
+      <c r="AF305" s="40"/>
+      <c r="AG305" s="41"/>
     </row>
     <row r="306" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D306" s="15"/>
-      <c r="E306" s="65"/>
-      <c r="F306" s="65"/>
-      <c r="G306" s="65"/>
-      <c r="H306" s="65"/>
-      <c r="I306" s="65"/>
-      <c r="J306" s="65"/>
-      <c r="K306" s="68" t="s">
+      <c r="E306" s="70"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="70"/>
+      <c r="J306" s="70"/>
+      <c r="K306" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="L306" s="69"/>
-      <c r="M306" s="90"/>
-      <c r="N306" s="91"/>
-      <c r="O306" s="91"/>
-      <c r="P306" s="91"/>
-      <c r="Q306" s="91"/>
-      <c r="R306" s="91"/>
-      <c r="S306" s="92"/>
-      <c r="T306" s="90"/>
-      <c r="U306" s="91"/>
-      <c r="V306" s="91"/>
-      <c r="W306" s="91"/>
-      <c r="X306" s="91"/>
-      <c r="Y306" s="91"/>
-      <c r="Z306" s="91"/>
-      <c r="AA306" s="91"/>
-      <c r="AB306" s="91"/>
-      <c r="AC306" s="91"/>
-      <c r="AD306" s="91"/>
-      <c r="AE306" s="91"/>
-      <c r="AF306" s="91"/>
-      <c r="AG306" s="92"/>
+      <c r="L306" s="49"/>
+      <c r="M306" s="39"/>
+      <c r="N306" s="40"/>
+      <c r="O306" s="40"/>
+      <c r="P306" s="40"/>
+      <c r="Q306" s="40"/>
+      <c r="R306" s="40"/>
+      <c r="S306" s="41"/>
+      <c r="T306" s="39"/>
+      <c r="U306" s="40"/>
+      <c r="V306" s="40"/>
+      <c r="W306" s="40"/>
+      <c r="X306" s="40"/>
+      <c r="Y306" s="40"/>
+      <c r="Z306" s="40"/>
+      <c r="AA306" s="40"/>
+      <c r="AB306" s="40"/>
+      <c r="AC306" s="40"/>
+      <c r="AD306" s="40"/>
+      <c r="AE306" s="40"/>
+      <c r="AF306" s="40"/>
+      <c r="AG306" s="41"/>
     </row>
     <row r="307" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="15"/>
-      <c r="E307" s="66"/>
-      <c r="F307" s="66"/>
-      <c r="G307" s="66"/>
-      <c r="H307" s="66"/>
-      <c r="I307" s="66"/>
-      <c r="J307" s="66"/>
-      <c r="K307" s="68" t="s">
+      <c r="E307" s="71"/>
+      <c r="F307" s="71"/>
+      <c r="G307" s="71"/>
+      <c r="H307" s="71"/>
+      <c r="I307" s="71"/>
+      <c r="J307" s="71"/>
+      <c r="K307" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="L307" s="69"/>
-      <c r="M307" s="90"/>
-      <c r="N307" s="91"/>
-      <c r="O307" s="91"/>
-      <c r="P307" s="91"/>
-      <c r="Q307" s="91"/>
-      <c r="R307" s="91"/>
-      <c r="S307" s="92"/>
-      <c r="T307" s="90"/>
-      <c r="U307" s="91"/>
-      <c r="V307" s="91"/>
-      <c r="W307" s="91"/>
-      <c r="X307" s="91"/>
-      <c r="Y307" s="91"/>
-      <c r="Z307" s="91"/>
-      <c r="AA307" s="91"/>
-      <c r="AB307" s="91"/>
-      <c r="AC307" s="91"/>
-      <c r="AD307" s="91"/>
-      <c r="AE307" s="91"/>
-      <c r="AF307" s="91"/>
-      <c r="AG307" s="92"/>
+      <c r="L307" s="49"/>
+      <c r="M307" s="39"/>
+      <c r="N307" s="40"/>
+      <c r="O307" s="40"/>
+      <c r="P307" s="40"/>
+      <c r="Q307" s="40"/>
+      <c r="R307" s="40"/>
+      <c r="S307" s="41"/>
+      <c r="T307" s="39"/>
+      <c r="U307" s="40"/>
+      <c r="V307" s="40"/>
+      <c r="W307" s="40"/>
+      <c r="X307" s="40"/>
+      <c r="Y307" s="40"/>
+      <c r="Z307" s="40"/>
+      <c r="AA307" s="40"/>
+      <c r="AB307" s="40"/>
+      <c r="AC307" s="40"/>
+      <c r="AD307" s="40"/>
+      <c r="AE307" s="40"/>
+      <c r="AF307" s="40"/>
+      <c r="AG307" s="41"/>
     </row>
     <row r="308" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D308" s="15"/>
@@ -6289,41 +6289,6 @@
     <row r="741" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="M305:S307"/>
-    <mergeCell ref="T305:AG307"/>
-    <mergeCell ref="M299:S299"/>
-    <mergeCell ref="M300:S300"/>
-    <mergeCell ref="M302:S302"/>
-    <mergeCell ref="M303:S303"/>
-    <mergeCell ref="M304:S304"/>
-    <mergeCell ref="AB303:AG303"/>
-    <mergeCell ref="AB304:AG304"/>
-    <mergeCell ref="T303:AA303"/>
-    <mergeCell ref="T304:AA304"/>
-    <mergeCell ref="M301:S301"/>
-    <mergeCell ref="T297:AG297"/>
-    <mergeCell ref="M297:S297"/>
-    <mergeCell ref="K299:L299"/>
-    <mergeCell ref="K300:L300"/>
-    <mergeCell ref="K302:L302"/>
-    <mergeCell ref="AB298:AG298"/>
-    <mergeCell ref="T298:AA298"/>
-    <mergeCell ref="AB299:AG302"/>
-    <mergeCell ref="T299:AA302"/>
-    <mergeCell ref="K301:L301"/>
-    <mergeCell ref="K305:L305"/>
-    <mergeCell ref="K306:L306"/>
-    <mergeCell ref="K307:L307"/>
-    <mergeCell ref="E303:L303"/>
-    <mergeCell ref="E304:L304"/>
-    <mergeCell ref="E305:J305"/>
-    <mergeCell ref="E306:J306"/>
-    <mergeCell ref="E307:J307"/>
-    <mergeCell ref="E299:J299"/>
-    <mergeCell ref="E300:J300"/>
-    <mergeCell ref="E302:J302"/>
-    <mergeCell ref="M298:S298"/>
-    <mergeCell ref="E301:J301"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -6337,6 +6302,41 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="E299:J299"/>
+    <mergeCell ref="E300:J300"/>
+    <mergeCell ref="E302:J302"/>
+    <mergeCell ref="M298:S298"/>
+    <mergeCell ref="E301:J301"/>
+    <mergeCell ref="K305:L305"/>
+    <mergeCell ref="K306:L306"/>
+    <mergeCell ref="K307:L307"/>
+    <mergeCell ref="E303:L303"/>
+    <mergeCell ref="E304:L304"/>
+    <mergeCell ref="E305:J305"/>
+    <mergeCell ref="E306:J306"/>
+    <mergeCell ref="E307:J307"/>
+    <mergeCell ref="T297:AG297"/>
+    <mergeCell ref="M297:S297"/>
+    <mergeCell ref="K299:L299"/>
+    <mergeCell ref="K300:L300"/>
+    <mergeCell ref="K302:L302"/>
+    <mergeCell ref="AB298:AG298"/>
+    <mergeCell ref="T298:AA298"/>
+    <mergeCell ref="AB299:AG302"/>
+    <mergeCell ref="T299:AA302"/>
+    <mergeCell ref="K301:L301"/>
+    <mergeCell ref="M305:S307"/>
+    <mergeCell ref="T305:AG307"/>
+    <mergeCell ref="M299:S299"/>
+    <mergeCell ref="M300:S300"/>
+    <mergeCell ref="M302:S302"/>
+    <mergeCell ref="M303:S303"/>
+    <mergeCell ref="M304:S304"/>
+    <mergeCell ref="AB303:AG303"/>
+    <mergeCell ref="AB304:AG304"/>
+    <mergeCell ref="T303:AA303"/>
+    <mergeCell ref="T304:AA304"/>
+    <mergeCell ref="M301:S301"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F67385-6249-49FF-A34E-BD5092DF2020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.5.認証・認可" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -604,22 +616,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Nablarchの認可チェックの詳細に関しては、Nablarchガイドの【7.15. 認可チェック】を参照のこと。</t>
-    <rPh sb="9" eb="11">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -653,255 +649,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>グループ名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>役職者</t>
-    <rPh sb="0" eb="3">
-      <t>ヤクショクシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>一般職</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本部</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>支部</t>
-    <rPh sb="0" eb="2">
-      <t>シブ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本部かつ役職者</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヤクショクシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>役職軸でのグループ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>事業部軸でのグループ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>役職軸、事業部軸の合成軸でのグループ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ゴウセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>許可グループ</t>
-    <rPh sb="0" eb="2">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本部, 役職者, 本部かつ役職者</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヤクショクシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ヤクショクシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>所属グループ</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本部, 一般職</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>支部, 一般職</t>
-    <rPh sb="0" eb="2">
-      <t>シブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○：許可</t>
-    <rPh sb="2" eb="4">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×：不許可</t>
-    <rPh sb="2" eb="5">
-      <t>フキョカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全てのグループ</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザ、グループ毎の許可単位設定は定義しない。</t>
     <rPh sb="8" eb="9">
       <t>ゴト</t>
@@ -1191,32 +938,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者サイトのグループ設定例：</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトのリクエスト許可単位設定例：</t>
-    <rPh sb="12" eb="14">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>保守会社社員の場合：</t>
     <rPh sb="4" eb="6">
       <t>シャイン</t>
@@ -1464,18 +1185,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ベーシックなフォーム認証方式を採用する。</t>
-  </si>
-  <si>
     <t>各ユーザのパスワードは、不可逆暗号化（ハッシュ化）した状態でデータベース上に保存され、</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>入力パスワードを同じ方式で暗号化したものと比較することによって、パスワードの一致判定を行う。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>認証をするカスタム認証方式を採用する。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1511,9 +1225,6 @@
     <t>管理者認証情報取込（バッチ処理）により取り込まれた認証情報を利用する。</t>
   </si>
   <si>
-    <t>アカウントのロックは行わない。</t>
-  </si>
-  <si>
     <t>本処理は認証ユーティリティを通じて行うものとする。</t>
   </si>
   <si>
@@ -1539,16 +1250,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者サイトでは、ログインするユーザが管理者ユーザであるのか、保守会社ユーザであるのかを切り替え、</t>
-    <rPh sb="44" eb="45">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザ種別</t>
     <rPh sb="3" eb="5">
       <t>シュベツ</t>
@@ -1673,22 +1374,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者ユーザが管理者サイトを利用するにあたり、認証情報がシングルサインオン用サイトより連携されたものになるため、</t>
-    <rPh sb="14" eb="16">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>保守会社ユーザ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1746,31 +1431,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>保守会社ユーザが管理者サイトを利用する際はログイン画面を用いて認可処理を行う。</t>
-    <rPh sb="15" eb="17">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>以下に保守会社ユーザの管理者サイトでの認証処理に関するシーケンスを記す。</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -1903,52 +1563,89 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者サイトのユーザ設定</t>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>上記の例で、ユーザに対して許可されるリクエストは以下のマトリックスになる。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キョカ</t>
+    <t>管理者ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ユーザの認証処理はシングルサインオン用サイトにて行われるため、本システムではアカウントのロックを行わない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/permission_check.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nablarchの認可チェックの詳細に関しては、下記Nablarchガイドの【7.15. 認可チェック】を参照のこと。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
     </rPh>
     <rPh sb="24" eb="26">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者ユーザ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社ユーザ</t>
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一般的なフォーム認証方式を採用する。</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンテキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトでは、ログインするユーザが管理者ユーザであるか保守会社ユーザであるかによって認証の方法を切り替える</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カスタム認証方式を採用する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザが管理者サイトを利用する際はログイン画面を用いて認証処理を行う。</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2004,6 +1701,14 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2204,7 +1909,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2212,8 +1917,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2275,90 +1981,84 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2434,15 +2134,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2519,18 +2210,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2553,7 +2248,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2608,7 +2309,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2663,7 +2370,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2718,7 +2431,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2773,7 +2492,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2828,7 +2553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2872,18 +2603,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2927,18 +2664,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2982,18 +2725,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3037,18 +2786,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3092,7 +2847,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3134,7 +2889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3167,9 +2922,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3202,6 +2974,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3377,11 +3166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI772"/>
+  <dimension ref="A1:AI741"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3397,43 +3186,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="88"/>
+      <c r="R1" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="83"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="82"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3442,43 +3231,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="97"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="92"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="82"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="77"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3487,39 +3276,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="95"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="82"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="77"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3563,12 +3352,12 @@
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="4" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3656,402 +3445,402 @@
       <c r="AH17" s="20"/>
     </row>
     <row r="18" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="77" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="33" t="s">
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="34"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="34"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="31"/>
     </row>
     <row r="20" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="34"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="31"/>
     </row>
     <row r="21" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="34"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="31"/>
     </row>
     <row r="22" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="77" t="s">
+      <c r="F22" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="39" t="s">
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="40"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="37"/>
     </row>
     <row r="23" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="34"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="31"/>
     </row>
     <row r="24" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="31"/>
     </row>
     <row r="25" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="34"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="31"/>
     </row>
     <row r="26" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="34"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="31"/>
     </row>
     <row r="27" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="34"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="31"/>
     </row>
     <row r="28" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="34"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="31"/>
     </row>
     <row r="29" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="37"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="34"/>
     </row>
     <row r="30" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="16"/>
@@ -4136,25 +3925,25 @@
     <row r="34" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="15"/>
       <c r="G34" s="4" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="15"/>
       <c r="G36" s="4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="15"/>
       <c r="G37" s="4" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4181,7 +3970,7 @@
     <row r="43" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>41</v>
@@ -4265,19 +4054,19 @@
         <v>37</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="15"/>
       <c r="H62" s="4" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="15"/>
       <c r="H63" s="4" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4420,19 +4209,19 @@
         <v>29</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4444,13 +4233,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4459,16 +4248,16 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4483,16 +4272,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4507,19 +4296,19 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15"/>
       <c r="H116" s="4" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15"/>
       <c r="H117" s="4" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4528,7 +4317,7 @@
     <row r="119" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="15"/>
       <c r="H119" s="15" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>41</v>
@@ -4537,19 +4326,19 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="15"/>
       <c r="I121" s="4" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4557,7 +4346,7 @@
     </row>
     <row r="124" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="15"/>
-      <c r="I124" s="25"/>
+      <c r="I124" s="22"/>
     </row>
     <row r="125" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="15"/>
@@ -4595,22 +4384,22 @@
     <row r="136" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="15"/>
       <c r="H136" s="15" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="15"/>
       <c r="I137" s="4" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="15"/>
       <c r="I138" s="4" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4652,7 +4441,7 @@
     <row r="151" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="15"/>
       <c r="H151" s="15" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>34</v>
@@ -4661,7 +4450,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4712,7 +4501,7 @@
     <row r="168" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>35</v>
@@ -4721,7 +4510,7 @@
     <row r="169" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="15"/>
       <c r="I169" s="15" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>36</v>
@@ -4730,71 +4519,68 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F171" s="15"/>
-      <c r="J171" s="4" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="172" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F172" s="15"/>
+      <c r="G172" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
+      <c r="H173" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
-      <c r="G174" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="H174" s="4" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F175" s="15"/>
-      <c r="H175" s="4" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="176" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="15"/>
-      <c r="H176" s="4" t="s">
-        <v>178</v>
+      <c r="H176" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
+      <c r="I177" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
-      <c r="H178" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="I178" s="4" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F180" s="15"/>
-      <c r="I180" s="4" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="181" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F181" s="15"/>
-      <c r="I181" s="4" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="182" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F182" s="15"/>
@@ -4828,48 +4614,48 @@
     </row>
     <row r="192" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="15"/>
+      <c r="H192" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="193" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="15"/>
+      <c r="I193" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="194" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F194" s="15"/>
-      <c r="H194" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="195" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F195" s="15"/>
-      <c r="I195" s="22" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="196" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F196" s="15"/>
     </row>
     <row r="197" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="15"/>
+      <c r="H197" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
+      <c r="I198" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F199" s="15"/>
-      <c r="H199" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="200" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F200" s="15"/>
-      <c r="I200" s="4" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="201" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F201" s="15"/>
@@ -4895,552 +4681,554 @@
     <row r="208" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F208" s="15"/>
     </row>
-    <row r="209" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F209" s="15"/>
     </row>
-    <row r="210" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F210" s="15"/>
     </row>
-    <row r="211" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F211" s="15"/>
     </row>
-    <row r="212" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F212" s="15"/>
     </row>
-    <row r="213" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F213" s="15"/>
     </row>
-    <row r="214" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F214" s="15"/>
     </row>
-    <row r="215" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F215" s="15"/>
     </row>
-    <row r="216" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F216" s="15"/>
     </row>
-    <row r="217" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F217" s="15"/>
     </row>
-    <row r="218" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F218" s="15"/>
     </row>
-    <row r="219" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F219" s="15"/>
     </row>
-    <row r="220" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F220" s="15"/>
     </row>
-    <row r="221" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F221" s="15"/>
     </row>
-    <row r="222" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F222" s="15"/>
     </row>
-    <row r="223" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="15"/>
-    </row>
-    <row r="224" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H223" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="15"/>
-    </row>
-    <row r="225" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I224" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F225" s="15"/>
-      <c r="H225" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="226" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J225" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="226" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F226" s="15"/>
-      <c r="I226" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="J226" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="227" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F227" s="15"/>
       <c r="J227" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="228" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F228" s="15"/>
-      <c r="J228" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="229" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="15"/>
+      <c r="I229" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="J229" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="230" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
-    </row>
-    <row r="231" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J230" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F231" s="15"/>
-      <c r="I231" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="J231" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="232" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F232" s="15"/>
-      <c r="J232" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="233" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F233" s="15"/>
-      <c r="J233" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="234" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F234" s="15"/>
-    </row>
-    <row r="235" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F235" s="15"/>
-    </row>
-    <row r="236" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D236" s="15" t="str">
+    </row>
+    <row r="234" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D234" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.5.2.</v>
       </c>
-      <c r="E236" s="4" t="s">
+      <c r="E234" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D235" s="15"/>
+      <c r="E235" s="15" t="str">
+        <f>$D$234&amp;"1."</f>
+        <v>7.5.2.1.</v>
+      </c>
+      <c r="F235" s="4" t="str">
+        <f>$E$234&amp;"機能概要"</f>
+        <v>認可機能概要</v>
+      </c>
+    </row>
+    <row r="236" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D236" s="15"/>
+      <c r="F236" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D237" s="15"/>
-      <c r="E237" s="15" t="str">
-        <f>$D$236&amp;"1."</f>
-        <v>7.5.2.1.</v>
-      </c>
-      <c r="F237" s="4" t="str">
-        <f>$E$236&amp;"機能概要"</f>
-        <v>認可機能概要</v>
-      </c>
-    </row>
-    <row r="238" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F237" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D238" s="15"/>
-      <c r="F238" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="239" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D239" s="15"/>
-      <c r="F239" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="240" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D240" s="15"/>
+      <c r="E239" s="15" t="str">
+        <f>$D$234&amp;"2."</f>
+        <v>7.5.2.2.</v>
+      </c>
+      <c r="F239" s="4" t="str">
+        <f>$E$234&amp;"方法"</f>
+        <v>認可方法</v>
+      </c>
+    </row>
+    <row r="240" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+      <c r="M240" s="17"/>
+      <c r="N240" s="17"/>
+      <c r="O240" s="17"/>
+      <c r="P240" s="17"/>
+      <c r="Q240" s="17"/>
+      <c r="R240" s="17"/>
+      <c r="S240" s="17"/>
+      <c r="T240" s="17"/>
+      <c r="U240" s="17"/>
+      <c r="V240" s="17"/>
+      <c r="W240" s="17"/>
+      <c r="X240" s="17"/>
+      <c r="Y240" s="17"/>
+      <c r="Z240" s="17"/>
+      <c r="AA240" s="17"/>
+      <c r="AB240" s="17"/>
+      <c r="AC240" s="17"/>
+      <c r="AD240" s="17"/>
+      <c r="AE240" s="17"/>
+      <c r="AF240" s="17"/>
+      <c r="AG240" s="17"/>
+      <c r="AH240" s="17"/>
     </row>
     <row r="241" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D241" s="15"/>
-      <c r="E241" s="15" t="str">
-        <f>$D$236&amp;"2."</f>
-        <v>7.5.2.2.</v>
-      </c>
-      <c r="F241" s="4" t="str">
-        <f>$E$236&amp;"方法"</f>
-        <v>認可方法</v>
-      </c>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+      <c r="M241" s="17"/>
+      <c r="N241" s="17"/>
+      <c r="O241" s="17"/>
+      <c r="P241" s="17"/>
+      <c r="Q241" s="17"/>
+      <c r="R241" s="17"/>
+      <c r="S241" s="17"/>
+      <c r="T241" s="17"/>
+      <c r="U241" s="17"/>
+      <c r="V241" s="17"/>
+      <c r="W241" s="17"/>
+      <c r="X241" s="17"/>
+      <c r="Y241" s="17"/>
+      <c r="Z241" s="17"/>
+      <c r="AA241" s="17"/>
+      <c r="AB241" s="17"/>
+      <c r="AC241" s="17"/>
+      <c r="AD241" s="17"/>
+      <c r="AE241" s="17"/>
+      <c r="AF241" s="17"/>
+      <c r="AG241" s="17"/>
+      <c r="AH241" s="17"/>
     </row>
     <row r="242" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
-      <c r="I242" s="17"/>
-      <c r="J242" s="17"/>
-      <c r="K242" s="17"/>
-      <c r="L242" s="17"/>
-      <c r="M242" s="17"/>
-      <c r="N242" s="17"/>
-      <c r="O242" s="17"/>
-      <c r="P242" s="17"/>
-      <c r="Q242" s="17"/>
-      <c r="R242" s="17"/>
-      <c r="S242" s="17"/>
-      <c r="T242" s="17"/>
-      <c r="U242" s="17"/>
-      <c r="V242" s="17"/>
-      <c r="W242" s="17"/>
-      <c r="X242" s="17"/>
-      <c r="Y242" s="17"/>
-      <c r="Z242" s="17"/>
-      <c r="AA242" s="17"/>
-      <c r="AB242" s="17"/>
-      <c r="AC242" s="17"/>
-      <c r="AD242" s="17"/>
-      <c r="AE242" s="17"/>
-      <c r="AF242" s="17"/>
-      <c r="AG242" s="17"/>
-      <c r="AH242" s="17"/>
+      <c r="F242" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G242" s="19"/>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K242" s="19"/>
+      <c r="L242" s="19"/>
+      <c r="M242" s="19"/>
+      <c r="N242" s="19"/>
+      <c r="O242" s="19"/>
+      <c r="P242" s="20"/>
+      <c r="Q242" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R242" s="19"/>
+      <c r="S242" s="19"/>
+      <c r="T242" s="19"/>
+      <c r="U242" s="19"/>
+      <c r="V242" s="19"/>
+      <c r="W242" s="19"/>
+      <c r="X242" s="19"/>
+      <c r="Y242" s="19"/>
+      <c r="Z242" s="19"/>
+      <c r="AA242" s="19"/>
+      <c r="AB242" s="19"/>
+      <c r="AC242" s="19"/>
+      <c r="AD242" s="19"/>
+      <c r="AE242" s="19"/>
+      <c r="AF242" s="19"/>
+      <c r="AG242" s="19"/>
+      <c r="AH242" s="20"/>
     </row>
     <row r="243" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="17"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="17"/>
-      <c r="M243" s="17"/>
-      <c r="N243" s="17"/>
-      <c r="O243" s="17"/>
-      <c r="P243" s="17"/>
-      <c r="Q243" s="17"/>
-      <c r="R243" s="17"/>
-      <c r="S243" s="17"/>
-      <c r="T243" s="17"/>
-      <c r="U243" s="17"/>
-      <c r="V243" s="17"/>
-      <c r="W243" s="17"/>
-      <c r="X243" s="17"/>
-      <c r="Y243" s="17"/>
-      <c r="Z243" s="17"/>
-      <c r="AA243" s="17"/>
-      <c r="AB243" s="17"/>
-      <c r="AC243" s="17"/>
-      <c r="AD243" s="17"/>
-      <c r="AE243" s="17"/>
-      <c r="AF243" s="17"/>
-      <c r="AG243" s="17"/>
-      <c r="AH243" s="17"/>
+      <c r="F243" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K243" s="36"/>
+      <c r="L243" s="36"/>
+      <c r="M243" s="36"/>
+      <c r="N243" s="36"/>
+      <c r="O243" s="36"/>
+      <c r="P243" s="37"/>
+      <c r="Q243" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="R243" s="30"/>
+      <c r="S243" s="30"/>
+      <c r="T243" s="30"/>
+      <c r="U243" s="30"/>
+      <c r="V243" s="30"/>
+      <c r="W243" s="30"/>
+      <c r="X243" s="30"/>
+      <c r="Y243" s="30"/>
+      <c r="Z243" s="30"/>
+      <c r="AA243" s="30"/>
+      <c r="AB243" s="30"/>
+      <c r="AC243" s="30"/>
+      <c r="AD243" s="30"/>
+      <c r="AE243" s="30"/>
+      <c r="AF243" s="30"/>
+      <c r="AG243" s="30"/>
+      <c r="AH243" s="31"/>
     </row>
     <row r="244" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F244" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="K244" s="19"/>
-      <c r="L244" s="19"/>
-      <c r="M244" s="19"/>
-      <c r="N244" s="19"/>
-      <c r="O244" s="19"/>
-      <c r="P244" s="20"/>
-      <c r="Q244" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="R244" s="19"/>
-      <c r="S244" s="19"/>
-      <c r="T244" s="19"/>
-      <c r="U244" s="19"/>
-      <c r="V244" s="19"/>
-      <c r="W244" s="19"/>
-      <c r="X244" s="19"/>
-      <c r="Y244" s="19"/>
-      <c r="Z244" s="19"/>
-      <c r="AA244" s="19"/>
-      <c r="AB244" s="19"/>
-      <c r="AC244" s="19"/>
-      <c r="AD244" s="19"/>
-      <c r="AE244" s="19"/>
-      <c r="AF244" s="19"/>
-      <c r="AG244" s="19"/>
-      <c r="AH244" s="20"/>
+      <c r="F244" s="29"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="29"/>
+      <c r="K244" s="30"/>
+      <c r="L244" s="30"/>
+      <c r="M244" s="30"/>
+      <c r="N244" s="30"/>
+      <c r="O244" s="30"/>
+      <c r="P244" s="31"/>
+      <c r="Q244" s="30"/>
+      <c r="R244" s="30"/>
+      <c r="S244" s="30"/>
+      <c r="T244" s="30"/>
+      <c r="U244" s="30"/>
+      <c r="V244" s="30"/>
+      <c r="W244" s="30"/>
+      <c r="X244" s="30"/>
+      <c r="Y244" s="30"/>
+      <c r="Z244" s="30"/>
+      <c r="AA244" s="30"/>
+      <c r="AB244" s="30"/>
+      <c r="AC244" s="30"/>
+      <c r="AD244" s="30"/>
+      <c r="AE244" s="30"/>
+      <c r="AF244" s="30"/>
+      <c r="AG244" s="30"/>
+      <c r="AH244" s="31"/>
     </row>
     <row r="245" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F245" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K245" s="39"/>
-      <c r="L245" s="39"/>
-      <c r="M245" s="39"/>
-      <c r="N245" s="39"/>
-      <c r="O245" s="39"/>
-      <c r="P245" s="40"/>
-      <c r="Q245" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="R245" s="33"/>
-      <c r="S245" s="33"/>
-      <c r="T245" s="33"/>
-      <c r="U245" s="33"/>
-      <c r="V245" s="33"/>
-      <c r="W245" s="33"/>
-      <c r="X245" s="33"/>
-      <c r="Y245" s="33"/>
-      <c r="Z245" s="33"/>
-      <c r="AA245" s="33"/>
-      <c r="AB245" s="33"/>
-      <c r="AC245" s="33"/>
-      <c r="AD245" s="33"/>
-      <c r="AE245" s="33"/>
-      <c r="AF245" s="33"/>
-      <c r="AG245" s="33"/>
-      <c r="AH245" s="34"/>
+      <c r="F245" s="29"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="32"/>
+      <c r="K245" s="33"/>
+      <c r="L245" s="33"/>
+      <c r="M245" s="33"/>
+      <c r="N245" s="33"/>
+      <c r="O245" s="33"/>
+      <c r="P245" s="34"/>
+      <c r="Q245" s="33"/>
+      <c r="R245" s="30"/>
+      <c r="S245" s="30"/>
+      <c r="T245" s="30"/>
+      <c r="U245" s="30"/>
+      <c r="V245" s="30"/>
+      <c r="W245" s="30"/>
+      <c r="X245" s="30"/>
+      <c r="Y245" s="30"/>
+      <c r="Z245" s="30"/>
+      <c r="AA245" s="30"/>
+      <c r="AB245" s="30"/>
+      <c r="AC245" s="30"/>
+      <c r="AD245" s="30"/>
+      <c r="AE245" s="30"/>
+      <c r="AF245" s="30"/>
+      <c r="AG245" s="30"/>
+      <c r="AH245" s="31"/>
     </row>
     <row r="246" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F246" s="32"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="32"/>
-      <c r="K246" s="33"/>
-      <c r="L246" s="33"/>
-      <c r="M246" s="33"/>
-      <c r="N246" s="33"/>
-      <c r="O246" s="33"/>
-      <c r="P246" s="34"/>
-      <c r="Q246" s="33"/>
-      <c r="R246" s="33"/>
-      <c r="S246" s="33"/>
-      <c r="T246" s="33"/>
-      <c r="U246" s="33"/>
-      <c r="V246" s="33"/>
-      <c r="W246" s="33"/>
-      <c r="X246" s="33"/>
-      <c r="Y246" s="33"/>
-      <c r="Z246" s="33"/>
-      <c r="AA246" s="33"/>
-      <c r="AB246" s="33"/>
-      <c r="AC246" s="33"/>
-      <c r="AD246" s="33"/>
-      <c r="AE246" s="33"/>
-      <c r="AF246" s="33"/>
-      <c r="AG246" s="33"/>
-      <c r="AH246" s="34"/>
+      <c r="F246" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G246" s="36"/>
+      <c r="H246" s="36"/>
+      <c r="I246" s="36"/>
+      <c r="J246" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K246" s="36"/>
+      <c r="L246" s="36"/>
+      <c r="M246" s="36"/>
+      <c r="N246" s="36"/>
+      <c r="O246" s="36"/>
+      <c r="P246" s="37"/>
+      <c r="Q246" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="R246" s="36"/>
+      <c r="S246" s="36"/>
+      <c r="T246" s="36"/>
+      <c r="U246" s="36"/>
+      <c r="V246" s="36"/>
+      <c r="W246" s="36"/>
+      <c r="X246" s="36"/>
+      <c r="Y246" s="36"/>
+      <c r="Z246" s="36"/>
+      <c r="AA246" s="36"/>
+      <c r="AB246" s="36"/>
+      <c r="AC246" s="36"/>
+      <c r="AD246" s="36"/>
+      <c r="AE246" s="36"/>
+      <c r="AF246" s="36"/>
+      <c r="AG246" s="36"/>
+      <c r="AH246" s="37"/>
     </row>
     <row r="247" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F247" s="32"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="33"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="35"/>
-      <c r="K247" s="36"/>
-      <c r="L247" s="36"/>
-      <c r="M247" s="36"/>
-      <c r="N247" s="36"/>
-      <c r="O247" s="36"/>
-      <c r="P247" s="37"/>
-      <c r="Q247" s="36"/>
-      <c r="R247" s="33"/>
-      <c r="S247" s="33"/>
-      <c r="T247" s="33"/>
-      <c r="U247" s="33"/>
-      <c r="V247" s="33"/>
-      <c r="W247" s="33"/>
-      <c r="X247" s="33"/>
-      <c r="Y247" s="33"/>
-      <c r="Z247" s="33"/>
-      <c r="AA247" s="33"/>
-      <c r="AB247" s="33"/>
-      <c r="AC247" s="33"/>
-      <c r="AD247" s="33"/>
-      <c r="AE247" s="33"/>
-      <c r="AF247" s="33"/>
-      <c r="AG247" s="33"/>
-      <c r="AH247" s="34"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="29"/>
+      <c r="K247" s="30"/>
+      <c r="L247" s="30"/>
+      <c r="M247" s="30"/>
+      <c r="N247" s="30"/>
+      <c r="O247" s="30"/>
+      <c r="P247" s="31"/>
+      <c r="Q247" s="30"/>
+      <c r="R247" s="30"/>
+      <c r="S247" s="30"/>
+      <c r="T247" s="30"/>
+      <c r="U247" s="30"/>
+      <c r="V247" s="30"/>
+      <c r="W247" s="30"/>
+      <c r="X247" s="30"/>
+      <c r="Y247" s="30"/>
+      <c r="Z247" s="30"/>
+      <c r="AA247" s="30"/>
+      <c r="AB247" s="30"/>
+      <c r="AC247" s="30"/>
+      <c r="AD247" s="30"/>
+      <c r="AE247" s="30"/>
+      <c r="AF247" s="30"/>
+      <c r="AG247" s="30"/>
+      <c r="AH247" s="31"/>
     </row>
     <row r="248" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F248" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G248" s="39"/>
-      <c r="H248" s="39"/>
-      <c r="I248" s="39"/>
-      <c r="J248" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K248" s="39"/>
-      <c r="L248" s="39"/>
-      <c r="M248" s="39"/>
-      <c r="N248" s="39"/>
-      <c r="O248" s="39"/>
-      <c r="P248" s="40"/>
-      <c r="Q248" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="R248" s="39"/>
-      <c r="S248" s="39"/>
-      <c r="T248" s="39"/>
-      <c r="U248" s="39"/>
-      <c r="V248" s="39"/>
-      <c r="W248" s="39"/>
-      <c r="X248" s="39"/>
-      <c r="Y248" s="39"/>
-      <c r="Z248" s="39"/>
-      <c r="AA248" s="39"/>
-      <c r="AB248" s="39"/>
-      <c r="AC248" s="39"/>
-      <c r="AD248" s="39"/>
-      <c r="AE248" s="39"/>
-      <c r="AF248" s="39"/>
-      <c r="AG248" s="39"/>
-      <c r="AH248" s="40"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="33"/>
+      <c r="I248" s="33"/>
+      <c r="J248" s="32"/>
+      <c r="K248" s="33"/>
+      <c r="L248" s="33"/>
+      <c r="M248" s="33"/>
+      <c r="N248" s="33"/>
+      <c r="O248" s="33"/>
+      <c r="P248" s="34"/>
+      <c r="Q248" s="33"/>
+      <c r="R248" s="33"/>
+      <c r="S248" s="33"/>
+      <c r="T248" s="33"/>
+      <c r="U248" s="33"/>
+      <c r="V248" s="33"/>
+      <c r="W248" s="33"/>
+      <c r="X248" s="33"/>
+      <c r="Y248" s="33"/>
+      <c r="Z248" s="33"/>
+      <c r="AA248" s="33"/>
+      <c r="AB248" s="33"/>
+      <c r="AC248" s="33"/>
+      <c r="AD248" s="33"/>
+      <c r="AE248" s="33"/>
+      <c r="AF248" s="33"/>
+      <c r="AG248" s="33"/>
+      <c r="AH248" s="34"/>
     </row>
     <row r="249" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F249" s="32"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="32"/>
-      <c r="K249" s="33"/>
-      <c r="L249" s="33"/>
-      <c r="M249" s="33"/>
-      <c r="N249" s="33"/>
-      <c r="O249" s="33"/>
-      <c r="P249" s="34"/>
-      <c r="Q249" s="33"/>
-      <c r="R249" s="33"/>
-      <c r="S249" s="33"/>
-      <c r="T249" s="33"/>
-      <c r="U249" s="33"/>
-      <c r="V249" s="33"/>
-      <c r="W249" s="33"/>
-      <c r="X249" s="33"/>
-      <c r="Y249" s="33"/>
-      <c r="Z249" s="33"/>
-      <c r="AA249" s="33"/>
-      <c r="AB249" s="33"/>
-      <c r="AC249" s="33"/>
-      <c r="AD249" s="33"/>
-      <c r="AE249" s="33"/>
-      <c r="AF249" s="33"/>
-      <c r="AG249" s="33"/>
-      <c r="AH249" s="34"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
+      <c r="M249" s="17"/>
+      <c r="N249" s="17"/>
+      <c r="O249" s="17"/>
+      <c r="P249" s="17"/>
+      <c r="Q249" s="17"/>
+      <c r="R249" s="17"/>
+      <c r="S249" s="17"/>
+      <c r="T249" s="17"/>
+      <c r="U249" s="17"/>
+      <c r="V249" s="17"/>
+      <c r="W249" s="17"/>
+      <c r="X249" s="17"/>
+      <c r="Y249" s="17"/>
+      <c r="Z249" s="17"/>
+      <c r="AA249" s="17"/>
+      <c r="AB249" s="17"/>
+      <c r="AC249" s="17"/>
+      <c r="AD249" s="17"/>
+      <c r="AE249" s="17"/>
+      <c r="AF249" s="17"/>
+      <c r="AG249" s="17"/>
+      <c r="AH249" s="17"/>
     </row>
     <row r="250" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F250" s="35"/>
-      <c r="G250" s="36"/>
-      <c r="H250" s="36"/>
-      <c r="I250" s="36"/>
-      <c r="J250" s="35"/>
-      <c r="K250" s="36"/>
-      <c r="L250" s="36"/>
-      <c r="M250" s="36"/>
-      <c r="N250" s="36"/>
-      <c r="O250" s="36"/>
-      <c r="P250" s="37"/>
-      <c r="Q250" s="36"/>
-      <c r="R250" s="36"/>
-      <c r="S250" s="36"/>
-      <c r="T250" s="36"/>
-      <c r="U250" s="36"/>
-      <c r="V250" s="36"/>
-      <c r="W250" s="36"/>
-      <c r="X250" s="36"/>
-      <c r="Y250" s="36"/>
-      <c r="Z250" s="36"/>
-      <c r="AA250" s="36"/>
-      <c r="AB250" s="36"/>
-      <c r="AC250" s="36"/>
-      <c r="AD250" s="36"/>
-      <c r="AE250" s="36"/>
-      <c r="AF250" s="36"/>
-      <c r="AG250" s="36"/>
-      <c r="AH250" s="37"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
+      <c r="M250" s="17"/>
+      <c r="N250" s="17"/>
+      <c r="O250" s="17"/>
+      <c r="P250" s="17"/>
+      <c r="Q250" s="17"/>
+      <c r="R250" s="17"/>
+      <c r="S250" s="17"/>
+      <c r="T250" s="17"/>
+      <c r="U250" s="17"/>
+      <c r="V250" s="17"/>
+      <c r="W250" s="17"/>
+      <c r="X250" s="17"/>
+      <c r="Y250" s="17"/>
+      <c r="Z250" s="17"/>
+      <c r="AA250" s="17"/>
+      <c r="AB250" s="17"/>
+      <c r="AC250" s="17"/>
+      <c r="AD250" s="17"/>
+      <c r="AE250" s="17"/>
+      <c r="AF250" s="17"/>
+      <c r="AG250" s="17"/>
+      <c r="AH250" s="17"/>
     </row>
     <row r="251" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
-      <c r="J251" s="17"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="17"/>
-      <c r="M251" s="17"/>
-      <c r="N251" s="17"/>
-      <c r="O251" s="17"/>
-      <c r="P251" s="17"/>
-      <c r="Q251" s="17"/>
-      <c r="R251" s="17"/>
-      <c r="S251" s="17"/>
-      <c r="T251" s="17"/>
-      <c r="U251" s="17"/>
-      <c r="V251" s="17"/>
-      <c r="W251" s="17"/>
-      <c r="X251" s="17"/>
-      <c r="Y251" s="17"/>
-      <c r="Z251" s="17"/>
-      <c r="AA251" s="17"/>
-      <c r="AB251" s="17"/>
-      <c r="AC251" s="17"/>
-      <c r="AD251" s="17"/>
-      <c r="AE251" s="17"/>
-      <c r="AF251" s="17"/>
-      <c r="AG251" s="17"/>
-      <c r="AH251" s="17"/>
+      <c r="D251" s="15"/>
     </row>
     <row r="252" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="17"/>
-      <c r="J252" s="17"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="17"/>
-      <c r="M252" s="17"/>
-      <c r="N252" s="17"/>
-      <c r="O252" s="17"/>
-      <c r="P252" s="17"/>
-      <c r="Q252" s="17"/>
-      <c r="R252" s="17"/>
-      <c r="S252" s="17"/>
-      <c r="T252" s="17"/>
-      <c r="U252" s="17"/>
-      <c r="V252" s="17"/>
-      <c r="W252" s="17"/>
-      <c r="X252" s="17"/>
-      <c r="Y252" s="17"/>
-      <c r="Z252" s="17"/>
-      <c r="AA252" s="17"/>
-      <c r="AB252" s="17"/>
-      <c r="AC252" s="17"/>
-      <c r="AD252" s="17"/>
-      <c r="AE252" s="17"/>
-      <c r="AF252" s="17"/>
-      <c r="AG252" s="17"/>
-      <c r="AH252" s="17"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15" t="str">
+        <f>$D$234&amp;"3."</f>
+        <v>7.5.2.3.</v>
+      </c>
+      <c r="F252" s="4" t="str">
+        <f>$E$234&amp;"機能詳細"</f>
+        <v>認可機能詳細</v>
+      </c>
     </row>
     <row r="253" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="254" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D254" s="15"/>
-      <c r="E254" s="15" t="str">
-        <f>$D$236&amp;"3."</f>
-        <v>7.5.2.3.</v>
-      </c>
-      <c r="F254" s="4" t="str">
-        <f>$E$236&amp;"機能詳細"</f>
-        <v>認可機能詳細</v>
+      <c r="E254" s="15"/>
+      <c r="F254" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="255" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="4" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="256" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
-      <c r="F256" s="4" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="257" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D257" s="15"/>
@@ -5485,6 +5273,9 @@
     <row r="267" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
+      <c r="G267" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D268" s="15"/>
@@ -5493,8 +5284,8 @@
     <row r="269" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
-      <c r="G269" s="4" t="s">
-        <v>55</v>
+      <c r="G269" s="38" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5504,1099 +5295,609 @@
     <row r="271" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
-      <c r="F271" s="22" t="s">
+      <c r="F271" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G271" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="G271" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="272" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="273" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="273" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="G273" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="274" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="274" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="G274" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="275" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="275" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
     </row>
-    <row r="276" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
-      <c r="F276" s="22" t="s">
+      <c r="F276" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="277" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="277" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="G277" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="278" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="278" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="G278" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="279" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="279" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="G279" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="280" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="280" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
     </row>
-    <row r="281" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
-    </row>
-    <row r="282" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G281" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="282" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="G282" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="283" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G282" s="22"/>
+    </row>
+    <row r="283" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-      <c r="H283" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I283" s="49"/>
-      <c r="J283" s="49"/>
-      <c r="K283" s="49"/>
-      <c r="L283" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="M283" s="49"/>
-      <c r="N283" s="49"/>
-      <c r="O283" s="49"/>
-      <c r="P283" s="49"/>
-      <c r="Q283" s="49"/>
-      <c r="R283" s="49"/>
-      <c r="S283" s="49"/>
-      <c r="T283" s="49"/>
-      <c r="U283" s="49"/>
-      <c r="V283" s="49"/>
-      <c r="W283" s="49"/>
-      <c r="X283" s="49"/>
-      <c r="Y283" s="49"/>
-      <c r="Z283" s="49"/>
-      <c r="AA283" s="49"/>
-    </row>
-    <row r="284" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="284" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-      <c r="H284" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="I284" s="75"/>
-      <c r="J284" s="75"/>
-      <c r="K284" s="75"/>
-      <c r="L284" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="M284" s="76"/>
-      <c r="N284" s="76"/>
-      <c r="O284" s="76"/>
-      <c r="P284" s="76"/>
-      <c r="Q284" s="76"/>
-      <c r="R284" s="76"/>
-      <c r="S284" s="76"/>
-      <c r="T284" s="76"/>
-      <c r="U284" s="76"/>
-      <c r="V284" s="76"/>
-      <c r="W284" s="76"/>
-      <c r="X284" s="76"/>
-      <c r="Y284" s="76"/>
-      <c r="Z284" s="76"/>
-      <c r="AA284" s="76"/>
-    </row>
-    <row r="285" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="285" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-      <c r="H285" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I285" s="75"/>
-      <c r="J285" s="75"/>
-      <c r="K285" s="75"/>
-      <c r="L285" s="76"/>
-      <c r="M285" s="76"/>
-      <c r="N285" s="76"/>
-      <c r="O285" s="76"/>
-      <c r="P285" s="76"/>
-      <c r="Q285" s="76"/>
-      <c r="R285" s="76"/>
-      <c r="S285" s="76"/>
-      <c r="T285" s="76"/>
-      <c r="U285" s="76"/>
-      <c r="V285" s="76"/>
-      <c r="W285" s="76"/>
-      <c r="X285" s="76"/>
-      <c r="Y285" s="76"/>
-      <c r="Z285" s="76"/>
-      <c r="AA285" s="76"/>
-    </row>
-    <row r="286" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="286" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-      <c r="H286" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="I286" s="75"/>
-      <c r="J286" s="75"/>
-      <c r="K286" s="75"/>
-      <c r="L286" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="M286" s="76"/>
-      <c r="N286" s="76"/>
-      <c r="O286" s="76"/>
-      <c r="P286" s="76"/>
-      <c r="Q286" s="76"/>
-      <c r="R286" s="76"/>
-      <c r="S286" s="76"/>
-      <c r="T286" s="76"/>
-      <c r="U286" s="76"/>
-      <c r="V286" s="76"/>
-      <c r="W286" s="76"/>
-      <c r="X286" s="76"/>
-      <c r="Y286" s="76"/>
-      <c r="Z286" s="76"/>
-      <c r="AA286" s="76"/>
-    </row>
-    <row r="287" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="287" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
-      <c r="H287" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="I287" s="75"/>
-      <c r="J287" s="75"/>
-      <c r="K287" s="75"/>
-      <c r="L287" s="76"/>
-      <c r="M287" s="76"/>
-      <c r="N287" s="76"/>
-      <c r="O287" s="76"/>
-      <c r="P287" s="76"/>
-      <c r="Q287" s="76"/>
-      <c r="R287" s="76"/>
-      <c r="S287" s="76"/>
-      <c r="T287" s="76"/>
-      <c r="U287" s="76"/>
-      <c r="V287" s="76"/>
-      <c r="W287" s="76"/>
-      <c r="X287" s="76"/>
-      <c r="Y287" s="76"/>
-      <c r="Z287" s="76"/>
-      <c r="AA287" s="76"/>
-    </row>
-    <row r="288" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="288" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
-      <c r="H288" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="I288" s="75"/>
-      <c r="J288" s="75"/>
-      <c r="K288" s="75"/>
-      <c r="L288" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="M288" s="75"/>
-      <c r="N288" s="75"/>
-      <c r="O288" s="75"/>
-      <c r="P288" s="75"/>
-      <c r="Q288" s="75"/>
-      <c r="R288" s="75"/>
-      <c r="S288" s="75"/>
-      <c r="T288" s="75"/>
-      <c r="U288" s="75"/>
-      <c r="V288" s="75"/>
-      <c r="W288" s="75"/>
-      <c r="X288" s="75"/>
-      <c r="Y288" s="75"/>
-      <c r="Z288" s="75"/>
-      <c r="AA288" s="75"/>
-    </row>
-    <row r="289" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="289" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
     </row>
-    <row r="290" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-      <c r="G290" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="291" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="291" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-      <c r="H291" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="I291" s="49"/>
-      <c r="J291" s="49"/>
-      <c r="K291" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="L291" s="49"/>
-      <c r="M291" s="49"/>
-      <c r="N291" s="49"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="49"/>
-      <c r="R291" s="49"/>
-      <c r="S291" s="49"/>
-      <c r="T291" s="49"/>
-      <c r="U291" s="49"/>
-    </row>
-    <row r="292" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="292" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-      <c r="H292" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="I292" s="75"/>
-      <c r="J292" s="75"/>
-      <c r="K292" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="L292" s="75"/>
-      <c r="M292" s="75"/>
-      <c r="N292" s="75"/>
-      <c r="O292" s="75"/>
-      <c r="P292" s="75"/>
-      <c r="Q292" s="75"/>
-      <c r="R292" s="75"/>
-      <c r="S292" s="75"/>
-      <c r="T292" s="75"/>
-      <c r="U292" s="75"/>
-    </row>
-    <row r="293" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="293" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D293" s="15"/>
-      <c r="E293" s="15"/>
-      <c r="H293" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I293" s="75"/>
-      <c r="J293" s="75"/>
-      <c r="K293" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="L293" s="75"/>
-      <c r="M293" s="75"/>
-      <c r="N293" s="75"/>
-      <c r="O293" s="75"/>
-      <c r="P293" s="75"/>
-      <c r="Q293" s="75"/>
-      <c r="R293" s="75"/>
-      <c r="S293" s="75"/>
-      <c r="T293" s="75"/>
-      <c r="U293" s="75"/>
-    </row>
-    <row r="294" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D294" s="15"/>
-      <c r="E294" s="15"/>
-      <c r="H294" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="I294" s="75"/>
-      <c r="J294" s="75"/>
-      <c r="K294" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="L294" s="75"/>
-      <c r="M294" s="75"/>
-      <c r="N294" s="75"/>
-      <c r="O294" s="75"/>
-      <c r="P294" s="75"/>
-      <c r="Q294" s="75"/>
-      <c r="R294" s="75"/>
-      <c r="S294" s="75"/>
-      <c r="T294" s="75"/>
-      <c r="U294" s="75"/>
-    </row>
-    <row r="295" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D295" s="15"/>
-      <c r="E295" s="15"/>
-      <c r="H295" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="I295" s="75"/>
-      <c r="J295" s="75"/>
-      <c r="K295" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="L295" s="75"/>
-      <c r="M295" s="75"/>
-      <c r="N295" s="75"/>
-      <c r="O295" s="75"/>
-      <c r="P295" s="75"/>
-      <c r="Q295" s="75"/>
-      <c r="R295" s="75"/>
-      <c r="S295" s="75"/>
-      <c r="T295" s="75"/>
-      <c r="U295" s="75"/>
-    </row>
-    <row r="296" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D296" s="15"/>
-      <c r="E296" s="15"/>
-    </row>
-    <row r="297" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D297" s="15"/>
-      <c r="E297" s="15"/>
-      <c r="G297" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="298" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D298" s="15"/>
-      <c r="E298" s="15"/>
-      <c r="H298" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="I298" s="49"/>
-      <c r="J298" s="49"/>
-      <c r="K298" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="L298" s="49"/>
-      <c r="M298" s="49"/>
-      <c r="N298" s="49"/>
-      <c r="O298" s="49"/>
-      <c r="P298" s="49"/>
-      <c r="Q298" s="49"/>
-      <c r="R298" s="49"/>
-      <c r="S298" s="49"/>
-      <c r="T298" s="49"/>
-      <c r="U298" s="49"/>
-    </row>
-    <row r="299" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D299" s="15"/>
-      <c r="E299" s="15"/>
-      <c r="H299" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="I299" s="75"/>
-      <c r="J299" s="75"/>
-      <c r="K299" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="L299" s="75"/>
-      <c r="M299" s="75"/>
-      <c r="N299" s="75"/>
-      <c r="O299" s="75"/>
-      <c r="P299" s="75"/>
-      <c r="Q299" s="75"/>
-      <c r="R299" s="75"/>
-      <c r="S299" s="75"/>
-      <c r="T299" s="75"/>
-      <c r="U299" s="75"/>
-    </row>
-    <row r="300" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D300" s="15"/>
-      <c r="E300" s="15"/>
-      <c r="H300" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="I300" s="75"/>
-      <c r="J300" s="75"/>
-      <c r="K300" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="L300" s="75"/>
-      <c r="M300" s="75"/>
-      <c r="N300" s="75"/>
-      <c r="O300" s="75"/>
-      <c r="P300" s="75"/>
-      <c r="Q300" s="75"/>
-      <c r="R300" s="75"/>
-      <c r="S300" s="75"/>
-      <c r="T300" s="75"/>
-      <c r="U300" s="75"/>
-    </row>
-    <row r="301" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D301" s="15"/>
-      <c r="E301" s="15"/>
-      <c r="H301" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="I301" s="75"/>
-      <c r="J301" s="75"/>
-      <c r="K301" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="L301" s="75"/>
-      <c r="M301" s="75"/>
-      <c r="N301" s="75"/>
-      <c r="O301" s="75"/>
-      <c r="P301" s="75"/>
-      <c r="Q301" s="75"/>
-      <c r="R301" s="75"/>
-      <c r="S301" s="75"/>
-      <c r="T301" s="75"/>
-      <c r="U301" s="75"/>
-    </row>
-    <row r="302" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D302" s="15"/>
-      <c r="E302" s="15"/>
-    </row>
-    <row r="303" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D303" s="15"/>
-      <c r="E303" s="15"/>
-      <c r="G303" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="304" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D304" s="15"/>
-      <c r="E304" s="15"/>
-    </row>
-    <row r="305" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D305" s="15"/>
-      <c r="E305" s="15"/>
-      <c r="F305" s="15"/>
-      <c r="H305" s="21"/>
-      <c r="I305" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="J305" s="48"/>
-      <c r="K305" s="48"/>
-      <c r="L305" s="48"/>
-      <c r="M305" s="48"/>
-    </row>
-    <row r="306" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="15"/>
-      <c r="E306" s="15"/>
-      <c r="F306" s="15"/>
-      <c r="H306" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="I306" s="24"/>
-      <c r="J306" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K306" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L306" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M306" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="307" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D307" s="15"/>
-      <c r="E307" s="15"/>
-      <c r="F307" s="15"/>
-      <c r="H307" s="74"/>
-      <c r="I307" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J307" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K307" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L307" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M307" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="308" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D308" s="15"/>
-      <c r="E308" s="15"/>
-      <c r="F308" s="15"/>
-      <c r="H308" s="74"/>
-      <c r="I308" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J308" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K308" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L308" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="M308" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="P308" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="309" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D309" s="15"/>
-      <c r="E309" s="15"/>
-      <c r="F309" s="15"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J309" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K309" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L309" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M309" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="P309" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="310" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D310" s="15"/>
-      <c r="E310" s="15"/>
-    </row>
-    <row r="311" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D311" s="15"/>
-      <c r="E311" s="15"/>
-    </row>
-    <row r="312" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D312" s="15"/>
-      <c r="E312" s="15"/>
-      <c r="G312" s="25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="313" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D313" s="15"/>
-      <c r="E313" s="15"/>
-      <c r="G313" s="25"/>
-    </row>
-    <row r="314" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D314" s="15"/>
-      <c r="E314" s="15"/>
-    </row>
-    <row r="315" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D315" s="15"/>
-      <c r="E315" s="15"/>
-    </row>
-    <row r="316" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D316" s="15"/>
-      <c r="E316" s="15"/>
-    </row>
-    <row r="317" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D317" s="15"/>
-      <c r="E317" s="15"/>
-    </row>
-    <row r="318" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D318" s="15"/>
-      <c r="E318" s="15"/>
-    </row>
-    <row r="319" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D319" s="15"/>
-      <c r="E319" s="15"/>
-    </row>
-    <row r="320" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D320" s="15"/>
-      <c r="E320" s="15"/>
-    </row>
-    <row r="321" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D321" s="15"/>
-      <c r="E321" s="15"/>
-    </row>
-    <row r="322" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D322" s="15"/>
-      <c r="E322" s="15"/>
-    </row>
-    <row r="323" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D323" s="15"/>
-      <c r="E323" s="15"/>
-    </row>
-    <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D324" s="15"/>
-    </row>
-    <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D325" s="15" t="str">
+    </row>
+    <row r="294" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D294" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.5.3.</v>
       </c>
-      <c r="E325" s="4" t="s">
+      <c r="E294" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="326" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D326" s="15"/>
-      <c r="E326" s="4" t="s">
+    <row r="295" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D295" s="15"/>
+      <c r="E295" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="296" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D296" s="15"/>
+    </row>
+    <row r="297" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D297" s="15"/>
+      <c r="E297" s="23"/>
+      <c r="F297" s="24"/>
+      <c r="G297" s="24"/>
+      <c r="H297" s="24"/>
+      <c r="I297" s="24"/>
+      <c r="J297" s="24"/>
+      <c r="K297" s="24"/>
+      <c r="L297" s="25"/>
+      <c r="M297" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="N297" s="47"/>
+      <c r="O297" s="47"/>
+      <c r="P297" s="47"/>
+      <c r="Q297" s="47"/>
+      <c r="R297" s="47"/>
+      <c r="S297" s="47"/>
+      <c r="T297" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="U297" s="46"/>
+      <c r="V297" s="46"/>
+      <c r="W297" s="46"/>
+      <c r="X297" s="46"/>
+      <c r="Y297" s="46"/>
+      <c r="Z297" s="46"/>
+      <c r="AA297" s="46"/>
+      <c r="AB297" s="46"/>
+      <c r="AC297" s="46"/>
+      <c r="AD297" s="46"/>
+      <c r="AE297" s="46"/>
+      <c r="AF297" s="46"/>
+      <c r="AG297" s="46"/>
+    </row>
+    <row r="298" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D298" s="15"/>
+      <c r="E298" s="26"/>
+      <c r="F298" s="27"/>
+      <c r="G298" s="27"/>
+      <c r="H298" s="27"/>
+      <c r="I298" s="27"/>
+      <c r="J298" s="27"/>
+      <c r="K298" s="27"/>
+      <c r="L298" s="28"/>
+      <c r="M298" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="N298" s="47"/>
+      <c r="O298" s="47"/>
+      <c r="P298" s="47"/>
+      <c r="Q298" s="47"/>
+      <c r="R298" s="47"/>
+      <c r="S298" s="47"/>
+      <c r="T298" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="U298" s="47"/>
+      <c r="V298" s="47"/>
+      <c r="W298" s="47"/>
+      <c r="X298" s="47"/>
+      <c r="Y298" s="47"/>
+      <c r="Z298" s="47"/>
+      <c r="AA298" s="47"/>
+      <c r="AB298" s="47" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="327" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D327" s="15"/>
-    </row>
-    <row r="328" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D328" s="15"/>
-      <c r="E328" s="26"/>
-      <c r="F328" s="27"/>
-      <c r="G328" s="27"/>
-      <c r="H328" s="27"/>
-      <c r="I328" s="27"/>
-      <c r="J328" s="27"/>
-      <c r="K328" s="27"/>
-      <c r="L328" s="28"/>
-      <c r="M328" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="N328" s="49"/>
-      <c r="O328" s="49"/>
-      <c r="P328" s="49"/>
-      <c r="Q328" s="49"/>
-      <c r="R328" s="49"/>
-      <c r="S328" s="49"/>
-      <c r="T328" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="U328" s="48"/>
-      <c r="V328" s="48"/>
-      <c r="W328" s="48"/>
-      <c r="X328" s="48"/>
-      <c r="Y328" s="48"/>
-      <c r="Z328" s="48"/>
-      <c r="AA328" s="48"/>
-      <c r="AB328" s="48"/>
-      <c r="AC328" s="48"/>
-      <c r="AD328" s="48"/>
-      <c r="AE328" s="48"/>
-      <c r="AF328" s="48"/>
-      <c r="AG328" s="48"/>
-    </row>
-    <row r="329" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D329" s="15"/>
-      <c r="E329" s="29"/>
-      <c r="F329" s="30"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="30"/>
-      <c r="I329" s="30"/>
-      <c r="J329" s="30"/>
-      <c r="K329" s="30"/>
-      <c r="L329" s="31"/>
-      <c r="M329" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="N329" s="49"/>
-      <c r="O329" s="49"/>
-      <c r="P329" s="49"/>
-      <c r="Q329" s="49"/>
-      <c r="R329" s="49"/>
-      <c r="S329" s="49"/>
-      <c r="T329" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="U329" s="49"/>
-      <c r="V329" s="49"/>
-      <c r="W329" s="49"/>
-      <c r="X329" s="49"/>
-      <c r="Y329" s="49"/>
-      <c r="Z329" s="49"/>
-      <c r="AA329" s="49"/>
-      <c r="AB329" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC329" s="49"/>
-      <c r="AD329" s="49"/>
-      <c r="AE329" s="49"/>
-      <c r="AF329" s="49"/>
-      <c r="AG329" s="49"/>
-    </row>
-    <row r="330" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D330" s="15"/>
-      <c r="E330" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="F330" s="71"/>
-      <c r="G330" s="71"/>
-      <c r="H330" s="71"/>
-      <c r="I330" s="71"/>
-      <c r="J330" s="71"/>
-      <c r="K330" s="50" t="s">
+      <c r="AC298" s="47"/>
+      <c r="AD298" s="47"/>
+      <c r="AE298" s="47"/>
+      <c r="AF298" s="47"/>
+      <c r="AG298" s="47"/>
+    </row>
+    <row r="299" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D299" s="15"/>
+      <c r="E299" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="F299" s="69"/>
+      <c r="G299" s="69"/>
+      <c r="H299" s="69"/>
+      <c r="I299" s="69"/>
+      <c r="J299" s="69"/>
+      <c r="K299" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="L299" s="49"/>
+      <c r="M299" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="N299" s="42"/>
+      <c r="O299" s="42"/>
+      <c r="P299" s="42"/>
+      <c r="Q299" s="42"/>
+      <c r="R299" s="42"/>
+      <c r="S299" s="42"/>
+      <c r="T299" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="U299" s="60"/>
+      <c r="V299" s="60"/>
+      <c r="W299" s="60"/>
+      <c r="X299" s="60"/>
+      <c r="Y299" s="60"/>
+      <c r="Z299" s="60"/>
+      <c r="AA299" s="61"/>
+      <c r="AB299" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC299" s="51"/>
+      <c r="AD299" s="51"/>
+      <c r="AE299" s="51"/>
+      <c r="AF299" s="51"/>
+      <c r="AG299" s="52"/>
+    </row>
+    <row r="300" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D300" s="15"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
+      <c r="H300" s="70"/>
+      <c r="I300" s="70"/>
+      <c r="J300" s="70"/>
+      <c r="K300" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L300" s="49"/>
+      <c r="M300" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="N300" s="42"/>
+      <c r="O300" s="42"/>
+      <c r="P300" s="42"/>
+      <c r="Q300" s="42"/>
+      <c r="R300" s="42"/>
+      <c r="S300" s="42"/>
+      <c r="T300" s="62"/>
+      <c r="U300" s="63"/>
+      <c r="V300" s="63"/>
+      <c r="W300" s="63"/>
+      <c r="X300" s="63"/>
+      <c r="Y300" s="63"/>
+      <c r="Z300" s="63"/>
+      <c r="AA300" s="64"/>
+      <c r="AB300" s="53"/>
+      <c r="AC300" s="54"/>
+      <c r="AD300" s="54"/>
+      <c r="AE300" s="54"/>
+      <c r="AF300" s="54"/>
+      <c r="AG300" s="55"/>
+    </row>
+    <row r="301" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D301" s="15"/>
+      <c r="E301" s="70"/>
+      <c r="F301" s="70"/>
+      <c r="G301" s="70"/>
+      <c r="H301" s="70"/>
+      <c r="I301" s="70"/>
+      <c r="J301" s="70"/>
+      <c r="K301" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="L301" s="49"/>
+      <c r="M301" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L330" s="51"/>
-      <c r="M330" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="N330" s="44"/>
-      <c r="O330" s="44"/>
-      <c r="P330" s="44"/>
-      <c r="Q330" s="44"/>
-      <c r="R330" s="44"/>
-      <c r="S330" s="44"/>
-      <c r="T330" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="U330" s="62"/>
-      <c r="V330" s="62"/>
-      <c r="W330" s="62"/>
-      <c r="X330" s="62"/>
-      <c r="Y330" s="62"/>
-      <c r="Z330" s="62"/>
-      <c r="AA330" s="63"/>
-      <c r="AB330" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC330" s="53"/>
-      <c r="AD330" s="53"/>
-      <c r="AE330" s="53"/>
-      <c r="AF330" s="53"/>
-      <c r="AG330" s="54"/>
-    </row>
-    <row r="331" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D331" s="15"/>
-      <c r="E331" s="72"/>
-      <c r="F331" s="72"/>
-      <c r="G331" s="72"/>
-      <c r="H331" s="72"/>
-      <c r="I331" s="72"/>
-      <c r="J331" s="72"/>
-      <c r="K331" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="L331" s="51"/>
-      <c r="M331" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="N331" s="44"/>
-      <c r="O331" s="44"/>
-      <c r="P331" s="44"/>
-      <c r="Q331" s="44"/>
-      <c r="R331" s="44"/>
-      <c r="S331" s="44"/>
-      <c r="T331" s="64"/>
-      <c r="U331" s="65"/>
-      <c r="V331" s="65"/>
-      <c r="W331" s="65"/>
-      <c r="X331" s="65"/>
-      <c r="Y331" s="65"/>
-      <c r="Z331" s="65"/>
-      <c r="AA331" s="66"/>
-      <c r="AB331" s="55"/>
-      <c r="AC331" s="56"/>
-      <c r="AD331" s="56"/>
-      <c r="AE331" s="56"/>
-      <c r="AF331" s="56"/>
-      <c r="AG331" s="57"/>
-    </row>
-    <row r="332" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D332" s="15"/>
-      <c r="E332" s="72"/>
-      <c r="F332" s="72"/>
-      <c r="G332" s="72"/>
-      <c r="H332" s="72"/>
-      <c r="I332" s="72"/>
-      <c r="J332" s="72"/>
-      <c r="K332" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="L332" s="51"/>
-      <c r="M332" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N332" s="44"/>
-      <c r="O332" s="44"/>
-      <c r="P332" s="44"/>
-      <c r="Q332" s="44"/>
-      <c r="R332" s="44"/>
-      <c r="S332" s="44"/>
-      <c r="T332" s="64"/>
-      <c r="U332" s="65"/>
-      <c r="V332" s="65"/>
-      <c r="W332" s="65"/>
-      <c r="X332" s="65"/>
-      <c r="Y332" s="65"/>
-      <c r="Z332" s="65"/>
-      <c r="AA332" s="66"/>
-      <c r="AB332" s="55"/>
-      <c r="AC332" s="56"/>
-      <c r="AD332" s="56"/>
-      <c r="AE332" s="56"/>
-      <c r="AF332" s="56"/>
-      <c r="AG332" s="57"/>
-    </row>
-    <row r="333" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D333" s="15"/>
-      <c r="E333" s="73"/>
-      <c r="F333" s="73"/>
-      <c r="G333" s="73"/>
-      <c r="H333" s="73"/>
-      <c r="I333" s="73"/>
-      <c r="J333" s="73"/>
-      <c r="K333" s="50" t="s">
+      <c r="N301" s="42"/>
+      <c r="O301" s="42"/>
+      <c r="P301" s="42"/>
+      <c r="Q301" s="42"/>
+      <c r="R301" s="42"/>
+      <c r="S301" s="42"/>
+      <c r="T301" s="62"/>
+      <c r="U301" s="63"/>
+      <c r="V301" s="63"/>
+      <c r="W301" s="63"/>
+      <c r="X301" s="63"/>
+      <c r="Y301" s="63"/>
+      <c r="Z301" s="63"/>
+      <c r="AA301" s="64"/>
+      <c r="AB301" s="53"/>
+      <c r="AC301" s="54"/>
+      <c r="AD301" s="54"/>
+      <c r="AE301" s="54"/>
+      <c r="AF301" s="54"/>
+      <c r="AG301" s="55"/>
+    </row>
+    <row r="302" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D302" s="15"/>
+      <c r="E302" s="71"/>
+      <c r="F302" s="71"/>
+      <c r="G302" s="71"/>
+      <c r="H302" s="71"/>
+      <c r="I302" s="71"/>
+      <c r="J302" s="71"/>
+      <c r="K302" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L302" s="49"/>
+      <c r="M302" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="L333" s="51"/>
-      <c r="M333" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="N333" s="44"/>
-      <c r="O333" s="44"/>
-      <c r="P333" s="44"/>
-      <c r="Q333" s="44"/>
-      <c r="R333" s="44"/>
-      <c r="S333" s="44"/>
-      <c r="T333" s="67"/>
-      <c r="U333" s="68"/>
-      <c r="V333" s="68"/>
-      <c r="W333" s="68"/>
-      <c r="X333" s="68"/>
-      <c r="Y333" s="68"/>
-      <c r="Z333" s="68"/>
-      <c r="AA333" s="69"/>
-      <c r="AB333" s="58"/>
-      <c r="AC333" s="59"/>
-      <c r="AD333" s="59"/>
-      <c r="AE333" s="59"/>
-      <c r="AF333" s="59"/>
-      <c r="AG333" s="60"/>
-    </row>
-    <row r="334" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D334" s="15"/>
-      <c r="E334" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F334" s="70"/>
-      <c r="G334" s="70"/>
-      <c r="H334" s="70"/>
-      <c r="I334" s="70"/>
-      <c r="J334" s="70"/>
-      <c r="K334" s="70"/>
-      <c r="L334" s="51"/>
-      <c r="M334" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N334" s="44"/>
-      <c r="O334" s="44"/>
-      <c r="P334" s="44"/>
-      <c r="Q334" s="44"/>
-      <c r="R334" s="44"/>
-      <c r="S334" s="44"/>
-      <c r="T334" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="U334" s="46"/>
-      <c r="V334" s="46"/>
-      <c r="W334" s="46"/>
-      <c r="X334" s="46"/>
-      <c r="Y334" s="46"/>
-      <c r="Z334" s="46"/>
-      <c r="AA334" s="47"/>
-      <c r="AB334" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC334" s="44"/>
-      <c r="AD334" s="44"/>
-      <c r="AE334" s="44"/>
-      <c r="AF334" s="44"/>
-      <c r="AG334" s="44"/>
-    </row>
-    <row r="335" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D335" s="15"/>
-      <c r="E335" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F335" s="70"/>
-      <c r="G335" s="70"/>
-      <c r="H335" s="70"/>
-      <c r="I335" s="70"/>
-      <c r="J335" s="70"/>
-      <c r="K335" s="70"/>
-      <c r="L335" s="51"/>
-      <c r="M335" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="N335" s="44"/>
-      <c r="O335" s="44"/>
-      <c r="P335" s="44"/>
-      <c r="Q335" s="44"/>
-      <c r="R335" s="44"/>
-      <c r="S335" s="44"/>
-      <c r="T335" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="U335" s="44"/>
-      <c r="V335" s="44"/>
-      <c r="W335" s="44"/>
-      <c r="X335" s="44"/>
-      <c r="Y335" s="44"/>
-      <c r="Z335" s="44"/>
-      <c r="AA335" s="44"/>
-      <c r="AB335" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC335" s="44"/>
-      <c r="AD335" s="44"/>
-      <c r="AE335" s="44"/>
-      <c r="AF335" s="44"/>
-      <c r="AG335" s="44"/>
-    </row>
-    <row r="336" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D336" s="15"/>
-      <c r="E336" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="F336" s="71"/>
-      <c r="G336" s="71"/>
-      <c r="H336" s="71"/>
-      <c r="I336" s="71"/>
-      <c r="J336" s="71"/>
-      <c r="K336" s="50" t="s">
+      <c r="N302" s="42"/>
+      <c r="O302" s="42"/>
+      <c r="P302" s="42"/>
+      <c r="Q302" s="42"/>
+      <c r="R302" s="42"/>
+      <c r="S302" s="42"/>
+      <c r="T302" s="65"/>
+      <c r="U302" s="66"/>
+      <c r="V302" s="66"/>
+      <c r="W302" s="66"/>
+      <c r="X302" s="66"/>
+      <c r="Y302" s="66"/>
+      <c r="Z302" s="66"/>
+      <c r="AA302" s="67"/>
+      <c r="AB302" s="56"/>
+      <c r="AC302" s="57"/>
+      <c r="AD302" s="57"/>
+      <c r="AE302" s="57"/>
+      <c r="AF302" s="57"/>
+      <c r="AG302" s="58"/>
+    </row>
+    <row r="303" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D303" s="15"/>
+      <c r="E303" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F303" s="68"/>
+      <c r="G303" s="68"/>
+      <c r="H303" s="68"/>
+      <c r="I303" s="68"/>
+      <c r="J303" s="68"/>
+      <c r="K303" s="68"/>
+      <c r="L303" s="49"/>
+      <c r="M303" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L336" s="51"/>
-      <c r="M336" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="N336" s="42"/>
-      <c r="O336" s="42"/>
-      <c r="P336" s="42"/>
-      <c r="Q336" s="42"/>
-      <c r="R336" s="42"/>
-      <c r="S336" s="43"/>
-      <c r="T336" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="U336" s="42"/>
-      <c r="V336" s="42"/>
-      <c r="W336" s="42"/>
-      <c r="X336" s="42"/>
-      <c r="Y336" s="42"/>
-      <c r="Z336" s="42"/>
-      <c r="AA336" s="42"/>
-      <c r="AB336" s="42"/>
-      <c r="AC336" s="42"/>
-      <c r="AD336" s="42"/>
-      <c r="AE336" s="42"/>
-      <c r="AF336" s="42"/>
-      <c r="AG336" s="43"/>
-    </row>
-    <row r="337" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D337" s="15"/>
-      <c r="E337" s="72"/>
-      <c r="F337" s="72"/>
-      <c r="G337" s="72"/>
-      <c r="H337" s="72"/>
-      <c r="I337" s="72"/>
-      <c r="J337" s="72"/>
-      <c r="K337" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="L337" s="51"/>
-      <c r="M337" s="41"/>
-      <c r="N337" s="42"/>
-      <c r="O337" s="42"/>
-      <c r="P337" s="42"/>
-      <c r="Q337" s="42"/>
-      <c r="R337" s="42"/>
-      <c r="S337" s="43"/>
-      <c r="T337" s="41"/>
-      <c r="U337" s="42"/>
-      <c r="V337" s="42"/>
-      <c r="W337" s="42"/>
-      <c r="X337" s="42"/>
-      <c r="Y337" s="42"/>
-      <c r="Z337" s="42"/>
-      <c r="AA337" s="42"/>
-      <c r="AB337" s="42"/>
-      <c r="AC337" s="42"/>
-      <c r="AD337" s="42"/>
-      <c r="AE337" s="42"/>
-      <c r="AF337" s="42"/>
-      <c r="AG337" s="43"/>
-    </row>
-    <row r="338" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D338" s="15"/>
-      <c r="E338" s="73"/>
-      <c r="F338" s="73"/>
-      <c r="G338" s="73"/>
-      <c r="H338" s="73"/>
-      <c r="I338" s="73"/>
-      <c r="J338" s="73"/>
-      <c r="K338" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="L338" s="51"/>
-      <c r="M338" s="41"/>
-      <c r="N338" s="42"/>
-      <c r="O338" s="42"/>
-      <c r="P338" s="42"/>
-      <c r="Q338" s="42"/>
-      <c r="R338" s="42"/>
-      <c r="S338" s="43"/>
-      <c r="T338" s="41"/>
-      <c r="U338" s="42"/>
-      <c r="V338" s="42"/>
-      <c r="W338" s="42"/>
-      <c r="X338" s="42"/>
-      <c r="Y338" s="42"/>
-      <c r="Z338" s="42"/>
-      <c r="AA338" s="42"/>
-      <c r="AB338" s="42"/>
-      <c r="AC338" s="42"/>
-      <c r="AD338" s="42"/>
-      <c r="AE338" s="42"/>
-      <c r="AF338" s="42"/>
-      <c r="AG338" s="43"/>
-    </row>
-    <row r="339" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D339" s="15"/>
-    </row>
-    <row r="340" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D340" s="15"/>
-    </row>
-    <row r="341" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D341" s="15"/>
-    </row>
-    <row r="342" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="N303" s="42"/>
+      <c r="O303" s="42"/>
+      <c r="P303" s="42"/>
+      <c r="Q303" s="42"/>
+      <c r="R303" s="42"/>
+      <c r="S303" s="42"/>
+      <c r="T303" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="U303" s="44"/>
+      <c r="V303" s="44"/>
+      <c r="W303" s="44"/>
+      <c r="X303" s="44"/>
+      <c r="Y303" s="44"/>
+      <c r="Z303" s="44"/>
+      <c r="AA303" s="45"/>
+      <c r="AB303" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC303" s="42"/>
+      <c r="AD303" s="42"/>
+      <c r="AE303" s="42"/>
+      <c r="AF303" s="42"/>
+      <c r="AG303" s="42"/>
+    </row>
+    <row r="304" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D304" s="15"/>
+      <c r="E304" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="F304" s="68"/>
+      <c r="G304" s="68"/>
+      <c r="H304" s="68"/>
+      <c r="I304" s="68"/>
+      <c r="J304" s="68"/>
+      <c r="K304" s="68"/>
+      <c r="L304" s="49"/>
+      <c r="M304" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="N304" s="42"/>
+      <c r="O304" s="42"/>
+      <c r="P304" s="42"/>
+      <c r="Q304" s="42"/>
+      <c r="R304" s="42"/>
+      <c r="S304" s="42"/>
+      <c r="T304" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="U304" s="42"/>
+      <c r="V304" s="42"/>
+      <c r="W304" s="42"/>
+      <c r="X304" s="42"/>
+      <c r="Y304" s="42"/>
+      <c r="Z304" s="42"/>
+      <c r="AA304" s="42"/>
+      <c r="AB304" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC304" s="42"/>
+      <c r="AD304" s="42"/>
+      <c r="AE304" s="42"/>
+      <c r="AF304" s="42"/>
+      <c r="AG304" s="42"/>
+    </row>
+    <row r="305" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D305" s="15"/>
+      <c r="E305" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F305" s="69"/>
+      <c r="G305" s="69"/>
+      <c r="H305" s="69"/>
+      <c r="I305" s="69"/>
+      <c r="J305" s="69"/>
+      <c r="K305" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="L305" s="49"/>
+      <c r="M305" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="N305" s="40"/>
+      <c r="O305" s="40"/>
+      <c r="P305" s="40"/>
+      <c r="Q305" s="40"/>
+      <c r="R305" s="40"/>
+      <c r="S305" s="41"/>
+      <c r="T305" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="U305" s="40"/>
+      <c r="V305" s="40"/>
+      <c r="W305" s="40"/>
+      <c r="X305" s="40"/>
+      <c r="Y305" s="40"/>
+      <c r="Z305" s="40"/>
+      <c r="AA305" s="40"/>
+      <c r="AB305" s="40"/>
+      <c r="AC305" s="40"/>
+      <c r="AD305" s="40"/>
+      <c r="AE305" s="40"/>
+      <c r="AF305" s="40"/>
+      <c r="AG305" s="41"/>
+    </row>
+    <row r="306" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D306" s="15"/>
+      <c r="E306" s="70"/>
+      <c r="F306" s="70"/>
+      <c r="G306" s="70"/>
+      <c r="H306" s="70"/>
+      <c r="I306" s="70"/>
+      <c r="J306" s="70"/>
+      <c r="K306" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="L306" s="49"/>
+      <c r="M306" s="39"/>
+      <c r="N306" s="40"/>
+      <c r="O306" s="40"/>
+      <c r="P306" s="40"/>
+      <c r="Q306" s="40"/>
+      <c r="R306" s="40"/>
+      <c r="S306" s="41"/>
+      <c r="T306" s="39"/>
+      <c r="U306" s="40"/>
+      <c r="V306" s="40"/>
+      <c r="W306" s="40"/>
+      <c r="X306" s="40"/>
+      <c r="Y306" s="40"/>
+      <c r="Z306" s="40"/>
+      <c r="AA306" s="40"/>
+      <c r="AB306" s="40"/>
+      <c r="AC306" s="40"/>
+      <c r="AD306" s="40"/>
+      <c r="AE306" s="40"/>
+      <c r="AF306" s="40"/>
+      <c r="AG306" s="41"/>
+    </row>
+    <row r="307" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D307" s="15"/>
+      <c r="E307" s="71"/>
+      <c r="F307" s="71"/>
+      <c r="G307" s="71"/>
+      <c r="H307" s="71"/>
+      <c r="I307" s="71"/>
+      <c r="J307" s="71"/>
+      <c r="K307" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L307" s="49"/>
+      <c r="M307" s="39"/>
+      <c r="N307" s="40"/>
+      <c r="O307" s="40"/>
+      <c r="P307" s="40"/>
+      <c r="Q307" s="40"/>
+      <c r="R307" s="40"/>
+      <c r="S307" s="41"/>
+      <c r="T307" s="39"/>
+      <c r="U307" s="40"/>
+      <c r="V307" s="40"/>
+      <c r="W307" s="40"/>
+      <c r="X307" s="40"/>
+      <c r="Y307" s="40"/>
+      <c r="Z307" s="40"/>
+      <c r="AA307" s="40"/>
+      <c r="AB307" s="40"/>
+      <c r="AC307" s="40"/>
+      <c r="AD307" s="40"/>
+      <c r="AE307" s="40"/>
+      <c r="AF307" s="40"/>
+      <c r="AG307" s="41"/>
+    </row>
+    <row r="308" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D308" s="15"/>
+    </row>
+    <row r="309" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D309" s="15"/>
+    </row>
+    <row r="310" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D310" s="15"/>
+    </row>
+    <row r="311" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6986,39 +6287,8 @@
     <row r="739" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="740" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="741" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="48">
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -7032,90 +6302,62 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="H288:K288"/>
-    <mergeCell ref="L283:AA283"/>
-    <mergeCell ref="L288:AA288"/>
-    <mergeCell ref="L284:AA285"/>
-    <mergeCell ref="L286:AA287"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="H285:K285"/>
-    <mergeCell ref="H286:K286"/>
-    <mergeCell ref="H287:K287"/>
-    <mergeCell ref="H291:J291"/>
-    <mergeCell ref="H292:J292"/>
-    <mergeCell ref="H293:J293"/>
-    <mergeCell ref="H294:J294"/>
-    <mergeCell ref="H295:J295"/>
-    <mergeCell ref="K291:U291"/>
-    <mergeCell ref="K292:U292"/>
-    <mergeCell ref="K293:U293"/>
-    <mergeCell ref="K294:U294"/>
-    <mergeCell ref="K295:U295"/>
-    <mergeCell ref="H298:J298"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="H300:J300"/>
-    <mergeCell ref="H301:J301"/>
-    <mergeCell ref="K298:U298"/>
-    <mergeCell ref="K299:U299"/>
-    <mergeCell ref="K300:U300"/>
-    <mergeCell ref="K301:U301"/>
-    <mergeCell ref="E330:J330"/>
-    <mergeCell ref="E331:J331"/>
-    <mergeCell ref="E333:J333"/>
-    <mergeCell ref="I305:M305"/>
-    <mergeCell ref="H306:H309"/>
-    <mergeCell ref="M329:S329"/>
-    <mergeCell ref="E332:J332"/>
-    <mergeCell ref="K336:L336"/>
-    <mergeCell ref="K337:L337"/>
-    <mergeCell ref="K338:L338"/>
-    <mergeCell ref="E334:L334"/>
-    <mergeCell ref="E335:L335"/>
-    <mergeCell ref="E336:J336"/>
-    <mergeCell ref="E337:J337"/>
-    <mergeCell ref="E338:J338"/>
-    <mergeCell ref="T328:AG328"/>
-    <mergeCell ref="M328:S328"/>
-    <mergeCell ref="K330:L330"/>
-    <mergeCell ref="K331:L331"/>
-    <mergeCell ref="K333:L333"/>
-    <mergeCell ref="AB329:AG329"/>
-    <mergeCell ref="T329:AA329"/>
-    <mergeCell ref="AB330:AG333"/>
-    <mergeCell ref="T330:AA333"/>
-    <mergeCell ref="K332:L332"/>
-    <mergeCell ref="M336:S338"/>
-    <mergeCell ref="T336:AG338"/>
-    <mergeCell ref="M330:S330"/>
-    <mergeCell ref="M331:S331"/>
-    <mergeCell ref="M333:S333"/>
-    <mergeCell ref="M334:S334"/>
-    <mergeCell ref="M335:S335"/>
-    <mergeCell ref="AB334:AG334"/>
-    <mergeCell ref="AB335:AG335"/>
-    <mergeCell ref="T334:AA334"/>
-    <mergeCell ref="T335:AA335"/>
-    <mergeCell ref="M332:S332"/>
+    <mergeCell ref="E299:J299"/>
+    <mergeCell ref="E300:J300"/>
+    <mergeCell ref="E302:J302"/>
+    <mergeCell ref="M298:S298"/>
+    <mergeCell ref="E301:J301"/>
+    <mergeCell ref="K305:L305"/>
+    <mergeCell ref="K306:L306"/>
+    <mergeCell ref="K307:L307"/>
+    <mergeCell ref="E303:L303"/>
+    <mergeCell ref="E304:L304"/>
+    <mergeCell ref="E305:J305"/>
+    <mergeCell ref="E306:J306"/>
+    <mergeCell ref="E307:J307"/>
+    <mergeCell ref="T297:AG297"/>
+    <mergeCell ref="M297:S297"/>
+    <mergeCell ref="K299:L299"/>
+    <mergeCell ref="K300:L300"/>
+    <mergeCell ref="K302:L302"/>
+    <mergeCell ref="AB298:AG298"/>
+    <mergeCell ref="T298:AA298"/>
+    <mergeCell ref="AB299:AG302"/>
+    <mergeCell ref="T299:AA302"/>
+    <mergeCell ref="K301:L301"/>
+    <mergeCell ref="M305:S307"/>
+    <mergeCell ref="T305:AG307"/>
+    <mergeCell ref="M299:S299"/>
+    <mergeCell ref="M300:S300"/>
+    <mergeCell ref="M302:S302"/>
+    <mergeCell ref="M303:S303"/>
+    <mergeCell ref="M304:S304"/>
+    <mergeCell ref="AB303:AG303"/>
+    <mergeCell ref="AB304:AG304"/>
+    <mergeCell ref="T303:AA303"/>
+    <mergeCell ref="T304:AA304"/>
+    <mergeCell ref="M301:S301"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:M22 J18:M18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:M22 J18:M18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ベーシック認証,フォーム認証,OpenID認証,OAuth認証,OpenID Connect認証,カスタム認証,"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G269" r:id="rId1" xr:uid="{9F69039C-188E-4DF3-A368-DDAD525CFD56}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="8" manualBreakCount="8">
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <rowBreaks count="7" manualBreakCount="7">
     <brk id="42" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
     <brk id="114" max="34" man="1"/>
     <brk id="150" max="34" man="1"/>
-    <brk id="193" max="34" man="1"/>
-    <brk id="235" max="34" man="1"/>
-    <brk id="270" max="34" man="1"/>
-    <brk id="311" max="34" man="1"/>
+    <brk id="191" max="34" man="1"/>
+    <brk id="233" max="34" man="1"/>
+    <brk id="280" max="34" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F67385-6249-49FF-A34E-BD5092DF2020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAE0C9B-5C39-4E93-8A25-103C147E590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="7.5.認証・認可" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="189">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -1634,6 +1634,291 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトのグループ設定例：</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一般職</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職軸でのグループ分け</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職者</t>
+    <rPh sb="0" eb="3">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本部</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>事業部軸でのグループ分け</t>
+    <rPh sb="0" eb="2">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>支部</t>
+    <rPh sb="0" eb="2">
+      <t>シブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本部かつ役職者</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職軸、事業部軸の合成軸でのグループ分け</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトのリクエスト許可単位設定例：</t>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>許可グループ</t>
+    <rPh sb="0" eb="2">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全てのグループ</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトのユーザ設定</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所属グループ</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本部, 役職者, 本部かつ役職者</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本部, 一般職</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>支部, 一般職</t>
+    <rPh sb="0" eb="2">
+      <t>シブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上記の例で、ユーザに対して許可されるリクエストは以下のマトリックスになる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○：許可</t>
+    <rPh sb="2" eb="4">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×：不許可</t>
+    <rPh sb="2" eb="5">
+      <t>フキョカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1919,7 +2204,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2035,6 +2320,165 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2056,158 +2500,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2603,13 +2906,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3170,7 +3473,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI741"/>
+  <dimension ref="A1:AI770"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3186,43 +3489,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
+      <c r="R1" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="46"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3231,43 +3534,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="90" t="s">
+      <c r="R2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="92"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="61"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="77"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="46"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3276,39 +3579,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="95"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="64"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="77"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="46"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3451,12 +3754,12 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
@@ -3585,12 +3888,12 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
@@ -5309,25 +5612,25 @@
         <v>142</v>
       </c>
     </row>
-    <row r="273" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="G273" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="G274" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
     </row>
-    <row r="276" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
       <c r="F276" s="21" t="s">
@@ -5337,567 +5640,1058 @@
         <v>97</v>
       </c>
     </row>
-    <row r="277" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
       <c r="G277" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="278" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="G278" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="279" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="G279" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="280" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
     </row>
-    <row r="281" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
       <c r="G281" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="282" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="282" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="G282" s="22"/>
-    </row>
-    <row r="283" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H282" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="I282" s="69"/>
+      <c r="J282" s="69"/>
+      <c r="K282" s="69"/>
+      <c r="L282" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="M282" s="69"/>
+      <c r="N282" s="69"/>
+      <c r="O282" s="69"/>
+      <c r="P282" s="69"/>
+      <c r="Q282" s="69"/>
+      <c r="R282" s="69"/>
+      <c r="S282" s="69"/>
+      <c r="T282" s="69"/>
+      <c r="U282" s="69"/>
+      <c r="V282" s="69"/>
+      <c r="W282" s="69"/>
+      <c r="X282" s="69"/>
+      <c r="Y282" s="69"/>
+      <c r="Z282" s="69"/>
+      <c r="AA282" s="69"/>
+    </row>
+    <row r="283" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-    </row>
-    <row r="284" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H283" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="I283" s="99"/>
+      <c r="J283" s="99"/>
+      <c r="K283" s="99"/>
+      <c r="L283" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="M283" s="99"/>
+      <c r="N283" s="99"/>
+      <c r="O283" s="99"/>
+      <c r="P283" s="99"/>
+      <c r="Q283" s="99"/>
+      <c r="R283" s="99"/>
+      <c r="S283" s="99"/>
+      <c r="T283" s="99"/>
+      <c r="U283" s="99"/>
+      <c r="V283" s="99"/>
+      <c r="W283" s="99"/>
+      <c r="X283" s="99"/>
+      <c r="Y283" s="99"/>
+      <c r="Z283" s="99"/>
+      <c r="AA283" s="99"/>
+    </row>
+    <row r="284" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-    </row>
-    <row r="285" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H284" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="I284" s="99"/>
+      <c r="J284" s="99"/>
+      <c r="K284" s="99"/>
+      <c r="L284" s="99"/>
+      <c r="M284" s="99"/>
+      <c r="N284" s="99"/>
+      <c r="O284" s="99"/>
+      <c r="P284" s="99"/>
+      <c r="Q284" s="99"/>
+      <c r="R284" s="99"/>
+      <c r="S284" s="99"/>
+      <c r="T284" s="99"/>
+      <c r="U284" s="99"/>
+      <c r="V284" s="99"/>
+      <c r="W284" s="99"/>
+      <c r="X284" s="99"/>
+      <c r="Y284" s="99"/>
+      <c r="Z284" s="99"/>
+      <c r="AA284" s="99"/>
+    </row>
+    <row r="285" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-    </row>
-    <row r="286" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H285" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="I285" s="99"/>
+      <c r="J285" s="99"/>
+      <c r="K285" s="99"/>
+      <c r="L285" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="M285" s="99"/>
+      <c r="N285" s="99"/>
+      <c r="O285" s="99"/>
+      <c r="P285" s="99"/>
+      <c r="Q285" s="99"/>
+      <c r="R285" s="99"/>
+      <c r="S285" s="99"/>
+      <c r="T285" s="99"/>
+      <c r="U285" s="99"/>
+      <c r="V285" s="99"/>
+      <c r="W285" s="99"/>
+      <c r="X285" s="99"/>
+      <c r="Y285" s="99"/>
+      <c r="Z285" s="99"/>
+      <c r="AA285" s="99"/>
+    </row>
+    <row r="286" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-    </row>
-    <row r="287" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H286" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="I286" s="99"/>
+      <c r="J286" s="99"/>
+      <c r="K286" s="99"/>
+      <c r="L286" s="99"/>
+      <c r="M286" s="99"/>
+      <c r="N286" s="99"/>
+      <c r="O286" s="99"/>
+      <c r="P286" s="99"/>
+      <c r="Q286" s="99"/>
+      <c r="R286" s="99"/>
+      <c r="S286" s="99"/>
+      <c r="T286" s="99"/>
+      <c r="U286" s="99"/>
+      <c r="V286" s="99"/>
+      <c r="W286" s="99"/>
+      <c r="X286" s="99"/>
+      <c r="Y286" s="99"/>
+      <c r="Z286" s="99"/>
+      <c r="AA286" s="99"/>
+    </row>
+    <row r="287" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
-    </row>
-    <row r="288" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H287" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="I287" s="99"/>
+      <c r="J287" s="99"/>
+      <c r="K287" s="99"/>
+      <c r="L287" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="M287" s="99"/>
+      <c r="N287" s="99"/>
+      <c r="O287" s="99"/>
+      <c r="P287" s="99"/>
+      <c r="Q287" s="99"/>
+      <c r="R287" s="99"/>
+      <c r="S287" s="99"/>
+      <c r="T287" s="99"/>
+      <c r="U287" s="99"/>
+      <c r="V287" s="99"/>
+      <c r="W287" s="99"/>
+      <c r="X287" s="99"/>
+      <c r="Y287" s="99"/>
+      <c r="Z287" s="99"/>
+      <c r="AA287" s="99"/>
+    </row>
+    <row r="288" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
     </row>
-    <row r="289" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
-    </row>
-    <row r="290" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G289" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="290" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-    </row>
-    <row r="291" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H290" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="I290" s="69"/>
+      <c r="J290" s="69"/>
+      <c r="K290" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="L290" s="69"/>
+      <c r="M290" s="69"/>
+      <c r="N290" s="69"/>
+      <c r="O290" s="69"/>
+      <c r="P290" s="69"/>
+      <c r="Q290" s="69"/>
+      <c r="R290" s="69"/>
+      <c r="S290" s="69"/>
+      <c r="T290" s="69"/>
+      <c r="U290" s="69"/>
+    </row>
+    <row r="291" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-    </row>
-    <row r="292" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H291" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="I291" s="99"/>
+      <c r="J291" s="99"/>
+      <c r="K291" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="L291" s="99"/>
+      <c r="M291" s="99"/>
+      <c r="N291" s="99"/>
+      <c r="O291" s="99"/>
+      <c r="P291" s="99"/>
+      <c r="Q291" s="99"/>
+      <c r="R291" s="99"/>
+      <c r="S291" s="99"/>
+      <c r="T291" s="99"/>
+      <c r="U291" s="99"/>
+    </row>
+    <row r="292" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-    </row>
-    <row r="293" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H292" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="I292" s="99"/>
+      <c r="J292" s="99"/>
+      <c r="K292" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L292" s="99"/>
+      <c r="M292" s="99"/>
+      <c r="N292" s="99"/>
+      <c r="O292" s="99"/>
+      <c r="P292" s="99"/>
+      <c r="Q292" s="99"/>
+      <c r="R292" s="99"/>
+      <c r="S292" s="99"/>
+      <c r="T292" s="99"/>
+      <c r="U292" s="99"/>
+    </row>
+    <row r="293" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D293" s="15"/>
-    </row>
-    <row r="294" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D294" s="15" t="str">
+      <c r="E293" s="15"/>
+      <c r="H293" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="I293" s="99"/>
+      <c r="J293" s="99"/>
+      <c r="K293" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="L293" s="99"/>
+      <c r="M293" s="99"/>
+      <c r="N293" s="99"/>
+      <c r="O293" s="99"/>
+      <c r="P293" s="99"/>
+      <c r="Q293" s="99"/>
+      <c r="R293" s="99"/>
+      <c r="S293" s="99"/>
+      <c r="T293" s="99"/>
+      <c r="U293" s="99"/>
+    </row>
+    <row r="294" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D294" s="15"/>
+      <c r="E294" s="15"/>
+      <c r="H294" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="I294" s="99"/>
+      <c r="J294" s="99"/>
+      <c r="K294" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="L294" s="99"/>
+      <c r="M294" s="99"/>
+      <c r="N294" s="99"/>
+      <c r="O294" s="99"/>
+      <c r="P294" s="99"/>
+      <c r="Q294" s="99"/>
+      <c r="R294" s="99"/>
+      <c r="S294" s="99"/>
+      <c r="T294" s="99"/>
+      <c r="U294" s="99"/>
+    </row>
+    <row r="295" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D295" s="15"/>
+      <c r="E295" s="15"/>
+    </row>
+    <row r="296" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D296" s="15"/>
+      <c r="E296" s="15"/>
+      <c r="G296" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="297" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D297" s="15"/>
+      <c r="E297" s="15"/>
+      <c r="H297" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="I297" s="69"/>
+      <c r="J297" s="69"/>
+      <c r="K297" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="L297" s="69"/>
+      <c r="M297" s="69"/>
+      <c r="N297" s="69"/>
+      <c r="O297" s="69"/>
+      <c r="P297" s="69"/>
+      <c r="Q297" s="69"/>
+      <c r="R297" s="69"/>
+      <c r="S297" s="69"/>
+      <c r="T297" s="69"/>
+      <c r="U297" s="69"/>
+    </row>
+    <row r="298" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D298" s="15"/>
+      <c r="E298" s="15"/>
+      <c r="H298" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="I298" s="99"/>
+      <c r="J298" s="99"/>
+      <c r="K298" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="L298" s="99"/>
+      <c r="M298" s="99"/>
+      <c r="N298" s="99"/>
+      <c r="O298" s="99"/>
+      <c r="P298" s="99"/>
+      <c r="Q298" s="99"/>
+      <c r="R298" s="99"/>
+      <c r="S298" s="99"/>
+      <c r="T298" s="99"/>
+      <c r="U298" s="99"/>
+    </row>
+    <row r="299" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D299" s="15"/>
+      <c r="E299" s="15"/>
+      <c r="H299" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="I299" s="99"/>
+      <c r="J299" s="99"/>
+      <c r="K299" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="L299" s="99"/>
+      <c r="M299" s="99"/>
+      <c r="N299" s="99"/>
+      <c r="O299" s="99"/>
+      <c r="P299" s="99"/>
+      <c r="Q299" s="99"/>
+      <c r="R299" s="99"/>
+      <c r="S299" s="99"/>
+      <c r="T299" s="99"/>
+      <c r="U299" s="99"/>
+    </row>
+    <row r="300" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D300" s="15"/>
+      <c r="E300" s="15"/>
+      <c r="H300" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="I300" s="99"/>
+      <c r="J300" s="99"/>
+      <c r="K300" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="L300" s="99"/>
+      <c r="M300" s="99"/>
+      <c r="N300" s="99"/>
+      <c r="O300" s="99"/>
+      <c r="P300" s="99"/>
+      <c r="Q300" s="99"/>
+      <c r="R300" s="99"/>
+      <c r="S300" s="99"/>
+      <c r="T300" s="99"/>
+      <c r="U300" s="99"/>
+    </row>
+    <row r="301" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D301" s="15"/>
+      <c r="E301" s="15"/>
+    </row>
+    <row r="302" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D302" s="15"/>
+      <c r="E302" s="15"/>
+      <c r="G302" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="303" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D303" s="15"/>
+      <c r="E303" s="15"/>
+    </row>
+    <row r="304" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D304" s="15"/>
+      <c r="E304" s="15"/>
+      <c r="F304" s="15"/>
+      <c r="H304" s="40"/>
+      <c r="I304" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="J304" s="73"/>
+      <c r="K304" s="73"/>
+      <c r="L304" s="73"/>
+      <c r="M304" s="73"/>
+    </row>
+    <row r="305" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D305" s="15"/>
+      <c r="E305" s="15"/>
+      <c r="F305" s="15"/>
+      <c r="H305" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="I305" s="39"/>
+      <c r="J305" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K305" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L305" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="M305" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="306" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D306" s="15"/>
+      <c r="E306" s="15"/>
+      <c r="F306" s="15"/>
+      <c r="H306" s="100"/>
+      <c r="I306" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="J306" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="K306" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="L306" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="M306" s="101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="307" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D307" s="15"/>
+      <c r="E307" s="15"/>
+      <c r="F307" s="15"/>
+      <c r="H307" s="100"/>
+      <c r="I307" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="J307" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="K307" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="L307" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="M307" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="P307" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="308" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D308" s="15"/>
+      <c r="E308" s="15"/>
+      <c r="F308" s="15"/>
+      <c r="H308" s="100"/>
+      <c r="I308" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="J308" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="K308" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="L308" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="M308" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="P308" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="309" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D309" s="15"/>
+      <c r="E309" s="15"/>
+      <c r="F309" s="15"/>
+      <c r="H309" s="15"/>
+      <c r="I309" s="15"/>
+      <c r="J309" s="102"/>
+      <c r="K309" s="102"/>
+      <c r="L309" s="102"/>
+      <c r="M309" s="102"/>
+    </row>
+    <row r="310" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D310" s="15"/>
+      <c r="E310" s="15"/>
+      <c r="G310" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="311" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D311" s="15"/>
+      <c r="E311" s="15"/>
+      <c r="G311" s="22"/>
+    </row>
+    <row r="312" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D312" s="15"/>
+      <c r="E312" s="15"/>
+    </row>
+    <row r="313" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D313" s="15"/>
+      <c r="E313" s="15"/>
+    </row>
+    <row r="314" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D314" s="15"/>
+      <c r="E314" s="15"/>
+    </row>
+    <row r="315" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D315" s="15"/>
+      <c r="E315" s="15"/>
+    </row>
+    <row r="316" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D316" s="15"/>
+      <c r="E316" s="15"/>
+    </row>
+    <row r="317" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D317" s="15"/>
+      <c r="E317" s="15"/>
+    </row>
+    <row r="318" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D318" s="15"/>
+      <c r="E318" s="15"/>
+    </row>
+    <row r="319" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D319" s="15"/>
+      <c r="E319" s="15"/>
+    </row>
+    <row r="320" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D320" s="15"/>
+      <c r="E320" s="15"/>
+    </row>
+    <row r="321" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D321" s="15"/>
+      <c r="E321" s="15"/>
+    </row>
+    <row r="322" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D322" s="15"/>
+    </row>
+    <row r="323" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D323" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.5.3.</v>
       </c>
-      <c r="E294" s="4" t="s">
+      <c r="E323" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D295" s="15"/>
-      <c r="E295" s="4" t="s">
+    <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D324" s="15"/>
+      <c r="E324" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="296" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D296" s="15"/>
-    </row>
-    <row r="297" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D297" s="15"/>
-      <c r="E297" s="23"/>
-      <c r="F297" s="24"/>
-      <c r="G297" s="24"/>
-      <c r="H297" s="24"/>
-      <c r="I297" s="24"/>
-      <c r="J297" s="24"/>
-      <c r="K297" s="24"/>
-      <c r="L297" s="25"/>
-      <c r="M297" s="47" t="s">
+    <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D325" s="15"/>
+    </row>
+    <row r="326" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D326" s="15"/>
+      <c r="E326" s="23"/>
+      <c r="F326" s="24"/>
+      <c r="G326" s="24"/>
+      <c r="H326" s="24"/>
+      <c r="I326" s="24"/>
+      <c r="J326" s="24"/>
+      <c r="K326" s="24"/>
+      <c r="L326" s="25"/>
+      <c r="M326" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="N297" s="47"/>
-      <c r="O297" s="47"/>
-      <c r="P297" s="47"/>
-      <c r="Q297" s="47"/>
-      <c r="R297" s="47"/>
-      <c r="S297" s="47"/>
-      <c r="T297" s="46" t="s">
+      <c r="N326" s="69"/>
+      <c r="O326" s="69"/>
+      <c r="P326" s="69"/>
+      <c r="Q326" s="69"/>
+      <c r="R326" s="69"/>
+      <c r="S326" s="69"/>
+      <c r="T326" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="U297" s="46"/>
-      <c r="V297" s="46"/>
-      <c r="W297" s="46"/>
-      <c r="X297" s="46"/>
-      <c r="Y297" s="46"/>
-      <c r="Z297" s="46"/>
-      <c r="AA297" s="46"/>
-      <c r="AB297" s="46"/>
-      <c r="AC297" s="46"/>
-      <c r="AD297" s="46"/>
-      <c r="AE297" s="46"/>
-      <c r="AF297" s="46"/>
-      <c r="AG297" s="46"/>
-    </row>
-    <row r="298" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D298" s="15"/>
-      <c r="E298" s="26"/>
-      <c r="F298" s="27"/>
-      <c r="G298" s="27"/>
-      <c r="H298" s="27"/>
-      <c r="I298" s="27"/>
-      <c r="J298" s="27"/>
-      <c r="K298" s="27"/>
-      <c r="L298" s="28"/>
-      <c r="M298" s="47" t="s">
+      <c r="U326" s="73"/>
+      <c r="V326" s="73"/>
+      <c r="W326" s="73"/>
+      <c r="X326" s="73"/>
+      <c r="Y326" s="73"/>
+      <c r="Z326" s="73"/>
+      <c r="AA326" s="73"/>
+      <c r="AB326" s="73"/>
+      <c r="AC326" s="73"/>
+      <c r="AD326" s="73"/>
+      <c r="AE326" s="73"/>
+      <c r="AF326" s="73"/>
+      <c r="AG326" s="73"/>
+    </row>
+    <row r="327" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D327" s="15"/>
+      <c r="E327" s="26"/>
+      <c r="F327" s="27"/>
+      <c r="G327" s="27"/>
+      <c r="H327" s="27"/>
+      <c r="I327" s="27"/>
+      <c r="J327" s="27"/>
+      <c r="K327" s="27"/>
+      <c r="L327" s="28"/>
+      <c r="M327" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="N298" s="47"/>
-      <c r="O298" s="47"/>
-      <c r="P298" s="47"/>
-      <c r="Q298" s="47"/>
-      <c r="R298" s="47"/>
-      <c r="S298" s="47"/>
-      <c r="T298" s="47" t="s">
+      <c r="N327" s="69"/>
+      <c r="O327" s="69"/>
+      <c r="P327" s="69"/>
+      <c r="Q327" s="69"/>
+      <c r="R327" s="69"/>
+      <c r="S327" s="69"/>
+      <c r="T327" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="U298" s="47"/>
-      <c r="V298" s="47"/>
-      <c r="W298" s="47"/>
-      <c r="X298" s="47"/>
-      <c r="Y298" s="47"/>
-      <c r="Z298" s="47"/>
-      <c r="AA298" s="47"/>
-      <c r="AB298" s="47" t="s">
+      <c r="U327" s="69"/>
+      <c r="V327" s="69"/>
+      <c r="W327" s="69"/>
+      <c r="X327" s="69"/>
+      <c r="Y327" s="69"/>
+      <c r="Z327" s="69"/>
+      <c r="AA327" s="69"/>
+      <c r="AB327" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="AC298" s="47"/>
-      <c r="AD298" s="47"/>
-      <c r="AE298" s="47"/>
-      <c r="AF298" s="47"/>
-      <c r="AG298" s="47"/>
-    </row>
-    <row r="299" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D299" s="15"/>
-      <c r="E299" s="69" t="s">
+      <c r="AC327" s="69"/>
+      <c r="AD327" s="69"/>
+      <c r="AE327" s="69"/>
+      <c r="AF327" s="69"/>
+      <c r="AG327" s="69"/>
+    </row>
+    <row r="328" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D328" s="15"/>
+      <c r="E328" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="F299" s="69"/>
-      <c r="G299" s="69"/>
-      <c r="H299" s="69"/>
-      <c r="I299" s="69"/>
-      <c r="J299" s="69"/>
-      <c r="K299" s="48" t="s">
+      <c r="F328" s="66"/>
+      <c r="G328" s="66"/>
+      <c r="H328" s="66"/>
+      <c r="I328" s="66"/>
+      <c r="J328" s="66"/>
+      <c r="K328" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="L299" s="49"/>
-      <c r="M299" s="42" t="s">
+      <c r="L328" s="71"/>
+      <c r="M328" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="N299" s="42"/>
-      <c r="O299" s="42"/>
-      <c r="P299" s="42"/>
-      <c r="Q299" s="42"/>
-      <c r="R299" s="42"/>
-      <c r="S299" s="42"/>
-      <c r="T299" s="59" t="s">
+      <c r="N328" s="95"/>
+      <c r="O328" s="95"/>
+      <c r="P328" s="95"/>
+      <c r="Q328" s="95"/>
+      <c r="R328" s="95"/>
+      <c r="S328" s="95"/>
+      <c r="T328" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="U299" s="60"/>
-      <c r="V299" s="60"/>
-      <c r="W299" s="60"/>
-      <c r="X299" s="60"/>
-      <c r="Y299" s="60"/>
-      <c r="Z299" s="60"/>
-      <c r="AA299" s="61"/>
-      <c r="AB299" s="50" t="s">
+      <c r="U328" s="84"/>
+      <c r="V328" s="84"/>
+      <c r="W328" s="84"/>
+      <c r="X328" s="84"/>
+      <c r="Y328" s="84"/>
+      <c r="Z328" s="84"/>
+      <c r="AA328" s="85"/>
+      <c r="AB328" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="AC299" s="51"/>
-      <c r="AD299" s="51"/>
-      <c r="AE299" s="51"/>
-      <c r="AF299" s="51"/>
-      <c r="AG299" s="52"/>
-    </row>
-    <row r="300" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D300" s="15"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="70"/>
-      <c r="H300" s="70"/>
-      <c r="I300" s="70"/>
-      <c r="J300" s="70"/>
-      <c r="K300" s="48" t="s">
+      <c r="AC328" s="75"/>
+      <c r="AD328" s="75"/>
+      <c r="AE328" s="75"/>
+      <c r="AF328" s="75"/>
+      <c r="AG328" s="76"/>
+    </row>
+    <row r="329" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D329" s="15"/>
+      <c r="E329" s="67"/>
+      <c r="F329" s="67"/>
+      <c r="G329" s="67"/>
+      <c r="H329" s="67"/>
+      <c r="I329" s="67"/>
+      <c r="J329" s="67"/>
+      <c r="K329" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="L300" s="49"/>
-      <c r="M300" s="42" t="s">
+      <c r="L329" s="71"/>
+      <c r="M329" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="N300" s="42"/>
-      <c r="O300" s="42"/>
-      <c r="P300" s="42"/>
-      <c r="Q300" s="42"/>
-      <c r="R300" s="42"/>
-      <c r="S300" s="42"/>
-      <c r="T300" s="62"/>
-      <c r="U300" s="63"/>
-      <c r="V300" s="63"/>
-      <c r="W300" s="63"/>
-      <c r="X300" s="63"/>
-      <c r="Y300" s="63"/>
-      <c r="Z300" s="63"/>
-      <c r="AA300" s="64"/>
-      <c r="AB300" s="53"/>
-      <c r="AC300" s="54"/>
-      <c r="AD300" s="54"/>
-      <c r="AE300" s="54"/>
-      <c r="AF300" s="54"/>
-      <c r="AG300" s="55"/>
-    </row>
-    <row r="301" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D301" s="15"/>
-      <c r="E301" s="70"/>
-      <c r="F301" s="70"/>
-      <c r="G301" s="70"/>
-      <c r="H301" s="70"/>
-      <c r="I301" s="70"/>
-      <c r="J301" s="70"/>
-      <c r="K301" s="48" t="s">
+      <c r="N329" s="95"/>
+      <c r="O329" s="95"/>
+      <c r="P329" s="95"/>
+      <c r="Q329" s="95"/>
+      <c r="R329" s="95"/>
+      <c r="S329" s="95"/>
+      <c r="T329" s="86"/>
+      <c r="U329" s="87"/>
+      <c r="V329" s="87"/>
+      <c r="W329" s="87"/>
+      <c r="X329" s="87"/>
+      <c r="Y329" s="87"/>
+      <c r="Z329" s="87"/>
+      <c r="AA329" s="88"/>
+      <c r="AB329" s="77"/>
+      <c r="AC329" s="78"/>
+      <c r="AD329" s="78"/>
+      <c r="AE329" s="78"/>
+      <c r="AF329" s="78"/>
+      <c r="AG329" s="79"/>
+    </row>
+    <row r="330" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D330" s="15"/>
+      <c r="E330" s="67"/>
+      <c r="F330" s="67"/>
+      <c r="G330" s="67"/>
+      <c r="H330" s="67"/>
+      <c r="I330" s="67"/>
+      <c r="J330" s="67"/>
+      <c r="K330" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="L301" s="49"/>
-      <c r="M301" s="42" t="s">
+      <c r="L330" s="71"/>
+      <c r="M330" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="N301" s="42"/>
-      <c r="O301" s="42"/>
-      <c r="P301" s="42"/>
-      <c r="Q301" s="42"/>
-      <c r="R301" s="42"/>
-      <c r="S301" s="42"/>
-      <c r="T301" s="62"/>
-      <c r="U301" s="63"/>
-      <c r="V301" s="63"/>
-      <c r="W301" s="63"/>
-      <c r="X301" s="63"/>
-      <c r="Y301" s="63"/>
-      <c r="Z301" s="63"/>
-      <c r="AA301" s="64"/>
-      <c r="AB301" s="53"/>
-      <c r="AC301" s="54"/>
-      <c r="AD301" s="54"/>
-      <c r="AE301" s="54"/>
-      <c r="AF301" s="54"/>
-      <c r="AG301" s="55"/>
-    </row>
-    <row r="302" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D302" s="15"/>
-      <c r="E302" s="71"/>
-      <c r="F302" s="71"/>
-      <c r="G302" s="71"/>
-      <c r="H302" s="71"/>
-      <c r="I302" s="71"/>
-      <c r="J302" s="71"/>
-      <c r="K302" s="48" t="s">
+      <c r="N330" s="95"/>
+      <c r="O330" s="95"/>
+      <c r="P330" s="95"/>
+      <c r="Q330" s="95"/>
+      <c r="R330" s="95"/>
+      <c r="S330" s="95"/>
+      <c r="T330" s="86"/>
+      <c r="U330" s="87"/>
+      <c r="V330" s="87"/>
+      <c r="W330" s="87"/>
+      <c r="X330" s="87"/>
+      <c r="Y330" s="87"/>
+      <c r="Z330" s="87"/>
+      <c r="AA330" s="88"/>
+      <c r="AB330" s="77"/>
+      <c r="AC330" s="78"/>
+      <c r="AD330" s="78"/>
+      <c r="AE330" s="78"/>
+      <c r="AF330" s="78"/>
+      <c r="AG330" s="79"/>
+    </row>
+    <row r="331" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D331" s="15"/>
+      <c r="E331" s="68"/>
+      <c r="F331" s="68"/>
+      <c r="G331" s="68"/>
+      <c r="H331" s="68"/>
+      <c r="I331" s="68"/>
+      <c r="J331" s="68"/>
+      <c r="K331" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="L302" s="49"/>
-      <c r="M302" s="42" t="s">
+      <c r="L331" s="71"/>
+      <c r="M331" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="N302" s="42"/>
-      <c r="O302" s="42"/>
-      <c r="P302" s="42"/>
-      <c r="Q302" s="42"/>
-      <c r="R302" s="42"/>
-      <c r="S302" s="42"/>
-      <c r="T302" s="65"/>
-      <c r="U302" s="66"/>
-      <c r="V302" s="66"/>
-      <c r="W302" s="66"/>
-      <c r="X302" s="66"/>
-      <c r="Y302" s="66"/>
-      <c r="Z302" s="66"/>
-      <c r="AA302" s="67"/>
-      <c r="AB302" s="56"/>
-      <c r="AC302" s="57"/>
-      <c r="AD302" s="57"/>
-      <c r="AE302" s="57"/>
-      <c r="AF302" s="57"/>
-      <c r="AG302" s="58"/>
-    </row>
-    <row r="303" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D303" s="15"/>
-      <c r="E303" s="48" t="s">
+      <c r="N331" s="95"/>
+      <c r="O331" s="95"/>
+      <c r="P331" s="95"/>
+      <c r="Q331" s="95"/>
+      <c r="R331" s="95"/>
+      <c r="S331" s="95"/>
+      <c r="T331" s="89"/>
+      <c r="U331" s="90"/>
+      <c r="V331" s="90"/>
+      <c r="W331" s="90"/>
+      <c r="X331" s="90"/>
+      <c r="Y331" s="90"/>
+      <c r="Z331" s="90"/>
+      <c r="AA331" s="91"/>
+      <c r="AB331" s="80"/>
+      <c r="AC331" s="81"/>
+      <c r="AD331" s="81"/>
+      <c r="AE331" s="81"/>
+      <c r="AF331" s="81"/>
+      <c r="AG331" s="82"/>
+    </row>
+    <row r="332" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D332" s="15"/>
+      <c r="E332" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="F303" s="68"/>
-      <c r="G303" s="68"/>
-      <c r="H303" s="68"/>
-      <c r="I303" s="68"/>
-      <c r="J303" s="68"/>
-      <c r="K303" s="68"/>
-      <c r="L303" s="49"/>
-      <c r="M303" s="42" t="s">
+      <c r="F332" s="72"/>
+      <c r="G332" s="72"/>
+      <c r="H332" s="72"/>
+      <c r="I332" s="72"/>
+      <c r="J332" s="72"/>
+      <c r="K332" s="72"/>
+      <c r="L332" s="71"/>
+      <c r="M332" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="N303" s="42"/>
-      <c r="O303" s="42"/>
-      <c r="P303" s="42"/>
-      <c r="Q303" s="42"/>
-      <c r="R303" s="42"/>
-      <c r="S303" s="42"/>
-      <c r="T303" s="43" t="s">
+      <c r="N332" s="95"/>
+      <c r="O332" s="95"/>
+      <c r="P332" s="95"/>
+      <c r="Q332" s="95"/>
+      <c r="R332" s="95"/>
+      <c r="S332" s="95"/>
+      <c r="T332" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="U303" s="44"/>
-      <c r="V303" s="44"/>
-      <c r="W303" s="44"/>
-      <c r="X303" s="44"/>
-      <c r="Y303" s="44"/>
-      <c r="Z303" s="44"/>
-      <c r="AA303" s="45"/>
-      <c r="AB303" s="42" t="s">
+      <c r="U332" s="97"/>
+      <c r="V332" s="97"/>
+      <c r="W332" s="97"/>
+      <c r="X332" s="97"/>
+      <c r="Y332" s="97"/>
+      <c r="Z332" s="97"/>
+      <c r="AA332" s="98"/>
+      <c r="AB332" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="AC303" s="42"/>
-      <c r="AD303" s="42"/>
-      <c r="AE303" s="42"/>
-      <c r="AF303" s="42"/>
-      <c r="AG303" s="42"/>
-    </row>
-    <row r="304" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D304" s="15"/>
-      <c r="E304" s="48" t="s">
+      <c r="AC332" s="95"/>
+      <c r="AD332" s="95"/>
+      <c r="AE332" s="95"/>
+      <c r="AF332" s="95"/>
+      <c r="AG332" s="95"/>
+    </row>
+    <row r="333" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D333" s="15"/>
+      <c r="E333" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="F304" s="68"/>
-      <c r="G304" s="68"/>
-      <c r="H304" s="68"/>
-      <c r="I304" s="68"/>
-      <c r="J304" s="68"/>
-      <c r="K304" s="68"/>
-      <c r="L304" s="49"/>
-      <c r="M304" s="42" t="s">
+      <c r="F333" s="72"/>
+      <c r="G333" s="72"/>
+      <c r="H333" s="72"/>
+      <c r="I333" s="72"/>
+      <c r="J333" s="72"/>
+      <c r="K333" s="72"/>
+      <c r="L333" s="71"/>
+      <c r="M333" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="N304" s="42"/>
-      <c r="O304" s="42"/>
-      <c r="P304" s="42"/>
-      <c r="Q304" s="42"/>
-      <c r="R304" s="42"/>
-      <c r="S304" s="42"/>
-      <c r="T304" s="42" t="s">
+      <c r="N333" s="95"/>
+      <c r="O333" s="95"/>
+      <c r="P333" s="95"/>
+      <c r="Q333" s="95"/>
+      <c r="R333" s="95"/>
+      <c r="S333" s="95"/>
+      <c r="T333" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="U304" s="42"/>
-      <c r="V304" s="42"/>
-      <c r="W304" s="42"/>
-      <c r="X304" s="42"/>
-      <c r="Y304" s="42"/>
-      <c r="Z304" s="42"/>
-      <c r="AA304" s="42"/>
-      <c r="AB304" s="42" t="s">
+      <c r="U333" s="95"/>
+      <c r="V333" s="95"/>
+      <c r="W333" s="95"/>
+      <c r="X333" s="95"/>
+      <c r="Y333" s="95"/>
+      <c r="Z333" s="95"/>
+      <c r="AA333" s="95"/>
+      <c r="AB333" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="AC304" s="42"/>
-      <c r="AD304" s="42"/>
-      <c r="AE304" s="42"/>
-      <c r="AF304" s="42"/>
-      <c r="AG304" s="42"/>
-    </row>
-    <row r="305" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D305" s="15"/>
-      <c r="E305" s="69" t="s">
+      <c r="AC333" s="95"/>
+      <c r="AD333" s="95"/>
+      <c r="AE333" s="95"/>
+      <c r="AF333" s="95"/>
+      <c r="AG333" s="95"/>
+    </row>
+    <row r="334" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D334" s="15"/>
+      <c r="E334" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="F305" s="69"/>
-      <c r="G305" s="69"/>
-      <c r="H305" s="69"/>
-      <c r="I305" s="69"/>
-      <c r="J305" s="69"/>
-      <c r="K305" s="48" t="s">
+      <c r="F334" s="66"/>
+      <c r="G334" s="66"/>
+      <c r="H334" s="66"/>
+      <c r="I334" s="66"/>
+      <c r="J334" s="66"/>
+      <c r="K334" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="L305" s="49"/>
-      <c r="M305" s="39" t="s">
+      <c r="L334" s="71"/>
+      <c r="M334" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="N305" s="40"/>
-      <c r="O305" s="40"/>
-      <c r="P305" s="40"/>
-      <c r="Q305" s="40"/>
-      <c r="R305" s="40"/>
-      <c r="S305" s="41"/>
-      <c r="T305" s="39" t="s">
+      <c r="N334" s="93"/>
+      <c r="O334" s="93"/>
+      <c r="P334" s="93"/>
+      <c r="Q334" s="93"/>
+      <c r="R334" s="93"/>
+      <c r="S334" s="94"/>
+      <c r="T334" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="U305" s="40"/>
-      <c r="V305" s="40"/>
-      <c r="W305" s="40"/>
-      <c r="X305" s="40"/>
-      <c r="Y305" s="40"/>
-      <c r="Z305" s="40"/>
-      <c r="AA305" s="40"/>
-      <c r="AB305" s="40"/>
-      <c r="AC305" s="40"/>
-      <c r="AD305" s="40"/>
-      <c r="AE305" s="40"/>
-      <c r="AF305" s="40"/>
-      <c r="AG305" s="41"/>
-    </row>
-    <row r="306" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="15"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="70"/>
-      <c r="J306" s="70"/>
-      <c r="K306" s="48" t="s">
+      <c r="U334" s="93"/>
+      <c r="V334" s="93"/>
+      <c r="W334" s="93"/>
+      <c r="X334" s="93"/>
+      <c r="Y334" s="93"/>
+      <c r="Z334" s="93"/>
+      <c r="AA334" s="93"/>
+      <c r="AB334" s="93"/>
+      <c r="AC334" s="93"/>
+      <c r="AD334" s="93"/>
+      <c r="AE334" s="93"/>
+      <c r="AF334" s="93"/>
+      <c r="AG334" s="94"/>
+    </row>
+    <row r="335" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D335" s="15"/>
+      <c r="E335" s="67"/>
+      <c r="F335" s="67"/>
+      <c r="G335" s="67"/>
+      <c r="H335" s="67"/>
+      <c r="I335" s="67"/>
+      <c r="J335" s="67"/>
+      <c r="K335" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="L306" s="49"/>
-      <c r="M306" s="39"/>
-      <c r="N306" s="40"/>
-      <c r="O306" s="40"/>
-      <c r="P306" s="40"/>
-      <c r="Q306" s="40"/>
-      <c r="R306" s="40"/>
-      <c r="S306" s="41"/>
-      <c r="T306" s="39"/>
-      <c r="U306" s="40"/>
-      <c r="V306" s="40"/>
-      <c r="W306" s="40"/>
-      <c r="X306" s="40"/>
-      <c r="Y306" s="40"/>
-      <c r="Z306" s="40"/>
-      <c r="AA306" s="40"/>
-      <c r="AB306" s="40"/>
-      <c r="AC306" s="40"/>
-      <c r="AD306" s="40"/>
-      <c r="AE306" s="40"/>
-      <c r="AF306" s="40"/>
-      <c r="AG306" s="41"/>
-    </row>
-    <row r="307" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D307" s="15"/>
-      <c r="E307" s="71"/>
-      <c r="F307" s="71"/>
-      <c r="G307" s="71"/>
-      <c r="H307" s="71"/>
-      <c r="I307" s="71"/>
-      <c r="J307" s="71"/>
-      <c r="K307" s="48" t="s">
+      <c r="L335" s="71"/>
+      <c r="M335" s="92"/>
+      <c r="N335" s="93"/>
+      <c r="O335" s="93"/>
+      <c r="P335" s="93"/>
+      <c r="Q335" s="93"/>
+      <c r="R335" s="93"/>
+      <c r="S335" s="94"/>
+      <c r="T335" s="92"/>
+      <c r="U335" s="93"/>
+      <c r="V335" s="93"/>
+      <c r="W335" s="93"/>
+      <c r="X335" s="93"/>
+      <c r="Y335" s="93"/>
+      <c r="Z335" s="93"/>
+      <c r="AA335" s="93"/>
+      <c r="AB335" s="93"/>
+      <c r="AC335" s="93"/>
+      <c r="AD335" s="93"/>
+      <c r="AE335" s="93"/>
+      <c r="AF335" s="93"/>
+      <c r="AG335" s="94"/>
+    </row>
+    <row r="336" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D336" s="15"/>
+      <c r="E336" s="68"/>
+      <c r="F336" s="68"/>
+      <c r="G336" s="68"/>
+      <c r="H336" s="68"/>
+      <c r="I336" s="68"/>
+      <c r="J336" s="68"/>
+      <c r="K336" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="L307" s="49"/>
-      <c r="M307" s="39"/>
-      <c r="N307" s="40"/>
-      <c r="O307" s="40"/>
-      <c r="P307" s="40"/>
-      <c r="Q307" s="40"/>
-      <c r="R307" s="40"/>
-      <c r="S307" s="41"/>
-      <c r="T307" s="39"/>
-      <c r="U307" s="40"/>
-      <c r="V307" s="40"/>
-      <c r="W307" s="40"/>
-      <c r="X307" s="40"/>
-      <c r="Y307" s="40"/>
-      <c r="Z307" s="40"/>
-      <c r="AA307" s="40"/>
-      <c r="AB307" s="40"/>
-      <c r="AC307" s="40"/>
-      <c r="AD307" s="40"/>
-      <c r="AE307" s="40"/>
-      <c r="AF307" s="40"/>
-      <c r="AG307" s="41"/>
-    </row>
-    <row r="308" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D308" s="15"/>
-    </row>
-    <row r="309" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D309" s="15"/>
-    </row>
-    <row r="310" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D310" s="15"/>
-    </row>
-    <row r="311" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L336" s="71"/>
+      <c r="M336" s="92"/>
+      <c r="N336" s="93"/>
+      <c r="O336" s="93"/>
+      <c r="P336" s="93"/>
+      <c r="Q336" s="93"/>
+      <c r="R336" s="93"/>
+      <c r="S336" s="94"/>
+      <c r="T336" s="92"/>
+      <c r="U336" s="93"/>
+      <c r="V336" s="93"/>
+      <c r="W336" s="93"/>
+      <c r="X336" s="93"/>
+      <c r="Y336" s="93"/>
+      <c r="Z336" s="93"/>
+      <c r="AA336" s="93"/>
+      <c r="AB336" s="93"/>
+      <c r="AC336" s="93"/>
+      <c r="AD336" s="93"/>
+      <c r="AE336" s="93"/>
+      <c r="AF336" s="93"/>
+      <c r="AG336" s="94"/>
+    </row>
+    <row r="337" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D337" s="15"/>
+    </row>
+    <row r="338" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D338" s="15"/>
+    </row>
+    <row r="339" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D339" s="15"/>
+    </row>
+    <row r="340" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6287,8 +7081,102 @@
     <row r="739" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="740" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="741" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="78">
+    <mergeCell ref="I304:M304"/>
+    <mergeCell ref="H305:H308"/>
+    <mergeCell ref="H298:J298"/>
+    <mergeCell ref="K298:U298"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="K299:U299"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="K300:U300"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="K293:U293"/>
+    <mergeCell ref="H294:J294"/>
+    <mergeCell ref="K294:U294"/>
+    <mergeCell ref="H297:J297"/>
+    <mergeCell ref="K297:U297"/>
+    <mergeCell ref="H290:J290"/>
+    <mergeCell ref="K290:U290"/>
+    <mergeCell ref="H291:J291"/>
+    <mergeCell ref="K291:U291"/>
+    <mergeCell ref="H292:J292"/>
+    <mergeCell ref="K292:U292"/>
+    <mergeCell ref="H285:K285"/>
+    <mergeCell ref="L285:AA286"/>
+    <mergeCell ref="H286:K286"/>
+    <mergeCell ref="H287:K287"/>
+    <mergeCell ref="L287:AA287"/>
+    <mergeCell ref="H282:K282"/>
+    <mergeCell ref="L282:AA282"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="L283:AA284"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="M334:S336"/>
+    <mergeCell ref="T334:AG336"/>
+    <mergeCell ref="M328:S328"/>
+    <mergeCell ref="M329:S329"/>
+    <mergeCell ref="M331:S331"/>
+    <mergeCell ref="M332:S332"/>
+    <mergeCell ref="M333:S333"/>
+    <mergeCell ref="AB332:AG332"/>
+    <mergeCell ref="AB333:AG333"/>
+    <mergeCell ref="T332:AA332"/>
+    <mergeCell ref="T333:AA333"/>
+    <mergeCell ref="M330:S330"/>
+    <mergeCell ref="T326:AG326"/>
+    <mergeCell ref="M326:S326"/>
+    <mergeCell ref="K328:L328"/>
+    <mergeCell ref="K329:L329"/>
+    <mergeCell ref="K331:L331"/>
+    <mergeCell ref="AB327:AG327"/>
+    <mergeCell ref="T327:AA327"/>
+    <mergeCell ref="AB328:AG331"/>
+    <mergeCell ref="T328:AA331"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="K334:L334"/>
+    <mergeCell ref="K335:L335"/>
+    <mergeCell ref="K336:L336"/>
+    <mergeCell ref="E332:L332"/>
+    <mergeCell ref="E333:L333"/>
+    <mergeCell ref="E334:J334"/>
+    <mergeCell ref="E335:J335"/>
+    <mergeCell ref="E336:J336"/>
+    <mergeCell ref="E328:J328"/>
+    <mergeCell ref="E329:J329"/>
+    <mergeCell ref="E331:J331"/>
+    <mergeCell ref="M327:S327"/>
+    <mergeCell ref="E330:J330"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -6302,41 +7190,6 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E299:J299"/>
-    <mergeCell ref="E300:J300"/>
-    <mergeCell ref="E302:J302"/>
-    <mergeCell ref="M298:S298"/>
-    <mergeCell ref="E301:J301"/>
-    <mergeCell ref="K305:L305"/>
-    <mergeCell ref="K306:L306"/>
-    <mergeCell ref="K307:L307"/>
-    <mergeCell ref="E303:L303"/>
-    <mergeCell ref="E304:L304"/>
-    <mergeCell ref="E305:J305"/>
-    <mergeCell ref="E306:J306"/>
-    <mergeCell ref="E307:J307"/>
-    <mergeCell ref="T297:AG297"/>
-    <mergeCell ref="M297:S297"/>
-    <mergeCell ref="K299:L299"/>
-    <mergeCell ref="K300:L300"/>
-    <mergeCell ref="K302:L302"/>
-    <mergeCell ref="AB298:AG298"/>
-    <mergeCell ref="T298:AA298"/>
-    <mergeCell ref="AB299:AG302"/>
-    <mergeCell ref="T299:AA302"/>
-    <mergeCell ref="K301:L301"/>
-    <mergeCell ref="M305:S307"/>
-    <mergeCell ref="T305:AG307"/>
-    <mergeCell ref="M299:S299"/>
-    <mergeCell ref="M300:S300"/>
-    <mergeCell ref="M302:S302"/>
-    <mergeCell ref="M303:S303"/>
-    <mergeCell ref="M304:S304"/>
-    <mergeCell ref="AB303:AG303"/>
-    <mergeCell ref="AB304:AG304"/>
-    <mergeCell ref="T303:AA303"/>
-    <mergeCell ref="T304:AA304"/>
-    <mergeCell ref="M301:S301"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6349,14 +7202,15 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <rowBreaks count="7" manualBreakCount="7">
+  <rowBreaks count="8" manualBreakCount="8">
     <brk id="42" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
     <brk id="114" max="34" man="1"/>
     <brk id="150" max="34" man="1"/>
     <brk id="191" max="34" man="1"/>
     <brk id="233" max="34" man="1"/>
-    <brk id="280" max="34" man="1"/>
+    <brk id="275" max="34" man="1"/>
+    <brk id="309" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAE0C9B-5C39-4E93-8A25-103C147E590F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE662F-744A-4A4B-8583-11AC3595D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="7.5.認証・認可" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$339</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="190">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -649,25 +649,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザ、グループ毎の許可単位設定は定義しない。</t>
-    <rPh sb="8" eb="9">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>認証チェックシーケンス</t>
     <rPh sb="0" eb="2">
       <t>ニンショウ</t>
@@ -1919,6 +1900,44 @@
     <t>×：不許可</t>
     <rPh sb="2" eb="5">
       <t>フキョカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なお、ユーザ、グループ毎の許可単位設定は定義しない。</t>
+    <rPh sb="11" eb="12">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ただし、ページで表示するデータはそのユーザのデータのみとなるように各機能で表示データを制御する。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2326,6 +2345,117 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2400,117 +2530,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2906,13 +2925,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3473,7 +3492,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI770"/>
+  <dimension ref="A1:AI771"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3489,43 +3508,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="R1" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="89"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="83"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3534,43 +3553,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="61"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="98"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="46"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="83"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3579,39 +3598,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="64"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="101"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="83"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3655,12 +3674,12 @@
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3754,12 +3773,12 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
@@ -3794,7 +3813,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="31"/>
       <c r="N19" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
@@ -3827,7 +3846,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="31"/>
       <c r="N20" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
@@ -3883,17 +3902,17 @@
     </row>
     <row r="22" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
@@ -3928,7 +3947,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="31"/>
       <c r="N23" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
@@ -3962,7 +3981,7 @@
       <c r="M24" s="31"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
@@ -3995,7 +4014,7 @@
       <c r="M25" s="31"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
@@ -4058,7 +4077,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="31"/>
       <c r="N27" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
@@ -4092,7 +4111,7 @@
       <c r="M28" s="31"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
@@ -4228,25 +4247,25 @@
     <row r="34" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="15"/>
       <c r="G34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="15"/>
       <c r="G36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="15"/>
       <c r="G37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4273,7 +4292,7 @@
     <row r="43" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>41</v>
@@ -4357,19 +4376,19 @@
         <v>37</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="15"/>
       <c r="H62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="15"/>
       <c r="H63" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4512,19 +4531,19 @@
         <v>29</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4536,13 +4555,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4551,16 +4570,16 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4575,16 +4594,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4599,19 +4618,19 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15"/>
       <c r="H116" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15"/>
       <c r="H117" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4620,7 +4639,7 @@
     <row r="119" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="15"/>
       <c r="H119" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>41</v>
@@ -4629,19 +4648,19 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="15"/>
       <c r="I121" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4687,22 +4706,22 @@
     <row r="136" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="15"/>
       <c r="H136" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="15"/>
       <c r="I137" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="15"/>
       <c r="I138" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4744,7 +4763,7 @@
     <row r="151" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="15"/>
       <c r="H151" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>34</v>
@@ -4753,7 +4772,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4804,7 +4823,7 @@
     <row r="168" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>35</v>
@@ -4813,7 +4832,7 @@
     <row r="169" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="15"/>
       <c r="I169" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>36</v>
@@ -4822,7 +4841,7 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4834,19 +4853,19 @@
         <v>32</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
       <c r="H173" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
       <c r="H174" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4855,7 +4874,7 @@
     <row r="176" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="15"/>
       <c r="H176" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>41</v>
@@ -4864,19 +4883,19 @@
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
       <c r="I177" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
       <c r="I178" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4918,16 +4937,16 @@
     <row r="192" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="15"/>
       <c r="H192" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="15"/>
       <c r="I193" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="194" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4942,7 +4961,7 @@
     <row r="197" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="15"/>
       <c r="H197" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>34</v>
@@ -4951,7 +4970,7 @@
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
       <c r="I198" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5029,7 +5048,7 @@
     <row r="223" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="15"/>
       <c r="H223" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>35</v>
@@ -5038,7 +5057,7 @@
     <row r="224" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="15"/>
       <c r="I224" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>36</v>
@@ -5068,16 +5087,16 @@
     <row r="229" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="15"/>
       <c r="I229" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
       <c r="J230" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5208,7 +5227,7 @@
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
       <c r="J242" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K242" s="19"/>
       <c r="L242" s="19"/>
@@ -5245,7 +5264,7 @@
       <c r="H243" s="30"/>
       <c r="I243" s="30"/>
       <c r="J243" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K243" s="36"/>
       <c r="L243" s="36"/>
@@ -5254,7 +5273,7 @@
       <c r="O243" s="36"/>
       <c r="P243" s="37"/>
       <c r="Q243" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R243" s="30"/>
       <c r="S243" s="30"/>
@@ -5338,13 +5357,13 @@
     </row>
     <row r="246" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F246" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G246" s="36"/>
       <c r="H246" s="36"/>
       <c r="I246" s="36"/>
       <c r="J246" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K246" s="36"/>
       <c r="L246" s="36"/>
@@ -5353,7 +5372,7 @@
       <c r="O246" s="36"/>
       <c r="P246" s="37"/>
       <c r="Q246" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R246" s="36"/>
       <c r="S246" s="36"/>
@@ -5515,7 +5534,7 @@
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="254" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5577,7 +5596,7 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="G267" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5588,7 +5607,7 @@
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="G269" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5609,597 +5628,600 @@
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="273" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="G273" s="4" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
     </row>
     <row r="274" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="G274" s="4" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="275" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
+      <c r="G275" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="276" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
-      <c r="F276" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="277" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
+      <c r="F277" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="G277" s="4" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
     </row>
     <row r="278" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="G278" s="4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="279" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="G279" s="4" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
+      <c r="G280" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="281" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
-      <c r="G281" s="22" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="282" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="H282" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="I282" s="69"/>
-      <c r="J282" s="69"/>
-      <c r="K282" s="69"/>
-      <c r="L282" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="M282" s="69"/>
-      <c r="N282" s="69"/>
-      <c r="O282" s="69"/>
-      <c r="P282" s="69"/>
-      <c r="Q282" s="69"/>
-      <c r="R282" s="69"/>
-      <c r="S282" s="69"/>
-      <c r="T282" s="69"/>
-      <c r="U282" s="69"/>
-      <c r="V282" s="69"/>
-      <c r="W282" s="69"/>
-      <c r="X282" s="69"/>
-      <c r="Y282" s="69"/>
-      <c r="Z282" s="69"/>
-      <c r="AA282" s="69"/>
+      <c r="G282" s="22" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="283" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-      <c r="H283" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="I283" s="99"/>
-      <c r="J283" s="99"/>
-      <c r="K283" s="99"/>
-      <c r="L283" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="M283" s="99"/>
-      <c r="N283" s="99"/>
-      <c r="O283" s="99"/>
-      <c r="P283" s="99"/>
-      <c r="Q283" s="99"/>
-      <c r="R283" s="99"/>
-      <c r="S283" s="99"/>
-      <c r="T283" s="99"/>
-      <c r="U283" s="99"/>
-      <c r="V283" s="99"/>
-      <c r="W283" s="99"/>
-      <c r="X283" s="99"/>
-      <c r="Y283" s="99"/>
-      <c r="Z283" s="99"/>
-      <c r="AA283" s="99"/>
+      <c r="H283" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="I283" s="46"/>
+      <c r="J283" s="46"/>
+      <c r="K283" s="46"/>
+      <c r="L283" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="M283" s="46"/>
+      <c r="N283" s="46"/>
+      <c r="O283" s="46"/>
+      <c r="P283" s="46"/>
+      <c r="Q283" s="46"/>
+      <c r="R283" s="46"/>
+      <c r="S283" s="46"/>
+      <c r="T283" s="46"/>
+      <c r="U283" s="46"/>
+      <c r="V283" s="46"/>
+      <c r="W283" s="46"/>
+      <c r="X283" s="46"/>
+      <c r="Y283" s="46"/>
+      <c r="Z283" s="46"/>
+      <c r="AA283" s="46"/>
     </row>
     <row r="284" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-      <c r="H284" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="I284" s="99"/>
-      <c r="J284" s="99"/>
-      <c r="K284" s="99"/>
-      <c r="L284" s="99"/>
-      <c r="M284" s="99"/>
-      <c r="N284" s="99"/>
-      <c r="O284" s="99"/>
-      <c r="P284" s="99"/>
-      <c r="Q284" s="99"/>
-      <c r="R284" s="99"/>
-      <c r="S284" s="99"/>
-      <c r="T284" s="99"/>
-      <c r="U284" s="99"/>
-      <c r="V284" s="99"/>
-      <c r="W284" s="99"/>
-      <c r="X284" s="99"/>
-      <c r="Y284" s="99"/>
-      <c r="Z284" s="99"/>
-      <c r="AA284" s="99"/>
+      <c r="H284" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="I284" s="45"/>
+      <c r="J284" s="45"/>
+      <c r="K284" s="45"/>
+      <c r="L284" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="M284" s="45"/>
+      <c r="N284" s="45"/>
+      <c r="O284" s="45"/>
+      <c r="P284" s="45"/>
+      <c r="Q284" s="45"/>
+      <c r="R284" s="45"/>
+      <c r="S284" s="45"/>
+      <c r="T284" s="45"/>
+      <c r="U284" s="45"/>
+      <c r="V284" s="45"/>
+      <c r="W284" s="45"/>
+      <c r="X284" s="45"/>
+      <c r="Y284" s="45"/>
+      <c r="Z284" s="45"/>
+      <c r="AA284" s="45"/>
     </row>
     <row r="285" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-      <c r="H285" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="I285" s="99"/>
-      <c r="J285" s="99"/>
-      <c r="K285" s="99"/>
-      <c r="L285" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="M285" s="99"/>
-      <c r="N285" s="99"/>
-      <c r="O285" s="99"/>
-      <c r="P285" s="99"/>
-      <c r="Q285" s="99"/>
-      <c r="R285" s="99"/>
-      <c r="S285" s="99"/>
-      <c r="T285" s="99"/>
-      <c r="U285" s="99"/>
-      <c r="V285" s="99"/>
-      <c r="W285" s="99"/>
-      <c r="X285" s="99"/>
-      <c r="Y285" s="99"/>
-      <c r="Z285" s="99"/>
-      <c r="AA285" s="99"/>
+      <c r="H285" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="I285" s="45"/>
+      <c r="J285" s="45"/>
+      <c r="K285" s="45"/>
+      <c r="L285" s="45"/>
+      <c r="M285" s="45"/>
+      <c r="N285" s="45"/>
+      <c r="O285" s="45"/>
+      <c r="P285" s="45"/>
+      <c r="Q285" s="45"/>
+      <c r="R285" s="45"/>
+      <c r="S285" s="45"/>
+      <c r="T285" s="45"/>
+      <c r="U285" s="45"/>
+      <c r="V285" s="45"/>
+      <c r="W285" s="45"/>
+      <c r="X285" s="45"/>
+      <c r="Y285" s="45"/>
+      <c r="Z285" s="45"/>
+      <c r="AA285" s="45"/>
     </row>
     <row r="286" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-      <c r="H286" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="I286" s="99"/>
-      <c r="J286" s="99"/>
-      <c r="K286" s="99"/>
-      <c r="L286" s="99"/>
-      <c r="M286" s="99"/>
-      <c r="N286" s="99"/>
-      <c r="O286" s="99"/>
-      <c r="P286" s="99"/>
-      <c r="Q286" s="99"/>
-      <c r="R286" s="99"/>
-      <c r="S286" s="99"/>
-      <c r="T286" s="99"/>
-      <c r="U286" s="99"/>
-      <c r="V286" s="99"/>
-      <c r="W286" s="99"/>
-      <c r="X286" s="99"/>
-      <c r="Y286" s="99"/>
-      <c r="Z286" s="99"/>
-      <c r="AA286" s="99"/>
+      <c r="H286" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="I286" s="45"/>
+      <c r="J286" s="45"/>
+      <c r="K286" s="45"/>
+      <c r="L286" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="M286" s="45"/>
+      <c r="N286" s="45"/>
+      <c r="O286" s="45"/>
+      <c r="P286" s="45"/>
+      <c r="Q286" s="45"/>
+      <c r="R286" s="45"/>
+      <c r="S286" s="45"/>
+      <c r="T286" s="45"/>
+      <c r="U286" s="45"/>
+      <c r="V286" s="45"/>
+      <c r="W286" s="45"/>
+      <c r="X286" s="45"/>
+      <c r="Y286" s="45"/>
+      <c r="Z286" s="45"/>
+      <c r="AA286" s="45"/>
     </row>
     <row r="287" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
-      <c r="H287" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="I287" s="99"/>
-      <c r="J287" s="99"/>
-      <c r="K287" s="99"/>
-      <c r="L287" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="M287" s="99"/>
-      <c r="N287" s="99"/>
-      <c r="O287" s="99"/>
-      <c r="P287" s="99"/>
-      <c r="Q287" s="99"/>
-      <c r="R287" s="99"/>
-      <c r="S287" s="99"/>
-      <c r="T287" s="99"/>
-      <c r="U287" s="99"/>
-      <c r="V287" s="99"/>
-      <c r="W287" s="99"/>
-      <c r="X287" s="99"/>
-      <c r="Y287" s="99"/>
-      <c r="Z287" s="99"/>
-      <c r="AA287" s="99"/>
+      <c r="H287" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="I287" s="45"/>
+      <c r="J287" s="45"/>
+      <c r="K287" s="45"/>
+      <c r="L287" s="45"/>
+      <c r="M287" s="45"/>
+      <c r="N287" s="45"/>
+      <c r="O287" s="45"/>
+      <c r="P287" s="45"/>
+      <c r="Q287" s="45"/>
+      <c r="R287" s="45"/>
+      <c r="S287" s="45"/>
+      <c r="T287" s="45"/>
+      <c r="U287" s="45"/>
+      <c r="V287" s="45"/>
+      <c r="W287" s="45"/>
+      <c r="X287" s="45"/>
+      <c r="Y287" s="45"/>
+      <c r="Z287" s="45"/>
+      <c r="AA287" s="45"/>
     </row>
     <row r="288" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
+      <c r="H288" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I288" s="45"/>
+      <c r="J288" s="45"/>
+      <c r="K288" s="45"/>
+      <c r="L288" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="M288" s="45"/>
+      <c r="N288" s="45"/>
+      <c r="O288" s="45"/>
+      <c r="P288" s="45"/>
+      <c r="Q288" s="45"/>
+      <c r="R288" s="45"/>
+      <c r="S288" s="45"/>
+      <c r="T288" s="45"/>
+      <c r="U288" s="45"/>
+      <c r="V288" s="45"/>
+      <c r="W288" s="45"/>
+      <c r="X288" s="45"/>
+      <c r="Y288" s="45"/>
+      <c r="Z288" s="45"/>
+      <c r="AA288" s="45"/>
     </row>
     <row r="289" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
-      <c r="G289" s="22" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="290" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-      <c r="H290" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="I290" s="69"/>
-      <c r="J290" s="69"/>
-      <c r="K290" s="69" t="s">
-        <v>169</v>
-      </c>
-      <c r="L290" s="69"/>
-      <c r="M290" s="69"/>
-      <c r="N290" s="69"/>
-      <c r="O290" s="69"/>
-      <c r="P290" s="69"/>
-      <c r="Q290" s="69"/>
-      <c r="R290" s="69"/>
-      <c r="S290" s="69"/>
-      <c r="T290" s="69"/>
-      <c r="U290" s="69"/>
+      <c r="G290" s="22" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="291" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-      <c r="H291" s="99" t="s">
-        <v>170</v>
-      </c>
-      <c r="I291" s="99"/>
-      <c r="J291" s="99"/>
-      <c r="K291" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="L291" s="99"/>
-      <c r="M291" s="99"/>
-      <c r="N291" s="99"/>
-      <c r="O291" s="99"/>
-      <c r="P291" s="99"/>
-      <c r="Q291" s="99"/>
-      <c r="R291" s="99"/>
-      <c r="S291" s="99"/>
-      <c r="T291" s="99"/>
-      <c r="U291" s="99"/>
+      <c r="H291" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I291" s="46"/>
+      <c r="J291" s="46"/>
+      <c r="K291" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="L291" s="46"/>
+      <c r="M291" s="46"/>
+      <c r="N291" s="46"/>
+      <c r="O291" s="46"/>
+      <c r="P291" s="46"/>
+      <c r="Q291" s="46"/>
+      <c r="R291" s="46"/>
+      <c r="S291" s="46"/>
+      <c r="T291" s="46"/>
+      <c r="U291" s="46"/>
     </row>
     <row r="292" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-      <c r="H292" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="I292" s="99"/>
-      <c r="J292" s="99"/>
-      <c r="K292" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="L292" s="99"/>
-      <c r="M292" s="99"/>
-      <c r="N292" s="99"/>
-      <c r="O292" s="99"/>
-      <c r="P292" s="99"/>
-      <c r="Q292" s="99"/>
-      <c r="R292" s="99"/>
-      <c r="S292" s="99"/>
-      <c r="T292" s="99"/>
-      <c r="U292" s="99"/>
+      <c r="H292" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I292" s="45"/>
+      <c r="J292" s="45"/>
+      <c r="K292" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L292" s="45"/>
+      <c r="M292" s="45"/>
+      <c r="N292" s="45"/>
+      <c r="O292" s="45"/>
+      <c r="P292" s="45"/>
+      <c r="Q292" s="45"/>
+      <c r="R292" s="45"/>
+      <c r="S292" s="45"/>
+      <c r="T292" s="45"/>
+      <c r="U292" s="45"/>
     </row>
     <row r="293" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
-      <c r="H293" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="I293" s="99"/>
-      <c r="J293" s="99"/>
-      <c r="K293" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="L293" s="99"/>
-      <c r="M293" s="99"/>
-      <c r="N293" s="99"/>
-      <c r="O293" s="99"/>
-      <c r="P293" s="99"/>
-      <c r="Q293" s="99"/>
-      <c r="R293" s="99"/>
-      <c r="S293" s="99"/>
-      <c r="T293" s="99"/>
-      <c r="U293" s="99"/>
+      <c r="H293" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I293" s="45"/>
+      <c r="J293" s="45"/>
+      <c r="K293" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L293" s="45"/>
+      <c r="M293" s="45"/>
+      <c r="N293" s="45"/>
+      <c r="O293" s="45"/>
+      <c r="P293" s="45"/>
+      <c r="Q293" s="45"/>
+      <c r="R293" s="45"/>
+      <c r="S293" s="45"/>
+      <c r="T293" s="45"/>
+      <c r="U293" s="45"/>
     </row>
     <row r="294" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
-      <c r="H294" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="I294" s="99"/>
-      <c r="J294" s="99"/>
-      <c r="K294" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="L294" s="99"/>
-      <c r="M294" s="99"/>
-      <c r="N294" s="99"/>
-      <c r="O294" s="99"/>
-      <c r="P294" s="99"/>
-      <c r="Q294" s="99"/>
-      <c r="R294" s="99"/>
-      <c r="S294" s="99"/>
-      <c r="T294" s="99"/>
-      <c r="U294" s="99"/>
+      <c r="H294" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="I294" s="45"/>
+      <c r="J294" s="45"/>
+      <c r="K294" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="L294" s="45"/>
+      <c r="M294" s="45"/>
+      <c r="N294" s="45"/>
+      <c r="O294" s="45"/>
+      <c r="P294" s="45"/>
+      <c r="Q294" s="45"/>
+      <c r="R294" s="45"/>
+      <c r="S294" s="45"/>
+      <c r="T294" s="45"/>
+      <c r="U294" s="45"/>
     </row>
     <row r="295" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
+      <c r="H295" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I295" s="45"/>
+      <c r="J295" s="45"/>
+      <c r="K295" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="L295" s="45"/>
+      <c r="M295" s="45"/>
+      <c r="N295" s="45"/>
+      <c r="O295" s="45"/>
+      <c r="P295" s="45"/>
+      <c r="Q295" s="45"/>
+      <c r="R295" s="45"/>
+      <c r="S295" s="45"/>
+      <c r="T295" s="45"/>
+      <c r="U295" s="45"/>
     </row>
     <row r="296" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D296" s="15"/>
       <c r="E296" s="15"/>
-      <c r="G296" s="22" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="297" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
-      <c r="H297" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="I297" s="69"/>
-      <c r="J297" s="69"/>
-      <c r="K297" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="L297" s="69"/>
-      <c r="M297" s="69"/>
-      <c r="N297" s="69"/>
-      <c r="O297" s="69"/>
-      <c r="P297" s="69"/>
-      <c r="Q297" s="69"/>
-      <c r="R297" s="69"/>
-      <c r="S297" s="69"/>
-      <c r="T297" s="69"/>
-      <c r="U297" s="69"/>
+      <c r="G297" s="22" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="298" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
-      <c r="H298" s="99" t="s">
-        <v>178</v>
-      </c>
-      <c r="I298" s="99"/>
-      <c r="J298" s="99"/>
-      <c r="K298" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="L298" s="99"/>
-      <c r="M298" s="99"/>
-      <c r="N298" s="99"/>
-      <c r="O298" s="99"/>
-      <c r="P298" s="99"/>
-      <c r="Q298" s="99"/>
-      <c r="R298" s="99"/>
-      <c r="S298" s="99"/>
-      <c r="T298" s="99"/>
-      <c r="U298" s="99"/>
+      <c r="H298" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I298" s="46"/>
+      <c r="J298" s="46"/>
+      <c r="K298" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="L298" s="46"/>
+      <c r="M298" s="46"/>
+      <c r="N298" s="46"/>
+      <c r="O298" s="46"/>
+      <c r="P298" s="46"/>
+      <c r="Q298" s="46"/>
+      <c r="R298" s="46"/>
+      <c r="S298" s="46"/>
+      <c r="T298" s="46"/>
+      <c r="U298" s="46"/>
     </row>
     <row r="299" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
-      <c r="H299" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="I299" s="99"/>
-      <c r="J299" s="99"/>
-      <c r="K299" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="L299" s="99"/>
-      <c r="M299" s="99"/>
-      <c r="N299" s="99"/>
-      <c r="O299" s="99"/>
-      <c r="P299" s="99"/>
-      <c r="Q299" s="99"/>
-      <c r="R299" s="99"/>
-      <c r="S299" s="99"/>
-      <c r="T299" s="99"/>
-      <c r="U299" s="99"/>
+      <c r="H299" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="I299" s="45"/>
+      <c r="J299" s="45"/>
+      <c r="K299" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="L299" s="45"/>
+      <c r="M299" s="45"/>
+      <c r="N299" s="45"/>
+      <c r="O299" s="45"/>
+      <c r="P299" s="45"/>
+      <c r="Q299" s="45"/>
+      <c r="R299" s="45"/>
+      <c r="S299" s="45"/>
+      <c r="T299" s="45"/>
+      <c r="U299" s="45"/>
     </row>
     <row r="300" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
-      <c r="H300" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="I300" s="99"/>
-      <c r="J300" s="99"/>
-      <c r="K300" s="99" t="s">
-        <v>183</v>
-      </c>
-      <c r="L300" s="99"/>
-      <c r="M300" s="99"/>
-      <c r="N300" s="99"/>
-      <c r="O300" s="99"/>
-      <c r="P300" s="99"/>
-      <c r="Q300" s="99"/>
-      <c r="R300" s="99"/>
-      <c r="S300" s="99"/>
-      <c r="T300" s="99"/>
-      <c r="U300" s="99"/>
+      <c r="H300" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="I300" s="45"/>
+      <c r="J300" s="45"/>
+      <c r="K300" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="L300" s="45"/>
+      <c r="M300" s="45"/>
+      <c r="N300" s="45"/>
+      <c r="O300" s="45"/>
+      <c r="P300" s="45"/>
+      <c r="Q300" s="45"/>
+      <c r="R300" s="45"/>
+      <c r="S300" s="45"/>
+      <c r="T300" s="45"/>
+      <c r="U300" s="45"/>
     </row>
     <row r="301" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
+      <c r="H301" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I301" s="45"/>
+      <c r="J301" s="45"/>
+      <c r="K301" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="L301" s="45"/>
+      <c r="M301" s="45"/>
+      <c r="N301" s="45"/>
+      <c r="O301" s="45"/>
+      <c r="P301" s="45"/>
+      <c r="Q301" s="45"/>
+      <c r="R301" s="45"/>
+      <c r="S301" s="45"/>
+      <c r="T301" s="45"/>
+      <c r="U301" s="45"/>
     </row>
     <row r="302" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D302" s="15"/>
       <c r="E302" s="15"/>
-      <c r="G302" s="4" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="303" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
+      <c r="G303" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="304" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D304" s="15"/>
       <c r="E304" s="15"/>
-      <c r="F304" s="15"/>
-      <c r="H304" s="40"/>
-      <c r="I304" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="J304" s="73"/>
-      <c r="K304" s="73"/>
-      <c r="L304" s="73"/>
-      <c r="M304" s="73"/>
     </row>
     <row r="305" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
-      <c r="H305" s="100" t="s">
-        <v>176</v>
-      </c>
-      <c r="I305" s="39"/>
-      <c r="J305" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="K305" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="L305" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="M305" s="39" t="s">
-        <v>174</v>
-      </c>
+      <c r="H305" s="40"/>
+      <c r="I305" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="J305" s="43"/>
+      <c r="K305" s="43"/>
+      <c r="L305" s="43"/>
+      <c r="M305" s="43"/>
     </row>
     <row r="306" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
-      <c r="H306" s="100"/>
-      <c r="I306" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="J306" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="K306" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="L306" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="M306" s="101" t="s">
-        <v>185</v>
+      <c r="H306" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I306" s="39"/>
+      <c r="J306" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K306" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="L306" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="M306" s="39" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="307" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
-      <c r="H307" s="100"/>
+      <c r="H307" s="44"/>
       <c r="I307" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="J307" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="K307" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="L307" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="M307" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="P307" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
+      </c>
+      <c r="J307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="K307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="M307" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="308" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
-      <c r="H308" s="100"/>
+      <c r="H308" s="44"/>
       <c r="I308" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="J308" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="J308" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K308" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L308" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="M308" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="P308" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="K308" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="L308" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="M308" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="P308" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="309" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
-      <c r="H309" s="15"/>
-      <c r="I309" s="15"/>
-      <c r="J309" s="102"/>
-      <c r="K309" s="102"/>
-      <c r="L309" s="102"/>
-      <c r="M309" s="102"/>
+      <c r="H309" s="44"/>
+      <c r="I309" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J309" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K309" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L309" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="M309" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="P309" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="310" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
-      <c r="G310" s="22" t="s">
-        <v>88</v>
-      </c>
+      <c r="F310" s="15"/>
+      <c r="H310" s="15"/>
+      <c r="I310" s="15"/>
+      <c r="J310" s="42"/>
+      <c r="K310" s="42"/>
+      <c r="L310" s="42"/>
+      <c r="M310" s="42"/>
     </row>
     <row r="311" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
-      <c r="G311" s="22"/>
+      <c r="G311" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="312" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
+      <c r="G312" s="22"/>
     </row>
     <row r="313" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D313" s="15"/>
@@ -6239,459 +6261,462 @@
     </row>
     <row r="322" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D322" s="15"/>
+      <c r="E322" s="15"/>
     </row>
     <row r="323" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D323" s="15" t="str">
+      <c r="D323" s="15"/>
+    </row>
+    <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D324" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.5.3.</v>
       </c>
-      <c r="E323" s="4" t="s">
+      <c r="E324" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D324" s="15"/>
-      <c r="E324" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D325" s="15"/>
+      <c r="E325" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="326" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D326" s="15"/>
-      <c r="E326" s="23"/>
-      <c r="F326" s="24"/>
-      <c r="G326" s="24"/>
-      <c r="H326" s="24"/>
-      <c r="I326" s="24"/>
-      <c r="J326" s="24"/>
-      <c r="K326" s="24"/>
-      <c r="L326" s="25"/>
-      <c r="M326" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="N326" s="69"/>
-      <c r="O326" s="69"/>
-      <c r="P326" s="69"/>
-      <c r="Q326" s="69"/>
-      <c r="R326" s="69"/>
-      <c r="S326" s="69"/>
-      <c r="T326" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="U326" s="73"/>
-      <c r="V326" s="73"/>
-      <c r="W326" s="73"/>
-      <c r="X326" s="73"/>
-      <c r="Y326" s="73"/>
-      <c r="Z326" s="73"/>
-      <c r="AA326" s="73"/>
-      <c r="AB326" s="73"/>
-      <c r="AC326" s="73"/>
-      <c r="AD326" s="73"/>
-      <c r="AE326" s="73"/>
-      <c r="AF326" s="73"/>
-      <c r="AG326" s="73"/>
     </row>
     <row r="327" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D327" s="15"/>
-      <c r="E327" s="26"/>
-      <c r="F327" s="27"/>
-      <c r="G327" s="27"/>
-      <c r="H327" s="27"/>
-      <c r="I327" s="27"/>
-      <c r="J327" s="27"/>
-      <c r="K327" s="27"/>
-      <c r="L327" s="28"/>
-      <c r="M327" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="N327" s="69"/>
-      <c r="O327" s="69"/>
-      <c r="P327" s="69"/>
-      <c r="Q327" s="69"/>
-      <c r="R327" s="69"/>
-      <c r="S327" s="69"/>
-      <c r="T327" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="U327" s="69"/>
-      <c r="V327" s="69"/>
-      <c r="W327" s="69"/>
-      <c r="X327" s="69"/>
-      <c r="Y327" s="69"/>
-      <c r="Z327" s="69"/>
-      <c r="AA327" s="69"/>
-      <c r="AB327" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC327" s="69"/>
-      <c r="AD327" s="69"/>
-      <c r="AE327" s="69"/>
-      <c r="AF327" s="69"/>
-      <c r="AG327" s="69"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="24"/>
+      <c r="G327" s="24"/>
+      <c r="H327" s="24"/>
+      <c r="I327" s="24"/>
+      <c r="J327" s="24"/>
+      <c r="K327" s="24"/>
+      <c r="L327" s="25"/>
+      <c r="M327" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N327" s="46"/>
+      <c r="O327" s="46"/>
+      <c r="P327" s="46"/>
+      <c r="Q327" s="46"/>
+      <c r="R327" s="46"/>
+      <c r="S327" s="46"/>
+      <c r="T327" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="U327" s="43"/>
+      <c r="V327" s="43"/>
+      <c r="W327" s="43"/>
+      <c r="X327" s="43"/>
+      <c r="Y327" s="43"/>
+      <c r="Z327" s="43"/>
+      <c r="AA327" s="43"/>
+      <c r="AB327" s="43"/>
+      <c r="AC327" s="43"/>
+      <c r="AD327" s="43"/>
+      <c r="AE327" s="43"/>
+      <c r="AF327" s="43"/>
+      <c r="AG327" s="43"/>
     </row>
     <row r="328" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D328" s="15"/>
-      <c r="E328" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="F328" s="66"/>
-      <c r="G328" s="66"/>
-      <c r="H328" s="66"/>
-      <c r="I328" s="66"/>
-      <c r="J328" s="66"/>
-      <c r="K328" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="L328" s="71"/>
-      <c r="M328" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="N328" s="95"/>
-      <c r="O328" s="95"/>
-      <c r="P328" s="95"/>
-      <c r="Q328" s="95"/>
-      <c r="R328" s="95"/>
-      <c r="S328" s="95"/>
-      <c r="T328" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="U328" s="84"/>
-      <c r="V328" s="84"/>
-      <c r="W328" s="84"/>
-      <c r="X328" s="84"/>
-      <c r="Y328" s="84"/>
-      <c r="Z328" s="84"/>
-      <c r="AA328" s="85"/>
-      <c r="AB328" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC328" s="75"/>
-      <c r="AD328" s="75"/>
-      <c r="AE328" s="75"/>
-      <c r="AF328" s="75"/>
-      <c r="AG328" s="76"/>
+      <c r="E328" s="26"/>
+      <c r="F328" s="27"/>
+      <c r="G328" s="27"/>
+      <c r="H328" s="27"/>
+      <c r="I328" s="27"/>
+      <c r="J328" s="27"/>
+      <c r="K328" s="27"/>
+      <c r="L328" s="28"/>
+      <c r="M328" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="N328" s="46"/>
+      <c r="O328" s="46"/>
+      <c r="P328" s="46"/>
+      <c r="Q328" s="46"/>
+      <c r="R328" s="46"/>
+      <c r="S328" s="46"/>
+      <c r="T328" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="U328" s="46"/>
+      <c r="V328" s="46"/>
+      <c r="W328" s="46"/>
+      <c r="X328" s="46"/>
+      <c r="Y328" s="46"/>
+      <c r="Z328" s="46"/>
+      <c r="AA328" s="46"/>
+      <c r="AB328" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC328" s="46"/>
+      <c r="AD328" s="46"/>
+      <c r="AE328" s="46"/>
+      <c r="AF328" s="46"/>
+      <c r="AG328" s="46"/>
     </row>
     <row r="329" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D329" s="15"/>
-      <c r="E329" s="67"/>
-      <c r="F329" s="67"/>
-      <c r="G329" s="67"/>
-      <c r="H329" s="67"/>
-      <c r="I329" s="67"/>
-      <c r="J329" s="67"/>
-      <c r="K329" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="L329" s="71"/>
-      <c r="M329" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="N329" s="95"/>
-      <c r="O329" s="95"/>
-      <c r="P329" s="95"/>
-      <c r="Q329" s="95"/>
-      <c r="R329" s="95"/>
-      <c r="S329" s="95"/>
-      <c r="T329" s="86"/>
-      <c r="U329" s="87"/>
-      <c r="V329" s="87"/>
-      <c r="W329" s="87"/>
-      <c r="X329" s="87"/>
-      <c r="Y329" s="87"/>
-      <c r="Z329" s="87"/>
-      <c r="AA329" s="88"/>
-      <c r="AB329" s="77"/>
-      <c r="AC329" s="78"/>
-      <c r="AD329" s="78"/>
-      <c r="AE329" s="78"/>
-      <c r="AF329" s="78"/>
-      <c r="AG329" s="79"/>
+      <c r="E329" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F329" s="75"/>
+      <c r="G329" s="75"/>
+      <c r="H329" s="75"/>
+      <c r="I329" s="75"/>
+      <c r="J329" s="75"/>
+      <c r="K329" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L329" s="55"/>
+      <c r="M329" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N329" s="50"/>
+      <c r="O329" s="50"/>
+      <c r="P329" s="50"/>
+      <c r="Q329" s="50"/>
+      <c r="R329" s="50"/>
+      <c r="S329" s="50"/>
+      <c r="T329" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="U329" s="66"/>
+      <c r="V329" s="66"/>
+      <c r="W329" s="66"/>
+      <c r="X329" s="66"/>
+      <c r="Y329" s="66"/>
+      <c r="Z329" s="66"/>
+      <c r="AA329" s="67"/>
+      <c r="AB329" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC329" s="57"/>
+      <c r="AD329" s="57"/>
+      <c r="AE329" s="57"/>
+      <c r="AF329" s="57"/>
+      <c r="AG329" s="58"/>
     </row>
     <row r="330" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="15"/>
-      <c r="E330" s="67"/>
-      <c r="F330" s="67"/>
-      <c r="G330" s="67"/>
-      <c r="H330" s="67"/>
-      <c r="I330" s="67"/>
-      <c r="J330" s="67"/>
-      <c r="K330" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="L330" s="71"/>
-      <c r="M330" s="95" t="s">
+      <c r="E330" s="76"/>
+      <c r="F330" s="76"/>
+      <c r="G330" s="76"/>
+      <c r="H330" s="76"/>
+      <c r="I330" s="76"/>
+      <c r="J330" s="76"/>
+      <c r="K330" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="L330" s="55"/>
+      <c r="M330" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="N330" s="95"/>
-      <c r="O330" s="95"/>
-      <c r="P330" s="95"/>
-      <c r="Q330" s="95"/>
-      <c r="R330" s="95"/>
-      <c r="S330" s="95"/>
-      <c r="T330" s="86"/>
-      <c r="U330" s="87"/>
-      <c r="V330" s="87"/>
-      <c r="W330" s="87"/>
-      <c r="X330" s="87"/>
-      <c r="Y330" s="87"/>
-      <c r="Z330" s="87"/>
-      <c r="AA330" s="88"/>
-      <c r="AB330" s="77"/>
-      <c r="AC330" s="78"/>
-      <c r="AD330" s="78"/>
-      <c r="AE330" s="78"/>
-      <c r="AF330" s="78"/>
-      <c r="AG330" s="79"/>
+      <c r="N330" s="50"/>
+      <c r="O330" s="50"/>
+      <c r="P330" s="50"/>
+      <c r="Q330" s="50"/>
+      <c r="R330" s="50"/>
+      <c r="S330" s="50"/>
+      <c r="T330" s="68"/>
+      <c r="U330" s="69"/>
+      <c r="V330" s="69"/>
+      <c r="W330" s="69"/>
+      <c r="X330" s="69"/>
+      <c r="Y330" s="69"/>
+      <c r="Z330" s="69"/>
+      <c r="AA330" s="70"/>
+      <c r="AB330" s="59"/>
+      <c r="AC330" s="60"/>
+      <c r="AD330" s="60"/>
+      <c r="AE330" s="60"/>
+      <c r="AF330" s="60"/>
+      <c r="AG330" s="61"/>
     </row>
     <row r="331" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D331" s="15"/>
-      <c r="E331" s="68"/>
-      <c r="F331" s="68"/>
-      <c r="G331" s="68"/>
-      <c r="H331" s="68"/>
-      <c r="I331" s="68"/>
-      <c r="J331" s="68"/>
-      <c r="K331" s="70" t="s">
+      <c r="E331" s="76"/>
+      <c r="F331" s="76"/>
+      <c r="G331" s="76"/>
+      <c r="H331" s="76"/>
+      <c r="I331" s="76"/>
+      <c r="J331" s="76"/>
+      <c r="K331" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="L331" s="55"/>
+      <c r="M331" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="N331" s="50"/>
+      <c r="O331" s="50"/>
+      <c r="P331" s="50"/>
+      <c r="Q331" s="50"/>
+      <c r="R331" s="50"/>
+      <c r="S331" s="50"/>
+      <c r="T331" s="68"/>
+      <c r="U331" s="69"/>
+      <c r="V331" s="69"/>
+      <c r="W331" s="69"/>
+      <c r="X331" s="69"/>
+      <c r="Y331" s="69"/>
+      <c r="Z331" s="69"/>
+      <c r="AA331" s="70"/>
+      <c r="AB331" s="59"/>
+      <c r="AC331" s="60"/>
+      <c r="AD331" s="60"/>
+      <c r="AE331" s="60"/>
+      <c r="AF331" s="60"/>
+      <c r="AG331" s="61"/>
+    </row>
+    <row r="332" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D332" s="15"/>
+      <c r="E332" s="77"/>
+      <c r="F332" s="77"/>
+      <c r="G332" s="77"/>
+      <c r="H332" s="77"/>
+      <c r="I332" s="77"/>
+      <c r="J332" s="77"/>
+      <c r="K332" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L332" s="55"/>
+      <c r="M332" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="N332" s="50"/>
+      <c r="O332" s="50"/>
+      <c r="P332" s="50"/>
+      <c r="Q332" s="50"/>
+      <c r="R332" s="50"/>
+      <c r="S332" s="50"/>
+      <c r="T332" s="71"/>
+      <c r="U332" s="72"/>
+      <c r="V332" s="72"/>
+      <c r="W332" s="72"/>
+      <c r="X332" s="72"/>
+      <c r="Y332" s="72"/>
+      <c r="Z332" s="72"/>
+      <c r="AA332" s="73"/>
+      <c r="AB332" s="62"/>
+      <c r="AC332" s="63"/>
+      <c r="AD332" s="63"/>
+      <c r="AE332" s="63"/>
+      <c r="AF332" s="63"/>
+      <c r="AG332" s="64"/>
+    </row>
+    <row r="333" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D333" s="15"/>
+      <c r="E333" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="L331" s="71"/>
-      <c r="M331" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="N331" s="95"/>
-      <c r="O331" s="95"/>
-      <c r="P331" s="95"/>
-      <c r="Q331" s="95"/>
-      <c r="R331" s="95"/>
-      <c r="S331" s="95"/>
-      <c r="T331" s="89"/>
-      <c r="U331" s="90"/>
-      <c r="V331" s="90"/>
-      <c r="W331" s="90"/>
-      <c r="X331" s="90"/>
-      <c r="Y331" s="90"/>
-      <c r="Z331" s="90"/>
-      <c r="AA331" s="91"/>
-      <c r="AB331" s="80"/>
-      <c r="AC331" s="81"/>
-      <c r="AD331" s="81"/>
-      <c r="AE331" s="81"/>
-      <c r="AF331" s="81"/>
-      <c r="AG331" s="82"/>
-    </row>
-    <row r="332" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D332" s="15"/>
-      <c r="E332" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="F332" s="72"/>
-      <c r="G332" s="72"/>
-      <c r="H332" s="72"/>
-      <c r="I332" s="72"/>
-      <c r="J332" s="72"/>
-      <c r="K332" s="72"/>
-      <c r="L332" s="71"/>
-      <c r="M332" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="N332" s="95"/>
-      <c r="O332" s="95"/>
-      <c r="P332" s="95"/>
-      <c r="Q332" s="95"/>
-      <c r="R332" s="95"/>
-      <c r="S332" s="95"/>
-      <c r="T332" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="U332" s="97"/>
-      <c r="V332" s="97"/>
-      <c r="W332" s="97"/>
-      <c r="X332" s="97"/>
-      <c r="Y332" s="97"/>
-      <c r="Z332" s="97"/>
-      <c r="AA332" s="98"/>
-      <c r="AB332" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC332" s="95"/>
-      <c r="AD332" s="95"/>
-      <c r="AE332" s="95"/>
-      <c r="AF332" s="95"/>
-      <c r="AG332" s="95"/>
-    </row>
-    <row r="333" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D333" s="15"/>
-      <c r="E333" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="F333" s="72"/>
-      <c r="G333" s="72"/>
-      <c r="H333" s="72"/>
-      <c r="I333" s="72"/>
-      <c r="J333" s="72"/>
-      <c r="K333" s="72"/>
-      <c r="L333" s="71"/>
-      <c r="M333" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="N333" s="95"/>
-      <c r="O333" s="95"/>
-      <c r="P333" s="95"/>
-      <c r="Q333" s="95"/>
-      <c r="R333" s="95"/>
-      <c r="S333" s="95"/>
-      <c r="T333" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="U333" s="95"/>
-      <c r="V333" s="95"/>
-      <c r="W333" s="95"/>
-      <c r="X333" s="95"/>
-      <c r="Y333" s="95"/>
-      <c r="Z333" s="95"/>
-      <c r="AA333" s="95"/>
-      <c r="AB333" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC333" s="95"/>
-      <c r="AD333" s="95"/>
-      <c r="AE333" s="95"/>
-      <c r="AF333" s="95"/>
-      <c r="AG333" s="95"/>
+      <c r="F333" s="74"/>
+      <c r="G333" s="74"/>
+      <c r="H333" s="74"/>
+      <c r="I333" s="74"/>
+      <c r="J333" s="74"/>
+      <c r="K333" s="74"/>
+      <c r="L333" s="55"/>
+      <c r="M333" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="N333" s="50"/>
+      <c r="O333" s="50"/>
+      <c r="P333" s="50"/>
+      <c r="Q333" s="50"/>
+      <c r="R333" s="50"/>
+      <c r="S333" s="50"/>
+      <c r="T333" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="U333" s="52"/>
+      <c r="V333" s="52"/>
+      <c r="W333" s="52"/>
+      <c r="X333" s="52"/>
+      <c r="Y333" s="52"/>
+      <c r="Z333" s="52"/>
+      <c r="AA333" s="53"/>
+      <c r="AB333" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC333" s="50"/>
+      <c r="AD333" s="50"/>
+      <c r="AE333" s="50"/>
+      <c r="AF333" s="50"/>
+      <c r="AG333" s="50"/>
     </row>
     <row r="334" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D334" s="15"/>
-      <c r="E334" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="F334" s="66"/>
-      <c r="G334" s="66"/>
-      <c r="H334" s="66"/>
-      <c r="I334" s="66"/>
-      <c r="J334" s="66"/>
-      <c r="K334" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="L334" s="71"/>
-      <c r="M334" s="92" t="s">
+      <c r="E334" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F334" s="74"/>
+      <c r="G334" s="74"/>
+      <c r="H334" s="74"/>
+      <c r="I334" s="74"/>
+      <c r="J334" s="74"/>
+      <c r="K334" s="74"/>
+      <c r="L334" s="55"/>
+      <c r="M334" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="N334" s="93"/>
-      <c r="O334" s="93"/>
-      <c r="P334" s="93"/>
-      <c r="Q334" s="93"/>
-      <c r="R334" s="93"/>
-      <c r="S334" s="94"/>
-      <c r="T334" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="U334" s="93"/>
-      <c r="V334" s="93"/>
-      <c r="W334" s="93"/>
-      <c r="X334" s="93"/>
-      <c r="Y334" s="93"/>
-      <c r="Z334" s="93"/>
-      <c r="AA334" s="93"/>
-      <c r="AB334" s="93"/>
-      <c r="AC334" s="93"/>
-      <c r="AD334" s="93"/>
-      <c r="AE334" s="93"/>
-      <c r="AF334" s="93"/>
-      <c r="AG334" s="94"/>
+      <c r="N334" s="50"/>
+      <c r="O334" s="50"/>
+      <c r="P334" s="50"/>
+      <c r="Q334" s="50"/>
+      <c r="R334" s="50"/>
+      <c r="S334" s="50"/>
+      <c r="T334" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="U334" s="50"/>
+      <c r="V334" s="50"/>
+      <c r="W334" s="50"/>
+      <c r="X334" s="50"/>
+      <c r="Y334" s="50"/>
+      <c r="Z334" s="50"/>
+      <c r="AA334" s="50"/>
+      <c r="AB334" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC334" s="50"/>
+      <c r="AD334" s="50"/>
+      <c r="AE334" s="50"/>
+      <c r="AF334" s="50"/>
+      <c r="AG334" s="50"/>
     </row>
     <row r="335" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D335" s="15"/>
-      <c r="E335" s="67"/>
-      <c r="F335" s="67"/>
-      <c r="G335" s="67"/>
-      <c r="H335" s="67"/>
-      <c r="I335" s="67"/>
-      <c r="J335" s="67"/>
-      <c r="K335" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="L335" s="71"/>
-      <c r="M335" s="92"/>
-      <c r="N335" s="93"/>
-      <c r="O335" s="93"/>
-      <c r="P335" s="93"/>
-      <c r="Q335" s="93"/>
-      <c r="R335" s="93"/>
-      <c r="S335" s="94"/>
-      <c r="T335" s="92"/>
-      <c r="U335" s="93"/>
-      <c r="V335" s="93"/>
-      <c r="W335" s="93"/>
-      <c r="X335" s="93"/>
-      <c r="Y335" s="93"/>
-      <c r="Z335" s="93"/>
-      <c r="AA335" s="93"/>
-      <c r="AB335" s="93"/>
-      <c r="AC335" s="93"/>
-      <c r="AD335" s="93"/>
-      <c r="AE335" s="93"/>
-      <c r="AF335" s="93"/>
-      <c r="AG335" s="94"/>
+      <c r="E335" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F335" s="75"/>
+      <c r="G335" s="75"/>
+      <c r="H335" s="75"/>
+      <c r="I335" s="75"/>
+      <c r="J335" s="75"/>
+      <c r="K335" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L335" s="55"/>
+      <c r="M335" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="N335" s="48"/>
+      <c r="O335" s="48"/>
+      <c r="P335" s="48"/>
+      <c r="Q335" s="48"/>
+      <c r="R335" s="48"/>
+      <c r="S335" s="49"/>
+      <c r="T335" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="U335" s="48"/>
+      <c r="V335" s="48"/>
+      <c r="W335" s="48"/>
+      <c r="X335" s="48"/>
+      <c r="Y335" s="48"/>
+      <c r="Z335" s="48"/>
+      <c r="AA335" s="48"/>
+      <c r="AB335" s="48"/>
+      <c r="AC335" s="48"/>
+      <c r="AD335" s="48"/>
+      <c r="AE335" s="48"/>
+      <c r="AF335" s="48"/>
+      <c r="AG335" s="49"/>
     </row>
     <row r="336" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D336" s="15"/>
-      <c r="E336" s="68"/>
-      <c r="F336" s="68"/>
-      <c r="G336" s="68"/>
-      <c r="H336" s="68"/>
-      <c r="I336" s="68"/>
-      <c r="J336" s="68"/>
-      <c r="K336" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="L336" s="71"/>
-      <c r="M336" s="92"/>
-      <c r="N336" s="93"/>
-      <c r="O336" s="93"/>
-      <c r="P336" s="93"/>
-      <c r="Q336" s="93"/>
-      <c r="R336" s="93"/>
-      <c r="S336" s="94"/>
-      <c r="T336" s="92"/>
-      <c r="U336" s="93"/>
-      <c r="V336" s="93"/>
-      <c r="W336" s="93"/>
-      <c r="X336" s="93"/>
-      <c r="Y336" s="93"/>
-      <c r="Z336" s="93"/>
-      <c r="AA336" s="93"/>
-      <c r="AB336" s="93"/>
-      <c r="AC336" s="93"/>
-      <c r="AD336" s="93"/>
-      <c r="AE336" s="93"/>
-      <c r="AF336" s="93"/>
-      <c r="AG336" s="94"/>
-    </row>
-    <row r="337" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E336" s="76"/>
+      <c r="F336" s="76"/>
+      <c r="G336" s="76"/>
+      <c r="H336" s="76"/>
+      <c r="I336" s="76"/>
+      <c r="J336" s="76"/>
+      <c r="K336" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="L336" s="55"/>
+      <c r="M336" s="47"/>
+      <c r="N336" s="48"/>
+      <c r="O336" s="48"/>
+      <c r="P336" s="48"/>
+      <c r="Q336" s="48"/>
+      <c r="R336" s="48"/>
+      <c r="S336" s="49"/>
+      <c r="T336" s="47"/>
+      <c r="U336" s="48"/>
+      <c r="V336" s="48"/>
+      <c r="W336" s="48"/>
+      <c r="X336" s="48"/>
+      <c r="Y336" s="48"/>
+      <c r="Z336" s="48"/>
+      <c r="AA336" s="48"/>
+      <c r="AB336" s="48"/>
+      <c r="AC336" s="48"/>
+      <c r="AD336" s="48"/>
+      <c r="AE336" s="48"/>
+      <c r="AF336" s="48"/>
+      <c r="AG336" s="49"/>
+    </row>
+    <row r="337" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D337" s="15"/>
-    </row>
-    <row r="338" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E337" s="77"/>
+      <c r="F337" s="77"/>
+      <c r="G337" s="77"/>
+      <c r="H337" s="77"/>
+      <c r="I337" s="77"/>
+      <c r="J337" s="77"/>
+      <c r="K337" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L337" s="55"/>
+      <c r="M337" s="47"/>
+      <c r="N337" s="48"/>
+      <c r="O337" s="48"/>
+      <c r="P337" s="48"/>
+      <c r="Q337" s="48"/>
+      <c r="R337" s="48"/>
+      <c r="S337" s="49"/>
+      <c r="T337" s="47"/>
+      <c r="U337" s="48"/>
+      <c r="V337" s="48"/>
+      <c r="W337" s="48"/>
+      <c r="X337" s="48"/>
+      <c r="Y337" s="48"/>
+      <c r="Z337" s="48"/>
+      <c r="AA337" s="48"/>
+      <c r="AB337" s="48"/>
+      <c r="AC337" s="48"/>
+      <c r="AD337" s="48"/>
+      <c r="AE337" s="48"/>
+      <c r="AF337" s="48"/>
+      <c r="AG337" s="49"/>
+    </row>
+    <row r="338" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D338" s="15"/>
     </row>
-    <row r="339" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D339" s="15"/>
     </row>
-    <row r="340" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D340" s="15"/>
+    </row>
+    <row r="341" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7110,73 +7135,9 @@
     <row r="768" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="769" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="770" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="I304:M304"/>
-    <mergeCell ref="H305:H308"/>
-    <mergeCell ref="H298:J298"/>
-    <mergeCell ref="K298:U298"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="K299:U299"/>
-    <mergeCell ref="H300:J300"/>
-    <mergeCell ref="K300:U300"/>
-    <mergeCell ref="H293:J293"/>
-    <mergeCell ref="K293:U293"/>
-    <mergeCell ref="H294:J294"/>
-    <mergeCell ref="K294:U294"/>
-    <mergeCell ref="H297:J297"/>
-    <mergeCell ref="K297:U297"/>
-    <mergeCell ref="H290:J290"/>
-    <mergeCell ref="K290:U290"/>
-    <mergeCell ref="H291:J291"/>
-    <mergeCell ref="K291:U291"/>
-    <mergeCell ref="H292:J292"/>
-    <mergeCell ref="K292:U292"/>
-    <mergeCell ref="H285:K285"/>
-    <mergeCell ref="L285:AA286"/>
-    <mergeCell ref="H286:K286"/>
-    <mergeCell ref="H287:K287"/>
-    <mergeCell ref="L287:AA287"/>
-    <mergeCell ref="H282:K282"/>
-    <mergeCell ref="L282:AA282"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="L283:AA284"/>
-    <mergeCell ref="H284:K284"/>
-    <mergeCell ref="M334:S336"/>
-    <mergeCell ref="T334:AG336"/>
-    <mergeCell ref="M328:S328"/>
-    <mergeCell ref="M329:S329"/>
-    <mergeCell ref="M331:S331"/>
-    <mergeCell ref="M332:S332"/>
-    <mergeCell ref="M333:S333"/>
-    <mergeCell ref="AB332:AG332"/>
-    <mergeCell ref="AB333:AG333"/>
-    <mergeCell ref="T332:AA332"/>
-    <mergeCell ref="T333:AA333"/>
-    <mergeCell ref="M330:S330"/>
-    <mergeCell ref="T326:AG326"/>
-    <mergeCell ref="M326:S326"/>
-    <mergeCell ref="K328:L328"/>
-    <mergeCell ref="K329:L329"/>
-    <mergeCell ref="K331:L331"/>
-    <mergeCell ref="AB327:AG327"/>
-    <mergeCell ref="T327:AA327"/>
-    <mergeCell ref="AB328:AG331"/>
-    <mergeCell ref="T328:AA331"/>
-    <mergeCell ref="K330:L330"/>
-    <mergeCell ref="K334:L334"/>
-    <mergeCell ref="K335:L335"/>
-    <mergeCell ref="K336:L336"/>
-    <mergeCell ref="E332:L332"/>
-    <mergeCell ref="E333:L333"/>
-    <mergeCell ref="E334:J334"/>
-    <mergeCell ref="E335:J335"/>
-    <mergeCell ref="E336:J336"/>
-    <mergeCell ref="E328:J328"/>
-    <mergeCell ref="E329:J329"/>
-    <mergeCell ref="E331:J331"/>
-    <mergeCell ref="M327:S327"/>
-    <mergeCell ref="E330:J330"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -7190,6 +7151,71 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="E329:J329"/>
+    <mergeCell ref="E330:J330"/>
+    <mergeCell ref="E332:J332"/>
+    <mergeCell ref="M328:S328"/>
+    <mergeCell ref="E331:J331"/>
+    <mergeCell ref="K335:L335"/>
+    <mergeCell ref="K336:L336"/>
+    <mergeCell ref="K337:L337"/>
+    <mergeCell ref="E333:L333"/>
+    <mergeCell ref="E334:L334"/>
+    <mergeCell ref="E335:J335"/>
+    <mergeCell ref="E336:J336"/>
+    <mergeCell ref="E337:J337"/>
+    <mergeCell ref="T327:AG327"/>
+    <mergeCell ref="M327:S327"/>
+    <mergeCell ref="K329:L329"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="K332:L332"/>
+    <mergeCell ref="AB328:AG328"/>
+    <mergeCell ref="T328:AA328"/>
+    <mergeCell ref="AB329:AG332"/>
+    <mergeCell ref="T329:AA332"/>
+    <mergeCell ref="K331:L331"/>
+    <mergeCell ref="M335:S337"/>
+    <mergeCell ref="T335:AG337"/>
+    <mergeCell ref="M329:S329"/>
+    <mergeCell ref="M330:S330"/>
+    <mergeCell ref="M332:S332"/>
+    <mergeCell ref="M333:S333"/>
+    <mergeCell ref="M334:S334"/>
+    <mergeCell ref="AB333:AG333"/>
+    <mergeCell ref="AB334:AG334"/>
+    <mergeCell ref="T333:AA333"/>
+    <mergeCell ref="T334:AA334"/>
+    <mergeCell ref="M331:S331"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="L283:AA283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="L284:AA285"/>
+    <mergeCell ref="H285:K285"/>
+    <mergeCell ref="H286:K286"/>
+    <mergeCell ref="L286:AA287"/>
+    <mergeCell ref="H287:K287"/>
+    <mergeCell ref="H288:K288"/>
+    <mergeCell ref="L288:AA288"/>
+    <mergeCell ref="H291:J291"/>
+    <mergeCell ref="K291:U291"/>
+    <mergeCell ref="H292:J292"/>
+    <mergeCell ref="K292:U292"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="K293:U293"/>
+    <mergeCell ref="H294:J294"/>
+    <mergeCell ref="K294:U294"/>
+    <mergeCell ref="H295:J295"/>
+    <mergeCell ref="K295:U295"/>
+    <mergeCell ref="H298:J298"/>
+    <mergeCell ref="K298:U298"/>
+    <mergeCell ref="I305:M305"/>
+    <mergeCell ref="H306:H309"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="K299:U299"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="K300:U300"/>
+    <mergeCell ref="H301:J301"/>
+    <mergeCell ref="K301:U301"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
@@ -7209,8 +7235,8 @@
     <brk id="150" max="34" man="1"/>
     <brk id="191" max="34" man="1"/>
     <brk id="233" max="34" man="1"/>
-    <brk id="275" max="34" man="1"/>
-    <brk id="309" max="34" man="1"/>
+    <brk id="276" max="34" man="1"/>
+    <brk id="310" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F67385-6249-49FF-A34E-BD5092DF2020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE662F-744A-4A4B-8583-11AC3595D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="7.5.認証・認可" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$310</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="190">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -649,25 +649,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザ、グループ毎の許可単位設定は定義しない。</t>
-    <rPh sb="8" eb="9">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>認証チェックシーケンス</t>
     <rPh sb="0" eb="2">
       <t>ニンショウ</t>
@@ -1634,6 +1615,329 @@
     </rPh>
     <rPh sb="36" eb="37">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトのグループ設定例：</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一般職</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職軸でのグループ分け</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職者</t>
+    <rPh sb="0" eb="3">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本部</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>事業部軸でのグループ分け</t>
+    <rPh sb="0" eb="2">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>支部</t>
+    <rPh sb="0" eb="2">
+      <t>シブ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本部かつ役職者</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職軸、事業部軸の合成軸でのグループ分け</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトのリクエスト許可単位設定例：</t>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>許可グループ</t>
+    <rPh sb="0" eb="2">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全てのグループ</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトのユーザ設定</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所属グループ</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本部, 役職者, 本部かつ役職者</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本部, 一般職</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>支部, 一般職</t>
+    <rPh sb="0" eb="2">
+      <t>シブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上記の例で、ユーザに対して許可されるリクエストは以下のマトリックスになる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○：許可</t>
+    <rPh sb="2" eb="4">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×：不許可</t>
+    <rPh sb="2" eb="5">
+      <t>フキョカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なお、ユーザ、グループ毎の許可単位設定は定義しない。</t>
+    <rPh sb="11" eb="12">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ただし、ページで表示するデータはそのユーザのデータのみとなるように各機能で表示データを制御する。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1919,7 +2223,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2035,6 +2339,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2055,12 +2383,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2603,13 +2925,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3170,7 +3492,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI741"/>
+  <dimension ref="A1:AI771"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3186,43 +3508,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="80"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="83"/>
+      <c r="R1" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="89"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="83"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3231,43 +3553,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="90" t="s">
+      <c r="R2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="92"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="98"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="77"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="83"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3276,39 +3598,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="95"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="101"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="77"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="83"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3352,12 +3674,12 @@
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3451,12 +3773,12 @@
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
       <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
@@ -3491,7 +3813,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="31"/>
       <c r="N19" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
@@ -3524,7 +3846,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="31"/>
       <c r="N20" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
@@ -3580,17 +3902,17 @@
     </row>
     <row r="22" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
@@ -3625,7 +3947,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="31"/>
       <c r="N23" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
@@ -3659,7 +3981,7 @@
       <c r="M24" s="31"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P24" s="30"/>
       <c r="Q24" s="30"/>
@@ -3692,7 +4014,7 @@
       <c r="M25" s="31"/>
       <c r="N25" s="30"/>
       <c r="O25" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P25" s="30"/>
       <c r="Q25" s="30"/>
@@ -3755,7 +4077,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="31"/>
       <c r="N27" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
@@ -3789,7 +4111,7 @@
       <c r="M28" s="31"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
@@ -3925,25 +4247,25 @@
     <row r="34" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="15"/>
       <c r="G34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="15"/>
       <c r="G36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="15"/>
       <c r="G37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3970,7 +4292,7 @@
     <row r="43" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>41</v>
@@ -4054,19 +4376,19 @@
         <v>37</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="15"/>
       <c r="H62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="15"/>
       <c r="H63" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4209,19 +4531,19 @@
         <v>29</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,13 +4555,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4248,16 +4570,16 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4272,16 +4594,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4296,19 +4618,19 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15"/>
       <c r="H116" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15"/>
       <c r="H117" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4317,7 +4639,7 @@
     <row r="119" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="15"/>
       <c r="H119" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>41</v>
@@ -4326,19 +4648,19 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="15"/>
       <c r="I121" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4384,22 +4706,22 @@
     <row r="136" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="15"/>
       <c r="H136" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="15"/>
       <c r="I137" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="15"/>
       <c r="I138" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4441,7 +4763,7 @@
     <row r="151" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="15"/>
       <c r="H151" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>34</v>
@@ -4450,7 +4772,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4501,7 +4823,7 @@
     <row r="168" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>35</v>
@@ -4510,7 +4832,7 @@
     <row r="169" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="15"/>
       <c r="I169" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>36</v>
@@ -4519,7 +4841,7 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4531,19 +4853,19 @@
         <v>32</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
       <c r="H173" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
       <c r="H174" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4552,7 +4874,7 @@
     <row r="176" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="15"/>
       <c r="H176" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>41</v>
@@ -4561,19 +4883,19 @@
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
       <c r="I177" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
       <c r="I178" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4615,16 +4937,16 @@
     <row r="192" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="15"/>
       <c r="H192" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="193" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="15"/>
       <c r="I193" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="194" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4639,7 +4961,7 @@
     <row r="197" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="15"/>
       <c r="H197" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>34</v>
@@ -4648,7 +4970,7 @@
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
       <c r="I198" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4726,7 +5048,7 @@
     <row r="223" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="15"/>
       <c r="H223" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>35</v>
@@ -4735,7 +5057,7 @@
     <row r="224" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="15"/>
       <c r="I224" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J224" s="4" t="s">
         <v>36</v>
@@ -4765,16 +5087,16 @@
     <row r="229" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="15"/>
       <c r="I229" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
       <c r="J230" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4905,7 +5227,7 @@
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
       <c r="J242" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K242" s="19"/>
       <c r="L242" s="19"/>
@@ -4942,7 +5264,7 @@
       <c r="H243" s="30"/>
       <c r="I243" s="30"/>
       <c r="J243" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K243" s="36"/>
       <c r="L243" s="36"/>
@@ -4951,7 +5273,7 @@
       <c r="O243" s="36"/>
       <c r="P243" s="37"/>
       <c r="Q243" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R243" s="30"/>
       <c r="S243" s="30"/>
@@ -5035,13 +5357,13 @@
     </row>
     <row r="246" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F246" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G246" s="36"/>
       <c r="H246" s="36"/>
       <c r="I246" s="36"/>
       <c r="J246" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K246" s="36"/>
       <c r="L246" s="36"/>
@@ -5050,7 +5372,7 @@
       <c r="O246" s="36"/>
       <c r="P246" s="37"/>
       <c r="Q246" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R246" s="36"/>
       <c r="S246" s="36"/>
@@ -5212,7 +5534,7 @@
       <c r="D253" s="15"/>
       <c r="E253" s="15"/>
       <c r="F253" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="254" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5274,7 +5596,7 @@
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
       <c r="G267" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5285,7 +5607,7 @@
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
       <c r="G269" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5306,598 +5628,1095 @@
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="273" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="273" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="G273" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="274" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="274" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D274" s="15"/>
       <c r="E274" s="15"/>
       <c r="G274" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="275" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="275" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
-    </row>
-    <row r="276" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G275" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="276" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
-      <c r="F276" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="277" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="277" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
+      <c r="F277" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="G277" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="278" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="278" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="G278" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="279" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="279" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="G279" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="280" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
-    </row>
-    <row r="281" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G280" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="281" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="15"/>
       <c r="E281" s="15"/>
-      <c r="G281" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="282" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="282" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="G282" s="22"/>
-    </row>
-    <row r="283" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G282" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="283" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-    </row>
-    <row r="284" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H283" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="I283" s="46"/>
+      <c r="J283" s="46"/>
+      <c r="K283" s="46"/>
+      <c r="L283" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="M283" s="46"/>
+      <c r="N283" s="46"/>
+      <c r="O283" s="46"/>
+      <c r="P283" s="46"/>
+      <c r="Q283" s="46"/>
+      <c r="R283" s="46"/>
+      <c r="S283" s="46"/>
+      <c r="T283" s="46"/>
+      <c r="U283" s="46"/>
+      <c r="V283" s="46"/>
+      <c r="W283" s="46"/>
+      <c r="X283" s="46"/>
+      <c r="Y283" s="46"/>
+      <c r="Z283" s="46"/>
+      <c r="AA283" s="46"/>
+    </row>
+    <row r="284" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-    </row>
-    <row r="285" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H284" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="I284" s="45"/>
+      <c r="J284" s="45"/>
+      <c r="K284" s="45"/>
+      <c r="L284" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="M284" s="45"/>
+      <c r="N284" s="45"/>
+      <c r="O284" s="45"/>
+      <c r="P284" s="45"/>
+      <c r="Q284" s="45"/>
+      <c r="R284" s="45"/>
+      <c r="S284" s="45"/>
+      <c r="T284" s="45"/>
+      <c r="U284" s="45"/>
+      <c r="V284" s="45"/>
+      <c r="W284" s="45"/>
+      <c r="X284" s="45"/>
+      <c r="Y284" s="45"/>
+      <c r="Z284" s="45"/>
+      <c r="AA284" s="45"/>
+    </row>
+    <row r="285" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-    </row>
-    <row r="286" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H285" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="I285" s="45"/>
+      <c r="J285" s="45"/>
+      <c r="K285" s="45"/>
+      <c r="L285" s="45"/>
+      <c r="M285" s="45"/>
+      <c r="N285" s="45"/>
+      <c r="O285" s="45"/>
+      <c r="P285" s="45"/>
+      <c r="Q285" s="45"/>
+      <c r="R285" s="45"/>
+      <c r="S285" s="45"/>
+      <c r="T285" s="45"/>
+      <c r="U285" s="45"/>
+      <c r="V285" s="45"/>
+      <c r="W285" s="45"/>
+      <c r="X285" s="45"/>
+      <c r="Y285" s="45"/>
+      <c r="Z285" s="45"/>
+      <c r="AA285" s="45"/>
+    </row>
+    <row r="286" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-    </row>
-    <row r="287" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H286" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="I286" s="45"/>
+      <c r="J286" s="45"/>
+      <c r="K286" s="45"/>
+      <c r="L286" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="M286" s="45"/>
+      <c r="N286" s="45"/>
+      <c r="O286" s="45"/>
+      <c r="P286" s="45"/>
+      <c r="Q286" s="45"/>
+      <c r="R286" s="45"/>
+      <c r="S286" s="45"/>
+      <c r="T286" s="45"/>
+      <c r="U286" s="45"/>
+      <c r="V286" s="45"/>
+      <c r="W286" s="45"/>
+      <c r="X286" s="45"/>
+      <c r="Y286" s="45"/>
+      <c r="Z286" s="45"/>
+      <c r="AA286" s="45"/>
+    </row>
+    <row r="287" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
-    </row>
-    <row r="288" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H287" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="I287" s="45"/>
+      <c r="J287" s="45"/>
+      <c r="K287" s="45"/>
+      <c r="L287" s="45"/>
+      <c r="M287" s="45"/>
+      <c r="N287" s="45"/>
+      <c r="O287" s="45"/>
+      <c r="P287" s="45"/>
+      <c r="Q287" s="45"/>
+      <c r="R287" s="45"/>
+      <c r="S287" s="45"/>
+      <c r="T287" s="45"/>
+      <c r="U287" s="45"/>
+      <c r="V287" s="45"/>
+      <c r="W287" s="45"/>
+      <c r="X287" s="45"/>
+      <c r="Y287" s="45"/>
+      <c r="Z287" s="45"/>
+      <c r="AA287" s="45"/>
+    </row>
+    <row r="288" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
-    </row>
-    <row r="289" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H288" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I288" s="45"/>
+      <c r="J288" s="45"/>
+      <c r="K288" s="45"/>
+      <c r="L288" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="M288" s="45"/>
+      <c r="N288" s="45"/>
+      <c r="O288" s="45"/>
+      <c r="P288" s="45"/>
+      <c r="Q288" s="45"/>
+      <c r="R288" s="45"/>
+      <c r="S288" s="45"/>
+      <c r="T288" s="45"/>
+      <c r="U288" s="45"/>
+      <c r="V288" s="45"/>
+      <c r="W288" s="45"/>
+      <c r="X288" s="45"/>
+      <c r="Y288" s="45"/>
+      <c r="Z288" s="45"/>
+      <c r="AA288" s="45"/>
+    </row>
+    <row r="289" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D289" s="15"/>
       <c r="E289" s="15"/>
     </row>
-    <row r="290" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-    </row>
-    <row r="291" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G290" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="291" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-    </row>
-    <row r="292" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H291" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I291" s="46"/>
+      <c r="J291" s="46"/>
+      <c r="K291" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="L291" s="46"/>
+      <c r="M291" s="46"/>
+      <c r="N291" s="46"/>
+      <c r="O291" s="46"/>
+      <c r="P291" s="46"/>
+      <c r="Q291" s="46"/>
+      <c r="R291" s="46"/>
+      <c r="S291" s="46"/>
+      <c r="T291" s="46"/>
+      <c r="U291" s="46"/>
+    </row>
+    <row r="292" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-    </row>
-    <row r="293" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H292" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I292" s="45"/>
+      <c r="J292" s="45"/>
+      <c r="K292" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L292" s="45"/>
+      <c r="M292" s="45"/>
+      <c r="N292" s="45"/>
+      <c r="O292" s="45"/>
+      <c r="P292" s="45"/>
+      <c r="Q292" s="45"/>
+      <c r="R292" s="45"/>
+      <c r="S292" s="45"/>
+      <c r="T292" s="45"/>
+      <c r="U292" s="45"/>
+    </row>
+    <row r="293" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D293" s="15"/>
-    </row>
-    <row r="294" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D294" s="15" t="str">
+      <c r="E293" s="15"/>
+      <c r="H293" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I293" s="45"/>
+      <c r="J293" s="45"/>
+      <c r="K293" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L293" s="45"/>
+      <c r="M293" s="45"/>
+      <c r="N293" s="45"/>
+      <c r="O293" s="45"/>
+      <c r="P293" s="45"/>
+      <c r="Q293" s="45"/>
+      <c r="R293" s="45"/>
+      <c r="S293" s="45"/>
+      <c r="T293" s="45"/>
+      <c r="U293" s="45"/>
+    </row>
+    <row r="294" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D294" s="15"/>
+      <c r="E294" s="15"/>
+      <c r="H294" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="I294" s="45"/>
+      <c r="J294" s="45"/>
+      <c r="K294" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="L294" s="45"/>
+      <c r="M294" s="45"/>
+      <c r="N294" s="45"/>
+      <c r="O294" s="45"/>
+      <c r="P294" s="45"/>
+      <c r="Q294" s="45"/>
+      <c r="R294" s="45"/>
+      <c r="S294" s="45"/>
+      <c r="T294" s="45"/>
+      <c r="U294" s="45"/>
+    </row>
+    <row r="295" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D295" s="15"/>
+      <c r="E295" s="15"/>
+      <c r="H295" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I295" s="45"/>
+      <c r="J295" s="45"/>
+      <c r="K295" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="L295" s="45"/>
+      <c r="M295" s="45"/>
+      <c r="N295" s="45"/>
+      <c r="O295" s="45"/>
+      <c r="P295" s="45"/>
+      <c r="Q295" s="45"/>
+      <c r="R295" s="45"/>
+      <c r="S295" s="45"/>
+      <c r="T295" s="45"/>
+      <c r="U295" s="45"/>
+    </row>
+    <row r="296" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D296" s="15"/>
+      <c r="E296" s="15"/>
+    </row>
+    <row r="297" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D297" s="15"/>
+      <c r="E297" s="15"/>
+      <c r="G297" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="298" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D298" s="15"/>
+      <c r="E298" s="15"/>
+      <c r="H298" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I298" s="46"/>
+      <c r="J298" s="46"/>
+      <c r="K298" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="L298" s="46"/>
+      <c r="M298" s="46"/>
+      <c r="N298" s="46"/>
+      <c r="O298" s="46"/>
+      <c r="P298" s="46"/>
+      <c r="Q298" s="46"/>
+      <c r="R298" s="46"/>
+      <c r="S298" s="46"/>
+      <c r="T298" s="46"/>
+      <c r="U298" s="46"/>
+    </row>
+    <row r="299" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D299" s="15"/>
+      <c r="E299" s="15"/>
+      <c r="H299" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="I299" s="45"/>
+      <c r="J299" s="45"/>
+      <c r="K299" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="L299" s="45"/>
+      <c r="M299" s="45"/>
+      <c r="N299" s="45"/>
+      <c r="O299" s="45"/>
+      <c r="P299" s="45"/>
+      <c r="Q299" s="45"/>
+      <c r="R299" s="45"/>
+      <c r="S299" s="45"/>
+      <c r="T299" s="45"/>
+      <c r="U299" s="45"/>
+    </row>
+    <row r="300" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D300" s="15"/>
+      <c r="E300" s="15"/>
+      <c r="H300" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="I300" s="45"/>
+      <c r="J300" s="45"/>
+      <c r="K300" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="L300" s="45"/>
+      <c r="M300" s="45"/>
+      <c r="N300" s="45"/>
+      <c r="O300" s="45"/>
+      <c r="P300" s="45"/>
+      <c r="Q300" s="45"/>
+      <c r="R300" s="45"/>
+      <c r="S300" s="45"/>
+      <c r="T300" s="45"/>
+      <c r="U300" s="45"/>
+    </row>
+    <row r="301" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D301" s="15"/>
+      <c r="E301" s="15"/>
+      <c r="H301" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I301" s="45"/>
+      <c r="J301" s="45"/>
+      <c r="K301" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="L301" s="45"/>
+      <c r="M301" s="45"/>
+      <c r="N301" s="45"/>
+      <c r="O301" s="45"/>
+      <c r="P301" s="45"/>
+      <c r="Q301" s="45"/>
+      <c r="R301" s="45"/>
+      <c r="S301" s="45"/>
+      <c r="T301" s="45"/>
+      <c r="U301" s="45"/>
+    </row>
+    <row r="302" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D302" s="15"/>
+      <c r="E302" s="15"/>
+    </row>
+    <row r="303" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D303" s="15"/>
+      <c r="E303" s="15"/>
+      <c r="G303" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="304" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D304" s="15"/>
+      <c r="E304" s="15"/>
+    </row>
+    <row r="305" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D305" s="15"/>
+      <c r="E305" s="15"/>
+      <c r="F305" s="15"/>
+      <c r="H305" s="40"/>
+      <c r="I305" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="J305" s="43"/>
+      <c r="K305" s="43"/>
+      <c r="L305" s="43"/>
+      <c r="M305" s="43"/>
+    </row>
+    <row r="306" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D306" s="15"/>
+      <c r="E306" s="15"/>
+      <c r="F306" s="15"/>
+      <c r="H306" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I306" s="39"/>
+      <c r="J306" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K306" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="L306" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="M306" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="307" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D307" s="15"/>
+      <c r="E307" s="15"/>
+      <c r="F307" s="15"/>
+      <c r="H307" s="44"/>
+      <c r="I307" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="J307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="K307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="M307" s="41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="308" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D308" s="15"/>
+      <c r="E308" s="15"/>
+      <c r="F308" s="15"/>
+      <c r="H308" s="44"/>
+      <c r="I308" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="J308" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K308" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L308" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="M308" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="P308" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="309" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D309" s="15"/>
+      <c r="E309" s="15"/>
+      <c r="F309" s="15"/>
+      <c r="H309" s="44"/>
+      <c r="I309" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J309" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K309" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L309" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="M309" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="P309" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="310" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D310" s="15"/>
+      <c r="E310" s="15"/>
+      <c r="F310" s="15"/>
+      <c r="H310" s="15"/>
+      <c r="I310" s="15"/>
+      <c r="J310" s="42"/>
+      <c r="K310" s="42"/>
+      <c r="L310" s="42"/>
+      <c r="M310" s="42"/>
+    </row>
+    <row r="311" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D311" s="15"/>
+      <c r="E311" s="15"/>
+      <c r="G311" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="312" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D312" s="15"/>
+      <c r="E312" s="15"/>
+      <c r="G312" s="22"/>
+    </row>
+    <row r="313" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D313" s="15"/>
+      <c r="E313" s="15"/>
+    </row>
+    <row r="314" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D314" s="15"/>
+      <c r="E314" s="15"/>
+    </row>
+    <row r="315" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D315" s="15"/>
+      <c r="E315" s="15"/>
+    </row>
+    <row r="316" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D316" s="15"/>
+      <c r="E316" s="15"/>
+    </row>
+    <row r="317" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D317" s="15"/>
+      <c r="E317" s="15"/>
+    </row>
+    <row r="318" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D318" s="15"/>
+      <c r="E318" s="15"/>
+    </row>
+    <row r="319" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D319" s="15"/>
+      <c r="E319" s="15"/>
+    </row>
+    <row r="320" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D320" s="15"/>
+      <c r="E320" s="15"/>
+    </row>
+    <row r="321" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D321" s="15"/>
+      <c r="E321" s="15"/>
+    </row>
+    <row r="322" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D322" s="15"/>
+      <c r="E322" s="15"/>
+    </row>
+    <row r="323" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D323" s="15"/>
+    </row>
+    <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D324" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.5.3.</v>
       </c>
-      <c r="E294" s="4" t="s">
+      <c r="E324" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D295" s="15"/>
-      <c r="E295" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="296" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D296" s="15"/>
-    </row>
-    <row r="297" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D297" s="15"/>
-      <c r="E297" s="23"/>
-      <c r="F297" s="24"/>
-      <c r="G297" s="24"/>
-      <c r="H297" s="24"/>
-      <c r="I297" s="24"/>
-      <c r="J297" s="24"/>
-      <c r="K297" s="24"/>
-      <c r="L297" s="25"/>
-      <c r="M297" s="47" t="s">
+    <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D325" s="15"/>
+      <c r="E325" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="326" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D326" s="15"/>
+    </row>
+    <row r="327" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D327" s="15"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="24"/>
+      <c r="G327" s="24"/>
+      <c r="H327" s="24"/>
+      <c r="I327" s="24"/>
+      <c r="J327" s="24"/>
+      <c r="K327" s="24"/>
+      <c r="L327" s="25"/>
+      <c r="M327" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N327" s="46"/>
+      <c r="O327" s="46"/>
+      <c r="P327" s="46"/>
+      <c r="Q327" s="46"/>
+      <c r="R327" s="46"/>
+      <c r="S327" s="46"/>
+      <c r="T327" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="U327" s="43"/>
+      <c r="V327" s="43"/>
+      <c r="W327" s="43"/>
+      <c r="X327" s="43"/>
+      <c r="Y327" s="43"/>
+      <c r="Z327" s="43"/>
+      <c r="AA327" s="43"/>
+      <c r="AB327" s="43"/>
+      <c r="AC327" s="43"/>
+      <c r="AD327" s="43"/>
+      <c r="AE327" s="43"/>
+      <c r="AF327" s="43"/>
+      <c r="AG327" s="43"/>
+    </row>
+    <row r="328" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D328" s="15"/>
+      <c r="E328" s="26"/>
+      <c r="F328" s="27"/>
+      <c r="G328" s="27"/>
+      <c r="H328" s="27"/>
+      <c r="I328" s="27"/>
+      <c r="J328" s="27"/>
+      <c r="K328" s="27"/>
+      <c r="L328" s="28"/>
+      <c r="M328" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="N328" s="46"/>
+      <c r="O328" s="46"/>
+      <c r="P328" s="46"/>
+      <c r="Q328" s="46"/>
+      <c r="R328" s="46"/>
+      <c r="S328" s="46"/>
+      <c r="T328" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="U328" s="46"/>
+      <c r="V328" s="46"/>
+      <c r="W328" s="46"/>
+      <c r="X328" s="46"/>
+      <c r="Y328" s="46"/>
+      <c r="Z328" s="46"/>
+      <c r="AA328" s="46"/>
+      <c r="AB328" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC328" s="46"/>
+      <c r="AD328" s="46"/>
+      <c r="AE328" s="46"/>
+      <c r="AF328" s="46"/>
+      <c r="AG328" s="46"/>
+    </row>
+    <row r="329" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D329" s="15"/>
+      <c r="E329" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F329" s="75"/>
+      <c r="G329" s="75"/>
+      <c r="H329" s="75"/>
+      <c r="I329" s="75"/>
+      <c r="J329" s="75"/>
+      <c r="K329" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L329" s="55"/>
+      <c r="M329" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N329" s="50"/>
+      <c r="O329" s="50"/>
+      <c r="P329" s="50"/>
+      <c r="Q329" s="50"/>
+      <c r="R329" s="50"/>
+      <c r="S329" s="50"/>
+      <c r="T329" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="U329" s="66"/>
+      <c r="V329" s="66"/>
+      <c r="W329" s="66"/>
+      <c r="X329" s="66"/>
+      <c r="Y329" s="66"/>
+      <c r="Z329" s="66"/>
+      <c r="AA329" s="67"/>
+      <c r="AB329" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC329" s="57"/>
+      <c r="AD329" s="57"/>
+      <c r="AE329" s="57"/>
+      <c r="AF329" s="57"/>
+      <c r="AG329" s="58"/>
+    </row>
+    <row r="330" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D330" s="15"/>
+      <c r="E330" s="76"/>
+      <c r="F330" s="76"/>
+      <c r="G330" s="76"/>
+      <c r="H330" s="76"/>
+      <c r="I330" s="76"/>
+      <c r="J330" s="76"/>
+      <c r="K330" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="L330" s="55"/>
+      <c r="M330" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="N330" s="50"/>
+      <c r="O330" s="50"/>
+      <c r="P330" s="50"/>
+      <c r="Q330" s="50"/>
+      <c r="R330" s="50"/>
+      <c r="S330" s="50"/>
+      <c r="T330" s="68"/>
+      <c r="U330" s="69"/>
+      <c r="V330" s="69"/>
+      <c r="W330" s="69"/>
+      <c r="X330" s="69"/>
+      <c r="Y330" s="69"/>
+      <c r="Z330" s="69"/>
+      <c r="AA330" s="70"/>
+      <c r="AB330" s="59"/>
+      <c r="AC330" s="60"/>
+      <c r="AD330" s="60"/>
+      <c r="AE330" s="60"/>
+      <c r="AF330" s="60"/>
+      <c r="AG330" s="61"/>
+    </row>
+    <row r="331" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D331" s="15"/>
+      <c r="E331" s="76"/>
+      <c r="F331" s="76"/>
+      <c r="G331" s="76"/>
+      <c r="H331" s="76"/>
+      <c r="I331" s="76"/>
+      <c r="J331" s="76"/>
+      <c r="K331" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="L331" s="55"/>
+      <c r="M331" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="N331" s="50"/>
+      <c r="O331" s="50"/>
+      <c r="P331" s="50"/>
+      <c r="Q331" s="50"/>
+      <c r="R331" s="50"/>
+      <c r="S331" s="50"/>
+      <c r="T331" s="68"/>
+      <c r="U331" s="69"/>
+      <c r="V331" s="69"/>
+      <c r="W331" s="69"/>
+      <c r="X331" s="69"/>
+      <c r="Y331" s="69"/>
+      <c r="Z331" s="69"/>
+      <c r="AA331" s="70"/>
+      <c r="AB331" s="59"/>
+      <c r="AC331" s="60"/>
+      <c r="AD331" s="60"/>
+      <c r="AE331" s="60"/>
+      <c r="AF331" s="60"/>
+      <c r="AG331" s="61"/>
+    </row>
+    <row r="332" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D332" s="15"/>
+      <c r="E332" s="77"/>
+      <c r="F332" s="77"/>
+      <c r="G332" s="77"/>
+      <c r="H332" s="77"/>
+      <c r="I332" s="77"/>
+      <c r="J332" s="77"/>
+      <c r="K332" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L332" s="55"/>
+      <c r="M332" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="N332" s="50"/>
+      <c r="O332" s="50"/>
+      <c r="P332" s="50"/>
+      <c r="Q332" s="50"/>
+      <c r="R332" s="50"/>
+      <c r="S332" s="50"/>
+      <c r="T332" s="71"/>
+      <c r="U332" s="72"/>
+      <c r="V332" s="72"/>
+      <c r="W332" s="72"/>
+      <c r="X332" s="72"/>
+      <c r="Y332" s="72"/>
+      <c r="Z332" s="72"/>
+      <c r="AA332" s="73"/>
+      <c r="AB332" s="62"/>
+      <c r="AC332" s="63"/>
+      <c r="AD332" s="63"/>
+      <c r="AE332" s="63"/>
+      <c r="AF332" s="63"/>
+      <c r="AG332" s="64"/>
+    </row>
+    <row r="333" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D333" s="15"/>
+      <c r="E333" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F333" s="74"/>
+      <c r="G333" s="74"/>
+      <c r="H333" s="74"/>
+      <c r="I333" s="74"/>
+      <c r="J333" s="74"/>
+      <c r="K333" s="74"/>
+      <c r="L333" s="55"/>
+      <c r="M333" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="N333" s="50"/>
+      <c r="O333" s="50"/>
+      <c r="P333" s="50"/>
+      <c r="Q333" s="50"/>
+      <c r="R333" s="50"/>
+      <c r="S333" s="50"/>
+      <c r="T333" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="U333" s="52"/>
+      <c r="V333" s="52"/>
+      <c r="W333" s="52"/>
+      <c r="X333" s="52"/>
+      <c r="Y333" s="52"/>
+      <c r="Z333" s="52"/>
+      <c r="AA333" s="53"/>
+      <c r="AB333" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC333" s="50"/>
+      <c r="AD333" s="50"/>
+      <c r="AE333" s="50"/>
+      <c r="AF333" s="50"/>
+      <c r="AG333" s="50"/>
+    </row>
+    <row r="334" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D334" s="15"/>
+      <c r="E334" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F334" s="74"/>
+      <c r="G334" s="74"/>
+      <c r="H334" s="74"/>
+      <c r="I334" s="74"/>
+      <c r="J334" s="74"/>
+      <c r="K334" s="74"/>
+      <c r="L334" s="55"/>
+      <c r="M334" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N334" s="50"/>
+      <c r="O334" s="50"/>
+      <c r="P334" s="50"/>
+      <c r="Q334" s="50"/>
+      <c r="R334" s="50"/>
+      <c r="S334" s="50"/>
+      <c r="T334" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="U334" s="50"/>
+      <c r="V334" s="50"/>
+      <c r="W334" s="50"/>
+      <c r="X334" s="50"/>
+      <c r="Y334" s="50"/>
+      <c r="Z334" s="50"/>
+      <c r="AA334" s="50"/>
+      <c r="AB334" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC334" s="50"/>
+      <c r="AD334" s="50"/>
+      <c r="AE334" s="50"/>
+      <c r="AF334" s="50"/>
+      <c r="AG334" s="50"/>
+    </row>
+    <row r="335" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D335" s="15"/>
+      <c r="E335" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F335" s="75"/>
+      <c r="G335" s="75"/>
+      <c r="H335" s="75"/>
+      <c r="I335" s="75"/>
+      <c r="J335" s="75"/>
+      <c r="K335" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L335" s="55"/>
+      <c r="M335" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="N297" s="47"/>
-      <c r="O297" s="47"/>
-      <c r="P297" s="47"/>
-      <c r="Q297" s="47"/>
-      <c r="R297" s="47"/>
-      <c r="S297" s="47"/>
-      <c r="T297" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="U297" s="46"/>
-      <c r="V297" s="46"/>
-      <c r="W297" s="46"/>
-      <c r="X297" s="46"/>
-      <c r="Y297" s="46"/>
-      <c r="Z297" s="46"/>
-      <c r="AA297" s="46"/>
-      <c r="AB297" s="46"/>
-      <c r="AC297" s="46"/>
-      <c r="AD297" s="46"/>
-      <c r="AE297" s="46"/>
-      <c r="AF297" s="46"/>
-      <c r="AG297" s="46"/>
-    </row>
-    <row r="298" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D298" s="15"/>
-      <c r="E298" s="26"/>
-      <c r="F298" s="27"/>
-      <c r="G298" s="27"/>
-      <c r="H298" s="27"/>
-      <c r="I298" s="27"/>
-      <c r="J298" s="27"/>
-      <c r="K298" s="27"/>
-      <c r="L298" s="28"/>
-      <c r="M298" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="N298" s="47"/>
-      <c r="O298" s="47"/>
-      <c r="P298" s="47"/>
-      <c r="Q298" s="47"/>
-      <c r="R298" s="47"/>
-      <c r="S298" s="47"/>
-      <c r="T298" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="U298" s="47"/>
-      <c r="V298" s="47"/>
-      <c r="W298" s="47"/>
-      <c r="X298" s="47"/>
-      <c r="Y298" s="47"/>
-      <c r="Z298" s="47"/>
-      <c r="AA298" s="47"/>
-      <c r="AB298" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC298" s="47"/>
-      <c r="AD298" s="47"/>
-      <c r="AE298" s="47"/>
-      <c r="AF298" s="47"/>
-      <c r="AG298" s="47"/>
-    </row>
-    <row r="299" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D299" s="15"/>
-      <c r="E299" s="69" t="s">
-        <v>144</v>
-      </c>
-      <c r="F299" s="69"/>
-      <c r="G299" s="69"/>
-      <c r="H299" s="69"/>
-      <c r="I299" s="69"/>
-      <c r="J299" s="69"/>
-      <c r="K299" s="48" t="s">
+      <c r="N335" s="48"/>
+      <c r="O335" s="48"/>
+      <c r="P335" s="48"/>
+      <c r="Q335" s="48"/>
+      <c r="R335" s="48"/>
+      <c r="S335" s="49"/>
+      <c r="T335" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="U335" s="48"/>
+      <c r="V335" s="48"/>
+      <c r="W335" s="48"/>
+      <c r="X335" s="48"/>
+      <c r="Y335" s="48"/>
+      <c r="Z335" s="48"/>
+      <c r="AA335" s="48"/>
+      <c r="AB335" s="48"/>
+      <c r="AC335" s="48"/>
+      <c r="AD335" s="48"/>
+      <c r="AE335" s="48"/>
+      <c r="AF335" s="48"/>
+      <c r="AG335" s="49"/>
+    </row>
+    <row r="336" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D336" s="15"/>
+      <c r="E336" s="76"/>
+      <c r="F336" s="76"/>
+      <c r="G336" s="76"/>
+      <c r="H336" s="76"/>
+      <c r="I336" s="76"/>
+      <c r="J336" s="76"/>
+      <c r="K336" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="L299" s="49"/>
-      <c r="M299" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N299" s="42"/>
-      <c r="O299" s="42"/>
-      <c r="P299" s="42"/>
-      <c r="Q299" s="42"/>
-      <c r="R299" s="42"/>
-      <c r="S299" s="42"/>
-      <c r="T299" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="U299" s="60"/>
-      <c r="V299" s="60"/>
-      <c r="W299" s="60"/>
-      <c r="X299" s="60"/>
-      <c r="Y299" s="60"/>
-      <c r="Z299" s="60"/>
-      <c r="AA299" s="61"/>
-      <c r="AB299" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC299" s="51"/>
-      <c r="AD299" s="51"/>
-      <c r="AE299" s="51"/>
-      <c r="AF299" s="51"/>
-      <c r="AG299" s="52"/>
-    </row>
-    <row r="300" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D300" s="15"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="70"/>
-      <c r="H300" s="70"/>
-      <c r="I300" s="70"/>
-      <c r="J300" s="70"/>
-      <c r="K300" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L300" s="49"/>
-      <c r="M300" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="N300" s="42"/>
-      <c r="O300" s="42"/>
-      <c r="P300" s="42"/>
-      <c r="Q300" s="42"/>
-      <c r="R300" s="42"/>
-      <c r="S300" s="42"/>
-      <c r="T300" s="62"/>
-      <c r="U300" s="63"/>
-      <c r="V300" s="63"/>
-      <c r="W300" s="63"/>
-      <c r="X300" s="63"/>
-      <c r="Y300" s="63"/>
-      <c r="Z300" s="63"/>
-      <c r="AA300" s="64"/>
-      <c r="AB300" s="53"/>
-      <c r="AC300" s="54"/>
-      <c r="AD300" s="54"/>
-      <c r="AE300" s="54"/>
-      <c r="AF300" s="54"/>
-      <c r="AG300" s="55"/>
-    </row>
-    <row r="301" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D301" s="15"/>
-      <c r="E301" s="70"/>
-      <c r="F301" s="70"/>
-      <c r="G301" s="70"/>
-      <c r="H301" s="70"/>
-      <c r="I301" s="70"/>
-      <c r="J301" s="70"/>
-      <c r="K301" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="L301" s="49"/>
-      <c r="M301" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="N301" s="42"/>
-      <c r="O301" s="42"/>
-      <c r="P301" s="42"/>
-      <c r="Q301" s="42"/>
-      <c r="R301" s="42"/>
-      <c r="S301" s="42"/>
-      <c r="T301" s="62"/>
-      <c r="U301" s="63"/>
-      <c r="V301" s="63"/>
-      <c r="W301" s="63"/>
-      <c r="X301" s="63"/>
-      <c r="Y301" s="63"/>
-      <c r="Z301" s="63"/>
-      <c r="AA301" s="64"/>
-      <c r="AB301" s="53"/>
-      <c r="AC301" s="54"/>
-      <c r="AD301" s="54"/>
-      <c r="AE301" s="54"/>
-      <c r="AF301" s="54"/>
-      <c r="AG301" s="55"/>
-    </row>
-    <row r="302" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D302" s="15"/>
-      <c r="E302" s="71"/>
-      <c r="F302" s="71"/>
-      <c r="G302" s="71"/>
-      <c r="H302" s="71"/>
-      <c r="I302" s="71"/>
-      <c r="J302" s="71"/>
-      <c r="K302" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="L302" s="49"/>
-      <c r="M302" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N302" s="42"/>
-      <c r="O302" s="42"/>
-      <c r="P302" s="42"/>
-      <c r="Q302" s="42"/>
-      <c r="R302" s="42"/>
-      <c r="S302" s="42"/>
-      <c r="T302" s="65"/>
-      <c r="U302" s="66"/>
-      <c r="V302" s="66"/>
-      <c r="W302" s="66"/>
-      <c r="X302" s="66"/>
-      <c r="Y302" s="66"/>
-      <c r="Z302" s="66"/>
-      <c r="AA302" s="67"/>
-      <c r="AB302" s="56"/>
-      <c r="AC302" s="57"/>
-      <c r="AD302" s="57"/>
-      <c r="AE302" s="57"/>
-      <c r="AF302" s="57"/>
-      <c r="AG302" s="58"/>
-    </row>
-    <row r="303" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D303" s="15"/>
-      <c r="E303" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="F303" s="68"/>
-      <c r="G303" s="68"/>
-      <c r="H303" s="68"/>
-      <c r="I303" s="68"/>
-      <c r="J303" s="68"/>
-      <c r="K303" s="68"/>
-      <c r="L303" s="49"/>
-      <c r="M303" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="N303" s="42"/>
-      <c r="O303" s="42"/>
-      <c r="P303" s="42"/>
-      <c r="Q303" s="42"/>
-      <c r="R303" s="42"/>
-      <c r="S303" s="42"/>
-      <c r="T303" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="U303" s="44"/>
-      <c r="V303" s="44"/>
-      <c r="W303" s="44"/>
-      <c r="X303" s="44"/>
-      <c r="Y303" s="44"/>
-      <c r="Z303" s="44"/>
-      <c r="AA303" s="45"/>
-      <c r="AB303" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC303" s="42"/>
-      <c r="AD303" s="42"/>
-      <c r="AE303" s="42"/>
-      <c r="AF303" s="42"/>
-      <c r="AG303" s="42"/>
-    </row>
-    <row r="304" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D304" s="15"/>
-      <c r="E304" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F304" s="68"/>
-      <c r="G304" s="68"/>
-      <c r="H304" s="68"/>
-      <c r="I304" s="68"/>
-      <c r="J304" s="68"/>
-      <c r="K304" s="68"/>
-      <c r="L304" s="49"/>
-      <c r="M304" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="N304" s="42"/>
-      <c r="O304" s="42"/>
-      <c r="P304" s="42"/>
-      <c r="Q304" s="42"/>
-      <c r="R304" s="42"/>
-      <c r="S304" s="42"/>
-      <c r="T304" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="U304" s="42"/>
-      <c r="V304" s="42"/>
-      <c r="W304" s="42"/>
-      <c r="X304" s="42"/>
-      <c r="Y304" s="42"/>
-      <c r="Z304" s="42"/>
-      <c r="AA304" s="42"/>
-      <c r="AB304" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC304" s="42"/>
-      <c r="AD304" s="42"/>
-      <c r="AE304" s="42"/>
-      <c r="AF304" s="42"/>
-      <c r="AG304" s="42"/>
-    </row>
-    <row r="305" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D305" s="15"/>
-      <c r="E305" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="F305" s="69"/>
-      <c r="G305" s="69"/>
-      <c r="H305" s="69"/>
-      <c r="I305" s="69"/>
-      <c r="J305" s="69"/>
-      <c r="K305" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="L305" s="49"/>
-      <c r="M305" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="N305" s="40"/>
-      <c r="O305" s="40"/>
-      <c r="P305" s="40"/>
-      <c r="Q305" s="40"/>
-      <c r="R305" s="40"/>
-      <c r="S305" s="41"/>
-      <c r="T305" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="U305" s="40"/>
-      <c r="V305" s="40"/>
-      <c r="W305" s="40"/>
-      <c r="X305" s="40"/>
-      <c r="Y305" s="40"/>
-      <c r="Z305" s="40"/>
-      <c r="AA305" s="40"/>
-      <c r="AB305" s="40"/>
-      <c r="AC305" s="40"/>
-      <c r="AD305" s="40"/>
-      <c r="AE305" s="40"/>
-      <c r="AF305" s="40"/>
-      <c r="AG305" s="41"/>
-    </row>
-    <row r="306" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D306" s="15"/>
-      <c r="E306" s="70"/>
-      <c r="F306" s="70"/>
-      <c r="G306" s="70"/>
-      <c r="H306" s="70"/>
-      <c r="I306" s="70"/>
-      <c r="J306" s="70"/>
-      <c r="K306" s="48" t="s">
+      <c r="L336" s="55"/>
+      <c r="M336" s="47"/>
+      <c r="N336" s="48"/>
+      <c r="O336" s="48"/>
+      <c r="P336" s="48"/>
+      <c r="Q336" s="48"/>
+      <c r="R336" s="48"/>
+      <c r="S336" s="49"/>
+      <c r="T336" s="47"/>
+      <c r="U336" s="48"/>
+      <c r="V336" s="48"/>
+      <c r="W336" s="48"/>
+      <c r="X336" s="48"/>
+      <c r="Y336" s="48"/>
+      <c r="Z336" s="48"/>
+      <c r="AA336" s="48"/>
+      <c r="AB336" s="48"/>
+      <c r="AC336" s="48"/>
+      <c r="AD336" s="48"/>
+      <c r="AE336" s="48"/>
+      <c r="AF336" s="48"/>
+      <c r="AG336" s="49"/>
+    </row>
+    <row r="337" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D337" s="15"/>
+      <c r="E337" s="77"/>
+      <c r="F337" s="77"/>
+      <c r="G337" s="77"/>
+      <c r="H337" s="77"/>
+      <c r="I337" s="77"/>
+      <c r="J337" s="77"/>
+      <c r="K337" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="L306" s="49"/>
-      <c r="M306" s="39"/>
-      <c r="N306" s="40"/>
-      <c r="O306" s="40"/>
-      <c r="P306" s="40"/>
-      <c r="Q306" s="40"/>
-      <c r="R306" s="40"/>
-      <c r="S306" s="41"/>
-      <c r="T306" s="39"/>
-      <c r="U306" s="40"/>
-      <c r="V306" s="40"/>
-      <c r="W306" s="40"/>
-      <c r="X306" s="40"/>
-      <c r="Y306" s="40"/>
-      <c r="Z306" s="40"/>
-      <c r="AA306" s="40"/>
-      <c r="AB306" s="40"/>
-      <c r="AC306" s="40"/>
-      <c r="AD306" s="40"/>
-      <c r="AE306" s="40"/>
-      <c r="AF306" s="40"/>
-      <c r="AG306" s="41"/>
-    </row>
-    <row r="307" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D307" s="15"/>
-      <c r="E307" s="71"/>
-      <c r="F307" s="71"/>
-      <c r="G307" s="71"/>
-      <c r="H307" s="71"/>
-      <c r="I307" s="71"/>
-      <c r="J307" s="71"/>
-      <c r="K307" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="L307" s="49"/>
-      <c r="M307" s="39"/>
-      <c r="N307" s="40"/>
-      <c r="O307" s="40"/>
-      <c r="P307" s="40"/>
-      <c r="Q307" s="40"/>
-      <c r="R307" s="40"/>
-      <c r="S307" s="41"/>
-      <c r="T307" s="39"/>
-      <c r="U307" s="40"/>
-      <c r="V307" s="40"/>
-      <c r="W307" s="40"/>
-      <c r="X307" s="40"/>
-      <c r="Y307" s="40"/>
-      <c r="Z307" s="40"/>
-      <c r="AA307" s="40"/>
-      <c r="AB307" s="40"/>
-      <c r="AC307" s="40"/>
-      <c r="AD307" s="40"/>
-      <c r="AE307" s="40"/>
-      <c r="AF307" s="40"/>
-      <c r="AG307" s="41"/>
-    </row>
-    <row r="308" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D308" s="15"/>
-    </row>
-    <row r="309" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D309" s="15"/>
-    </row>
-    <row r="310" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D310" s="15"/>
-    </row>
-    <row r="311" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="L337" s="55"/>
+      <c r="M337" s="47"/>
+      <c r="N337" s="48"/>
+      <c r="O337" s="48"/>
+      <c r="P337" s="48"/>
+      <c r="Q337" s="48"/>
+      <c r="R337" s="48"/>
+      <c r="S337" s="49"/>
+      <c r="T337" s="47"/>
+      <c r="U337" s="48"/>
+      <c r="V337" s="48"/>
+      <c r="W337" s="48"/>
+      <c r="X337" s="48"/>
+      <c r="Y337" s="48"/>
+      <c r="Z337" s="48"/>
+      <c r="AA337" s="48"/>
+      <c r="AB337" s="48"/>
+      <c r="AC337" s="48"/>
+      <c r="AD337" s="48"/>
+      <c r="AE337" s="48"/>
+      <c r="AF337" s="48"/>
+      <c r="AG337" s="49"/>
+    </row>
+    <row r="338" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D338" s="15"/>
+    </row>
+    <row r="339" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D339" s="15"/>
+    </row>
+    <row r="340" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D340" s="15"/>
+    </row>
+    <row r="341" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="353" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="354" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="355" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6287,8 +7106,38 @@
     <row r="739" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="740" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="741" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="78">
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="J22:M22"/>
     <mergeCell ref="AF3:AI3"/>
@@ -6302,41 +7151,71 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="E299:J299"/>
-    <mergeCell ref="E300:J300"/>
-    <mergeCell ref="E302:J302"/>
-    <mergeCell ref="M298:S298"/>
-    <mergeCell ref="E301:J301"/>
-    <mergeCell ref="K305:L305"/>
-    <mergeCell ref="K306:L306"/>
-    <mergeCell ref="K307:L307"/>
-    <mergeCell ref="E303:L303"/>
-    <mergeCell ref="E304:L304"/>
-    <mergeCell ref="E305:J305"/>
-    <mergeCell ref="E306:J306"/>
-    <mergeCell ref="E307:J307"/>
-    <mergeCell ref="T297:AG297"/>
-    <mergeCell ref="M297:S297"/>
-    <mergeCell ref="K299:L299"/>
-    <mergeCell ref="K300:L300"/>
-    <mergeCell ref="K302:L302"/>
-    <mergeCell ref="AB298:AG298"/>
-    <mergeCell ref="T298:AA298"/>
-    <mergeCell ref="AB299:AG302"/>
-    <mergeCell ref="T299:AA302"/>
-    <mergeCell ref="K301:L301"/>
-    <mergeCell ref="M305:S307"/>
-    <mergeCell ref="T305:AG307"/>
-    <mergeCell ref="M299:S299"/>
-    <mergeCell ref="M300:S300"/>
-    <mergeCell ref="M302:S302"/>
-    <mergeCell ref="M303:S303"/>
-    <mergeCell ref="M304:S304"/>
-    <mergeCell ref="AB303:AG303"/>
-    <mergeCell ref="AB304:AG304"/>
-    <mergeCell ref="T303:AA303"/>
-    <mergeCell ref="T304:AA304"/>
-    <mergeCell ref="M301:S301"/>
+    <mergeCell ref="E329:J329"/>
+    <mergeCell ref="E330:J330"/>
+    <mergeCell ref="E332:J332"/>
+    <mergeCell ref="M328:S328"/>
+    <mergeCell ref="E331:J331"/>
+    <mergeCell ref="K335:L335"/>
+    <mergeCell ref="K336:L336"/>
+    <mergeCell ref="K337:L337"/>
+    <mergeCell ref="E333:L333"/>
+    <mergeCell ref="E334:L334"/>
+    <mergeCell ref="E335:J335"/>
+    <mergeCell ref="E336:J336"/>
+    <mergeCell ref="E337:J337"/>
+    <mergeCell ref="T327:AG327"/>
+    <mergeCell ref="M327:S327"/>
+    <mergeCell ref="K329:L329"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="K332:L332"/>
+    <mergeCell ref="AB328:AG328"/>
+    <mergeCell ref="T328:AA328"/>
+    <mergeCell ref="AB329:AG332"/>
+    <mergeCell ref="T329:AA332"/>
+    <mergeCell ref="K331:L331"/>
+    <mergeCell ref="M335:S337"/>
+    <mergeCell ref="T335:AG337"/>
+    <mergeCell ref="M329:S329"/>
+    <mergeCell ref="M330:S330"/>
+    <mergeCell ref="M332:S332"/>
+    <mergeCell ref="M333:S333"/>
+    <mergeCell ref="M334:S334"/>
+    <mergeCell ref="AB333:AG333"/>
+    <mergeCell ref="AB334:AG334"/>
+    <mergeCell ref="T333:AA333"/>
+    <mergeCell ref="T334:AA334"/>
+    <mergeCell ref="M331:S331"/>
+    <mergeCell ref="H283:K283"/>
+    <mergeCell ref="L283:AA283"/>
+    <mergeCell ref="H284:K284"/>
+    <mergeCell ref="L284:AA285"/>
+    <mergeCell ref="H285:K285"/>
+    <mergeCell ref="H286:K286"/>
+    <mergeCell ref="L286:AA287"/>
+    <mergeCell ref="H287:K287"/>
+    <mergeCell ref="H288:K288"/>
+    <mergeCell ref="L288:AA288"/>
+    <mergeCell ref="H291:J291"/>
+    <mergeCell ref="K291:U291"/>
+    <mergeCell ref="H292:J292"/>
+    <mergeCell ref="K292:U292"/>
+    <mergeCell ref="H293:J293"/>
+    <mergeCell ref="K293:U293"/>
+    <mergeCell ref="H294:J294"/>
+    <mergeCell ref="K294:U294"/>
+    <mergeCell ref="H295:J295"/>
+    <mergeCell ref="K295:U295"/>
+    <mergeCell ref="H298:J298"/>
+    <mergeCell ref="K298:U298"/>
+    <mergeCell ref="I305:M305"/>
+    <mergeCell ref="H306:H309"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="K299:U299"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="K300:U300"/>
+    <mergeCell ref="H301:J301"/>
+    <mergeCell ref="K301:U301"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6349,14 +7228,15 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <rowBreaks count="7" manualBreakCount="7">
+  <rowBreaks count="8" manualBreakCount="8">
     <brk id="42" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
     <brk id="114" max="34" man="1"/>
     <brk id="150" max="34" man="1"/>
     <brk id="191" max="34" man="1"/>
     <brk id="233" max="34" man="1"/>
-    <brk id="280" max="34" man="1"/>
+    <brk id="276" max="34" man="1"/>
+    <brk id="310" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_7処理方式共通_7.5.認証・認可.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE662F-744A-4A4B-8583-11AC3595D993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7.5.認証・認可" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$341</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_8C881184_F554_455B_85E9_7E00CAD758E3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'7.5.認証・認可'!$A$1:$AI$340</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="190">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -604,22 +616,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Nablarchの認可チェックの詳細に関しては、Nablarchガイドの【7.15. 認可チェック】を参照のこと。</t>
-    <rPh sb="9" eb="11">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -653,6 +649,986 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>認証チェックシーケンス</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本処理は認証チェックハンドラを通じて行うものとする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).1.4.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).1.1.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).1.2.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).1.3.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).1.4.1.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).2.1.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(1).1.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員サイトにリクエストがなされたとき、リクエストが認証されたものかどうかをチェックする。</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).2.2.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【(2).1.2.認証チェックシーケンス】と同様。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).2.3.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).2.4.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).2.4.1.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(2).2.4.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードの変更</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機能なし（SEメンテ）</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロックアカウントの解除</t>
+    <rPh sb="9" eb="11">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロックされることがない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>30分経過後、自動解除</t>
+    <rPh sb="2" eb="3">
+      <t>プン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>認可単位</t>
+    <rPh sb="0" eb="2">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員サイト</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SEメンテ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員パスワード忘れ機能にて解除</t>
+    <rPh sb="13" eb="15">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データモデル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>要件定義</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>本システムでは、「管理者サイト」と「会員サイト」の２種類のWebサイトが提供される。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「管理者サイト」は管理者が業務のために利用し、「会員サイト」はカード会員に対し各種サービスを提供する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者の場合：</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイト認証方式</t>
+    <rPh sb="6" eb="8">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>本処理は管理者認証ハンドラを通じて行うものとする。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトにリクエストがなされたとき、リクエストが認証されたものかどうかをチェックする。</t>
+    <rPh sb="26" eb="28">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトの認可設定</t>
+    <rPh sb="7" eb="9">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社社員の場合：</t>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社社員の場合、アクセスする際にログイン画面を表示する。（フォーム認証方式と同じ）</t>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シングルサインオン用サイトと連携することによる自動登録</t>
+    <rPh sb="14" eb="16">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機能なし（シングルサインオン用サイトと同期）</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者の場合、シングルサインオン用サイトからのアクセスのみとなる。</t>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アクセスする際に本システムのログイン画面は表示しない。</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基本的にメールアドレス、パスワードのフォーム認証を行う。</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員申込時に本人認証APIにより初回認証を強制する。</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員申込機能を利用</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モウシコミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員属性変更機能を利用</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員属性照会機能を利用</t>
+    <rPh sb="4" eb="6">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員退会機能を利用</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下に認証・認可の管理運用指針をサイトごとにまとめる。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本システムの認可方式はNablarch標準の認可チェック機能（ここでは特に認可チェックハンドラ）を用いて実現する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nablarch認可機能を利用</t>
+    <rPh sb="8" eb="10">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>認可方法</t>
+    <rPh sb="0" eb="2">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員サイトでは、認証方式として、ログイン画面でログインID（メールアドレス）およびパスワードを要求する</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各ユーザのパスワードは、不可逆暗号化（ハッシュ化）した状態でデータベース上に保存され、</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力パスワードを同じ方式で暗号化したものと比較することによって、パスワードの一致判定を行う。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シングルサインオン用サイトより渡されたURLパラメータに暗号化された管理者IDが存在する場合、</t>
+    <rPh sb="15" eb="16">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者が管理者サイトを利用する際には、シングルサインオン用サイトより連携され、</t>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者認証情報取込（バッチ処理）により取り込まれた認証情報を利用する。</t>
+  </si>
+  <si>
+    <t>本処理は認証ユーティリティを通じて行うものとする。</t>
+  </si>
+  <si>
+    <t>本システムにおいては区別せずNablarch認可チェックの標準スキーマで管理する。</t>
+  </si>
+  <si>
+    <t>Nablarch標準機能にて要件を実現可能なため。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ種別</t>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトでは、以下の方式で管理者ユーザ・保守会社ユーザが存在する。</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ユーザ：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザ：</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザはログイン画面からログインID、パスワードを入力するフォーム認証を行う。</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フォーム認証を行ったユーザは保守会社ユーザとする。</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ユーザが管理者サイトにアクセスする際は、アクセスURLに付与されたハッシュ化管理者IDを用いて認証処理を行う。</t>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下に管理者ユーザの管理者サイトでの認証処理に関するシーケンスを記す。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下に管理者ユーザの認証処理方式に関連したデータモデルを記す。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社社員が管理者サイトを利用する際には、事前に保守会社ユーザ情報登録により登録された認証情報を利用する。</t>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本方式においてはログイン画面を提供し、ユーザID・パスワードを入力するフォーム認証を実施する。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下に保守会社ユーザの管理者サイトでの認証処理に関するシーケンスを記す。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下に保守会社ユーザの認証処理方式に関したデータモデルを記す。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザ認証情報のメンテナンス</t>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザの認証情報はSE作業によりメンテナンスされる。</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会員サイトでは認証できたユーザはすべてのページを閲覧可能なように認可設定を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトではユーザの種別が管理者ユーザと保守会社ユーザがあるが、</t>
+    <rPh sb="12" eb="14">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザアカウント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ユーザ用の認証を行う。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※会員サイトにて特別なロールを持ったユーザやグループを定義する必要がある場合、プロジェクト内のアーキテクトに相談すること。</t>
+    <rPh sb="1" eb="3">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者ユーザの認証処理はシングルサインオン用サイトにて行われるため、本システムではアカウントのロックを行わない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/permission_check.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nablarchの認可チェックの詳細に関しては、下記Nablarchガイドの【7.15. 認可チェック】を参照のこと。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一般的なフォーム認証方式を採用する。</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンテキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトでは、ログインするユーザが管理者ユーザであるか保守会社ユーザであるかによって認証の方法を切り替える</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カスタム認証方式を採用する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>保守会社ユーザが管理者サイトを利用する際はログイン画面を用いて認証処理を行う。</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者サイトのグループ設定例：</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>グループ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -660,6 +1636,36 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一般職</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職軸でのグループ分け</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>役職者</t>
     <rPh sb="0" eb="3">
       <t>ヤクショクシャ</t>
@@ -667,16 +1673,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>一般職</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>本部</t>
     <rPh sb="0" eb="2">
       <t>ホンブ</t>
@@ -684,6 +1680,22 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>事業部軸でのグループ分け</t>
+    <rPh sb="0" eb="2">
+      <t>ジギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>支部</t>
     <rPh sb="0" eb="2">
       <t>シブ</t>
@@ -701,42 +1713,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>役職軸でのグループ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>事業部軸でのグループ分け</t>
-    <rPh sb="0" eb="2">
-      <t>ジギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>役職軸、事業部軸の合成軸でのグループ分け</t>
     <rPh sb="0" eb="2">
       <t>ヤクショク</t>
@@ -765,15 +1741,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>C</t>
+    <t>管理者サイトのリクエスト許可単位設定例：</t>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>レイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -788,19 +1768,48 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全てのグループ</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>D</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>管理者サイトのユーザ設定</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所属グループ</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>X</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Z</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -820,26 +1829,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>所属グループ</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
+    <t>Y</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -856,7 +1846,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>×</t>
+    <t>Z</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -873,11 +1863,30 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>上記の例で、ユーザに対して許可されるリクエストは以下のマトリックスになる。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リクエスト</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -895,1060 +1904,52 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>全てのグループ</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザ、グループ毎の許可単位設定は定義しない。</t>
-    <rPh sb="8" eb="9">
+    <t>なお、ユーザ、グループ毎の許可単位設定は定義しない。</t>
+    <rPh sb="11" eb="12">
       <t>ゴト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>認証チェックシーケンス</t>
-    <rPh sb="0" eb="2">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本処理は認証チェックハンドラを通じて行うものとする。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).1.4.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).1.1.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).1.2.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).1.3.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).1.4.1.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).2.1.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(1).1.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員サイトにリクエストがなされたとき、リクエストが認証されたものかどうかをチェックする。</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).2.2.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>【(2).1.2.認証チェックシーケンス】と同様。</t>
-    <rPh sb="9" eb="11">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).2.3.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).2.4.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).2.4.1.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(2).2.4.2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パスワードの変更</t>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機能なし（SEメンテ）</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ロックアカウントの解除</t>
-    <rPh sb="9" eb="11">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ロックされることがない</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>30分経過後、自動解除</t>
-    <rPh sb="2" eb="3">
-      <t>プン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>認可単位</t>
-    <rPh sb="0" eb="2">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員サイト</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SEメンテ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員パスワード忘れ機能にて解除</t>
-    <rPh sb="13" eb="15">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>データモデル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要件定義</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウケンテイギ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>本システムでは、「管理者サイト」と「会員サイト」の２種類のWebサイトが提供される。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「管理者サイト」は管理者が業務のために利用し、「会員サイト」はカード会員に対し各種サービスを提供する。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者の場合：</t>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイト認証方式</t>
-    <rPh sb="6" eb="8">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>本処理は管理者認証ハンドラを通じて行うものとする。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトにリクエストがなされたとき、リクエストが認証されたものかどうかをチェックする。</t>
-    <rPh sb="26" eb="28">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトの認可設定</t>
-    <rPh sb="7" eb="9">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトのグループ設定例：</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトのリクエスト許可単位設定例：</t>
-    <rPh sb="12" eb="14">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社社員の場合：</t>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社社員の場合、アクセスする際にログイン画面を表示する。（フォーム認証方式と同じ）</t>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>シングルサインオン用サイトと連携することによる自動登録</t>
-    <rPh sb="14" eb="16">
-      <t>レンケイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機能なし（シングルサインオン用サイトと同期）</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ドウキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者の場合、シングルサインオン用サイトからのアクセスのみとなる。</t>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アクセスする際に本システムのログイン画面は表示しない。</t>
-    <rPh sb="8" eb="9">
-      <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>基本的にメールアドレス、パスワードのフォーム認証を行う。</t>
-    <rPh sb="0" eb="3">
-      <t>キホンテキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員申込時に本人認証APIにより初回認証を強制する。</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員申込機能を利用</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モウシコミ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>参照</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員属性変更機能を利用</t>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員属性照会機能を利用</t>
-    <rPh sb="4" eb="6">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員退会機能を利用</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>以下に認証・認可の管理運用指針をサイトごとにまとめる。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ウンヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本システムの認可方式はNablarch標準の認可チェック機能（ここでは特に認可チェックハンドラ）を用いて実現する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジツゲン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Nablarch認可機能を利用</t>
-    <rPh sb="8" eb="10">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>認可方法</t>
-    <rPh sb="0" eb="2">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員サイトでは、認証方式として、ログイン画面でログインID（メールアドレス）およびパスワードを要求する</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ベーシックなフォーム認証方式を採用する。</t>
-  </si>
-  <si>
-    <t>各ユーザのパスワードは、不可逆暗号化（ハッシュ化）した状態でデータベース上に保存され、</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>入力パスワードを同じ方式で暗号化したものと比較することによって、パスワードの一致判定を行う。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>認証をするカスタム認証方式を採用する。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>シングルサインオン用サイトより渡されたURLパラメータに暗号化された管理者IDが存在する場合、</t>
-    <rPh sb="15" eb="16">
-      <t>ワタ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者が管理者サイトを利用する際には、シングルサインオン用サイトより連携され、</t>
-    <rPh sb="11" eb="13">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者認証情報取込（バッチ処理）により取り込まれた認証情報を利用する。</t>
-  </si>
-  <si>
-    <t>アカウントのロックは行わない。</t>
-  </si>
-  <si>
-    <t>本処理は認証ユーティリティを通じて行うものとする。</t>
-  </si>
-  <si>
-    <t>本システムにおいては区別せずNablarch認可チェックの標準スキーマで管理する。</t>
-  </si>
-  <si>
-    <t>Nablarch標準機能にて要件を実現可能なため。</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトでは、ログインするユーザが管理者ユーザであるのか、保守会社ユーザであるのかを切り替え、</t>
-    <rPh sb="44" eb="45">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザ種別</t>
-    <rPh sb="3" eb="5">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトでは、以下の方式で管理者ユーザ・保守会社ユーザが存在する。</t>
-    <rPh sb="9" eb="11">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者ユーザ：</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社ユーザ：</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社ユーザはログイン画面からログインID、パスワードを入力するフォーム認証を行う。</t>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>フォーム認証を行ったユーザは保守会社ユーザとする。</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者ユーザ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者ユーザが管理者サイトにアクセスする際は、アクセスURLに付与されたハッシュ化管理者IDを用いて認証処理を行う。</t>
-    <rPh sb="20" eb="21">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>以下に管理者ユーザの管理者サイトでの認証処理に関するシーケンスを記す。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>以下に管理者ユーザの認証処理方式に関連したデータモデルを記す。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者ユーザが管理者サイトを利用するにあたり、認証情報がシングルサインオン用サイトより連携されたものになるため、</t>
-    <rPh sb="14" eb="16">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社ユーザ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社社員が管理者サイトを利用する際には、事前に保守会社ユーザ情報登録により登録された認証情報を利用する。</t>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>本方式においてはログイン画面を提供し、ユーザID・パスワードを入力するフォーム認証を実施する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社ユーザが管理者サイトを利用する際はログイン画面を用いて認可処理を行う。</t>
-    <rPh sb="15" eb="17">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>以下に保守会社ユーザの管理者サイトでの認証処理に関するシーケンスを記す。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>以下に保守会社ユーザの認証処理方式に関したデータモデルを記す。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社ユーザ認証情報のメンテナンス</t>
-    <rPh sb="7" eb="9">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社ユーザの認証情報はSE作業によりメンテナンスされる。</t>
-    <rPh sb="8" eb="10">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会員サイトでは認証できたユーザはすべてのページを閲覧可能なように認可設定を行う。</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニンカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトではユーザの種別が管理者ユーザと保守会社ユーザがあるが、</t>
-    <rPh sb="12" eb="14">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザアカウント</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者ユーザ用の認証を行う。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※会員サイトにて特別なロールを持ったユーザやグループを定義する必要がある場合、プロジェクト内のアーキテクトに相談すること。</t>
-    <rPh sb="1" eb="3">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ソウダン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者サイトのユーザ設定</t>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>上記の例で、ユーザに対して許可されるリクエストは以下のマトリックスになる。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
     </rPh>
     <rPh sb="13" eb="15">
       <t>キョカ</t>
     </rPh>
-    <rPh sb="24" eb="26">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>管理者ユーザ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>保守会社ユーザ</t>
+    <rPh sb="15" eb="17">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ただし、ページで表示するデータはそのユーザのデータのみとなるように各機能で表示データを制御する。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイギョ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2004,6 +2005,14 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2204,7 +2213,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2212,8 +2221,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2275,55 +2285,175 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
@@ -2335,123 +2465,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2519,18 +2532,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="4"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2553,7 +2570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2608,7 +2631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2663,7 +2692,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2718,7 +2753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2773,7 +2814,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2828,7 +2875,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2872,18 +2925,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2927,18 +2986,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2982,18 +3047,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3037,18 +3108,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3092,7 +3169,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3134,7 +3211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3167,9 +3244,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3202,6 +3296,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3377,11 +3488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI772"/>
+  <dimension ref="A1:AI771"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3397,43 +3508,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="88"/>
+      <c r="R1" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="89"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="82"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="83"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -3442,43 +3553,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="98"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="82"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="83"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -3487,39 +3598,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="101"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="82"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="83"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3563,12 +3674,12 @@
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F11" s="4" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="4" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3656,402 +3767,402 @@
       <c r="AH17" s="20"/>
     </row>
     <row r="18" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="77" t="s">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="33" t="s">
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="34"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="31"/>
     </row>
     <row r="19" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="34"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="31"/>
     </row>
     <row r="20" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="34"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="31"/>
     </row>
     <row r="21" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="34"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="31"/>
     </row>
     <row r="22" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="77" t="s">
+      <c r="F22" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="39" t="s">
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="40"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="37"/>
     </row>
     <row r="23" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="34"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="31"/>
     </row>
     <row r="24" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="31"/>
     </row>
     <row r="25" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="34"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="31"/>
     </row>
     <row r="26" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="34"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="31"/>
     </row>
     <row r="27" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="34"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="31"/>
     </row>
     <row r="28" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="34"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="31"/>
     </row>
     <row r="29" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="37"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="34"/>
     </row>
     <row r="30" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="16"/>
@@ -4136,25 +4247,25 @@
     <row r="34" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="15"/>
       <c r="G34" s="4" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="15"/>
       <c r="G35" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="15"/>
       <c r="G36" s="4" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="15"/>
       <c r="G37" s="4" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4181,7 +4292,7 @@
     <row r="43" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F43" s="15"/>
       <c r="G43" s="15" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>41</v>
@@ -4265,19 +4376,19 @@
         <v>37</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F62" s="15"/>
       <c r="H62" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F63" s="15"/>
       <c r="H63" s="4" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="6:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4420,19 +4531,19 @@
         <v>29</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="15"/>
       <c r="G101" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F102" s="15"/>
       <c r="G102" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4444,13 +4555,13 @@
         <v>31</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F105" s="15"/>
       <c r="H105" s="4" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4459,16 +4570,16 @@
     <row r="107" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F107" s="15"/>
       <c r="H107" s="4" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F108" s="15"/>
       <c r="L108" s="4" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4483,16 +4594,16 @@
     <row r="111" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F111" s="15"/>
       <c r="H111" s="4" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F112" s="15"/>
       <c r="L112" s="4" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4507,19 +4618,19 @@
         <v>31</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="15"/>
       <c r="H116" s="4" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F117" s="15"/>
       <c r="H117" s="4" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4528,7 +4639,7 @@
     <row r="119" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F119" s="15"/>
       <c r="H119" s="15" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>41</v>
@@ -4537,19 +4648,19 @@
     <row r="120" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="15"/>
       <c r="I120" s="4" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F121" s="15"/>
       <c r="I121" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="15"/>
       <c r="I122" s="4" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4557,7 +4668,7 @@
     </row>
     <row r="124" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F124" s="15"/>
-      <c r="I124" s="25"/>
+      <c r="I124" s="22"/>
     </row>
     <row r="125" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F125" s="15"/>
@@ -4595,22 +4706,22 @@
     <row r="136" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F136" s="15"/>
       <c r="H136" s="15" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F137" s="15"/>
       <c r="I137" s="4" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F138" s="15"/>
       <c r="I138" s="4" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4652,7 +4763,7 @@
     <row r="151" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F151" s="15"/>
       <c r="H151" s="15" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>34</v>
@@ -4661,7 +4772,7 @@
     <row r="152" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F152" s="15"/>
       <c r="I152" s="4" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4712,7 +4823,7 @@
     <row r="168" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F168" s="15"/>
       <c r="H168" s="15" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="I168" s="4" t="s">
         <v>35</v>
@@ -4721,7 +4832,7 @@
     <row r="169" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F169" s="15"/>
       <c r="I169" s="15" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>36</v>
@@ -4730,71 +4841,68 @@
     <row r="170" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F170" s="15"/>
       <c r="J170" s="4" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F171" s="15"/>
-      <c r="J171" s="4" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="172" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F172" s="15"/>
+      <c r="G172" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="173" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="15"/>
+      <c r="H173" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="174" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F174" s="15"/>
-      <c r="G174" s="15" t="s">
-        <v>32</v>
-      </c>
       <c r="H174" s="4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F175" s="15"/>
-      <c r="H175" s="4" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="176" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F176" s="15"/>
-      <c r="H176" s="4" t="s">
-        <v>178</v>
+      <c r="H176" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="15"/>
+      <c r="I177" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="178" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F178" s="15"/>
-      <c r="H178" s="15" t="s">
-        <v>100</v>
-      </c>
       <c r="I178" s="4" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F179" s="15"/>
       <c r="I179" s="4" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F180" s="15"/>
-      <c r="I180" s="4" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="181" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F181" s="15"/>
-      <c r="I181" s="4" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="182" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F182" s="15"/>
@@ -4828,48 +4936,48 @@
     </row>
     <row r="192" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F192" s="15"/>
+      <c r="H192" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="193" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="15"/>
+      <c r="I193" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="194" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F194" s="15"/>
-      <c r="H194" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I194" s="4" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="195" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F195" s="15"/>
-      <c r="I195" s="22" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="196" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F196" s="15"/>
     </row>
     <row r="197" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F197" s="15"/>
+      <c r="H197" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="198" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="15"/>
+      <c r="I198" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="199" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F199" s="15"/>
-      <c r="H199" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="I199" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="200" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F200" s="15"/>
-      <c r="I200" s="4" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="201" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F201" s="15"/>
@@ -4895,552 +5003,554 @@
     <row r="208" spans="6:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F208" s="15"/>
     </row>
-    <row r="209" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F209" s="15"/>
     </row>
-    <row r="210" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F210" s="15"/>
     </row>
-    <row r="211" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F211" s="15"/>
     </row>
-    <row r="212" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F212" s="15"/>
     </row>
-    <row r="213" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F213" s="15"/>
     </row>
-    <row r="214" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F214" s="15"/>
     </row>
-    <row r="215" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F215" s="15"/>
     </row>
-    <row r="216" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F216" s="15"/>
     </row>
-    <row r="217" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F217" s="15"/>
     </row>
-    <row r="218" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F218" s="15"/>
     </row>
-    <row r="219" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F219" s="15"/>
     </row>
-    <row r="220" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F220" s="15"/>
     </row>
-    <row r="221" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F221" s="15"/>
     </row>
-    <row r="222" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F222" s="15"/>
     </row>
-    <row r="223" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F223" s="15"/>
-    </row>
-    <row r="224" spans="6:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H223" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="6:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F224" s="15"/>
-    </row>
-    <row r="225" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I224" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J224" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F225" s="15"/>
-      <c r="H225" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="226" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J225" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="226" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F226" s="15"/>
-      <c r="I226" s="15" t="s">
-        <v>107</v>
-      </c>
       <c r="J226" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="227" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="227" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F227" s="15"/>
       <c r="J227" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="228" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F228" s="15"/>
-      <c r="J228" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="229" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="229" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="15"/>
+      <c r="I229" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="J229" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="230" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="230" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
-    </row>
-    <row r="231" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J230" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="231" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F231" s="15"/>
-      <c r="I231" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="J231" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="232" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F232" s="15"/>
-      <c r="J232" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="233" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="233" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F233" s="15"/>
-      <c r="J233" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="234" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F234" s="15"/>
-    </row>
-    <row r="235" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F235" s="15"/>
-    </row>
-    <row r="236" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D236" s="15" t="str">
+    </row>
+    <row r="234" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D234" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>7.5.2.</v>
       </c>
-      <c r="E236" s="4" t="s">
+      <c r="E234" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D235" s="15"/>
+      <c r="E235" s="15" t="str">
+        <f>$D$234&amp;"1."</f>
+        <v>7.5.2.1.</v>
+      </c>
+      <c r="F235" s="4" t="str">
+        <f>$E$234&amp;"機能概要"</f>
+        <v>認可機能概要</v>
+      </c>
+    </row>
+    <row r="236" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D236" s="15"/>
+      <c r="F236" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D237" s="15"/>
-      <c r="E237" s="15" t="str">
-        <f>$D$236&amp;"1."</f>
-        <v>7.5.2.1.</v>
-      </c>
-      <c r="F237" s="4" t="str">
-        <f>$E$236&amp;"機能概要"</f>
-        <v>認可機能概要</v>
-      </c>
-    </row>
-    <row r="238" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F237" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D238" s="15"/>
-      <c r="F238" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="239" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="239" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D239" s="15"/>
-      <c r="F239" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="240" spans="4:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D240" s="15"/>
+      <c r="E239" s="15" t="str">
+        <f>$D$234&amp;"2."</f>
+        <v>7.5.2.2.</v>
+      </c>
+      <c r="F239" s="4" t="str">
+        <f>$E$234&amp;"方法"</f>
+        <v>認可方法</v>
+      </c>
+    </row>
+    <row r="240" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+      <c r="M240" s="17"/>
+      <c r="N240" s="17"/>
+      <c r="O240" s="17"/>
+      <c r="P240" s="17"/>
+      <c r="Q240" s="17"/>
+      <c r="R240" s="17"/>
+      <c r="S240" s="17"/>
+      <c r="T240" s="17"/>
+      <c r="U240" s="17"/>
+      <c r="V240" s="17"/>
+      <c r="W240" s="17"/>
+      <c r="X240" s="17"/>
+      <c r="Y240" s="17"/>
+      <c r="Z240" s="17"/>
+      <c r="AA240" s="17"/>
+      <c r="AB240" s="17"/>
+      <c r="AC240" s="17"/>
+      <c r="AD240" s="17"/>
+      <c r="AE240" s="17"/>
+      <c r="AF240" s="17"/>
+      <c r="AG240" s="17"/>
+      <c r="AH240" s="17"/>
     </row>
     <row r="241" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D241" s="15"/>
-      <c r="E241" s="15" t="str">
-        <f>$D$236&amp;"2."</f>
-        <v>7.5.2.2.</v>
-      </c>
-      <c r="F241" s="4" t="str">
-        <f>$E$236&amp;"方法"</f>
-        <v>認可方法</v>
-      </c>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+      <c r="M241" s="17"/>
+      <c r="N241" s="17"/>
+      <c r="O241" s="17"/>
+      <c r="P241" s="17"/>
+      <c r="Q241" s="17"/>
+      <c r="R241" s="17"/>
+      <c r="S241" s="17"/>
+      <c r="T241" s="17"/>
+      <c r="U241" s="17"/>
+      <c r="V241" s="17"/>
+      <c r="W241" s="17"/>
+      <c r="X241" s="17"/>
+      <c r="Y241" s="17"/>
+      <c r="Z241" s="17"/>
+      <c r="AA241" s="17"/>
+      <c r="AB241" s="17"/>
+      <c r="AC241" s="17"/>
+      <c r="AD241" s="17"/>
+      <c r="AE241" s="17"/>
+      <c r="AF241" s="17"/>
+      <c r="AG241" s="17"/>
+      <c r="AH241" s="17"/>
     </row>
     <row r="242" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
-      <c r="I242" s="17"/>
-      <c r="J242" s="17"/>
-      <c r="K242" s="17"/>
-      <c r="L242" s="17"/>
-      <c r="M242" s="17"/>
-      <c r="N242" s="17"/>
-      <c r="O242" s="17"/>
-      <c r="P242" s="17"/>
-      <c r="Q242" s="17"/>
-      <c r="R242" s="17"/>
-      <c r="S242" s="17"/>
-      <c r="T242" s="17"/>
-      <c r="U242" s="17"/>
-      <c r="V242" s="17"/>
-      <c r="W242" s="17"/>
-      <c r="X242" s="17"/>
-      <c r="Y242" s="17"/>
-      <c r="Z242" s="17"/>
-      <c r="AA242" s="17"/>
-      <c r="AB242" s="17"/>
-      <c r="AC242" s="17"/>
-      <c r="AD242" s="17"/>
-      <c r="AE242" s="17"/>
-      <c r="AF242" s="17"/>
-      <c r="AG242" s="17"/>
-      <c r="AH242" s="17"/>
+      <c r="F242" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G242" s="19"/>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K242" s="19"/>
+      <c r="L242" s="19"/>
+      <c r="M242" s="19"/>
+      <c r="N242" s="19"/>
+      <c r="O242" s="19"/>
+      <c r="P242" s="20"/>
+      <c r="Q242" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R242" s="19"/>
+      <c r="S242" s="19"/>
+      <c r="T242" s="19"/>
+      <c r="U242" s="19"/>
+      <c r="V242" s="19"/>
+      <c r="W242" s="19"/>
+      <c r="X242" s="19"/>
+      <c r="Y242" s="19"/>
+      <c r="Z242" s="19"/>
+      <c r="AA242" s="19"/>
+      <c r="AB242" s="19"/>
+      <c r="AC242" s="19"/>
+      <c r="AD242" s="19"/>
+      <c r="AE242" s="19"/>
+      <c r="AF242" s="19"/>
+      <c r="AG242" s="19"/>
+      <c r="AH242" s="20"/>
     </row>
     <row r="243" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="17"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="17"/>
-      <c r="M243" s="17"/>
-      <c r="N243" s="17"/>
-      <c r="O243" s="17"/>
-      <c r="P243" s="17"/>
-      <c r="Q243" s="17"/>
-      <c r="R243" s="17"/>
-      <c r="S243" s="17"/>
-      <c r="T243" s="17"/>
-      <c r="U243" s="17"/>
-      <c r="V243" s="17"/>
-      <c r="W243" s="17"/>
-      <c r="X243" s="17"/>
-      <c r="Y243" s="17"/>
-      <c r="Z243" s="17"/>
-      <c r="AA243" s="17"/>
-      <c r="AB243" s="17"/>
-      <c r="AC243" s="17"/>
-      <c r="AD243" s="17"/>
-      <c r="AE243" s="17"/>
-      <c r="AF243" s="17"/>
-      <c r="AG243" s="17"/>
-      <c r="AH243" s="17"/>
+      <c r="F243" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K243" s="36"/>
+      <c r="L243" s="36"/>
+      <c r="M243" s="36"/>
+      <c r="N243" s="36"/>
+      <c r="O243" s="36"/>
+      <c r="P243" s="37"/>
+      <c r="Q243" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R243" s="30"/>
+      <c r="S243" s="30"/>
+      <c r="T243" s="30"/>
+      <c r="U243" s="30"/>
+      <c r="V243" s="30"/>
+      <c r="W243" s="30"/>
+      <c r="X243" s="30"/>
+      <c r="Y243" s="30"/>
+      <c r="Z243" s="30"/>
+      <c r="AA243" s="30"/>
+      <c r="AB243" s="30"/>
+      <c r="AC243" s="30"/>
+      <c r="AD243" s="30"/>
+      <c r="AE243" s="30"/>
+      <c r="AF243" s="30"/>
+      <c r="AG243" s="30"/>
+      <c r="AH243" s="31"/>
     </row>
     <row r="244" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F244" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="K244" s="19"/>
-      <c r="L244" s="19"/>
-      <c r="M244" s="19"/>
-      <c r="N244" s="19"/>
-      <c r="O244" s="19"/>
-      <c r="P244" s="20"/>
-      <c r="Q244" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="R244" s="19"/>
-      <c r="S244" s="19"/>
-      <c r="T244" s="19"/>
-      <c r="U244" s="19"/>
-      <c r="V244" s="19"/>
-      <c r="W244" s="19"/>
-      <c r="X244" s="19"/>
-      <c r="Y244" s="19"/>
-      <c r="Z244" s="19"/>
-      <c r="AA244" s="19"/>
-      <c r="AB244" s="19"/>
-      <c r="AC244" s="19"/>
-      <c r="AD244" s="19"/>
-      <c r="AE244" s="19"/>
-      <c r="AF244" s="19"/>
-      <c r="AG244" s="19"/>
-      <c r="AH244" s="20"/>
+      <c r="F244" s="29"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="29"/>
+      <c r="K244" s="30"/>
+      <c r="L244" s="30"/>
+      <c r="M244" s="30"/>
+      <c r="N244" s="30"/>
+      <c r="O244" s="30"/>
+      <c r="P244" s="31"/>
+      <c r="Q244" s="30"/>
+      <c r="R244" s="30"/>
+      <c r="S244" s="30"/>
+      <c r="T244" s="30"/>
+      <c r="U244" s="30"/>
+      <c r="V244" s="30"/>
+      <c r="W244" s="30"/>
+      <c r="X244" s="30"/>
+      <c r="Y244" s="30"/>
+      <c r="Z244" s="30"/>
+      <c r="AA244" s="30"/>
+      <c r="AB244" s="30"/>
+      <c r="AC244" s="30"/>
+      <c r="AD244" s="30"/>
+      <c r="AE244" s="30"/>
+      <c r="AF244" s="30"/>
+      <c r="AG244" s="30"/>
+      <c r="AH244" s="31"/>
     </row>
     <row r="245" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F245" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K245" s="39"/>
-      <c r="L245" s="39"/>
-      <c r="M245" s="39"/>
-      <c r="N245" s="39"/>
-      <c r="O245" s="39"/>
-      <c r="P245" s="40"/>
-      <c r="Q245" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="R245" s="33"/>
-      <c r="S245" s="33"/>
-      <c r="T245" s="33"/>
-      <c r="U245" s="33"/>
-      <c r="V245" s="33"/>
-      <c r="W245" s="33"/>
-      <c r="X245" s="33"/>
-      <c r="Y245" s="33"/>
-      <c r="Z245" s="33"/>
-      <c r="AA245" s="33"/>
-      <c r="AB245" s="33"/>
-      <c r="AC245" s="33"/>
-      <c r="AD245" s="33"/>
-      <c r="AE245" s="33"/>
-      <c r="AF245" s="33"/>
-      <c r="AG245" s="33"/>
-      <c r="AH245" s="34"/>
+      <c r="F245" s="29"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="32"/>
+      <c r="K245" s="33"/>
+      <c r="L245" s="33"/>
+      <c r="M245" s="33"/>
+      <c r="N245" s="33"/>
+      <c r="O245" s="33"/>
+      <c r="P245" s="34"/>
+      <c r="Q245" s="33"/>
+      <c r="R245" s="30"/>
+      <c r="S245" s="30"/>
+      <c r="T245" s="30"/>
+      <c r="U245" s="30"/>
+      <c r="V245" s="30"/>
+      <c r="W245" s="30"/>
+      <c r="X245" s="30"/>
+      <c r="Y245" s="30"/>
+      <c r="Z245" s="30"/>
+      <c r="AA245" s="30"/>
+      <c r="AB245" s="30"/>
+      <c r="AC245" s="30"/>
+      <c r="AD245" s="30"/>
+      <c r="AE245" s="30"/>
+      <c r="AF245" s="30"/>
+      <c r="AG245" s="30"/>
+      <c r="AH245" s="31"/>
     </row>
     <row r="246" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F246" s="32"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="32"/>
-      <c r="K246" s="33"/>
-      <c r="L246" s="33"/>
-      <c r="M246" s="33"/>
-      <c r="N246" s="33"/>
-      <c r="O246" s="33"/>
-      <c r="P246" s="34"/>
-      <c r="Q246" s="33"/>
-      <c r="R246" s="33"/>
-      <c r="S246" s="33"/>
-      <c r="T246" s="33"/>
-      <c r="U246" s="33"/>
-      <c r="V246" s="33"/>
-      <c r="W246" s="33"/>
-      <c r="X246" s="33"/>
-      <c r="Y246" s="33"/>
-      <c r="Z246" s="33"/>
-      <c r="AA246" s="33"/>
-      <c r="AB246" s="33"/>
-      <c r="AC246" s="33"/>
-      <c r="AD246" s="33"/>
-      <c r="AE246" s="33"/>
-      <c r="AF246" s="33"/>
-      <c r="AG246" s="33"/>
-      <c r="AH246" s="34"/>
+      <c r="F246" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G246" s="36"/>
+      <c r="H246" s="36"/>
+      <c r="I246" s="36"/>
+      <c r="J246" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K246" s="36"/>
+      <c r="L246" s="36"/>
+      <c r="M246" s="36"/>
+      <c r="N246" s="36"/>
+      <c r="O246" s="36"/>
+      <c r="P246" s="37"/>
+      <c r="Q246" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="R246" s="36"/>
+      <c r="S246" s="36"/>
+      <c r="T246" s="36"/>
+      <c r="U246" s="36"/>
+      <c r="V246" s="36"/>
+      <c r="W246" s="36"/>
+      <c r="X246" s="36"/>
+      <c r="Y246" s="36"/>
+      <c r="Z246" s="36"/>
+      <c r="AA246" s="36"/>
+      <c r="AB246" s="36"/>
+      <c r="AC246" s="36"/>
+      <c r="AD246" s="36"/>
+      <c r="AE246" s="36"/>
+      <c r="AF246" s="36"/>
+      <c r="AG246" s="36"/>
+      <c r="AH246" s="37"/>
     </row>
     <row r="247" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F247" s="32"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="33"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="35"/>
-      <c r="K247" s="36"/>
-      <c r="L247" s="36"/>
-      <c r="M247" s="36"/>
-      <c r="N247" s="36"/>
-      <c r="O247" s="36"/>
-      <c r="P247" s="37"/>
-      <c r="Q247" s="36"/>
-      <c r="R247" s="33"/>
-      <c r="S247" s="33"/>
-      <c r="T247" s="33"/>
-      <c r="U247" s="33"/>
-      <c r="V247" s="33"/>
-      <c r="W247" s="33"/>
-      <c r="X247" s="33"/>
-      <c r="Y247" s="33"/>
-      <c r="Z247" s="33"/>
-      <c r="AA247" s="33"/>
-      <c r="AB247" s="33"/>
-      <c r="AC247" s="33"/>
-      <c r="AD247" s="33"/>
-      <c r="AE247" s="33"/>
-      <c r="AF247" s="33"/>
-      <c r="AG247" s="33"/>
-      <c r="AH247" s="34"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="29"/>
+      <c r="K247" s="30"/>
+      <c r="L247" s="30"/>
+      <c r="M247" s="30"/>
+      <c r="N247" s="30"/>
+      <c r="O247" s="30"/>
+      <c r="P247" s="31"/>
+      <c r="Q247" s="30"/>
+      <c r="R247" s="30"/>
+      <c r="S247" s="30"/>
+      <c r="T247" s="30"/>
+      <c r="U247" s="30"/>
+      <c r="V247" s="30"/>
+      <c r="W247" s="30"/>
+      <c r="X247" s="30"/>
+      <c r="Y247" s="30"/>
+      <c r="Z247" s="30"/>
+      <c r="AA247" s="30"/>
+      <c r="AB247" s="30"/>
+      <c r="AC247" s="30"/>
+      <c r="AD247" s="30"/>
+      <c r="AE247" s="30"/>
+      <c r="AF247" s="30"/>
+      <c r="AG247" s="30"/>
+      <c r="AH247" s="31"/>
     </row>
     <row r="248" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F248" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G248" s="39"/>
-      <c r="H248" s="39"/>
-      <c r="I248" s="39"/>
-      <c r="J248" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K248" s="39"/>
-      <c r="L248" s="39"/>
-      <c r="M248" s="39"/>
-      <c r="N248" s="39"/>
-      <c r="O248" s="39"/>
-      <c r="P248" s="40"/>
-      <c r="Q248" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="R248" s="39"/>
-      <c r="S248" s="39"/>
-      <c r="T248" s="39"/>
-      <c r="U248" s="39"/>
-      <c r="V248" s="39"/>
-      <c r="W248" s="39"/>
-      <c r="X248" s="39"/>
-      <c r="Y248" s="39"/>
-      <c r="Z248" s="39"/>
-      <c r="AA248" s="39"/>
-      <c r="AB248" s="39"/>
-      <c r="AC248" s="39"/>
-      <c r="AD248" s="39"/>
-      <c r="AE248" s="39"/>
-      <c r="AF248" s="39"/>
-      <c r="AG248" s="39"/>
-      <c r="AH248" s="40"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="33"/>
+      <c r="I248" s="33"/>
+      <c r="J248" s="32"/>
+      <c r="K248" s="33"/>
+      <c r="L248" s="33"/>
+      <c r="M248" s="33"/>
+      <c r="N248" s="33"/>
+      <c r="O248" s="33"/>
+      <c r="P248" s="34"/>
+      <c r="Q248" s="33"/>
+      <c r="R248" s="33"/>
+      <c r="S248" s="33"/>
+      <c r="T248" s="33"/>
+      <c r="U248" s="33"/>
+      <c r="V248" s="33"/>
+      <c r="W248" s="33"/>
+      <c r="X248" s="33"/>
+      <c r="Y248" s="33"/>
+      <c r="Z248" s="33"/>
+      <c r="AA248" s="33"/>
+      <c r="AB248" s="33"/>
+      <c r="AC248" s="33"/>
+      <c r="AD248" s="33"/>
+      <c r="AE248" s="33"/>
+      <c r="AF248" s="33"/>
+      <c r="AG248" s="33"/>
+      <c r="AH248" s="34"/>
     </row>
     <row r="249" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F249" s="32"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="32"/>
-      <c r="K249" s="33"/>
-      <c r="L249" s="33"/>
-      <c r="M249" s="33"/>
-      <c r="N249" s="33"/>
-      <c r="O249" s="33"/>
-      <c r="P249" s="34"/>
-      <c r="Q249" s="33"/>
-      <c r="R249" s="33"/>
-      <c r="S249" s="33"/>
-      <c r="T249" s="33"/>
-      <c r="U249" s="33"/>
-      <c r="V249" s="33"/>
-      <c r="W249" s="33"/>
-      <c r="X249" s="33"/>
-      <c r="Y249" s="33"/>
-      <c r="Z249" s="33"/>
-      <c r="AA249" s="33"/>
-      <c r="AB249" s="33"/>
-      <c r="AC249" s="33"/>
-      <c r="AD249" s="33"/>
-      <c r="AE249" s="33"/>
-      <c r="AF249" s="33"/>
-      <c r="AG249" s="33"/>
-      <c r="AH249" s="34"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
+      <c r="M249" s="17"/>
+      <c r="N249" s="17"/>
+      <c r="O249" s="17"/>
+      <c r="P249" s="17"/>
+      <c r="Q249" s="17"/>
+      <c r="R249" s="17"/>
+      <c r="S249" s="17"/>
+      <c r="T249" s="17"/>
+      <c r="U249" s="17"/>
+      <c r="V249" s="17"/>
+      <c r="W249" s="17"/>
+      <c r="X249" s="17"/>
+      <c r="Y249" s="17"/>
+      <c r="Z249" s="17"/>
+      <c r="AA249" s="17"/>
+      <c r="AB249" s="17"/>
+      <c r="AC249" s="17"/>
+      <c r="AD249" s="17"/>
+      <c r="AE249" s="17"/>
+      <c r="AF249" s="17"/>
+      <c r="AG249" s="17"/>
+      <c r="AH249" s="17"/>
     </row>
     <row r="250" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F250" s="35"/>
-      <c r="G250" s="36"/>
-      <c r="H250" s="36"/>
-      <c r="I250" s="36"/>
-      <c r="J250" s="35"/>
-      <c r="K250" s="36"/>
-      <c r="L250" s="36"/>
-      <c r="M250" s="36"/>
-      <c r="N250" s="36"/>
-      <c r="O250" s="36"/>
-      <c r="P250" s="37"/>
-      <c r="Q250" s="36"/>
-      <c r="R250" s="36"/>
-      <c r="S250" s="36"/>
-      <c r="T250" s="36"/>
-      <c r="U250" s="36"/>
-      <c r="V250" s="36"/>
-      <c r="W250" s="36"/>
-      <c r="X250" s="36"/>
-      <c r="Y250" s="36"/>
-      <c r="Z250" s="36"/>
-      <c r="AA250" s="36"/>
-      <c r="AB250" s="36"/>
-      <c r="AC250" s="36"/>
-      <c r="AD250" s="36"/>
-      <c r="AE250" s="36"/>
-      <c r="AF250" s="36"/>
-      <c r="AG250" s="36"/>
-      <c r="AH250" s="37"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
+      <c r="M250" s="17"/>
+      <c r="N250" s="17"/>
+      <c r="O250" s="17"/>
+      <c r="P250" s="17"/>
+      <c r="Q250" s="17"/>
+      <c r="R250" s="17"/>
+      <c r="S250" s="17"/>
+      <c r="T250" s="17"/>
+      <c r="U250" s="17"/>
+      <c r="V250" s="17"/>
+      <c r="W250" s="17"/>
+      <c r="X250" s="17"/>
+      <c r="Y250" s="17"/>
+      <c r="Z250" s="17"/>
+      <c r="AA250" s="17"/>
+      <c r="AB250" s="17"/>
+      <c r="AC250" s="17"/>
+      <c r="AD250" s="17"/>
+      <c r="AE250" s="17"/>
+      <c r="AF250" s="17"/>
+      <c r="AG250" s="17"/>
+      <c r="AH250" s="17"/>
     </row>
     <row r="251" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
-      <c r="J251" s="17"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="17"/>
-      <c r="M251" s="17"/>
-      <c r="N251" s="17"/>
-      <c r="O251" s="17"/>
-      <c r="P251" s="17"/>
-      <c r="Q251" s="17"/>
-      <c r="R251" s="17"/>
-      <c r="S251" s="17"/>
-      <c r="T251" s="17"/>
-      <c r="U251" s="17"/>
-      <c r="V251" s="17"/>
-      <c r="W251" s="17"/>
-      <c r="X251" s="17"/>
-      <c r="Y251" s="17"/>
-      <c r="Z251" s="17"/>
-      <c r="AA251" s="17"/>
-      <c r="AB251" s="17"/>
-      <c r="AC251" s="17"/>
-      <c r="AD251" s="17"/>
-      <c r="AE251" s="17"/>
-      <c r="AF251" s="17"/>
-      <c r="AG251" s="17"/>
-      <c r="AH251" s="17"/>
+      <c r="D251" s="15"/>
     </row>
     <row r="252" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="17"/>
-      <c r="J252" s="17"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="17"/>
-      <c r="M252" s="17"/>
-      <c r="N252" s="17"/>
-      <c r="O252" s="17"/>
-      <c r="P252" s="17"/>
-      <c r="Q252" s="17"/>
-      <c r="R252" s="17"/>
-      <c r="S252" s="17"/>
-      <c r="T252" s="17"/>
-      <c r="U252" s="17"/>
-      <c r="V252" s="17"/>
-      <c r="W252" s="17"/>
-      <c r="X252" s="17"/>
-      <c r="Y252" s="17"/>
-      <c r="Z252" s="17"/>
-      <c r="AA252" s="17"/>
-      <c r="AB252" s="17"/>
-      <c r="AC252" s="17"/>
-      <c r="AD252" s="17"/>
-      <c r="AE252" s="17"/>
-      <c r="AF252" s="17"/>
-      <c r="AG252" s="17"/>
-      <c r="AH252" s="17"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15" t="str">
+        <f>$D$234&amp;"3."</f>
+        <v>7.5.2.3.</v>
+      </c>
+      <c r="F252" s="4" t="str">
+        <f>$E$234&amp;"機能詳細"</f>
+        <v>認可機能詳細</v>
+      </c>
     </row>
     <row r="253" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="254" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D254" s="15"/>
-      <c r="E254" s="15" t="str">
-        <f>$D$236&amp;"3."</f>
-        <v>7.5.2.3.</v>
-      </c>
-      <c r="F254" s="4" t="str">
-        <f>$E$236&amp;"機能詳細"</f>
-        <v>認可機能詳細</v>
+      <c r="E254" s="15"/>
+      <c r="F254" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="255" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="4" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="256" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
-      <c r="F256" s="4" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="257" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D257" s="15"/>
@@ -5485,6 +5595,9 @@
     <row r="267" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
+      <c r="G267" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="268" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D268" s="15"/>
@@ -5493,8 +5606,8 @@
     <row r="269" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D269" s="15"/>
       <c r="E269" s="15"/>
-      <c r="G269" s="4" t="s">
-        <v>55</v>
+      <c r="G269" s="38" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="270" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5504,25 +5617,25 @@
     <row r="271" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D271" s="15"/>
       <c r="E271" s="15"/>
-      <c r="F271" s="22" t="s">
+      <c r="F271" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G271" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="G271" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="272" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D272" s="15"/>
       <c r="E272" s="15"/>
       <c r="G272" s="4" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="273" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D273" s="15"/>
       <c r="E273" s="15"/>
       <c r="G273" s="4" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
     </row>
     <row r="274" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5535,41 +5648,44 @@
     <row r="275" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D275" s="15"/>
       <c r="E275" s="15"/>
+      <c r="G275" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="276" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D276" s="15"/>
       <c r="E276" s="15"/>
-      <c r="F276" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="277" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D277" s="15"/>
       <c r="E277" s="15"/>
+      <c r="F277" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="G277" s="4" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
     </row>
     <row r="278" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D278" s="15"/>
       <c r="E278" s="15"/>
       <c r="G278" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="279" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D279" s="15"/>
       <c r="E279" s="15"/>
       <c r="G279" s="4" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D280" s="15"/>
       <c r="E280" s="15"/>
+      <c r="G280" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="281" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D281" s="15"/>
@@ -5578,173 +5694,173 @@
     <row r="282" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D282" s="15"/>
       <c r="E282" s="15"/>
-      <c r="G282" s="25" t="s">
-        <v>132</v>
+      <c r="G282" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="283" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D283" s="15"/>
       <c r="E283" s="15"/>
-      <c r="H283" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I283" s="49"/>
-      <c r="J283" s="49"/>
-      <c r="K283" s="49"/>
-      <c r="L283" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="M283" s="49"/>
-      <c r="N283" s="49"/>
-      <c r="O283" s="49"/>
-      <c r="P283" s="49"/>
-      <c r="Q283" s="49"/>
-      <c r="R283" s="49"/>
-      <c r="S283" s="49"/>
-      <c r="T283" s="49"/>
-      <c r="U283" s="49"/>
-      <c r="V283" s="49"/>
-      <c r="W283" s="49"/>
-      <c r="X283" s="49"/>
-      <c r="Y283" s="49"/>
-      <c r="Z283" s="49"/>
-      <c r="AA283" s="49"/>
+      <c r="H283" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="I283" s="46"/>
+      <c r="J283" s="46"/>
+      <c r="K283" s="46"/>
+      <c r="L283" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="M283" s="46"/>
+      <c r="N283" s="46"/>
+      <c r="O283" s="46"/>
+      <c r="P283" s="46"/>
+      <c r="Q283" s="46"/>
+      <c r="R283" s="46"/>
+      <c r="S283" s="46"/>
+      <c r="T283" s="46"/>
+      <c r="U283" s="46"/>
+      <c r="V283" s="46"/>
+      <c r="W283" s="46"/>
+      <c r="X283" s="46"/>
+      <c r="Y283" s="46"/>
+      <c r="Z283" s="46"/>
+      <c r="AA283" s="46"/>
     </row>
     <row r="284" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D284" s="15"/>
       <c r="E284" s="15"/>
-      <c r="H284" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="I284" s="75"/>
-      <c r="J284" s="75"/>
-      <c r="K284" s="75"/>
-      <c r="L284" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="M284" s="76"/>
-      <c r="N284" s="76"/>
-      <c r="O284" s="76"/>
-      <c r="P284" s="76"/>
-      <c r="Q284" s="76"/>
-      <c r="R284" s="76"/>
-      <c r="S284" s="76"/>
-      <c r="T284" s="76"/>
-      <c r="U284" s="76"/>
-      <c r="V284" s="76"/>
-      <c r="W284" s="76"/>
-      <c r="X284" s="76"/>
-      <c r="Y284" s="76"/>
-      <c r="Z284" s="76"/>
-      <c r="AA284" s="76"/>
+      <c r="H284" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="I284" s="45"/>
+      <c r="J284" s="45"/>
+      <c r="K284" s="45"/>
+      <c r="L284" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="M284" s="45"/>
+      <c r="N284" s="45"/>
+      <c r="O284" s="45"/>
+      <c r="P284" s="45"/>
+      <c r="Q284" s="45"/>
+      <c r="R284" s="45"/>
+      <c r="S284" s="45"/>
+      <c r="T284" s="45"/>
+      <c r="U284" s="45"/>
+      <c r="V284" s="45"/>
+      <c r="W284" s="45"/>
+      <c r="X284" s="45"/>
+      <c r="Y284" s="45"/>
+      <c r="Z284" s="45"/>
+      <c r="AA284" s="45"/>
     </row>
     <row r="285" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D285" s="15"/>
       <c r="E285" s="15"/>
-      <c r="H285" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I285" s="75"/>
-      <c r="J285" s="75"/>
-      <c r="K285" s="75"/>
-      <c r="L285" s="76"/>
-      <c r="M285" s="76"/>
-      <c r="N285" s="76"/>
-      <c r="O285" s="76"/>
-      <c r="P285" s="76"/>
-      <c r="Q285" s="76"/>
-      <c r="R285" s="76"/>
-      <c r="S285" s="76"/>
-      <c r="T285" s="76"/>
-      <c r="U285" s="76"/>
-      <c r="V285" s="76"/>
-      <c r="W285" s="76"/>
-      <c r="X285" s="76"/>
-      <c r="Y285" s="76"/>
-      <c r="Z285" s="76"/>
-      <c r="AA285" s="76"/>
+      <c r="H285" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="I285" s="45"/>
+      <c r="J285" s="45"/>
+      <c r="K285" s="45"/>
+      <c r="L285" s="45"/>
+      <c r="M285" s="45"/>
+      <c r="N285" s="45"/>
+      <c r="O285" s="45"/>
+      <c r="P285" s="45"/>
+      <c r="Q285" s="45"/>
+      <c r="R285" s="45"/>
+      <c r="S285" s="45"/>
+      <c r="T285" s="45"/>
+      <c r="U285" s="45"/>
+      <c r="V285" s="45"/>
+      <c r="W285" s="45"/>
+      <c r="X285" s="45"/>
+      <c r="Y285" s="45"/>
+      <c r="Z285" s="45"/>
+      <c r="AA285" s="45"/>
     </row>
     <row r="286" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D286" s="15"/>
       <c r="E286" s="15"/>
-      <c r="H286" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="I286" s="75"/>
-      <c r="J286" s="75"/>
-      <c r="K286" s="75"/>
-      <c r="L286" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="M286" s="76"/>
-      <c r="N286" s="76"/>
-      <c r="O286" s="76"/>
-      <c r="P286" s="76"/>
-      <c r="Q286" s="76"/>
-      <c r="R286" s="76"/>
-      <c r="S286" s="76"/>
-      <c r="T286" s="76"/>
-      <c r="U286" s="76"/>
-      <c r="V286" s="76"/>
-      <c r="W286" s="76"/>
-      <c r="X286" s="76"/>
-      <c r="Y286" s="76"/>
-      <c r="Z286" s="76"/>
-      <c r="AA286" s="76"/>
+      <c r="H286" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="I286" s="45"/>
+      <c r="J286" s="45"/>
+      <c r="K286" s="45"/>
+      <c r="L286" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="M286" s="45"/>
+      <c r="N286" s="45"/>
+      <c r="O286" s="45"/>
+      <c r="P286" s="45"/>
+      <c r="Q286" s="45"/>
+      <c r="R286" s="45"/>
+      <c r="S286" s="45"/>
+      <c r="T286" s="45"/>
+      <c r="U286" s="45"/>
+      <c r="V286" s="45"/>
+      <c r="W286" s="45"/>
+      <c r="X286" s="45"/>
+      <c r="Y286" s="45"/>
+      <c r="Z286" s="45"/>
+      <c r="AA286" s="45"/>
     </row>
     <row r="287" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D287" s="15"/>
       <c r="E287" s="15"/>
-      <c r="H287" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="I287" s="75"/>
-      <c r="J287" s="75"/>
-      <c r="K287" s="75"/>
-      <c r="L287" s="76"/>
-      <c r="M287" s="76"/>
-      <c r="N287" s="76"/>
-      <c r="O287" s="76"/>
-      <c r="P287" s="76"/>
-      <c r="Q287" s="76"/>
-      <c r="R287" s="76"/>
-      <c r="S287" s="76"/>
-      <c r="T287" s="76"/>
-      <c r="U287" s="76"/>
-      <c r="V287" s="76"/>
-      <c r="W287" s="76"/>
-      <c r="X287" s="76"/>
-      <c r="Y287" s="76"/>
-      <c r="Z287" s="76"/>
-      <c r="AA287" s="76"/>
+      <c r="H287" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="I287" s="45"/>
+      <c r="J287" s="45"/>
+      <c r="K287" s="45"/>
+      <c r="L287" s="45"/>
+      <c r="M287" s="45"/>
+      <c r="N287" s="45"/>
+      <c r="O287" s="45"/>
+      <c r="P287" s="45"/>
+      <c r="Q287" s="45"/>
+      <c r="R287" s="45"/>
+      <c r="S287" s="45"/>
+      <c r="T287" s="45"/>
+      <c r="U287" s="45"/>
+      <c r="V287" s="45"/>
+      <c r="W287" s="45"/>
+      <c r="X287" s="45"/>
+      <c r="Y287" s="45"/>
+      <c r="Z287" s="45"/>
+      <c r="AA287" s="45"/>
     </row>
     <row r="288" spans="4:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D288" s="15"/>
       <c r="E288" s="15"/>
-      <c r="H288" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="I288" s="75"/>
-      <c r="J288" s="75"/>
-      <c r="K288" s="75"/>
-      <c r="L288" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="M288" s="75"/>
-      <c r="N288" s="75"/>
-      <c r="O288" s="75"/>
-      <c r="P288" s="75"/>
-      <c r="Q288" s="75"/>
-      <c r="R288" s="75"/>
-      <c r="S288" s="75"/>
-      <c r="T288" s="75"/>
-      <c r="U288" s="75"/>
-      <c r="V288" s="75"/>
-      <c r="W288" s="75"/>
-      <c r="X288" s="75"/>
-      <c r="Y288" s="75"/>
-      <c r="Z288" s="75"/>
-      <c r="AA288" s="75"/>
+      <c r="H288" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I288" s="45"/>
+      <c r="J288" s="45"/>
+      <c r="K288" s="45"/>
+      <c r="L288" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="M288" s="45"/>
+      <c r="N288" s="45"/>
+      <c r="O288" s="45"/>
+      <c r="P288" s="45"/>
+      <c r="Q288" s="45"/>
+      <c r="R288" s="45"/>
+      <c r="S288" s="45"/>
+      <c r="T288" s="45"/>
+      <c r="U288" s="45"/>
+      <c r="V288" s="45"/>
+      <c r="W288" s="45"/>
+      <c r="X288" s="45"/>
+      <c r="Y288" s="45"/>
+      <c r="Z288" s="45"/>
+      <c r="AA288" s="45"/>
     </row>
     <row r="289" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D289" s="15"/>
@@ -5753,119 +5869,119 @@
     <row r="290" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D290" s="15"/>
       <c r="E290" s="15"/>
-      <c r="G290" s="25" t="s">
-        <v>133</v>
+      <c r="G290" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="291" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D291" s="15"/>
       <c r="E291" s="15"/>
-      <c r="H291" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="I291" s="49"/>
-      <c r="J291" s="49"/>
-      <c r="K291" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="L291" s="49"/>
-      <c r="M291" s="49"/>
-      <c r="N291" s="49"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="49"/>
-      <c r="R291" s="49"/>
-      <c r="S291" s="49"/>
-      <c r="T291" s="49"/>
-      <c r="U291" s="49"/>
+      <c r="H291" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I291" s="46"/>
+      <c r="J291" s="46"/>
+      <c r="K291" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="L291" s="46"/>
+      <c r="M291" s="46"/>
+      <c r="N291" s="46"/>
+      <c r="O291" s="46"/>
+      <c r="P291" s="46"/>
+      <c r="Q291" s="46"/>
+      <c r="R291" s="46"/>
+      <c r="S291" s="46"/>
+      <c r="T291" s="46"/>
+      <c r="U291" s="46"/>
     </row>
     <row r="292" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D292" s="15"/>
       <c r="E292" s="15"/>
-      <c r="H292" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="I292" s="75"/>
-      <c r="J292" s="75"/>
-      <c r="K292" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="L292" s="75"/>
-      <c r="M292" s="75"/>
-      <c r="N292" s="75"/>
-      <c r="O292" s="75"/>
-      <c r="P292" s="75"/>
-      <c r="Q292" s="75"/>
-      <c r="R292" s="75"/>
-      <c r="S292" s="75"/>
-      <c r="T292" s="75"/>
-      <c r="U292" s="75"/>
+      <c r="H292" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="I292" s="45"/>
+      <c r="J292" s="45"/>
+      <c r="K292" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="L292" s="45"/>
+      <c r="M292" s="45"/>
+      <c r="N292" s="45"/>
+      <c r="O292" s="45"/>
+      <c r="P292" s="45"/>
+      <c r="Q292" s="45"/>
+      <c r="R292" s="45"/>
+      <c r="S292" s="45"/>
+      <c r="T292" s="45"/>
+      <c r="U292" s="45"/>
     </row>
     <row r="293" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D293" s="15"/>
       <c r="E293" s="15"/>
-      <c r="H293" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I293" s="75"/>
-      <c r="J293" s="75"/>
-      <c r="K293" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="L293" s="75"/>
-      <c r="M293" s="75"/>
-      <c r="N293" s="75"/>
-      <c r="O293" s="75"/>
-      <c r="P293" s="75"/>
-      <c r="Q293" s="75"/>
-      <c r="R293" s="75"/>
-      <c r="S293" s="75"/>
-      <c r="T293" s="75"/>
-      <c r="U293" s="75"/>
+      <c r="H293" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="I293" s="45"/>
+      <c r="J293" s="45"/>
+      <c r="K293" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L293" s="45"/>
+      <c r="M293" s="45"/>
+      <c r="N293" s="45"/>
+      <c r="O293" s="45"/>
+      <c r="P293" s="45"/>
+      <c r="Q293" s="45"/>
+      <c r="R293" s="45"/>
+      <c r="S293" s="45"/>
+      <c r="T293" s="45"/>
+      <c r="U293" s="45"/>
     </row>
     <row r="294" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D294" s="15"/>
       <c r="E294" s="15"/>
-      <c r="H294" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="I294" s="75"/>
-      <c r="J294" s="75"/>
-      <c r="K294" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="L294" s="75"/>
-      <c r="M294" s="75"/>
-      <c r="N294" s="75"/>
-      <c r="O294" s="75"/>
-      <c r="P294" s="75"/>
-      <c r="Q294" s="75"/>
-      <c r="R294" s="75"/>
-      <c r="S294" s="75"/>
-      <c r="T294" s="75"/>
-      <c r="U294" s="75"/>
+      <c r="H294" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="I294" s="45"/>
+      <c r="J294" s="45"/>
+      <c r="K294" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="L294" s="45"/>
+      <c r="M294" s="45"/>
+      <c r="N294" s="45"/>
+      <c r="O294" s="45"/>
+      <c r="P294" s="45"/>
+      <c r="Q294" s="45"/>
+      <c r="R294" s="45"/>
+      <c r="S294" s="45"/>
+      <c r="T294" s="45"/>
+      <c r="U294" s="45"/>
     </row>
     <row r="295" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D295" s="15"/>
       <c r="E295" s="15"/>
-      <c r="H295" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="I295" s="75"/>
-      <c r="J295" s="75"/>
-      <c r="K295" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="L295" s="75"/>
-      <c r="M295" s="75"/>
-      <c r="N295" s="75"/>
-      <c r="O295" s="75"/>
-      <c r="P295" s="75"/>
-      <c r="Q295" s="75"/>
-      <c r="R295" s="75"/>
-      <c r="S295" s="75"/>
-      <c r="T295" s="75"/>
-      <c r="U295" s="75"/>
+      <c r="H295" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I295" s="45"/>
+      <c r="J295" s="45"/>
+      <c r="K295" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="L295" s="45"/>
+      <c r="M295" s="45"/>
+      <c r="N295" s="45"/>
+      <c r="O295" s="45"/>
+      <c r="P295" s="45"/>
+      <c r="Q295" s="45"/>
+      <c r="R295" s="45"/>
+      <c r="S295" s="45"/>
+      <c r="T295" s="45"/>
+      <c r="U295" s="45"/>
     </row>
     <row r="296" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D296" s="15"/>
@@ -5874,97 +5990,97 @@
     <row r="297" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D297" s="15"/>
       <c r="E297" s="15"/>
-      <c r="G297" s="25" t="s">
-        <v>189</v>
+      <c r="G297" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="298" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D298" s="15"/>
       <c r="E298" s="15"/>
-      <c r="H298" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="I298" s="49"/>
-      <c r="J298" s="49"/>
-      <c r="K298" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="L298" s="49"/>
-      <c r="M298" s="49"/>
-      <c r="N298" s="49"/>
-      <c r="O298" s="49"/>
-      <c r="P298" s="49"/>
-      <c r="Q298" s="49"/>
-      <c r="R298" s="49"/>
-      <c r="S298" s="49"/>
-      <c r="T298" s="49"/>
-      <c r="U298" s="49"/>
+      <c r="H298" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I298" s="46"/>
+      <c r="J298" s="46"/>
+      <c r="K298" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="L298" s="46"/>
+      <c r="M298" s="46"/>
+      <c r="N298" s="46"/>
+      <c r="O298" s="46"/>
+      <c r="P298" s="46"/>
+      <c r="Q298" s="46"/>
+      <c r="R298" s="46"/>
+      <c r="S298" s="46"/>
+      <c r="T298" s="46"/>
+      <c r="U298" s="46"/>
     </row>
     <row r="299" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D299" s="15"/>
       <c r="E299" s="15"/>
-      <c r="H299" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="I299" s="75"/>
-      <c r="J299" s="75"/>
-      <c r="K299" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="L299" s="75"/>
-      <c r="M299" s="75"/>
-      <c r="N299" s="75"/>
-      <c r="O299" s="75"/>
-      <c r="P299" s="75"/>
-      <c r="Q299" s="75"/>
-      <c r="R299" s="75"/>
-      <c r="S299" s="75"/>
-      <c r="T299" s="75"/>
-      <c r="U299" s="75"/>
+      <c r="H299" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="I299" s="45"/>
+      <c r="J299" s="45"/>
+      <c r="K299" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="L299" s="45"/>
+      <c r="M299" s="45"/>
+      <c r="N299" s="45"/>
+      <c r="O299" s="45"/>
+      <c r="P299" s="45"/>
+      <c r="Q299" s="45"/>
+      <c r="R299" s="45"/>
+      <c r="S299" s="45"/>
+      <c r="T299" s="45"/>
+      <c r="U299" s="45"/>
     </row>
     <row r="300" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D300" s="15"/>
       <c r="E300" s="15"/>
-      <c r="H300" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="I300" s="75"/>
-      <c r="J300" s="75"/>
-      <c r="K300" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="L300" s="75"/>
-      <c r="M300" s="75"/>
-      <c r="N300" s="75"/>
-      <c r="O300" s="75"/>
-      <c r="P300" s="75"/>
-      <c r="Q300" s="75"/>
-      <c r="R300" s="75"/>
-      <c r="S300" s="75"/>
-      <c r="T300" s="75"/>
-      <c r="U300" s="75"/>
+      <c r="H300" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="I300" s="45"/>
+      <c r="J300" s="45"/>
+      <c r="K300" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="L300" s="45"/>
+      <c r="M300" s="45"/>
+      <c r="N300" s="45"/>
+      <c r="O300" s="45"/>
+      <c r="P300" s="45"/>
+      <c r="Q300" s="45"/>
+      <c r="R300" s="45"/>
+      <c r="S300" s="45"/>
+      <c r="T300" s="45"/>
+      <c r="U300" s="45"/>
     </row>
     <row r="301" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D301" s="15"/>
       <c r="E301" s="15"/>
-      <c r="H301" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="I301" s="75"/>
-      <c r="J301" s="75"/>
-      <c r="K301" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="L301" s="75"/>
-      <c r="M301" s="75"/>
-      <c r="N301" s="75"/>
-      <c r="O301" s="75"/>
-      <c r="P301" s="75"/>
-      <c r="Q301" s="75"/>
-      <c r="R301" s="75"/>
-      <c r="S301" s="75"/>
-      <c r="T301" s="75"/>
-      <c r="U301" s="75"/>
+      <c r="H301" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I301" s="45"/>
+      <c r="J301" s="45"/>
+      <c r="K301" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="L301" s="45"/>
+      <c r="M301" s="45"/>
+      <c r="N301" s="45"/>
+      <c r="O301" s="45"/>
+      <c r="P301" s="45"/>
+      <c r="Q301" s="45"/>
+      <c r="R301" s="45"/>
+      <c r="S301" s="45"/>
+      <c r="T301" s="45"/>
+      <c r="U301" s="45"/>
     </row>
     <row r="302" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D302" s="15"/>
@@ -5974,7 +6090,7 @@
       <c r="D303" s="15"/>
       <c r="E303" s="15"/>
       <c r="G303" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="304" spans="4:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -5985,124 +6101,131 @@
       <c r="D305" s="15"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
-      <c r="H305" s="21"/>
-      <c r="I305" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="J305" s="48"/>
-      <c r="K305" s="48"/>
-      <c r="L305" s="48"/>
-      <c r="M305" s="48"/>
+      <c r="H305" s="40"/>
+      <c r="I305" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="J305" s="43"/>
+      <c r="K305" s="43"/>
+      <c r="L305" s="43"/>
+      <c r="M305" s="43"/>
     </row>
     <row r="306" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D306" s="15"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
-      <c r="H306" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="I306" s="24"/>
-      <c r="J306" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K306" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L306" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="M306" s="24" t="s">
-        <v>74</v>
+      <c r="H306" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I306" s="39"/>
+      <c r="J306" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="K306" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="L306" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="M306" s="39" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="307" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D307" s="15"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
-      <c r="H307" s="74"/>
-      <c r="I307" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J307" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="K307" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L307" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M307" s="23" t="s">
-        <v>81</v>
+      <c r="H307" s="44"/>
+      <c r="I307" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="J307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="K307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L307" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="M307" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="308" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D308" s="15"/>
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
-      <c r="H308" s="74"/>
-      <c r="I308" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J308" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="K308" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L308" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="M308" s="23" t="s">
-        <v>82</v>
+      <c r="H308" s="44"/>
+      <c r="I308" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="J308" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K308" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L308" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="M308" s="41" t="s">
+        <v>184</v>
       </c>
       <c r="P308" s="4" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
     </row>
     <row r="309" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D309" s="15"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
-      <c r="H309" s="74"/>
-      <c r="I309" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J309" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="K309" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L309" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M309" s="23" t="s">
-        <v>87</v>
+      <c r="H309" s="44"/>
+      <c r="I309" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J309" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K309" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="L309" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="M309" s="41" t="s">
+        <v>185</v>
       </c>
       <c r="P309" s="4" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
     </row>
     <row r="310" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D310" s="15"/>
       <c r="E310" s="15"/>
+      <c r="F310" s="15"/>
+      <c r="H310" s="15"/>
+      <c r="I310" s="15"/>
+      <c r="J310" s="42"/>
+      <c r="K310" s="42"/>
+      <c r="L310" s="42"/>
+      <c r="M310" s="42"/>
     </row>
     <row r="311" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D311" s="15"/>
       <c r="E311" s="15"/>
+      <c r="G311" s="22" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="312" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D312" s="15"/>
       <c r="E312" s="15"/>
-      <c r="G312" s="25" t="s">
-        <v>122</v>
-      </c>
+      <c r="G312" s="22"/>
     </row>
     <row r="313" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D313" s="15"/>
       <c r="E313" s="15"/>
-      <c r="G313" s="25"/>
     </row>
     <row r="314" spans="4:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D314" s="15"/>
@@ -6142,28 +6265,60 @@
     </row>
     <row r="323" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D323" s="15"/>
-      <c r="E323" s="15"/>
     </row>
     <row r="324" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D324" s="15"/>
-    </row>
-    <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D325" s="15" t="str">
+      <c r="D324" s="15" t="str">
         <f>$C$7&amp;"3."</f>
         <v>7.5.3.</v>
       </c>
+      <c r="E324" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D325" s="15"/>
       <c r="E325" s="4" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="326" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D326" s="15"/>
-      <c r="E326" s="4" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="327" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D327" s="15"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="24"/>
+      <c r="G327" s="24"/>
+      <c r="H327" s="24"/>
+      <c r="I327" s="24"/>
+      <c r="J327" s="24"/>
+      <c r="K327" s="24"/>
+      <c r="L327" s="25"/>
+      <c r="M327" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N327" s="46"/>
+      <c r="O327" s="46"/>
+      <c r="P327" s="46"/>
+      <c r="Q327" s="46"/>
+      <c r="R327" s="46"/>
+      <c r="S327" s="46"/>
+      <c r="T327" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="U327" s="43"/>
+      <c r="V327" s="43"/>
+      <c r="W327" s="43"/>
+      <c r="X327" s="43"/>
+      <c r="Y327" s="43"/>
+      <c r="Z327" s="43"/>
+      <c r="AA327" s="43"/>
+      <c r="AB327" s="43"/>
+      <c r="AC327" s="43"/>
+      <c r="AD327" s="43"/>
+      <c r="AE327" s="43"/>
+      <c r="AF327" s="43"/>
+      <c r="AG327" s="43"/>
     </row>
     <row r="328" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D328" s="15"/>
@@ -6175,407 +6330,374 @@
       <c r="J328" s="27"/>
       <c r="K328" s="27"/>
       <c r="L328" s="28"/>
-      <c r="M328" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="N328" s="49"/>
-      <c r="O328" s="49"/>
-      <c r="P328" s="49"/>
-      <c r="Q328" s="49"/>
-      <c r="R328" s="49"/>
-      <c r="S328" s="49"/>
-      <c r="T328" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="U328" s="48"/>
-      <c r="V328" s="48"/>
-      <c r="W328" s="48"/>
-      <c r="X328" s="48"/>
-      <c r="Y328" s="48"/>
-      <c r="Z328" s="48"/>
-      <c r="AA328" s="48"/>
-      <c r="AB328" s="48"/>
-      <c r="AC328" s="48"/>
-      <c r="AD328" s="48"/>
-      <c r="AE328" s="48"/>
-      <c r="AF328" s="48"/>
-      <c r="AG328" s="48"/>
+      <c r="M328" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="N328" s="46"/>
+      <c r="O328" s="46"/>
+      <c r="P328" s="46"/>
+      <c r="Q328" s="46"/>
+      <c r="R328" s="46"/>
+      <c r="S328" s="46"/>
+      <c r="T328" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="U328" s="46"/>
+      <c r="V328" s="46"/>
+      <c r="W328" s="46"/>
+      <c r="X328" s="46"/>
+      <c r="Y328" s="46"/>
+      <c r="Z328" s="46"/>
+      <c r="AA328" s="46"/>
+      <c r="AB328" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC328" s="46"/>
+      <c r="AD328" s="46"/>
+      <c r="AE328" s="46"/>
+      <c r="AF328" s="46"/>
+      <c r="AG328" s="46"/>
     </row>
     <row r="329" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D329" s="15"/>
-      <c r="E329" s="29"/>
-      <c r="F329" s="30"/>
-      <c r="G329" s="30"/>
-      <c r="H329" s="30"/>
-      <c r="I329" s="30"/>
-      <c r="J329" s="30"/>
-      <c r="K329" s="30"/>
-      <c r="L329" s="31"/>
-      <c r="M329" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="N329" s="49"/>
-      <c r="O329" s="49"/>
-      <c r="P329" s="49"/>
-      <c r="Q329" s="49"/>
-      <c r="R329" s="49"/>
-      <c r="S329" s="49"/>
-      <c r="T329" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="U329" s="49"/>
-      <c r="V329" s="49"/>
-      <c r="W329" s="49"/>
-      <c r="X329" s="49"/>
-      <c r="Y329" s="49"/>
-      <c r="Z329" s="49"/>
-      <c r="AA329" s="49"/>
-      <c r="AB329" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC329" s="49"/>
-      <c r="AD329" s="49"/>
-      <c r="AE329" s="49"/>
-      <c r="AF329" s="49"/>
-      <c r="AG329" s="49"/>
+      <c r="E329" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F329" s="75"/>
+      <c r="G329" s="75"/>
+      <c r="H329" s="75"/>
+      <c r="I329" s="75"/>
+      <c r="J329" s="75"/>
+      <c r="K329" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L329" s="55"/>
+      <c r="M329" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="N329" s="50"/>
+      <c r="O329" s="50"/>
+      <c r="P329" s="50"/>
+      <c r="Q329" s="50"/>
+      <c r="R329" s="50"/>
+      <c r="S329" s="50"/>
+      <c r="T329" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="U329" s="66"/>
+      <c r="V329" s="66"/>
+      <c r="W329" s="66"/>
+      <c r="X329" s="66"/>
+      <c r="Y329" s="66"/>
+      <c r="Z329" s="66"/>
+      <c r="AA329" s="67"/>
+      <c r="AB329" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC329" s="57"/>
+      <c r="AD329" s="57"/>
+      <c r="AE329" s="57"/>
+      <c r="AF329" s="57"/>
+      <c r="AG329" s="58"/>
     </row>
     <row r="330" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D330" s="15"/>
-      <c r="E330" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="F330" s="71"/>
-      <c r="G330" s="71"/>
-      <c r="H330" s="71"/>
-      <c r="I330" s="71"/>
-      <c r="J330" s="71"/>
-      <c r="K330" s="50" t="s">
+      <c r="E330" s="76"/>
+      <c r="F330" s="76"/>
+      <c r="G330" s="76"/>
+      <c r="H330" s="76"/>
+      <c r="I330" s="76"/>
+      <c r="J330" s="76"/>
+      <c r="K330" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="L330" s="55"/>
+      <c r="M330" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="L330" s="51"/>
-      <c r="M330" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="N330" s="44"/>
-      <c r="O330" s="44"/>
-      <c r="P330" s="44"/>
-      <c r="Q330" s="44"/>
-      <c r="R330" s="44"/>
-      <c r="S330" s="44"/>
-      <c r="T330" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="U330" s="62"/>
-      <c r="V330" s="62"/>
-      <c r="W330" s="62"/>
-      <c r="X330" s="62"/>
-      <c r="Y330" s="62"/>
-      <c r="Z330" s="62"/>
-      <c r="AA330" s="63"/>
-      <c r="AB330" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC330" s="53"/>
-      <c r="AD330" s="53"/>
-      <c r="AE330" s="53"/>
-      <c r="AF330" s="53"/>
-      <c r="AG330" s="54"/>
+      <c r="N330" s="50"/>
+      <c r="O330" s="50"/>
+      <c r="P330" s="50"/>
+      <c r="Q330" s="50"/>
+      <c r="R330" s="50"/>
+      <c r="S330" s="50"/>
+      <c r="T330" s="68"/>
+      <c r="U330" s="69"/>
+      <c r="V330" s="69"/>
+      <c r="W330" s="69"/>
+      <c r="X330" s="69"/>
+      <c r="Y330" s="69"/>
+      <c r="Z330" s="69"/>
+      <c r="AA330" s="70"/>
+      <c r="AB330" s="59"/>
+      <c r="AC330" s="60"/>
+      <c r="AD330" s="60"/>
+      <c r="AE330" s="60"/>
+      <c r="AF330" s="60"/>
+      <c r="AG330" s="61"/>
     </row>
     <row r="331" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D331" s="15"/>
-      <c r="E331" s="72"/>
-      <c r="F331" s="72"/>
-      <c r="G331" s="72"/>
-      <c r="H331" s="72"/>
-      <c r="I331" s="72"/>
-      <c r="J331" s="72"/>
-      <c r="K331" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="L331" s="51"/>
-      <c r="M331" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="N331" s="44"/>
-      <c r="O331" s="44"/>
-      <c r="P331" s="44"/>
-      <c r="Q331" s="44"/>
-      <c r="R331" s="44"/>
-      <c r="S331" s="44"/>
-      <c r="T331" s="64"/>
-      <c r="U331" s="65"/>
-      <c r="V331" s="65"/>
-      <c r="W331" s="65"/>
-      <c r="X331" s="65"/>
-      <c r="Y331" s="65"/>
-      <c r="Z331" s="65"/>
-      <c r="AA331" s="66"/>
-      <c r="AB331" s="55"/>
-      <c r="AC331" s="56"/>
-      <c r="AD331" s="56"/>
-      <c r="AE331" s="56"/>
-      <c r="AF331" s="56"/>
-      <c r="AG331" s="57"/>
+      <c r="E331" s="76"/>
+      <c r="F331" s="76"/>
+      <c r="G331" s="76"/>
+      <c r="H331" s="76"/>
+      <c r="I331" s="76"/>
+      <c r="J331" s="76"/>
+      <c r="K331" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="L331" s="55"/>
+      <c r="M331" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="N331" s="50"/>
+      <c r="O331" s="50"/>
+      <c r="P331" s="50"/>
+      <c r="Q331" s="50"/>
+      <c r="R331" s="50"/>
+      <c r="S331" s="50"/>
+      <c r="T331" s="68"/>
+      <c r="U331" s="69"/>
+      <c r="V331" s="69"/>
+      <c r="W331" s="69"/>
+      <c r="X331" s="69"/>
+      <c r="Y331" s="69"/>
+      <c r="Z331" s="69"/>
+      <c r="AA331" s="70"/>
+      <c r="AB331" s="59"/>
+      <c r="AC331" s="60"/>
+      <c r="AD331" s="60"/>
+      <c r="AE331" s="60"/>
+      <c r="AF331" s="60"/>
+      <c r="AG331" s="61"/>
     </row>
     <row r="332" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D332" s="15"/>
-      <c r="E332" s="72"/>
-      <c r="F332" s="72"/>
-      <c r="G332" s="72"/>
-      <c r="H332" s="72"/>
-      <c r="I332" s="72"/>
-      <c r="J332" s="72"/>
-      <c r="K332" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="L332" s="51"/>
-      <c r="M332" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N332" s="44"/>
-      <c r="O332" s="44"/>
-      <c r="P332" s="44"/>
-      <c r="Q332" s="44"/>
-      <c r="R332" s="44"/>
-      <c r="S332" s="44"/>
-      <c r="T332" s="64"/>
-      <c r="U332" s="65"/>
-      <c r="V332" s="65"/>
-      <c r="W332" s="65"/>
-      <c r="X332" s="65"/>
-      <c r="Y332" s="65"/>
-      <c r="Z332" s="65"/>
-      <c r="AA332" s="66"/>
-      <c r="AB332" s="55"/>
-      <c r="AC332" s="56"/>
-      <c r="AD332" s="56"/>
-      <c r="AE332" s="56"/>
-      <c r="AF332" s="56"/>
-      <c r="AG332" s="57"/>
-    </row>
-    <row r="333" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E332" s="77"/>
+      <c r="F332" s="77"/>
+      <c r="G332" s="77"/>
+      <c r="H332" s="77"/>
+      <c r="I332" s="77"/>
+      <c r="J332" s="77"/>
+      <c r="K332" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L332" s="55"/>
+      <c r="M332" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="N332" s="50"/>
+      <c r="O332" s="50"/>
+      <c r="P332" s="50"/>
+      <c r="Q332" s="50"/>
+      <c r="R332" s="50"/>
+      <c r="S332" s="50"/>
+      <c r="T332" s="71"/>
+      <c r="U332" s="72"/>
+      <c r="V332" s="72"/>
+      <c r="W332" s="72"/>
+      <c r="X332" s="72"/>
+      <c r="Y332" s="72"/>
+      <c r="Z332" s="72"/>
+      <c r="AA332" s="73"/>
+      <c r="AB332" s="62"/>
+      <c r="AC332" s="63"/>
+      <c r="AD332" s="63"/>
+      <c r="AE332" s="63"/>
+      <c r="AF332" s="63"/>
+      <c r="AG332" s="64"/>
+    </row>
+    <row r="333" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D333" s="15"/>
-      <c r="E333" s="73"/>
-      <c r="F333" s="73"/>
-      <c r="G333" s="73"/>
-      <c r="H333" s="73"/>
-      <c r="I333" s="73"/>
-      <c r="J333" s="73"/>
-      <c r="K333" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="L333" s="51"/>
-      <c r="M333" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="N333" s="44"/>
-      <c r="O333" s="44"/>
-      <c r="P333" s="44"/>
-      <c r="Q333" s="44"/>
-      <c r="R333" s="44"/>
-      <c r="S333" s="44"/>
-      <c r="T333" s="67"/>
-      <c r="U333" s="68"/>
-      <c r="V333" s="68"/>
-      <c r="W333" s="68"/>
-      <c r="X333" s="68"/>
-      <c r="Y333" s="68"/>
-      <c r="Z333" s="68"/>
-      <c r="AA333" s="69"/>
-      <c r="AB333" s="58"/>
-      <c r="AC333" s="59"/>
-      <c r="AD333" s="59"/>
-      <c r="AE333" s="59"/>
-      <c r="AF333" s="59"/>
-      <c r="AG333" s="60"/>
-    </row>
-    <row r="334" spans="4:33" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E333" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F333" s="74"/>
+      <c r="G333" s="74"/>
+      <c r="H333" s="74"/>
+      <c r="I333" s="74"/>
+      <c r="J333" s="74"/>
+      <c r="K333" s="74"/>
+      <c r="L333" s="55"/>
+      <c r="M333" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="N333" s="50"/>
+      <c r="O333" s="50"/>
+      <c r="P333" s="50"/>
+      <c r="Q333" s="50"/>
+      <c r="R333" s="50"/>
+      <c r="S333" s="50"/>
+      <c r="T333" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="U333" s="52"/>
+      <c r="V333" s="52"/>
+      <c r="W333" s="52"/>
+      <c r="X333" s="52"/>
+      <c r="Y333" s="52"/>
+      <c r="Z333" s="52"/>
+      <c r="AA333" s="53"/>
+      <c r="AB333" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC333" s="50"/>
+      <c r="AD333" s="50"/>
+      <c r="AE333" s="50"/>
+      <c r="AF333" s="50"/>
+      <c r="AG333" s="50"/>
+    </row>
+    <row r="334" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D334" s="15"/>
-      <c r="E334" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F334" s="70"/>
-      <c r="G334" s="70"/>
-      <c r="H334" s="70"/>
-      <c r="I334" s="70"/>
-      <c r="J334" s="70"/>
-      <c r="K334" s="70"/>
-      <c r="L334" s="51"/>
-      <c r="M334" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="N334" s="44"/>
-      <c r="O334" s="44"/>
-      <c r="P334" s="44"/>
-      <c r="Q334" s="44"/>
-      <c r="R334" s="44"/>
-      <c r="S334" s="44"/>
-      <c r="T334" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="U334" s="46"/>
-      <c r="V334" s="46"/>
-      <c r="W334" s="46"/>
-      <c r="X334" s="46"/>
-      <c r="Y334" s="46"/>
-      <c r="Z334" s="46"/>
-      <c r="AA334" s="47"/>
-      <c r="AB334" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC334" s="44"/>
-      <c r="AD334" s="44"/>
-      <c r="AE334" s="44"/>
-      <c r="AF334" s="44"/>
-      <c r="AG334" s="44"/>
+      <c r="E334" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F334" s="74"/>
+      <c r="G334" s="74"/>
+      <c r="H334" s="74"/>
+      <c r="I334" s="74"/>
+      <c r="J334" s="74"/>
+      <c r="K334" s="74"/>
+      <c r="L334" s="55"/>
+      <c r="M334" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N334" s="50"/>
+      <c r="O334" s="50"/>
+      <c r="P334" s="50"/>
+      <c r="Q334" s="50"/>
+      <c r="R334" s="50"/>
+      <c r="S334" s="50"/>
+      <c r="T334" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="U334" s="50"/>
+      <c r="V334" s="50"/>
+      <c r="W334" s="50"/>
+      <c r="X334" s="50"/>
+      <c r="Y334" s="50"/>
+      <c r="Z334" s="50"/>
+      <c r="AA334" s="50"/>
+      <c r="AB334" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC334" s="50"/>
+      <c r="AD334" s="50"/>
+      <c r="AE334" s="50"/>
+      <c r="AF334" s="50"/>
+      <c r="AG334" s="50"/>
     </row>
     <row r="335" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D335" s="15"/>
-      <c r="E335" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F335" s="70"/>
-      <c r="G335" s="70"/>
-      <c r="H335" s="70"/>
-      <c r="I335" s="70"/>
-      <c r="J335" s="70"/>
-      <c r="K335" s="70"/>
-      <c r="L335" s="51"/>
-      <c r="M335" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="N335" s="44"/>
-      <c r="O335" s="44"/>
-      <c r="P335" s="44"/>
-      <c r="Q335" s="44"/>
-      <c r="R335" s="44"/>
-      <c r="S335" s="44"/>
-      <c r="T335" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="U335" s="44"/>
-      <c r="V335" s="44"/>
-      <c r="W335" s="44"/>
-      <c r="X335" s="44"/>
-      <c r="Y335" s="44"/>
-      <c r="Z335" s="44"/>
-      <c r="AA335" s="44"/>
-      <c r="AB335" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC335" s="44"/>
-      <c r="AD335" s="44"/>
-      <c r="AE335" s="44"/>
-      <c r="AF335" s="44"/>
-      <c r="AG335" s="44"/>
+      <c r="E335" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="F335" s="75"/>
+      <c r="G335" s="75"/>
+      <c r="H335" s="75"/>
+      <c r="I335" s="75"/>
+      <c r="J335" s="75"/>
+      <c r="K335" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L335" s="55"/>
+      <c r="M335" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="N335" s="48"/>
+      <c r="O335" s="48"/>
+      <c r="P335" s="48"/>
+      <c r="Q335" s="48"/>
+      <c r="R335" s="48"/>
+      <c r="S335" s="49"/>
+      <c r="T335" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="U335" s="48"/>
+      <c r="V335" s="48"/>
+      <c r="W335" s="48"/>
+      <c r="X335" s="48"/>
+      <c r="Y335" s="48"/>
+      <c r="Z335" s="48"/>
+      <c r="AA335" s="48"/>
+      <c r="AB335" s="48"/>
+      <c r="AC335" s="48"/>
+      <c r="AD335" s="48"/>
+      <c r="AE335" s="48"/>
+      <c r="AF335" s="48"/>
+      <c r="AG335" s="49"/>
     </row>
     <row r="336" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D336" s="15"/>
-      <c r="E336" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="F336" s="71"/>
-      <c r="G336" s="71"/>
-      <c r="H336" s="71"/>
-      <c r="I336" s="71"/>
-      <c r="J336" s="71"/>
-      <c r="K336" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="L336" s="51"/>
-      <c r="M336" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="N336" s="42"/>
-      <c r="O336" s="42"/>
-      <c r="P336" s="42"/>
-      <c r="Q336" s="42"/>
-      <c r="R336" s="42"/>
-      <c r="S336" s="43"/>
-      <c r="T336" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="U336" s="42"/>
-      <c r="V336" s="42"/>
-      <c r="W336" s="42"/>
-      <c r="X336" s="42"/>
-      <c r="Y336" s="42"/>
-      <c r="Z336" s="42"/>
-      <c r="AA336" s="42"/>
-      <c r="AB336" s="42"/>
-      <c r="AC336" s="42"/>
-      <c r="AD336" s="42"/>
-      <c r="AE336" s="42"/>
-      <c r="AF336" s="42"/>
-      <c r="AG336" s="43"/>
+      <c r="E336" s="76"/>
+      <c r="F336" s="76"/>
+      <c r="G336" s="76"/>
+      <c r="H336" s="76"/>
+      <c r="I336" s="76"/>
+      <c r="J336" s="76"/>
+      <c r="K336" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="L336" s="55"/>
+      <c r="M336" s="47"/>
+      <c r="N336" s="48"/>
+      <c r="O336" s="48"/>
+      <c r="P336" s="48"/>
+      <c r="Q336" s="48"/>
+      <c r="R336" s="48"/>
+      <c r="S336" s="49"/>
+      <c r="T336" s="47"/>
+      <c r="U336" s="48"/>
+      <c r="V336" s="48"/>
+      <c r="W336" s="48"/>
+      <c r="X336" s="48"/>
+      <c r="Y336" s="48"/>
+      <c r="Z336" s="48"/>
+      <c r="AA336" s="48"/>
+      <c r="AB336" s="48"/>
+      <c r="AC336" s="48"/>
+      <c r="AD336" s="48"/>
+      <c r="AE336" s="48"/>
+      <c r="AF336" s="48"/>
+      <c r="AG336" s="49"/>
     </row>
     <row r="337" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D337" s="15"/>
-      <c r="E337" s="72"/>
-      <c r="F337" s="72"/>
-      <c r="G337" s="72"/>
-      <c r="H337" s="72"/>
-      <c r="I337" s="72"/>
-      <c r="J337" s="72"/>
-      <c r="K337" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="L337" s="51"/>
-      <c r="M337" s="41"/>
-      <c r="N337" s="42"/>
-      <c r="O337" s="42"/>
-      <c r="P337" s="42"/>
-      <c r="Q337" s="42"/>
-      <c r="R337" s="42"/>
-      <c r="S337" s="43"/>
-      <c r="T337" s="41"/>
-      <c r="U337" s="42"/>
-      <c r="V337" s="42"/>
-      <c r="W337" s="42"/>
-      <c r="X337" s="42"/>
-      <c r="Y337" s="42"/>
-      <c r="Z337" s="42"/>
-      <c r="AA337" s="42"/>
-      <c r="AB337" s="42"/>
-      <c r="AC337" s="42"/>
-      <c r="AD337" s="42"/>
-      <c r="AE337" s="42"/>
-      <c r="AF337" s="42"/>
-      <c r="AG337" s="43"/>
+      <c r="E337" s="77"/>
+      <c r="F337" s="77"/>
+      <c r="G337" s="77"/>
+      <c r="H337" s="77"/>
+      <c r="I337" s="77"/>
+      <c r="J337" s="77"/>
+      <c r="K337" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="L337" s="55"/>
+      <c r="M337" s="47"/>
+      <c r="N337" s="48"/>
+      <c r="O337" s="48"/>
+      <c r="P337" s="48"/>
+      <c r="Q337" s="48"/>
+      <c r="R337" s="48"/>
+      <c r="S337" s="49"/>
+      <c r="T337" s="47"/>
+      <c r="U337" s="48"/>
+      <c r="V337" s="48"/>
+      <c r="W337" s="48"/>
+      <c r="X337" s="48"/>
+      <c r="Y337" s="48"/>
+      <c r="Z337" s="48"/>
+      <c r="AA337" s="48"/>
+      <c r="AB337" s="48"/>
+      <c r="AC337" s="48"/>
+      <c r="AD337" s="48"/>
+      <c r="AE337" s="48"/>
+      <c r="AF337" s="48"/>
+      <c r="AG337" s="49"/>
     </row>
     <row r="338" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D338" s="15"/>
-      <c r="E338" s="73"/>
-      <c r="F338" s="73"/>
-      <c r="G338" s="73"/>
-      <c r="H338" s="73"/>
-      <c r="I338" s="73"/>
-      <c r="J338" s="73"/>
-      <c r="K338" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="L338" s="51"/>
-      <c r="M338" s="41"/>
-      <c r="N338" s="42"/>
-      <c r="O338" s="42"/>
-      <c r="P338" s="42"/>
-      <c r="Q338" s="42"/>
-      <c r="R338" s="42"/>
-      <c r="S338" s="43"/>
-      <c r="T338" s="41"/>
-      <c r="U338" s="42"/>
-      <c r="V338" s="42"/>
-      <c r="W338" s="42"/>
-      <c r="X338" s="42"/>
-      <c r="Y338" s="42"/>
-      <c r="Z338" s="42"/>
-      <c r="AA338" s="42"/>
-      <c r="AB338" s="42"/>
-      <c r="AC338" s="42"/>
-      <c r="AD338" s="42"/>
-      <c r="AE338" s="42"/>
-      <c r="AF338" s="42"/>
-      <c r="AG338" s="43"/>
     </row>
     <row r="339" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D339" s="15"/>
@@ -6583,9 +6705,7 @@
     <row r="340" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D340" s="15"/>
     </row>
-    <row r="341" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D341" s="15"/>
-    </row>
+    <row r="341" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="342" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="343" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="344" spans="4:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7016,7 +7136,6 @@
     <row r="769" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="770" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="771" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="78">
     <mergeCell ref="J18:M18"/>
@@ -7032,90 +7151,93 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="H288:K288"/>
+    <mergeCell ref="E329:J329"/>
+    <mergeCell ref="E330:J330"/>
+    <mergeCell ref="E332:J332"/>
+    <mergeCell ref="M328:S328"/>
+    <mergeCell ref="E331:J331"/>
+    <mergeCell ref="K335:L335"/>
+    <mergeCell ref="K336:L336"/>
+    <mergeCell ref="K337:L337"/>
+    <mergeCell ref="E333:L333"/>
+    <mergeCell ref="E334:L334"/>
+    <mergeCell ref="E335:J335"/>
+    <mergeCell ref="E336:J336"/>
+    <mergeCell ref="E337:J337"/>
+    <mergeCell ref="T327:AG327"/>
+    <mergeCell ref="M327:S327"/>
+    <mergeCell ref="K329:L329"/>
+    <mergeCell ref="K330:L330"/>
+    <mergeCell ref="K332:L332"/>
+    <mergeCell ref="AB328:AG328"/>
+    <mergeCell ref="T328:AA328"/>
+    <mergeCell ref="AB329:AG332"/>
+    <mergeCell ref="T329:AA332"/>
+    <mergeCell ref="K331:L331"/>
+    <mergeCell ref="M335:S337"/>
+    <mergeCell ref="T335:AG337"/>
+    <mergeCell ref="M329:S329"/>
+    <mergeCell ref="M330:S330"/>
+    <mergeCell ref="M332:S332"/>
+    <mergeCell ref="M333:S333"/>
+    <mergeCell ref="M334:S334"/>
+    <mergeCell ref="AB333:AG333"/>
+    <mergeCell ref="AB334:AG334"/>
+    <mergeCell ref="T333:AA333"/>
+    <mergeCell ref="T334:AA334"/>
+    <mergeCell ref="M331:S331"/>
+    <mergeCell ref="H283:K283"/>
     <mergeCell ref="L283:AA283"/>
-    <mergeCell ref="L288:AA288"/>
+    <mergeCell ref="H284:K284"/>
     <mergeCell ref="L284:AA285"/>
-    <mergeCell ref="L286:AA287"/>
-    <mergeCell ref="H283:K283"/>
-    <mergeCell ref="H284:K284"/>
     <mergeCell ref="H285:K285"/>
     <mergeCell ref="H286:K286"/>
+    <mergeCell ref="L286:AA287"/>
     <mergeCell ref="H287:K287"/>
+    <mergeCell ref="H288:K288"/>
+    <mergeCell ref="L288:AA288"/>
     <mergeCell ref="H291:J291"/>
+    <mergeCell ref="K291:U291"/>
     <mergeCell ref="H292:J292"/>
+    <mergeCell ref="K292:U292"/>
     <mergeCell ref="H293:J293"/>
+    <mergeCell ref="K293:U293"/>
     <mergeCell ref="H294:J294"/>
+    <mergeCell ref="K294:U294"/>
     <mergeCell ref="H295:J295"/>
-    <mergeCell ref="K291:U291"/>
-    <mergeCell ref="K292:U292"/>
-    <mergeCell ref="K293:U293"/>
-    <mergeCell ref="K294:U294"/>
     <mergeCell ref="K295:U295"/>
     <mergeCell ref="H298:J298"/>
-    <mergeCell ref="H299:J299"/>
-    <mergeCell ref="H300:J300"/>
-    <mergeCell ref="H301:J301"/>
     <mergeCell ref="K298:U298"/>
-    <mergeCell ref="K299:U299"/>
-    <mergeCell ref="K300:U300"/>
-    <mergeCell ref="K301:U301"/>
-    <mergeCell ref="E330:J330"/>
-    <mergeCell ref="E331:J331"/>
-    <mergeCell ref="E333:J333"/>
     <mergeCell ref="I305:M305"/>
     <mergeCell ref="H306:H309"/>
-    <mergeCell ref="M329:S329"/>
-    <mergeCell ref="E332:J332"/>
-    <mergeCell ref="K336:L336"/>
-    <mergeCell ref="K337:L337"/>
-    <mergeCell ref="K338:L338"/>
-    <mergeCell ref="E334:L334"/>
-    <mergeCell ref="E335:L335"/>
-    <mergeCell ref="E336:J336"/>
-    <mergeCell ref="E337:J337"/>
-    <mergeCell ref="E338:J338"/>
-    <mergeCell ref="T328:AG328"/>
-    <mergeCell ref="M328:S328"/>
-    <mergeCell ref="K330:L330"/>
-    <mergeCell ref="K331:L331"/>
-    <mergeCell ref="K333:L333"/>
-    <mergeCell ref="AB329:AG329"/>
-    <mergeCell ref="T329:AA329"/>
-    <mergeCell ref="AB330:AG333"/>
-    <mergeCell ref="T330:AA333"/>
-    <mergeCell ref="K332:L332"/>
-    <mergeCell ref="M336:S338"/>
-    <mergeCell ref="T336:AG338"/>
-    <mergeCell ref="M330:S330"/>
-    <mergeCell ref="M331:S331"/>
-    <mergeCell ref="M333:S333"/>
-    <mergeCell ref="M334:S334"/>
-    <mergeCell ref="M335:S335"/>
-    <mergeCell ref="AB334:AG334"/>
-    <mergeCell ref="AB335:AG335"/>
-    <mergeCell ref="T334:AA334"/>
-    <mergeCell ref="T335:AA335"/>
-    <mergeCell ref="M332:S332"/>
+    <mergeCell ref="H299:J299"/>
+    <mergeCell ref="K299:U299"/>
+    <mergeCell ref="H300:J300"/>
+    <mergeCell ref="K300:U300"/>
+    <mergeCell ref="H301:J301"/>
+    <mergeCell ref="K301:U301"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:M22 J18:M18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:M22 J18:M18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"ベーシック認証,フォーム認証,OpenID認証,OAuth認証,OpenID Connect認証,カスタム認証,"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G269" r:id="rId1" xr:uid="{9F69039C-188E-4DF3-A368-DDAD525CFD56}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="8" manualBreakCount="8">
     <brk id="42" max="34" man="1"/>
     <brk id="77" max="34" man="1"/>
     <brk id="114" max="34" man="1"/>
     <brk id="150" max="34" man="1"/>
-    <brk id="193" max="34" man="1"/>
-    <brk id="235" max="34" man="1"/>
-    <brk id="270" max="34" man="1"/>
-    <brk id="311" max="34" man="1"/>
+    <brk id="191" max="34" man="1"/>
+    <brk id="233" max="34" man="1"/>
+    <brk id="276" max="34" man="1"/>
+    <brk id="310" max="34" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>